--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$L$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$81</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="397">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Display requirements</t>
   </si>
   <si>
-    <t>PEPPOL Examples</t>
-  </si>
-  <si>
     <t>Usage notes</t>
   </si>
   <si>
@@ -114,13 +111,6 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>1) Number of characters: 9 characters ("SIREN") 14 " 9+5 ("SIRET"), The 9 character number designates an organization, The 14 character number designates a specific establishment of the organization designated by the first 9 characters. 2) Check digits: 9th &amp; 14th character respectively</t>
-  </si>
-  <si>
-    <t>The 9 figure code number (SIREN) is written in groups of 3 characters. Example: 784 301 772, The 14 figure code number is written in 3 groups of 3 characters and a
-single group of 5. Example: 784 301 772 00025</t>
-  </si>
-  <si>
     <t>1.1.1 - Changed from FR:SIRET to FR:SIRENE (see ISU Jira ISU-231)</t>
   </si>
   <si>
@@ -139,9 +129,6 @@
     <t>The National Tax Board</t>
   </si>
   <si>
-    <t>1) 10 digits. 1st digit = Group number, 2nd - 9th digit = Ordinalnumber1st digit, = Group number, 10th digit = Check digit, 2) Last digit.</t>
-  </si>
-  <si>
     <t>Single group of 10 digits.</t>
   </si>
   <si>
@@ -160,9 +147,6 @@
     <t>1.1.1</t>
   </si>
   <si>
-    <t>1) 14 digits, 2) None</t>
-  </si>
-  <si>
     <t>In four groups, Groups 1 - 3 = three digits each, Group 4 = five digits</t>
   </si>
   <si>
@@ -181,23 +165,9 @@
     <t>National Board of Taxes, (Verohallitus)</t>
   </si>
   <si>
-    <t>1) ICD 4 Digits, Organization code upto 11 characters, Organization name upto 250 characters, 2) None
-- Example: 00371234567800001
-- 0037 Country code for Finland (ISO 6523  International Code Designator (ICD) value)
-- 12345678 Business ID without hyphen 
-- 00001 Optional specifier for organisation unit (assigned by the organisation itself)</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>OVT identifier conforming to standard ISO6523.   
-- Constant 0037 (Finnish tax administration organisation code)
-- Finnish local tax ID, 8 characters with initial zero and no hyphen
-- Free-format 5 characters, for example profit center.  
-Example: 003710948874</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -213,12 +183,6 @@
     <t>Dun and Bradstreet Ltd</t>
   </si>
   <si>
-    <t>1) 8 digits, 1st-7th digit = number, 8th digit = check number, 2) digit</t>
-  </si>
-  <si>
-    <t>Single group of 8 digits</t>
-  </si>
-  <si>
     <t>GLN</t>
   </si>
   <si>
@@ -231,9 +195,6 @@
     <t>GS1 GLN</t>
   </si>
   <si>
-    <t>1) Eight identification digits and a check digit. A two digit prefix will be added in the future but it will not be used to calculate the check digit. 2) The Organization name is not part of the D-U-N-S number.</t>
-  </si>
-  <si>
     <t>IIIIIIIIC where all characters are the digits 0, to 9, I = an identification digit and C = the check digit. When the prefix (P) is added the display requirement will be eleven digits, PPIIIIIIIIC.</t>
   </si>
   <si>
@@ -265,9 +226,6 @@
   </si>
   <si>
     <t>FTI - Ediforum Italia</t>
-  </si>
-  <si>
-    <t>Character repertoire, The EDI identifier consists of digits only. The identifier has a fixed length. No separators are required. Structure: [123] [123456] [123456] [12], 17, &lt; &gt;, A B C D, A: numerical value allocated by the RA to the regional sub-authority, (3 digits), B: numerical value allocated by the sub-authority to the registered organization (mandatory part of the identifier; 6 digits), C: numerical value used by the registered organization (free part; 6 digits), D: numerical check digit calculated by the registered organization; (2 digits), Check digit computation, The check digit is modular 97 computed on ABC as one number.</t>
   </si>
   <si>
     <t>NL:KVK</t>
@@ -566,11 +524,6 @@
   </si>
   <si>
     <t>TAX Authority</t>
-  </si>
-  <si>
-    <t>RSSBBR69C48F839A
-NOTE: The "CF" is a Fiscal Code that can be "personal" or for a "legal entity".
-The CF for legal entities is like the Italian VAT code (IT:VAT)</t>
   </si>
   <si>
     <t>NO:ORGNR</t>
@@ -1246,6 +1199,145 @@
   </si>
   <si>
     <t>LEI</t>
+  </si>
+  <si>
+    <t>RSSBBR69C48F839A</t>
+  </si>
+  <si>
+    <t>NOTE: The "CF" is a Fiscal Code that can be "personal" or for a "legal entity".
+The CF for legal entities is like the Italian VAT code (IT:VAT)</t>
+  </si>
+  <si>
+    <t>OVT identifier conforming to standard ISO6523.   
+- Constant 0037 (Finnish tax administration organisation code)
+- Finnish local tax ID, 8 characters with initial zero and no hyphen
++K4:K5</t>
+  </si>
+  <si>
+    <t>Validation Rules</t>
+  </si>
+  <si>
+    <t>1) Number of characters: 9 characters ("SIREN") 14 " 9+5 ("SIRET"), The 9 character number designates an organization, The 14 character number designates a specific establishment of the organization designated by the first 9 characters.
+2) Check digits: 9th &amp; 14th character respectively</t>
+  </si>
+  <si>
+    <t>784301772
+78430177200025</t>
+  </si>
+  <si>
+    <t>The 9 figure code number (SIREN) is written in groups of 3 characters. Example: 784 301 772
+The 14 figure code number is written in 3 groups of 3 characters and a single group of 5. Example: 784 301 772 00025</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{14}</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}([0-9]{5})?
+Check digits: Luhn Algorithm</t>
+  </si>
+  <si>
+    <t>1) 14 digits
+2) None</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{10}
+Check digits: Luhn Algorithm</t>
+  </si>
+  <si>
+    <t>1) 10 digits. 1st digit = Group number, 2nd - 9th digit = Ordinalnumber; 1st digit, = Group number, 10th digit = Check digit
+2) Last digit.</t>
+  </si>
+  <si>
+    <t>2120000787</t>
+  </si>
+  <si>
+    <t>Example Values</t>
+  </si>
+  <si>
+    <t>78430177200025</t>
+  </si>
+  <si>
+    <t>0037:00371234567800001
+0037:1234567800001</t>
+  </si>
+  <si>
+    <t>1) ICD 4 Digits, Organization code (8 digits, 1st-7th digit = number, 8th digit = check number), optional specifier for organisational unit (5 digits)
+- Example: 00371234567800001
+- 0037 Country code for Finland (ISO 6523  International Code Designator (ICD) value)
+- 12345678 Business ID without hyphen 
+- 00001 Optional specifier for organisation unit (assigned by the organisation itself)</t>
+  </si>
+  <si>
+    <t>1) Eight identification digits and a check digit. A two digit prefix will be added in the future but it will not be used to calculate the check digit.
+2) The Organization name is not part of the D-U-N-S number.</t>
+  </si>
+  <si>
+    <t>812810734</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}</t>
+  </si>
+  <si>
+    <t>Check digits were removed to get a bigger number area
+UPIK search to validate DUNS numbers
+"D&amp;B Direct 2.0" API available</t>
+  </si>
+  <si>
+    <t>1548079098355</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{13}
+Check Digit: mod10 (weights 1, 3)</t>
+  </si>
+  <si>
+    <t>RegEx: 0037[0-9]{8}[0-9A-Z]{0,5}
+Check Digit: mod11 of 8-digit OrgCode (weights 2, 4, 8, 5, 10, 9, 7 [right to left] or 7, 9, 10, 5, 8, 4, 2, 1 [left to right])</t>
+  </si>
+  <si>
+    <t>GLN-13 are the only supports supported atm</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{17}
+Check Digits: mod97</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{11,16}
+The check digit algorithm is the one published in the Gazzetta Ufficiale no 345 of December 29 1976.</t>
+  </si>
+  <si>
+    <t>We couldn't find the checksum algorithm in the scanned PDF of 1976</t>
+  </si>
+  <si>
+    <t>Character repertoire: The EDI identifier consists of digits only.
+The identifier has a fixed length.
+No separators are required.
+Structure: [1234567] [123] [1] [12345], min 11- max 16, &lt; &gt;, A B C D
+A: numerical value (7 digits) assigned by Uffico Provinciale IVA (local branch of Ministry of Finance)
+B: numerical value a (3 digits) identifying the County
+C: numerical check digit (1 digit);
+D: optional numerical value (up to 5 digits used by the registered organization (free part).
+Check digit computation: The check digit algorithm is the one published in the Gazzetta Ufficiale no 345 of December 29 1976.</t>
+  </si>
+  <si>
+    <t>Character repertoire: The EDI identifier consists of digits only.
+The identifier has a fixed length.
+No separators are required.
+Structure: [123] [123456] [123456] [12], 17, &lt; &gt;, A B C D
+A: numerical value allocated by the RA to the regional subauthority, (3 digits)
+B: numerical value allocated by the sub-authority to the registered, organization (mandatory part of the identifier; 6 digits)
+C: numerical value used by the registered organization (free part; 6 digits)
+D: numerical check digit calculated by the registered organization; (2 digits)
+Check digit computation, The check digit is modular 97 computed on ABC as one number.</t>
+  </si>
+  <si>
+    <t>Character repertoire: the EDI identifier consists of digits only.
+The identifier has a fixed length. No separators are required.
+Structure: [123] [123456] [123456] [12], 17, &lt; &gt;, A B C D
+A: numerical value allocated by the RA to the regional sub-authority, (3 digits)
+B: numerical value allocated by the sub-authority to the registered organization (mandatory part of the identifier; 6 digits)
+C: numerical value used by the registered organization (free part; 6 digits)
+D: numerical check digit calculated by the registered organization; (2 digits)
+Check digit computation: The check digit is modular 97 computed on ABC as one number.</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1351,6 +1443,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1645,11 +1740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK81"/>
+  <dimension ref="A1:AML81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:D24"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1664,12 +1761,13 @@
     <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="67.81640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="30.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="14.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.08984375" style="1" customWidth="1"/>
+    <col min="14" max="1026" width="14.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1700,1280 +1798,1343 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="87">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="101.5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="43.5">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="29">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K3" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="29">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="29">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="K4" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="116">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="130.5">
-      <c r="A5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="K5" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="72.5">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="29">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="145">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="72.5">
-      <c r="A7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="174">
+      <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="159.5">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="116">
-      <c r="A9" s="1" t="s">
+      <c r="G10" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="58">
-      <c r="A10" s="1" t="s">
+      <c r="G11" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="J11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="130.5">
+      <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29">
-      <c r="A11" s="1" t="s">
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="J13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="130.5">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="130.5">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+      <c r="G14" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="130.5">
-      <c r="A14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="145">
+    </row>
+    <row r="15" spans="1:13" ht="145">
       <c r="A15" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>348</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="29">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="58">
+      <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="29">
-      <c r="A18" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43.5">
+      <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="58">
-      <c r="A19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="G20" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="29">
+      <c r="A21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="43.5">
-      <c r="A20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29">
-      <c r="A21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:13" ht="29">
       <c r="A23" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="174">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="174">
       <c r="A24" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="72.5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="72.5">
       <c r="A25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="29">
+      <c r="A26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="29">
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="29">
+      <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="29">
-      <c r="A26" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="29">
-      <c r="A27" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="29">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:13" ht="116">
+      <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="29">
+      <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="29">
+      <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="87">
-      <c r="A31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="29">
-      <c r="A32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="29">
-      <c r="A33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K33" s="3">
+        <v>158</v>
+      </c>
+      <c r="K33" s="1">
         <v>990399123</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="K34" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="E36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="29">
+      <c r="A37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="29">
+      <c r="A38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="29">
-      <c r="A37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="29">
-      <c r="A38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="29">
+    <row r="39" spans="1:13" ht="29">
       <c r="A39" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="43.5">
+        <v>66</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="43.5">
       <c r="A41" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G41" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="29">
+      <c r="A43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="29">
-      <c r="A43" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G43" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G44" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G45" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G46" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G47" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G48" s="2">
         <f>0</f>
@@ -2982,20 +3143,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G49" s="2">
         <f>0</f>
@@ -3004,20 +3165,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G50" s="2">
         <f>0</f>
@@ -3026,19 +3187,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G51" s="2">
         <f>0</f>
@@ -3047,20 +3208,20 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E52"/>
       <c r="F52" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G52" s="2">
         <f>0</f>
@@ -3069,20 +3230,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G53" s="2">
         <f>0</f>
@@ -3091,20 +3252,20 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G54" s="2">
         <f>0</f>
@@ -3113,20 +3274,20 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G55" s="2">
         <f>0</f>
@@ -3135,20 +3296,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G56" s="2">
         <f>0</f>
@@ -3157,20 +3318,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G57" s="2">
         <f>0</f>
@@ -3179,20 +3340,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G58" s="2">
         <f>0</f>
@@ -3201,20 +3362,20 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G59" s="2">
         <f>0</f>
@@ -3223,20 +3384,20 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G60" s="2">
         <f>0</f>
@@ -3245,20 +3406,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G61" s="2">
         <f>0</f>
@@ -3267,20 +3428,20 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G62" s="2">
         <f>0</f>
@@ -3289,20 +3450,20 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G63" s="2">
         <f>0</f>
@@ -3311,411 +3472,413 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G64" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="29">
+    <row r="65" spans="1:13" ht="29">
       <c r="A65" s="9" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G65" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="9" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G66" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G67" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" s="9" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G68" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="9" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G69" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G70" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G71" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G72" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G73" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G74" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G75" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G76" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G77" s="2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G78" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="29">
+      <c r="A79" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="43.5">
+      <c r="A81" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G78" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="29">
-      <c r="A79" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="43.5">
-      <c r="A81" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G81" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>357</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L81"/>
+  <autoFilter ref="A1:M81">
+    <filterColumn colId="11"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="427">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -277,10 +277,6 @@
     <t>SIA-Società Interbancaria per l'Automazione S.p.A.</t>
   </si>
   <si>
-    <t>Structure of EDI identifier, Character repertoire, The EDI identifier consists of digits only. The identifier has a fixed length. No separators are required. Structure:
-[1234567] [123] [1] [12345], min 11- max 16, &lt; &gt;, A B C D, A: numerical value (7 digits) assigned by Uffico Provinciale IVA (local branch of Ministry of Finance); B: numerical value a (3 digits) identifying the County; C: numerical check digit (1 digit); D: optional numerical value (up to 5 digits0 used by the registered organization (free part). Check digit computation, The check digit algorithm is the one published in the Gazzetta Ufficiale no 345 of December 29 1976.</t>
-  </si>
-  <si>
     <t>IT:SECETI</t>
   </si>
   <si>
@@ -314,9 +310,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>The ABN is an 11 digit numeric identifier. The first two digits are check digits calculated using a modulus 89 of the weighted digits. The first digit of the number is guaranteed to be non-zero by adding 10 to the modulus (so the first two digits range from 10 through to 99). For companies the last 9 digits are identical to their existing Australian Company Number (CAN) which includes a single trailing check digit. For other entities the digits are randomly allocated but are guaranteed to fail the CAN check. This allows the Australian Securities and Investment Commission (ASIC) to continue allocating CAN during a transition period. The valid characters are numeric digits 0-9.</t>
-  </si>
-  <si>
     <t>It is displayed as follows: -, XX XXX XXX XXX</t>
   </si>
   <si>
@@ -332,9 +325,6 @@
     <t>1.2.1</t>
   </si>
   <si>
-    <t>Defined by Danish Agency for Digitisation</t>
-  </si>
-  <si>
     <t>NL:OINO</t>
   </si>
   <si>
@@ -363,9 +353,6 @@
   </si>
   <si>
     <t>Centre of Registers and Information Systems of the Ministry of Justice</t>
-  </si>
-  <si>
-    <t>Always 8-digit number</t>
   </si>
   <si>
     <t>NO:ORG</t>
@@ -414,9 +401,6 @@
   </si>
   <si>
     <t>0195</t>
-  </si>
-  <si>
-    <t>SG</t>
   </si>
   <si>
     <t>Singapore Nationwide E-Invoice Framework</t>
@@ -1187,17 +1171,6 @@
     <t>The entire 20 character code (including the check digits)</t>
   </si>
   <si>
-    <t>The ISO 17442 standard specifies the minimum reference data, which must the format of the organization identifiers, be Supplied for each LEI:
-* The official name of the legal entity as recorded in the official registers.
-* The registered address of that legal entity.
-* The country of formation.
-* The codes for the representation of names of countries and their subdivisions.
-* The date of the first LEI assignment; the date of last update of the
-* LEI information; and the date of expiry, if applicable.
-Additional information may be registered as agreed between the legal entity and its LEI issuing organization.
-etc. - see ICD sheet for further information</t>
-  </si>
-  <si>
     <t>LEI</t>
   </si>
   <si>
@@ -1338,6 +1311,197 @@
 C: numerical value used by the registered organization (free part; 6 digits)
 D: numerical check digit calculated by the registered organization; (2 digits)
 Check digit computation: The check digit is modular 97 computed on ABC as one number.</t>
+  </si>
+  <si>
+    <t>Requested by TICC-10 and TICC-11;
+in SML since 2019-08-23</t>
+  </si>
+  <si>
+    <t>Real numbers seem to be 8 characters</t>
+  </si>
+  <si>
+    <t>Propose to deprecate</t>
+  </si>
+  <si>
+    <t>The ABN is an 11 digit numeric identifier.
+The first two digits are check digits calculated using a modulus 89 of the weighted digits.
+The first digit of the number is guaranteed to be non-zero by adding 10 to the modulus (so the first two digits range from 10 through to 99).
+For companies the last 9 digits are identical to their existing Australian Company Number (CAN) which includes a single trailing check digit.
+For other entities the digits are randomly allocated but are guaranteed to fail the CAN check. This allows the Australian Securities and Investment Commission (ASIC) to continue allocating CAN during a transition period. The valid characters are numeric digits 0-9.</t>
+  </si>
+  <si>
+    <t>https://abr.business.gov.au/Help/AbnFormat</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{11}
+Check number: mod 89 (weights)
+* Subtract 1 from the first (left-most) digit of the ABN to give a new 11 digit number
+* Multiply each of the digits in this new number by a "weighting factor" based on its position as shown in the table below
+*Sum the resulting 11 products
+* Divide the sum total by 89, noting the remainder
+* If the remainder is zero the number is a valid ABN
+Weight: 10, 1, 3, 5, 7, 9, 11, 13, 15, 17, 19</t>
+  </si>
+  <si>
+    <t>51 824 753 556</t>
+  </si>
+  <si>
+    <t>RegEx: CHE[0-9]{9}
+Check number: mod11 (weights: 5, 4, 3, 2, 7, 6, 5, 4)</t>
+  </si>
+  <si>
+    <t>8 or 10 digits</t>
+  </si>
+  <si>
+    <t>Group of 10 digits</t>
+  </si>
+  <si>
+    <t>20 digits
+1) Structure: prefix(8)- identification number(8 or 9)- suffix(3 or 4)
+- The first 8 digits prefix designates the origin of the identification number
+- The following 8 or 9 digits designates a unique identification number
+- The last 3 or 4 (depending on the length of the identification number are filled with “0” digit [note: Up until 2017 numbers are issued where this position contains a serial number.]
+2) No check digit</t>
+  </si>
+  <si>
+    <t>In one group of 20 digits</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{20}</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{8}([0-9]{2})?</t>
+  </si>
+  <si>
+    <t>00000001820029336000</t>
+  </si>
+  <si>
+    <t>Get all OINs from http://portaal.digikoppeling.nl/registers/</t>
+  </si>
+  <si>
+    <t>Always 8-digit number
+1) First number in code:
+1 – Commercial organisations
+7 -- State agencies and local government institutions
+8 -- Non-profit associations
+9 -- Foundations
+2)</t>
+  </si>
+  <si>
+    <t>10137025</t>
+  </si>
+  <si>
+    <t>See https://ariregister.rik.ee/index?lang=eng</t>
+  </si>
+  <si>
+    <t>RegEx: [1789][0-9]{7}
+CheckDigit as last char.
+Python code to check:
+def calc_check_digit(number):
+    """Calculate the check digit."""
+    check = sum(((i % 9) + 1) * int(n)
+                for i, n in enumerate(number[:-1])) % 11
+    if check == 10:
+        check = sum((((i + 2) % 9) + 1) * int(n)
+                    for i, n in enumerate(number[:-1])) % 11
+    return str(check % 10)</t>
+  </si>
+  <si>
+    <t>745707327</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}
+Check digit: mod11 (weights 3, 2, 7, 6, 5, 4, 3)</t>
+  </si>
+  <si>
+    <t>RegEx: .{4,50}</t>
+  </si>
+  <si>
+    <t>The code comprises of 3 fields
+1st field = ICD
+2nd field = Special identifier (e.g. country identifier, test identifier, etc)
+3rd field = Organisation identifrer No check value</t>
+  </si>
+  <si>
+    <t>None, except all fields are left justified</t>
+  </si>
+  <si>
+    <t>https://www.uen.gov.sg/ueninternet/faces/pages/admin/aboutUEN.jspx?_afrLoop=1018044967911865&amp;_afrWindowMode=0&amp;_adf.ctrl-state=fdr4mq9l0_26</t>
+  </si>
+  <si>
+    <t>RegEx: [a-z]{2}[a-z]{3}([0-9]{8}|[0-9]{9}|[RST][0-9]{2}[a-z]{2}[0-9]{4})[0-9a-z]</t>
+  </si>
+  <si>
+    <t>10 digit string using numerical characters from 0 to 9
+Based on individuals birthdate or legal entities registration date D1D2M1M2Y1Y2R1R2CM D = day, M = month, Y = year, R = random. C = checksum, M = century.
+Ninth character "C":
+C = 11 - ((3xD1 + 2xD2 + 7xM1 + 6xM2 + 5xY1 + 4xY2 + 3xR1 + 2xR2) mod 11)</t>
+  </si>
+  <si>
+    <t>Whole string: nnnnnnnnnn
+Commonly displayed with hyphen between Y2 and R1, e.g. nnnnnn-nnnn</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{10}
+Check digit: mod11 (weights 3, 2, 7, 6, 5, 4, 3, 2)</t>
+  </si>
+  <si>
+    <t>RegEx: DK[0-9]{8}
+Check digit: mod11 (weights 2, 7, 6, 5, 4, 3, 2, 1)</t>
+  </si>
+  <si>
+    <t>The ISO 17442 standard specifies the minimum reference data, which must the format of the organization identifiers, be Supplied for each LEI:
+* The official name of the legal entity as recorded in the official registers.
+* The registered address of that legal entity.
+* The country of formation.
+* The codes for the representation of names of countries and their subdivisions.
+* The date of the first LEI assignment; the date of last update of the
+* LEI information; and the date of expiry, if applicable.
+Additional information may be registered as agreed between the legal entity and its LEI issuing organization.
+The number allocation scheme was further specified in Annex 2 of the Financial Stability Board's third progress note on the Global LEI Initiative on 24 October 2012:
+• Characters 1 -4: A four character prefix allocated uniquely to each LEI issuer.
+• Characters 5-6: Two reserved characters set to zero.
+• Characters 7-18: Entity-specific part of the code generated and assigned by LOUs according to transparent, sound and robust allocation policies.
+• Characters 19-20: Two check digits as described in the ISO 17442 standards. The check digit scheme follows ISO/IEC 7064 (MOD 97-10) and contributes to avoiding typing errors.
+See http://www.fsb.org/wp-contenVuploads/r_121024.pdf?page_moved=1
+1:)
+1. a) Character representations:
+• n: digits (numeric characters 0 to 9 only);
+• a: uppercase letters (alpha character, A-Z only, without "special" characters such as blanks, separators or punctuation).
+2. b) Length indications:
+• nn!: fixed length;
+• nn: maximum length.
+The format of the LEI shall be
+-18!an2!n.
+The LEI consists of 20 characters decomposed as follows: characters (18!an) without separators or "special" characters; the 19th and 20th characters (2!n) shall be the check digit or digits, as calculated from the scheme defined in this International Standard.
+2:)
+The check digits shall be calculated based on the scheme defined in ISO/IEC 7064 (MOD 97-10). See Annex A. The check digits are used to verify the LEI.
+1. Convert letters to digits in accordance with the following:
+A=10B=11 C=12D=13E=14
+F=15G=16H=17I=18J=19
+K=20 L = 21 M =22 N =23 0 =24
+P =25Q = 26 R = 27 S = 28 T = 29
+U = 30 V = 31 W = 32 X = 33 Y = 34 Z = 35
+2. Apply the check character system, MOD 97-10, in accordance with ISO/IEC 7064.
+3. If the remainder is 1 (one), the number is valid.
+Generating the check digits
+4. Add "00" to the right-hand end of the LEI.
+5. Convert alpha characters into numeric characters in accordance with letters in #1.
+6. Apply the check character system, MOD 97-10, in accordance with ISO/IEC 7064.</t>
+  </si>
+  <si>
+    <t>RegEx: [A-Z0-9]{18}[0-9]{2}
+Check digit: mod97-10</t>
+  </si>
+  <si>
+    <t>111963319</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}
+Check number: see text</t>
+  </si>
+  <si>
+    <t>Personal identifier</t>
   </si>
 </sst>
 </file>
@@ -1388,12 +1552,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1417,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1444,6 +1614,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1743,10 +1926,10 @@
   <dimension ref="A1:AML81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1762,12 +1945,12 @@
     <col min="9" max="9" width="67.81640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34.1796875" style="3" customWidth="1"/>
     <col min="11" max="11" width="23.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="54.26953125" style="3" customWidth="1"/>
     <col min="13" max="13" width="29.08984375" style="1" customWidth="1"/>
     <col min="14" max="1026" width="14.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
+    <row r="1" spans="1:1026" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1799,16 +1982,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="87">
+    <row r="2" spans="1:1026" ht="87">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1832,22 +2015,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.5">
+    <row r="3" spans="1:1026" ht="43.5">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1871,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29">
+    <row r="4" spans="1:1026" ht="29">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1907,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="116">
+    <row r="5" spans="1:1026" ht="116">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1943,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="72.5">
+    <row r="6" spans="1:1026" ht="72.5">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1982,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="29">
+    <row r="7" spans="1:1026" ht="29">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2027,16 +2210,16 @@
         <v>35</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="145">
+    <row r="8" spans="1:1026" ht="145">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2060,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="174">
+    <row r="9" spans="1:1026" ht="174">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2093,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="159.5">
+    <row r="10" spans="1:1026" ht="159.5">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2129,321 +2312,5467 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="29">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1026" s="14" customFormat="1" ht="43.5">
+      <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="11"/>
+      <c r="BX11" s="11"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="11"/>
+      <c r="CF11" s="11"/>
+      <c r="CG11" s="11"/>
+      <c r="CH11" s="11"/>
+      <c r="CI11" s="11"/>
+      <c r="CJ11" s="11"/>
+      <c r="CK11" s="11"/>
+      <c r="CL11" s="11"/>
+      <c r="CM11" s="11"/>
+      <c r="CN11" s="11"/>
+      <c r="CO11" s="11"/>
+      <c r="CP11" s="11"/>
+      <c r="CQ11" s="11"/>
+      <c r="CR11" s="11"/>
+      <c r="CS11" s="11"/>
+      <c r="CT11" s="11"/>
+      <c r="CU11" s="11"/>
+      <c r="CV11" s="11"/>
+      <c r="CW11" s="11"/>
+      <c r="CX11" s="11"/>
+      <c r="CY11" s="11"/>
+      <c r="CZ11" s="11"/>
+      <c r="DA11" s="11"/>
+      <c r="DB11" s="11"/>
+      <c r="DC11" s="11"/>
+      <c r="DD11" s="11"/>
+      <c r="DE11" s="11"/>
+      <c r="DF11" s="11"/>
+      <c r="DG11" s="11"/>
+      <c r="DH11" s="11"/>
+      <c r="DI11" s="11"/>
+      <c r="DJ11" s="11"/>
+      <c r="DK11" s="11"/>
+      <c r="DL11" s="11"/>
+      <c r="DM11" s="11"/>
+      <c r="DN11" s="11"/>
+      <c r="DO11" s="11"/>
+      <c r="DP11" s="11"/>
+      <c r="DQ11" s="11"/>
+      <c r="DR11" s="11"/>
+      <c r="DS11" s="11"/>
+      <c r="DT11" s="11"/>
+      <c r="DU11" s="11"/>
+      <c r="DV11" s="11"/>
+      <c r="DW11" s="11"/>
+      <c r="DX11" s="11"/>
+      <c r="DY11" s="11"/>
+      <c r="DZ11" s="11"/>
+      <c r="EA11" s="11"/>
+      <c r="EB11" s="11"/>
+      <c r="EC11" s="11"/>
+      <c r="ED11" s="11"/>
+      <c r="EE11" s="11"/>
+      <c r="EF11" s="11"/>
+      <c r="EG11" s="11"/>
+      <c r="EH11" s="11"/>
+      <c r="EI11" s="11"/>
+      <c r="EJ11" s="11"/>
+      <c r="EK11" s="11"/>
+      <c r="EL11" s="11"/>
+      <c r="EM11" s="11"/>
+      <c r="EN11" s="11"/>
+      <c r="EO11" s="11"/>
+      <c r="EP11" s="11"/>
+      <c r="EQ11" s="11"/>
+      <c r="ER11" s="11"/>
+      <c r="ES11" s="11"/>
+      <c r="ET11" s="11"/>
+      <c r="EU11" s="11"/>
+      <c r="EV11" s="11"/>
+      <c r="EW11" s="11"/>
+      <c r="EX11" s="11"/>
+      <c r="EY11" s="11"/>
+      <c r="EZ11" s="11"/>
+      <c r="FA11" s="11"/>
+      <c r="FB11" s="11"/>
+      <c r="FC11" s="11"/>
+      <c r="FD11" s="11"/>
+      <c r="FE11" s="11"/>
+      <c r="FF11" s="11"/>
+      <c r="FG11" s="11"/>
+      <c r="FH11" s="11"/>
+      <c r="FI11" s="11"/>
+      <c r="FJ11" s="11"/>
+      <c r="FK11" s="11"/>
+      <c r="FL11" s="11"/>
+      <c r="FM11" s="11"/>
+      <c r="FN11" s="11"/>
+      <c r="FO11" s="11"/>
+      <c r="FP11" s="11"/>
+      <c r="FQ11" s="11"/>
+      <c r="FR11" s="11"/>
+      <c r="FS11" s="11"/>
+      <c r="FT11" s="11"/>
+      <c r="FU11" s="11"/>
+      <c r="FV11" s="11"/>
+      <c r="FW11" s="11"/>
+      <c r="FX11" s="11"/>
+      <c r="FY11" s="11"/>
+      <c r="FZ11" s="11"/>
+      <c r="GA11" s="11"/>
+      <c r="GB11" s="11"/>
+      <c r="GC11" s="11"/>
+      <c r="GD11" s="11"/>
+      <c r="GE11" s="11"/>
+      <c r="GF11" s="11"/>
+      <c r="GG11" s="11"/>
+      <c r="GH11" s="11"/>
+      <c r="GI11" s="11"/>
+      <c r="GJ11" s="11"/>
+      <c r="GK11" s="11"/>
+      <c r="GL11" s="11"/>
+      <c r="GM11" s="11"/>
+      <c r="GN11" s="11"/>
+      <c r="GO11" s="11"/>
+      <c r="GP11" s="11"/>
+      <c r="GQ11" s="11"/>
+      <c r="GR11" s="11"/>
+      <c r="GS11" s="11"/>
+      <c r="GT11" s="11"/>
+      <c r="GU11" s="11"/>
+      <c r="GV11" s="11"/>
+      <c r="GW11" s="11"/>
+      <c r="GX11" s="11"/>
+      <c r="GY11" s="11"/>
+      <c r="GZ11" s="11"/>
+      <c r="HA11" s="11"/>
+      <c r="HB11" s="11"/>
+      <c r="HC11" s="11"/>
+      <c r="HD11" s="11"/>
+      <c r="HE11" s="11"/>
+      <c r="HF11" s="11"/>
+      <c r="HG11" s="11"/>
+      <c r="HH11" s="11"/>
+      <c r="HI11" s="11"/>
+      <c r="HJ11" s="11"/>
+      <c r="HK11" s="11"/>
+      <c r="HL11" s="11"/>
+      <c r="HM11" s="11"/>
+      <c r="HN11" s="11"/>
+      <c r="HO11" s="11"/>
+      <c r="HP11" s="11"/>
+      <c r="HQ11" s="11"/>
+      <c r="HR11" s="11"/>
+      <c r="HS11" s="11"/>
+      <c r="HT11" s="11"/>
+      <c r="HU11" s="11"/>
+      <c r="HV11" s="11"/>
+      <c r="HW11" s="11"/>
+      <c r="HX11" s="11"/>
+      <c r="HY11" s="11"/>
+      <c r="HZ11" s="11"/>
+      <c r="IA11" s="11"/>
+      <c r="IB11" s="11"/>
+      <c r="IC11" s="11"/>
+      <c r="ID11" s="11"/>
+      <c r="IE11" s="11"/>
+      <c r="IF11" s="11"/>
+      <c r="IG11" s="11"/>
+      <c r="IH11" s="11"/>
+      <c r="II11" s="11"/>
+      <c r="IJ11" s="11"/>
+      <c r="IK11" s="11"/>
+      <c r="IL11" s="11"/>
+      <c r="IM11" s="11"/>
+      <c r="IN11" s="11"/>
+      <c r="IO11" s="11"/>
+      <c r="IP11" s="11"/>
+      <c r="IQ11" s="11"/>
+      <c r="IR11" s="11"/>
+      <c r="IS11" s="11"/>
+      <c r="IT11" s="11"/>
+      <c r="IU11" s="11"/>
+      <c r="IV11" s="11"/>
+      <c r="IW11" s="11"/>
+      <c r="IX11" s="11"/>
+      <c r="IY11" s="11"/>
+      <c r="IZ11" s="11"/>
+      <c r="JA11" s="11"/>
+      <c r="JB11" s="11"/>
+      <c r="JC11" s="11"/>
+      <c r="JD11" s="11"/>
+      <c r="JE11" s="11"/>
+      <c r="JF11" s="11"/>
+      <c r="JG11" s="11"/>
+      <c r="JH11" s="11"/>
+      <c r="JI11" s="11"/>
+      <c r="JJ11" s="11"/>
+      <c r="JK11" s="11"/>
+      <c r="JL11" s="11"/>
+      <c r="JM11" s="11"/>
+      <c r="JN11" s="11"/>
+      <c r="JO11" s="11"/>
+      <c r="JP11" s="11"/>
+      <c r="JQ11" s="11"/>
+      <c r="JR11" s="11"/>
+      <c r="JS11" s="11"/>
+      <c r="JT11" s="11"/>
+      <c r="JU11" s="11"/>
+      <c r="JV11" s="11"/>
+      <c r="JW11" s="11"/>
+      <c r="JX11" s="11"/>
+      <c r="JY11" s="11"/>
+      <c r="JZ11" s="11"/>
+      <c r="KA11" s="11"/>
+      <c r="KB11" s="11"/>
+      <c r="KC11" s="11"/>
+      <c r="KD11" s="11"/>
+      <c r="KE11" s="11"/>
+      <c r="KF11" s="11"/>
+      <c r="KG11" s="11"/>
+      <c r="KH11" s="11"/>
+      <c r="KI11" s="11"/>
+      <c r="KJ11" s="11"/>
+      <c r="KK11" s="11"/>
+      <c r="KL11" s="11"/>
+      <c r="KM11" s="11"/>
+      <c r="KN11" s="11"/>
+      <c r="KO11" s="11"/>
+      <c r="KP11" s="11"/>
+      <c r="KQ11" s="11"/>
+      <c r="KR11" s="11"/>
+      <c r="KS11" s="11"/>
+      <c r="KT11" s="11"/>
+      <c r="KU11" s="11"/>
+      <c r="KV11" s="11"/>
+      <c r="KW11" s="11"/>
+      <c r="KX11" s="11"/>
+      <c r="KY11" s="11"/>
+      <c r="KZ11" s="11"/>
+      <c r="LA11" s="11"/>
+      <c r="LB11" s="11"/>
+      <c r="LC11" s="11"/>
+      <c r="LD11" s="11"/>
+      <c r="LE11" s="11"/>
+      <c r="LF11" s="11"/>
+      <c r="LG11" s="11"/>
+      <c r="LH11" s="11"/>
+      <c r="LI11" s="11"/>
+      <c r="LJ11" s="11"/>
+      <c r="LK11" s="11"/>
+      <c r="LL11" s="11"/>
+      <c r="LM11" s="11"/>
+      <c r="LN11" s="11"/>
+      <c r="LO11" s="11"/>
+      <c r="LP11" s="11"/>
+      <c r="LQ11" s="11"/>
+      <c r="LR11" s="11"/>
+      <c r="LS11" s="11"/>
+      <c r="LT11" s="11"/>
+      <c r="LU11" s="11"/>
+      <c r="LV11" s="11"/>
+      <c r="LW11" s="11"/>
+      <c r="LX11" s="11"/>
+      <c r="LY11" s="11"/>
+      <c r="LZ11" s="11"/>
+      <c r="MA11" s="11"/>
+      <c r="MB11" s="11"/>
+      <c r="MC11" s="11"/>
+      <c r="MD11" s="11"/>
+      <c r="ME11" s="11"/>
+      <c r="MF11" s="11"/>
+      <c r="MG11" s="11"/>
+      <c r="MH11" s="11"/>
+      <c r="MI11" s="11"/>
+      <c r="MJ11" s="11"/>
+      <c r="MK11" s="11"/>
+      <c r="ML11" s="11"/>
+      <c r="MM11" s="11"/>
+      <c r="MN11" s="11"/>
+      <c r="MO11" s="11"/>
+      <c r="MP11" s="11"/>
+      <c r="MQ11" s="11"/>
+      <c r="MR11" s="11"/>
+      <c r="MS11" s="11"/>
+      <c r="MT11" s="11"/>
+      <c r="MU11" s="11"/>
+      <c r="MV11" s="11"/>
+      <c r="MW11" s="11"/>
+      <c r="MX11" s="11"/>
+      <c r="MY11" s="11"/>
+      <c r="MZ11" s="11"/>
+      <c r="NA11" s="11"/>
+      <c r="NB11" s="11"/>
+      <c r="NC11" s="11"/>
+      <c r="ND11" s="11"/>
+      <c r="NE11" s="11"/>
+      <c r="NF11" s="11"/>
+      <c r="NG11" s="11"/>
+      <c r="NH11" s="11"/>
+      <c r="NI11" s="11"/>
+      <c r="NJ11" s="11"/>
+      <c r="NK11" s="11"/>
+      <c r="NL11" s="11"/>
+      <c r="NM11" s="11"/>
+      <c r="NN11" s="11"/>
+      <c r="NO11" s="11"/>
+      <c r="NP11" s="11"/>
+      <c r="NQ11" s="11"/>
+      <c r="NR11" s="11"/>
+      <c r="NS11" s="11"/>
+      <c r="NT11" s="11"/>
+      <c r="NU11" s="11"/>
+      <c r="NV11" s="11"/>
+      <c r="NW11" s="11"/>
+      <c r="NX11" s="11"/>
+      <c r="NY11" s="11"/>
+      <c r="NZ11" s="11"/>
+      <c r="OA11" s="11"/>
+      <c r="OB11" s="11"/>
+      <c r="OC11" s="11"/>
+      <c r="OD11" s="11"/>
+      <c r="OE11" s="11"/>
+      <c r="OF11" s="11"/>
+      <c r="OG11" s="11"/>
+      <c r="OH11" s="11"/>
+      <c r="OI11" s="11"/>
+      <c r="OJ11" s="11"/>
+      <c r="OK11" s="11"/>
+      <c r="OL11" s="11"/>
+      <c r="OM11" s="11"/>
+      <c r="ON11" s="11"/>
+      <c r="OO11" s="11"/>
+      <c r="OP11" s="11"/>
+      <c r="OQ11" s="11"/>
+      <c r="OR11" s="11"/>
+      <c r="OS11" s="11"/>
+      <c r="OT11" s="11"/>
+      <c r="OU11" s="11"/>
+      <c r="OV11" s="11"/>
+      <c r="OW11" s="11"/>
+      <c r="OX11" s="11"/>
+      <c r="OY11" s="11"/>
+      <c r="OZ11" s="11"/>
+      <c r="PA11" s="11"/>
+      <c r="PB11" s="11"/>
+      <c r="PC11" s="11"/>
+      <c r="PD11" s="11"/>
+      <c r="PE11" s="11"/>
+      <c r="PF11" s="11"/>
+      <c r="PG11" s="11"/>
+      <c r="PH11" s="11"/>
+      <c r="PI11" s="11"/>
+      <c r="PJ11" s="11"/>
+      <c r="PK11" s="11"/>
+      <c r="PL11" s="11"/>
+      <c r="PM11" s="11"/>
+      <c r="PN11" s="11"/>
+      <c r="PO11" s="11"/>
+      <c r="PP11" s="11"/>
+      <c r="PQ11" s="11"/>
+      <c r="PR11" s="11"/>
+      <c r="PS11" s="11"/>
+      <c r="PT11" s="11"/>
+      <c r="PU11" s="11"/>
+      <c r="PV11" s="11"/>
+      <c r="PW11" s="11"/>
+      <c r="PX11" s="11"/>
+      <c r="PY11" s="11"/>
+      <c r="PZ11" s="11"/>
+      <c r="QA11" s="11"/>
+      <c r="QB11" s="11"/>
+      <c r="QC11" s="11"/>
+      <c r="QD11" s="11"/>
+      <c r="QE11" s="11"/>
+      <c r="QF11" s="11"/>
+      <c r="QG11" s="11"/>
+      <c r="QH11" s="11"/>
+      <c r="QI11" s="11"/>
+      <c r="QJ11" s="11"/>
+      <c r="QK11" s="11"/>
+      <c r="QL11" s="11"/>
+      <c r="QM11" s="11"/>
+      <c r="QN11" s="11"/>
+      <c r="QO11" s="11"/>
+      <c r="QP11" s="11"/>
+      <c r="QQ11" s="11"/>
+      <c r="QR11" s="11"/>
+      <c r="QS11" s="11"/>
+      <c r="QT11" s="11"/>
+      <c r="QU11" s="11"/>
+      <c r="QV11" s="11"/>
+      <c r="QW11" s="11"/>
+      <c r="QX11" s="11"/>
+      <c r="QY11" s="11"/>
+      <c r="QZ11" s="11"/>
+      <c r="RA11" s="11"/>
+      <c r="RB11" s="11"/>
+      <c r="RC11" s="11"/>
+      <c r="RD11" s="11"/>
+      <c r="RE11" s="11"/>
+      <c r="RF11" s="11"/>
+      <c r="RG11" s="11"/>
+      <c r="RH11" s="11"/>
+      <c r="RI11" s="11"/>
+      <c r="RJ11" s="11"/>
+      <c r="RK11" s="11"/>
+      <c r="RL11" s="11"/>
+      <c r="RM11" s="11"/>
+      <c r="RN11" s="11"/>
+      <c r="RO11" s="11"/>
+      <c r="RP11" s="11"/>
+      <c r="RQ11" s="11"/>
+      <c r="RR11" s="11"/>
+      <c r="RS11" s="11"/>
+      <c r="RT11" s="11"/>
+      <c r="RU11" s="11"/>
+      <c r="RV11" s="11"/>
+      <c r="RW11" s="11"/>
+      <c r="RX11" s="11"/>
+      <c r="RY11" s="11"/>
+      <c r="RZ11" s="11"/>
+      <c r="SA11" s="11"/>
+      <c r="SB11" s="11"/>
+      <c r="SC11" s="11"/>
+      <c r="SD11" s="11"/>
+      <c r="SE11" s="11"/>
+      <c r="SF11" s="11"/>
+      <c r="SG11" s="11"/>
+      <c r="SH11" s="11"/>
+      <c r="SI11" s="11"/>
+      <c r="SJ11" s="11"/>
+      <c r="SK11" s="11"/>
+      <c r="SL11" s="11"/>
+      <c r="SM11" s="11"/>
+      <c r="SN11" s="11"/>
+      <c r="SO11" s="11"/>
+      <c r="SP11" s="11"/>
+      <c r="SQ11" s="11"/>
+      <c r="SR11" s="11"/>
+      <c r="SS11" s="11"/>
+      <c r="ST11" s="11"/>
+      <c r="SU11" s="11"/>
+      <c r="SV11" s="11"/>
+      <c r="SW11" s="11"/>
+      <c r="SX11" s="11"/>
+      <c r="SY11" s="11"/>
+      <c r="SZ11" s="11"/>
+      <c r="TA11" s="11"/>
+      <c r="TB11" s="11"/>
+      <c r="TC11" s="11"/>
+      <c r="TD11" s="11"/>
+      <c r="TE11" s="11"/>
+      <c r="TF11" s="11"/>
+      <c r="TG11" s="11"/>
+      <c r="TH11" s="11"/>
+      <c r="TI11" s="11"/>
+      <c r="TJ11" s="11"/>
+      <c r="TK11" s="11"/>
+      <c r="TL11" s="11"/>
+      <c r="TM11" s="11"/>
+      <c r="TN11" s="11"/>
+      <c r="TO11" s="11"/>
+      <c r="TP11" s="11"/>
+      <c r="TQ11" s="11"/>
+      <c r="TR11" s="11"/>
+      <c r="TS11" s="11"/>
+      <c r="TT11" s="11"/>
+      <c r="TU11" s="11"/>
+      <c r="TV11" s="11"/>
+      <c r="TW11" s="11"/>
+      <c r="TX11" s="11"/>
+      <c r="TY11" s="11"/>
+      <c r="TZ11" s="11"/>
+      <c r="UA11" s="11"/>
+      <c r="UB11" s="11"/>
+      <c r="UC11" s="11"/>
+      <c r="UD11" s="11"/>
+      <c r="UE11" s="11"/>
+      <c r="UF11" s="11"/>
+      <c r="UG11" s="11"/>
+      <c r="UH11" s="11"/>
+      <c r="UI11" s="11"/>
+      <c r="UJ11" s="11"/>
+      <c r="UK11" s="11"/>
+      <c r="UL11" s="11"/>
+      <c r="UM11" s="11"/>
+      <c r="UN11" s="11"/>
+      <c r="UO11" s="11"/>
+      <c r="UP11" s="11"/>
+      <c r="UQ11" s="11"/>
+      <c r="UR11" s="11"/>
+      <c r="US11" s="11"/>
+      <c r="UT11" s="11"/>
+      <c r="UU11" s="11"/>
+      <c r="UV11" s="11"/>
+      <c r="UW11" s="11"/>
+      <c r="UX11" s="11"/>
+      <c r="UY11" s="11"/>
+      <c r="UZ11" s="11"/>
+      <c r="VA11" s="11"/>
+      <c r="VB11" s="11"/>
+      <c r="VC11" s="11"/>
+      <c r="VD11" s="11"/>
+      <c r="VE11" s="11"/>
+      <c r="VF11" s="11"/>
+      <c r="VG11" s="11"/>
+      <c r="VH11" s="11"/>
+      <c r="VI11" s="11"/>
+      <c r="VJ11" s="11"/>
+      <c r="VK11" s="11"/>
+      <c r="VL11" s="11"/>
+      <c r="VM11" s="11"/>
+      <c r="VN11" s="11"/>
+      <c r="VO11" s="11"/>
+      <c r="VP11" s="11"/>
+      <c r="VQ11" s="11"/>
+      <c r="VR11" s="11"/>
+      <c r="VS11" s="11"/>
+      <c r="VT11" s="11"/>
+      <c r="VU11" s="11"/>
+      <c r="VV11" s="11"/>
+      <c r="VW11" s="11"/>
+      <c r="VX11" s="11"/>
+      <c r="VY11" s="11"/>
+      <c r="VZ11" s="11"/>
+      <c r="WA11" s="11"/>
+      <c r="WB11" s="11"/>
+      <c r="WC11" s="11"/>
+      <c r="WD11" s="11"/>
+      <c r="WE11" s="11"/>
+      <c r="WF11" s="11"/>
+      <c r="WG11" s="11"/>
+      <c r="WH11" s="11"/>
+      <c r="WI11" s="11"/>
+      <c r="WJ11" s="11"/>
+      <c r="WK11" s="11"/>
+      <c r="WL11" s="11"/>
+      <c r="WM11" s="11"/>
+      <c r="WN11" s="11"/>
+      <c r="WO11" s="11"/>
+      <c r="WP11" s="11"/>
+      <c r="WQ11" s="11"/>
+      <c r="WR11" s="11"/>
+      <c r="WS11" s="11"/>
+      <c r="WT11" s="11"/>
+      <c r="WU11" s="11"/>
+      <c r="WV11" s="11"/>
+      <c r="WW11" s="11"/>
+      <c r="WX11" s="11"/>
+      <c r="WY11" s="11"/>
+      <c r="WZ11" s="11"/>
+      <c r="XA11" s="11"/>
+      <c r="XB11" s="11"/>
+      <c r="XC11" s="11"/>
+      <c r="XD11" s="11"/>
+      <c r="XE11" s="11"/>
+      <c r="XF11" s="11"/>
+      <c r="XG11" s="11"/>
+      <c r="XH11" s="11"/>
+      <c r="XI11" s="11"/>
+      <c r="XJ11" s="11"/>
+      <c r="XK11" s="11"/>
+      <c r="XL11" s="11"/>
+      <c r="XM11" s="11"/>
+      <c r="XN11" s="11"/>
+      <c r="XO11" s="11"/>
+      <c r="XP11" s="11"/>
+      <c r="XQ11" s="11"/>
+      <c r="XR11" s="11"/>
+      <c r="XS11" s="11"/>
+      <c r="XT11" s="11"/>
+      <c r="XU11" s="11"/>
+      <c r="XV11" s="11"/>
+      <c r="XW11" s="11"/>
+      <c r="XX11" s="11"/>
+      <c r="XY11" s="11"/>
+      <c r="XZ11" s="11"/>
+      <c r="YA11" s="11"/>
+      <c r="YB11" s="11"/>
+      <c r="YC11" s="11"/>
+      <c r="YD11" s="11"/>
+      <c r="YE11" s="11"/>
+      <c r="YF11" s="11"/>
+      <c r="YG11" s="11"/>
+      <c r="YH11" s="11"/>
+      <c r="YI11" s="11"/>
+      <c r="YJ11" s="11"/>
+      <c r="YK11" s="11"/>
+      <c r="YL11" s="11"/>
+      <c r="YM11" s="11"/>
+      <c r="YN11" s="11"/>
+      <c r="YO11" s="11"/>
+      <c r="YP11" s="11"/>
+      <c r="YQ11" s="11"/>
+      <c r="YR11" s="11"/>
+      <c r="YS11" s="11"/>
+      <c r="YT11" s="11"/>
+      <c r="YU11" s="11"/>
+      <c r="YV11" s="11"/>
+      <c r="YW11" s="11"/>
+      <c r="YX11" s="11"/>
+      <c r="YY11" s="11"/>
+      <c r="YZ11" s="11"/>
+      <c r="ZA11" s="11"/>
+      <c r="ZB11" s="11"/>
+      <c r="ZC11" s="11"/>
+      <c r="ZD11" s="11"/>
+      <c r="ZE11" s="11"/>
+      <c r="ZF11" s="11"/>
+      <c r="ZG11" s="11"/>
+      <c r="ZH11" s="11"/>
+      <c r="ZI11" s="11"/>
+      <c r="ZJ11" s="11"/>
+      <c r="ZK11" s="11"/>
+      <c r="ZL11" s="11"/>
+      <c r="ZM11" s="11"/>
+      <c r="ZN11" s="11"/>
+      <c r="ZO11" s="11"/>
+      <c r="ZP11" s="11"/>
+      <c r="ZQ11" s="11"/>
+      <c r="ZR11" s="11"/>
+      <c r="ZS11" s="11"/>
+      <c r="ZT11" s="11"/>
+      <c r="ZU11" s="11"/>
+      <c r="ZV11" s="11"/>
+      <c r="ZW11" s="11"/>
+      <c r="ZX11" s="11"/>
+      <c r="ZY11" s="11"/>
+      <c r="ZZ11" s="11"/>
+      <c r="AAA11" s="11"/>
+      <c r="AAB11" s="11"/>
+      <c r="AAC11" s="11"/>
+      <c r="AAD11" s="11"/>
+      <c r="AAE11" s="11"/>
+      <c r="AAF11" s="11"/>
+      <c r="AAG11" s="11"/>
+      <c r="AAH11" s="11"/>
+      <c r="AAI11" s="11"/>
+      <c r="AAJ11" s="11"/>
+      <c r="AAK11" s="11"/>
+      <c r="AAL11" s="11"/>
+      <c r="AAM11" s="11"/>
+      <c r="AAN11" s="11"/>
+      <c r="AAO11" s="11"/>
+      <c r="AAP11" s="11"/>
+      <c r="AAQ11" s="11"/>
+      <c r="AAR11" s="11"/>
+      <c r="AAS11" s="11"/>
+      <c r="AAT11" s="11"/>
+      <c r="AAU11" s="11"/>
+      <c r="AAV11" s="11"/>
+      <c r="AAW11" s="11"/>
+      <c r="AAX11" s="11"/>
+      <c r="AAY11" s="11"/>
+      <c r="AAZ11" s="11"/>
+      <c r="ABA11" s="11"/>
+      <c r="ABB11" s="11"/>
+      <c r="ABC11" s="11"/>
+      <c r="ABD11" s="11"/>
+      <c r="ABE11" s="11"/>
+      <c r="ABF11" s="11"/>
+      <c r="ABG11" s="11"/>
+      <c r="ABH11" s="11"/>
+      <c r="ABI11" s="11"/>
+      <c r="ABJ11" s="11"/>
+      <c r="ABK11" s="11"/>
+      <c r="ABL11" s="11"/>
+      <c r="ABM11" s="11"/>
+      <c r="ABN11" s="11"/>
+      <c r="ABO11" s="11"/>
+      <c r="ABP11" s="11"/>
+      <c r="ABQ11" s="11"/>
+      <c r="ABR11" s="11"/>
+      <c r="ABS11" s="11"/>
+      <c r="ABT11" s="11"/>
+      <c r="ABU11" s="11"/>
+      <c r="ABV11" s="11"/>
+      <c r="ABW11" s="11"/>
+      <c r="ABX11" s="11"/>
+      <c r="ABY11" s="11"/>
+      <c r="ABZ11" s="11"/>
+      <c r="ACA11" s="11"/>
+      <c r="ACB11" s="11"/>
+      <c r="ACC11" s="11"/>
+      <c r="ACD11" s="11"/>
+      <c r="ACE11" s="11"/>
+      <c r="ACF11" s="11"/>
+      <c r="ACG11" s="11"/>
+      <c r="ACH11" s="11"/>
+      <c r="ACI11" s="11"/>
+      <c r="ACJ11" s="11"/>
+      <c r="ACK11" s="11"/>
+      <c r="ACL11" s="11"/>
+      <c r="ACM11" s="11"/>
+      <c r="ACN11" s="11"/>
+      <c r="ACO11" s="11"/>
+      <c r="ACP11" s="11"/>
+      <c r="ACQ11" s="11"/>
+      <c r="ACR11" s="11"/>
+      <c r="ACS11" s="11"/>
+      <c r="ACT11" s="11"/>
+      <c r="ACU11" s="11"/>
+      <c r="ACV11" s="11"/>
+      <c r="ACW11" s="11"/>
+      <c r="ACX11" s="11"/>
+      <c r="ACY11" s="11"/>
+      <c r="ACZ11" s="11"/>
+      <c r="ADA11" s="11"/>
+      <c r="ADB11" s="11"/>
+      <c r="ADC11" s="11"/>
+      <c r="ADD11" s="11"/>
+      <c r="ADE11" s="11"/>
+      <c r="ADF11" s="11"/>
+      <c r="ADG11" s="11"/>
+      <c r="ADH11" s="11"/>
+      <c r="ADI11" s="11"/>
+      <c r="ADJ11" s="11"/>
+      <c r="ADK11" s="11"/>
+      <c r="ADL11" s="11"/>
+      <c r="ADM11" s="11"/>
+      <c r="ADN11" s="11"/>
+      <c r="ADO11" s="11"/>
+      <c r="ADP11" s="11"/>
+      <c r="ADQ11" s="11"/>
+      <c r="ADR11" s="11"/>
+      <c r="ADS11" s="11"/>
+      <c r="ADT11" s="11"/>
+      <c r="ADU11" s="11"/>
+      <c r="ADV11" s="11"/>
+      <c r="ADW11" s="11"/>
+      <c r="ADX11" s="11"/>
+      <c r="ADY11" s="11"/>
+      <c r="ADZ11" s="11"/>
+      <c r="AEA11" s="11"/>
+      <c r="AEB11" s="11"/>
+      <c r="AEC11" s="11"/>
+      <c r="AED11" s="11"/>
+      <c r="AEE11" s="11"/>
+      <c r="AEF11" s="11"/>
+      <c r="AEG11" s="11"/>
+      <c r="AEH11" s="11"/>
+      <c r="AEI11" s="11"/>
+      <c r="AEJ11" s="11"/>
+      <c r="AEK11" s="11"/>
+      <c r="AEL11" s="11"/>
+      <c r="AEM11" s="11"/>
+      <c r="AEN11" s="11"/>
+      <c r="AEO11" s="11"/>
+      <c r="AEP11" s="11"/>
+      <c r="AEQ11" s="11"/>
+      <c r="AER11" s="11"/>
+      <c r="AES11" s="11"/>
+      <c r="AET11" s="11"/>
+      <c r="AEU11" s="11"/>
+      <c r="AEV11" s="11"/>
+      <c r="AEW11" s="11"/>
+      <c r="AEX11" s="11"/>
+      <c r="AEY11" s="11"/>
+      <c r="AEZ11" s="11"/>
+      <c r="AFA11" s="11"/>
+      <c r="AFB11" s="11"/>
+      <c r="AFC11" s="11"/>
+      <c r="AFD11" s="11"/>
+      <c r="AFE11" s="11"/>
+      <c r="AFF11" s="11"/>
+      <c r="AFG11" s="11"/>
+      <c r="AFH11" s="11"/>
+      <c r="AFI11" s="11"/>
+      <c r="AFJ11" s="11"/>
+      <c r="AFK11" s="11"/>
+      <c r="AFL11" s="11"/>
+      <c r="AFM11" s="11"/>
+      <c r="AFN11" s="11"/>
+      <c r="AFO11" s="11"/>
+      <c r="AFP11" s="11"/>
+      <c r="AFQ11" s="11"/>
+      <c r="AFR11" s="11"/>
+      <c r="AFS11" s="11"/>
+      <c r="AFT11" s="11"/>
+      <c r="AFU11" s="11"/>
+      <c r="AFV11" s="11"/>
+      <c r="AFW11" s="11"/>
+      <c r="AFX11" s="11"/>
+      <c r="AFY11" s="11"/>
+      <c r="AFZ11" s="11"/>
+      <c r="AGA11" s="11"/>
+      <c r="AGB11" s="11"/>
+      <c r="AGC11" s="11"/>
+      <c r="AGD11" s="11"/>
+      <c r="AGE11" s="11"/>
+      <c r="AGF11" s="11"/>
+      <c r="AGG11" s="11"/>
+      <c r="AGH11" s="11"/>
+      <c r="AGI11" s="11"/>
+      <c r="AGJ11" s="11"/>
+      <c r="AGK11" s="11"/>
+      <c r="AGL11" s="11"/>
+      <c r="AGM11" s="11"/>
+      <c r="AGN11" s="11"/>
+      <c r="AGO11" s="11"/>
+      <c r="AGP11" s="11"/>
+      <c r="AGQ11" s="11"/>
+      <c r="AGR11" s="11"/>
+      <c r="AGS11" s="11"/>
+      <c r="AGT11" s="11"/>
+      <c r="AGU11" s="11"/>
+      <c r="AGV11" s="11"/>
+      <c r="AGW11" s="11"/>
+      <c r="AGX11" s="11"/>
+      <c r="AGY11" s="11"/>
+      <c r="AGZ11" s="11"/>
+      <c r="AHA11" s="11"/>
+      <c r="AHB11" s="11"/>
+      <c r="AHC11" s="11"/>
+      <c r="AHD11" s="11"/>
+      <c r="AHE11" s="11"/>
+      <c r="AHF11" s="11"/>
+      <c r="AHG11" s="11"/>
+      <c r="AHH11" s="11"/>
+      <c r="AHI11" s="11"/>
+      <c r="AHJ11" s="11"/>
+      <c r="AHK11" s="11"/>
+      <c r="AHL11" s="11"/>
+      <c r="AHM11" s="11"/>
+      <c r="AHN11" s="11"/>
+      <c r="AHO11" s="11"/>
+      <c r="AHP11" s="11"/>
+      <c r="AHQ11" s="11"/>
+      <c r="AHR11" s="11"/>
+      <c r="AHS11" s="11"/>
+      <c r="AHT11" s="11"/>
+      <c r="AHU11" s="11"/>
+      <c r="AHV11" s="11"/>
+      <c r="AHW11" s="11"/>
+      <c r="AHX11" s="11"/>
+      <c r="AHY11" s="11"/>
+      <c r="AHZ11" s="11"/>
+      <c r="AIA11" s="11"/>
+      <c r="AIB11" s="11"/>
+      <c r="AIC11" s="11"/>
+      <c r="AID11" s="11"/>
+      <c r="AIE11" s="11"/>
+      <c r="AIF11" s="11"/>
+      <c r="AIG11" s="11"/>
+      <c r="AIH11" s="11"/>
+      <c r="AII11" s="11"/>
+      <c r="AIJ11" s="11"/>
+      <c r="AIK11" s="11"/>
+      <c r="AIL11" s="11"/>
+      <c r="AIM11" s="11"/>
+      <c r="AIN11" s="11"/>
+      <c r="AIO11" s="11"/>
+      <c r="AIP11" s="11"/>
+      <c r="AIQ11" s="11"/>
+      <c r="AIR11" s="11"/>
+      <c r="AIS11" s="11"/>
+      <c r="AIT11" s="11"/>
+      <c r="AIU11" s="11"/>
+      <c r="AIV11" s="11"/>
+      <c r="AIW11" s="11"/>
+      <c r="AIX11" s="11"/>
+      <c r="AIY11" s="11"/>
+      <c r="AIZ11" s="11"/>
+      <c r="AJA11" s="11"/>
+      <c r="AJB11" s="11"/>
+      <c r="AJC11" s="11"/>
+      <c r="AJD11" s="11"/>
+      <c r="AJE11" s="11"/>
+      <c r="AJF11" s="11"/>
+      <c r="AJG11" s="11"/>
+      <c r="AJH11" s="11"/>
+      <c r="AJI11" s="11"/>
+      <c r="AJJ11" s="11"/>
+      <c r="AJK11" s="11"/>
+      <c r="AJL11" s="11"/>
+      <c r="AJM11" s="11"/>
+      <c r="AJN11" s="11"/>
+      <c r="AJO11" s="11"/>
+      <c r="AJP11" s="11"/>
+      <c r="AJQ11" s="11"/>
+      <c r="AJR11" s="11"/>
+      <c r="AJS11" s="11"/>
+      <c r="AJT11" s="11"/>
+      <c r="AJU11" s="11"/>
+      <c r="AJV11" s="11"/>
+      <c r="AJW11" s="11"/>
+      <c r="AJX11" s="11"/>
+      <c r="AJY11" s="11"/>
+      <c r="AJZ11" s="11"/>
+      <c r="AKA11" s="11"/>
+      <c r="AKB11" s="11"/>
+      <c r="AKC11" s="11"/>
+      <c r="AKD11" s="11"/>
+      <c r="AKE11" s="11"/>
+      <c r="AKF11" s="11"/>
+      <c r="AKG11" s="11"/>
+      <c r="AKH11" s="11"/>
+      <c r="AKI11" s="11"/>
+      <c r="AKJ11" s="11"/>
+      <c r="AKK11" s="11"/>
+      <c r="AKL11" s="11"/>
+      <c r="AKM11" s="11"/>
+      <c r="AKN11" s="11"/>
+      <c r="AKO11" s="11"/>
+      <c r="AKP11" s="11"/>
+      <c r="AKQ11" s="11"/>
+      <c r="AKR11" s="11"/>
+      <c r="AKS11" s="11"/>
+      <c r="AKT11" s="11"/>
+      <c r="AKU11" s="11"/>
+      <c r="AKV11" s="11"/>
+      <c r="AKW11" s="11"/>
+      <c r="AKX11" s="11"/>
+      <c r="AKY11" s="11"/>
+      <c r="AKZ11" s="11"/>
+      <c r="ALA11" s="11"/>
+      <c r="ALB11" s="11"/>
+      <c r="ALC11" s="11"/>
+      <c r="ALD11" s="11"/>
+      <c r="ALE11" s="11"/>
+      <c r="ALF11" s="11"/>
+      <c r="ALG11" s="11"/>
+      <c r="ALH11" s="11"/>
+      <c r="ALI11" s="11"/>
+      <c r="ALJ11" s="11"/>
+      <c r="ALK11" s="11"/>
+      <c r="ALL11" s="11"/>
+      <c r="ALM11" s="11"/>
+      <c r="ALN11" s="11"/>
+      <c r="ALO11" s="11"/>
+      <c r="ALP11" s="11"/>
+      <c r="ALQ11" s="11"/>
+      <c r="ALR11" s="11"/>
+      <c r="ALS11" s="11"/>
+      <c r="ALT11" s="11"/>
+      <c r="ALU11" s="11"/>
+      <c r="ALV11" s="11"/>
+      <c r="ALW11" s="11"/>
+      <c r="ALX11" s="11"/>
+      <c r="ALY11" s="11"/>
+      <c r="ALZ11" s="11"/>
+      <c r="AMA11" s="11"/>
+      <c r="AMB11" s="11"/>
+      <c r="AMC11" s="11"/>
+      <c r="AMD11" s="11"/>
+      <c r="AME11" s="11"/>
+      <c r="AMF11" s="11"/>
+      <c r="AMG11" s="11"/>
+      <c r="AMH11" s="11"/>
+      <c r="AMI11" s="11"/>
+      <c r="AMJ11" s="11"/>
+      <c r="AMK11" s="11"/>
+      <c r="AML11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="130.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1026" s="14" customFormat="1" ht="29">
+      <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="11"/>
+      <c r="BU12" s="11"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="11"/>
+      <c r="CG12" s="11"/>
+      <c r="CH12" s="11"/>
+      <c r="CI12" s="11"/>
+      <c r="CJ12" s="11"/>
+      <c r="CK12" s="11"/>
+      <c r="CL12" s="11"/>
+      <c r="CM12" s="11"/>
+      <c r="CN12" s="11"/>
+      <c r="CO12" s="11"/>
+      <c r="CP12" s="11"/>
+      <c r="CQ12" s="11"/>
+      <c r="CR12" s="11"/>
+      <c r="CS12" s="11"/>
+      <c r="CT12" s="11"/>
+      <c r="CU12" s="11"/>
+      <c r="CV12" s="11"/>
+      <c r="CW12" s="11"/>
+      <c r="CX12" s="11"/>
+      <c r="CY12" s="11"/>
+      <c r="CZ12" s="11"/>
+      <c r="DA12" s="11"/>
+      <c r="DB12" s="11"/>
+      <c r="DC12" s="11"/>
+      <c r="DD12" s="11"/>
+      <c r="DE12" s="11"/>
+      <c r="DF12" s="11"/>
+      <c r="DG12" s="11"/>
+      <c r="DH12" s="11"/>
+      <c r="DI12" s="11"/>
+      <c r="DJ12" s="11"/>
+      <c r="DK12" s="11"/>
+      <c r="DL12" s="11"/>
+      <c r="DM12" s="11"/>
+      <c r="DN12" s="11"/>
+      <c r="DO12" s="11"/>
+      <c r="DP12" s="11"/>
+      <c r="DQ12" s="11"/>
+      <c r="DR12" s="11"/>
+      <c r="DS12" s="11"/>
+      <c r="DT12" s="11"/>
+      <c r="DU12" s="11"/>
+      <c r="DV12" s="11"/>
+      <c r="DW12" s="11"/>
+      <c r="DX12" s="11"/>
+      <c r="DY12" s="11"/>
+      <c r="DZ12" s="11"/>
+      <c r="EA12" s="11"/>
+      <c r="EB12" s="11"/>
+      <c r="EC12" s="11"/>
+      <c r="ED12" s="11"/>
+      <c r="EE12" s="11"/>
+      <c r="EF12" s="11"/>
+      <c r="EG12" s="11"/>
+      <c r="EH12" s="11"/>
+      <c r="EI12" s="11"/>
+      <c r="EJ12" s="11"/>
+      <c r="EK12" s="11"/>
+      <c r="EL12" s="11"/>
+      <c r="EM12" s="11"/>
+      <c r="EN12" s="11"/>
+      <c r="EO12" s="11"/>
+      <c r="EP12" s="11"/>
+      <c r="EQ12" s="11"/>
+      <c r="ER12" s="11"/>
+      <c r="ES12" s="11"/>
+      <c r="ET12" s="11"/>
+      <c r="EU12" s="11"/>
+      <c r="EV12" s="11"/>
+      <c r="EW12" s="11"/>
+      <c r="EX12" s="11"/>
+      <c r="EY12" s="11"/>
+      <c r="EZ12" s="11"/>
+      <c r="FA12" s="11"/>
+      <c r="FB12" s="11"/>
+      <c r="FC12" s="11"/>
+      <c r="FD12" s="11"/>
+      <c r="FE12" s="11"/>
+      <c r="FF12" s="11"/>
+      <c r="FG12" s="11"/>
+      <c r="FH12" s="11"/>
+      <c r="FI12" s="11"/>
+      <c r="FJ12" s="11"/>
+      <c r="FK12" s="11"/>
+      <c r="FL12" s="11"/>
+      <c r="FM12" s="11"/>
+      <c r="FN12" s="11"/>
+      <c r="FO12" s="11"/>
+      <c r="FP12" s="11"/>
+      <c r="FQ12" s="11"/>
+      <c r="FR12" s="11"/>
+      <c r="FS12" s="11"/>
+      <c r="FT12" s="11"/>
+      <c r="FU12" s="11"/>
+      <c r="FV12" s="11"/>
+      <c r="FW12" s="11"/>
+      <c r="FX12" s="11"/>
+      <c r="FY12" s="11"/>
+      <c r="FZ12" s="11"/>
+      <c r="GA12" s="11"/>
+      <c r="GB12" s="11"/>
+      <c r="GC12" s="11"/>
+      <c r="GD12" s="11"/>
+      <c r="GE12" s="11"/>
+      <c r="GF12" s="11"/>
+      <c r="GG12" s="11"/>
+      <c r="GH12" s="11"/>
+      <c r="GI12" s="11"/>
+      <c r="GJ12" s="11"/>
+      <c r="GK12" s="11"/>
+      <c r="GL12" s="11"/>
+      <c r="GM12" s="11"/>
+      <c r="GN12" s="11"/>
+      <c r="GO12" s="11"/>
+      <c r="GP12" s="11"/>
+      <c r="GQ12" s="11"/>
+      <c r="GR12" s="11"/>
+      <c r="GS12" s="11"/>
+      <c r="GT12" s="11"/>
+      <c r="GU12" s="11"/>
+      <c r="GV12" s="11"/>
+      <c r="GW12" s="11"/>
+      <c r="GX12" s="11"/>
+      <c r="GY12" s="11"/>
+      <c r="GZ12" s="11"/>
+      <c r="HA12" s="11"/>
+      <c r="HB12" s="11"/>
+      <c r="HC12" s="11"/>
+      <c r="HD12" s="11"/>
+      <c r="HE12" s="11"/>
+      <c r="HF12" s="11"/>
+      <c r="HG12" s="11"/>
+      <c r="HH12" s="11"/>
+      <c r="HI12" s="11"/>
+      <c r="HJ12" s="11"/>
+      <c r="HK12" s="11"/>
+      <c r="HL12" s="11"/>
+      <c r="HM12" s="11"/>
+      <c r="HN12" s="11"/>
+      <c r="HO12" s="11"/>
+      <c r="HP12" s="11"/>
+      <c r="HQ12" s="11"/>
+      <c r="HR12" s="11"/>
+      <c r="HS12" s="11"/>
+      <c r="HT12" s="11"/>
+      <c r="HU12" s="11"/>
+      <c r="HV12" s="11"/>
+      <c r="HW12" s="11"/>
+      <c r="HX12" s="11"/>
+      <c r="HY12" s="11"/>
+      <c r="HZ12" s="11"/>
+      <c r="IA12" s="11"/>
+      <c r="IB12" s="11"/>
+      <c r="IC12" s="11"/>
+      <c r="ID12" s="11"/>
+      <c r="IE12" s="11"/>
+      <c r="IF12" s="11"/>
+      <c r="IG12" s="11"/>
+      <c r="IH12" s="11"/>
+      <c r="II12" s="11"/>
+      <c r="IJ12" s="11"/>
+      <c r="IK12" s="11"/>
+      <c r="IL12" s="11"/>
+      <c r="IM12" s="11"/>
+      <c r="IN12" s="11"/>
+      <c r="IO12" s="11"/>
+      <c r="IP12" s="11"/>
+      <c r="IQ12" s="11"/>
+      <c r="IR12" s="11"/>
+      <c r="IS12" s="11"/>
+      <c r="IT12" s="11"/>
+      <c r="IU12" s="11"/>
+      <c r="IV12" s="11"/>
+      <c r="IW12" s="11"/>
+      <c r="IX12" s="11"/>
+      <c r="IY12" s="11"/>
+      <c r="IZ12" s="11"/>
+      <c r="JA12" s="11"/>
+      <c r="JB12" s="11"/>
+      <c r="JC12" s="11"/>
+      <c r="JD12" s="11"/>
+      <c r="JE12" s="11"/>
+      <c r="JF12" s="11"/>
+      <c r="JG12" s="11"/>
+      <c r="JH12" s="11"/>
+      <c r="JI12" s="11"/>
+      <c r="JJ12" s="11"/>
+      <c r="JK12" s="11"/>
+      <c r="JL12" s="11"/>
+      <c r="JM12" s="11"/>
+      <c r="JN12" s="11"/>
+      <c r="JO12" s="11"/>
+      <c r="JP12" s="11"/>
+      <c r="JQ12" s="11"/>
+      <c r="JR12" s="11"/>
+      <c r="JS12" s="11"/>
+      <c r="JT12" s="11"/>
+      <c r="JU12" s="11"/>
+      <c r="JV12" s="11"/>
+      <c r="JW12" s="11"/>
+      <c r="JX12" s="11"/>
+      <c r="JY12" s="11"/>
+      <c r="JZ12" s="11"/>
+      <c r="KA12" s="11"/>
+      <c r="KB12" s="11"/>
+      <c r="KC12" s="11"/>
+      <c r="KD12" s="11"/>
+      <c r="KE12" s="11"/>
+      <c r="KF12" s="11"/>
+      <c r="KG12" s="11"/>
+      <c r="KH12" s="11"/>
+      <c r="KI12" s="11"/>
+      <c r="KJ12" s="11"/>
+      <c r="KK12" s="11"/>
+      <c r="KL12" s="11"/>
+      <c r="KM12" s="11"/>
+      <c r="KN12" s="11"/>
+      <c r="KO12" s="11"/>
+      <c r="KP12" s="11"/>
+      <c r="KQ12" s="11"/>
+      <c r="KR12" s="11"/>
+      <c r="KS12" s="11"/>
+      <c r="KT12" s="11"/>
+      <c r="KU12" s="11"/>
+      <c r="KV12" s="11"/>
+      <c r="KW12" s="11"/>
+      <c r="KX12" s="11"/>
+      <c r="KY12" s="11"/>
+      <c r="KZ12" s="11"/>
+      <c r="LA12" s="11"/>
+      <c r="LB12" s="11"/>
+      <c r="LC12" s="11"/>
+      <c r="LD12" s="11"/>
+      <c r="LE12" s="11"/>
+      <c r="LF12" s="11"/>
+      <c r="LG12" s="11"/>
+      <c r="LH12" s="11"/>
+      <c r="LI12" s="11"/>
+      <c r="LJ12" s="11"/>
+      <c r="LK12" s="11"/>
+      <c r="LL12" s="11"/>
+      <c r="LM12" s="11"/>
+      <c r="LN12" s="11"/>
+      <c r="LO12" s="11"/>
+      <c r="LP12" s="11"/>
+      <c r="LQ12" s="11"/>
+      <c r="LR12" s="11"/>
+      <c r="LS12" s="11"/>
+      <c r="LT12" s="11"/>
+      <c r="LU12" s="11"/>
+      <c r="LV12" s="11"/>
+      <c r="LW12" s="11"/>
+      <c r="LX12" s="11"/>
+      <c r="LY12" s="11"/>
+      <c r="LZ12" s="11"/>
+      <c r="MA12" s="11"/>
+      <c r="MB12" s="11"/>
+      <c r="MC12" s="11"/>
+      <c r="MD12" s="11"/>
+      <c r="ME12" s="11"/>
+      <c r="MF12" s="11"/>
+      <c r="MG12" s="11"/>
+      <c r="MH12" s="11"/>
+      <c r="MI12" s="11"/>
+      <c r="MJ12" s="11"/>
+      <c r="MK12" s="11"/>
+      <c r="ML12" s="11"/>
+      <c r="MM12" s="11"/>
+      <c r="MN12" s="11"/>
+      <c r="MO12" s="11"/>
+      <c r="MP12" s="11"/>
+      <c r="MQ12" s="11"/>
+      <c r="MR12" s="11"/>
+      <c r="MS12" s="11"/>
+      <c r="MT12" s="11"/>
+      <c r="MU12" s="11"/>
+      <c r="MV12" s="11"/>
+      <c r="MW12" s="11"/>
+      <c r="MX12" s="11"/>
+      <c r="MY12" s="11"/>
+      <c r="MZ12" s="11"/>
+      <c r="NA12" s="11"/>
+      <c r="NB12" s="11"/>
+      <c r="NC12" s="11"/>
+      <c r="ND12" s="11"/>
+      <c r="NE12" s="11"/>
+      <c r="NF12" s="11"/>
+      <c r="NG12" s="11"/>
+      <c r="NH12" s="11"/>
+      <c r="NI12" s="11"/>
+      <c r="NJ12" s="11"/>
+      <c r="NK12" s="11"/>
+      <c r="NL12" s="11"/>
+      <c r="NM12" s="11"/>
+      <c r="NN12" s="11"/>
+      <c r="NO12" s="11"/>
+      <c r="NP12" s="11"/>
+      <c r="NQ12" s="11"/>
+      <c r="NR12" s="11"/>
+      <c r="NS12" s="11"/>
+      <c r="NT12" s="11"/>
+      <c r="NU12" s="11"/>
+      <c r="NV12" s="11"/>
+      <c r="NW12" s="11"/>
+      <c r="NX12" s="11"/>
+      <c r="NY12" s="11"/>
+      <c r="NZ12" s="11"/>
+      <c r="OA12" s="11"/>
+      <c r="OB12" s="11"/>
+      <c r="OC12" s="11"/>
+      <c r="OD12" s="11"/>
+      <c r="OE12" s="11"/>
+      <c r="OF12" s="11"/>
+      <c r="OG12" s="11"/>
+      <c r="OH12" s="11"/>
+      <c r="OI12" s="11"/>
+      <c r="OJ12" s="11"/>
+      <c r="OK12" s="11"/>
+      <c r="OL12" s="11"/>
+      <c r="OM12" s="11"/>
+      <c r="ON12" s="11"/>
+      <c r="OO12" s="11"/>
+      <c r="OP12" s="11"/>
+      <c r="OQ12" s="11"/>
+      <c r="OR12" s="11"/>
+      <c r="OS12" s="11"/>
+      <c r="OT12" s="11"/>
+      <c r="OU12" s="11"/>
+      <c r="OV12" s="11"/>
+      <c r="OW12" s="11"/>
+      <c r="OX12" s="11"/>
+      <c r="OY12" s="11"/>
+      <c r="OZ12" s="11"/>
+      <c r="PA12" s="11"/>
+      <c r="PB12" s="11"/>
+      <c r="PC12" s="11"/>
+      <c r="PD12" s="11"/>
+      <c r="PE12" s="11"/>
+      <c r="PF12" s="11"/>
+      <c r="PG12" s="11"/>
+      <c r="PH12" s="11"/>
+      <c r="PI12" s="11"/>
+      <c r="PJ12" s="11"/>
+      <c r="PK12" s="11"/>
+      <c r="PL12" s="11"/>
+      <c r="PM12" s="11"/>
+      <c r="PN12" s="11"/>
+      <c r="PO12" s="11"/>
+      <c r="PP12" s="11"/>
+      <c r="PQ12" s="11"/>
+      <c r="PR12" s="11"/>
+      <c r="PS12" s="11"/>
+      <c r="PT12" s="11"/>
+      <c r="PU12" s="11"/>
+      <c r="PV12" s="11"/>
+      <c r="PW12" s="11"/>
+      <c r="PX12" s="11"/>
+      <c r="PY12" s="11"/>
+      <c r="PZ12" s="11"/>
+      <c r="QA12" s="11"/>
+      <c r="QB12" s="11"/>
+      <c r="QC12" s="11"/>
+      <c r="QD12" s="11"/>
+      <c r="QE12" s="11"/>
+      <c r="QF12" s="11"/>
+      <c r="QG12" s="11"/>
+      <c r="QH12" s="11"/>
+      <c r="QI12" s="11"/>
+      <c r="QJ12" s="11"/>
+      <c r="QK12" s="11"/>
+      <c r="QL12" s="11"/>
+      <c r="QM12" s="11"/>
+      <c r="QN12" s="11"/>
+      <c r="QO12" s="11"/>
+      <c r="QP12" s="11"/>
+      <c r="QQ12" s="11"/>
+      <c r="QR12" s="11"/>
+      <c r="QS12" s="11"/>
+      <c r="QT12" s="11"/>
+      <c r="QU12" s="11"/>
+      <c r="QV12" s="11"/>
+      <c r="QW12" s="11"/>
+      <c r="QX12" s="11"/>
+      <c r="QY12" s="11"/>
+      <c r="QZ12" s="11"/>
+      <c r="RA12" s="11"/>
+      <c r="RB12" s="11"/>
+      <c r="RC12" s="11"/>
+      <c r="RD12" s="11"/>
+      <c r="RE12" s="11"/>
+      <c r="RF12" s="11"/>
+      <c r="RG12" s="11"/>
+      <c r="RH12" s="11"/>
+      <c r="RI12" s="11"/>
+      <c r="RJ12" s="11"/>
+      <c r="RK12" s="11"/>
+      <c r="RL12" s="11"/>
+      <c r="RM12" s="11"/>
+      <c r="RN12" s="11"/>
+      <c r="RO12" s="11"/>
+      <c r="RP12" s="11"/>
+      <c r="RQ12" s="11"/>
+      <c r="RR12" s="11"/>
+      <c r="RS12" s="11"/>
+      <c r="RT12" s="11"/>
+      <c r="RU12" s="11"/>
+      <c r="RV12" s="11"/>
+      <c r="RW12" s="11"/>
+      <c r="RX12" s="11"/>
+      <c r="RY12" s="11"/>
+      <c r="RZ12" s="11"/>
+      <c r="SA12" s="11"/>
+      <c r="SB12" s="11"/>
+      <c r="SC12" s="11"/>
+      <c r="SD12" s="11"/>
+      <c r="SE12" s="11"/>
+      <c r="SF12" s="11"/>
+      <c r="SG12" s="11"/>
+      <c r="SH12" s="11"/>
+      <c r="SI12" s="11"/>
+      <c r="SJ12" s="11"/>
+      <c r="SK12" s="11"/>
+      <c r="SL12" s="11"/>
+      <c r="SM12" s="11"/>
+      <c r="SN12" s="11"/>
+      <c r="SO12" s="11"/>
+      <c r="SP12" s="11"/>
+      <c r="SQ12" s="11"/>
+      <c r="SR12" s="11"/>
+      <c r="SS12" s="11"/>
+      <c r="ST12" s="11"/>
+      <c r="SU12" s="11"/>
+      <c r="SV12" s="11"/>
+      <c r="SW12" s="11"/>
+      <c r="SX12" s="11"/>
+      <c r="SY12" s="11"/>
+      <c r="SZ12" s="11"/>
+      <c r="TA12" s="11"/>
+      <c r="TB12" s="11"/>
+      <c r="TC12" s="11"/>
+      <c r="TD12" s="11"/>
+      <c r="TE12" s="11"/>
+      <c r="TF12" s="11"/>
+      <c r="TG12" s="11"/>
+      <c r="TH12" s="11"/>
+      <c r="TI12" s="11"/>
+      <c r="TJ12" s="11"/>
+      <c r="TK12" s="11"/>
+      <c r="TL12" s="11"/>
+      <c r="TM12" s="11"/>
+      <c r="TN12" s="11"/>
+      <c r="TO12" s="11"/>
+      <c r="TP12" s="11"/>
+      <c r="TQ12" s="11"/>
+      <c r="TR12" s="11"/>
+      <c r="TS12" s="11"/>
+      <c r="TT12" s="11"/>
+      <c r="TU12" s="11"/>
+      <c r="TV12" s="11"/>
+      <c r="TW12" s="11"/>
+      <c r="TX12" s="11"/>
+      <c r="TY12" s="11"/>
+      <c r="TZ12" s="11"/>
+      <c r="UA12" s="11"/>
+      <c r="UB12" s="11"/>
+      <c r="UC12" s="11"/>
+      <c r="UD12" s="11"/>
+      <c r="UE12" s="11"/>
+      <c r="UF12" s="11"/>
+      <c r="UG12" s="11"/>
+      <c r="UH12" s="11"/>
+      <c r="UI12" s="11"/>
+      <c r="UJ12" s="11"/>
+      <c r="UK12" s="11"/>
+      <c r="UL12" s="11"/>
+      <c r="UM12" s="11"/>
+      <c r="UN12" s="11"/>
+      <c r="UO12" s="11"/>
+      <c r="UP12" s="11"/>
+      <c r="UQ12" s="11"/>
+      <c r="UR12" s="11"/>
+      <c r="US12" s="11"/>
+      <c r="UT12" s="11"/>
+      <c r="UU12" s="11"/>
+      <c r="UV12" s="11"/>
+      <c r="UW12" s="11"/>
+      <c r="UX12" s="11"/>
+      <c r="UY12" s="11"/>
+      <c r="UZ12" s="11"/>
+      <c r="VA12" s="11"/>
+      <c r="VB12" s="11"/>
+      <c r="VC12" s="11"/>
+      <c r="VD12" s="11"/>
+      <c r="VE12" s="11"/>
+      <c r="VF12" s="11"/>
+      <c r="VG12" s="11"/>
+      <c r="VH12" s="11"/>
+      <c r="VI12" s="11"/>
+      <c r="VJ12" s="11"/>
+      <c r="VK12" s="11"/>
+      <c r="VL12" s="11"/>
+      <c r="VM12" s="11"/>
+      <c r="VN12" s="11"/>
+      <c r="VO12" s="11"/>
+      <c r="VP12" s="11"/>
+      <c r="VQ12" s="11"/>
+      <c r="VR12" s="11"/>
+      <c r="VS12" s="11"/>
+      <c r="VT12" s="11"/>
+      <c r="VU12" s="11"/>
+      <c r="VV12" s="11"/>
+      <c r="VW12" s="11"/>
+      <c r="VX12" s="11"/>
+      <c r="VY12" s="11"/>
+      <c r="VZ12" s="11"/>
+      <c r="WA12" s="11"/>
+      <c r="WB12" s="11"/>
+      <c r="WC12" s="11"/>
+      <c r="WD12" s="11"/>
+      <c r="WE12" s="11"/>
+      <c r="WF12" s="11"/>
+      <c r="WG12" s="11"/>
+      <c r="WH12" s="11"/>
+      <c r="WI12" s="11"/>
+      <c r="WJ12" s="11"/>
+      <c r="WK12" s="11"/>
+      <c r="WL12" s="11"/>
+      <c r="WM12" s="11"/>
+      <c r="WN12" s="11"/>
+      <c r="WO12" s="11"/>
+      <c r="WP12" s="11"/>
+      <c r="WQ12" s="11"/>
+      <c r="WR12" s="11"/>
+      <c r="WS12" s="11"/>
+      <c r="WT12" s="11"/>
+      <c r="WU12" s="11"/>
+      <c r="WV12" s="11"/>
+      <c r="WW12" s="11"/>
+      <c r="WX12" s="11"/>
+      <c r="WY12" s="11"/>
+      <c r="WZ12" s="11"/>
+      <c r="XA12" s="11"/>
+      <c r="XB12" s="11"/>
+      <c r="XC12" s="11"/>
+      <c r="XD12" s="11"/>
+      <c r="XE12" s="11"/>
+      <c r="XF12" s="11"/>
+      <c r="XG12" s="11"/>
+      <c r="XH12" s="11"/>
+      <c r="XI12" s="11"/>
+      <c r="XJ12" s="11"/>
+      <c r="XK12" s="11"/>
+      <c r="XL12" s="11"/>
+      <c r="XM12" s="11"/>
+      <c r="XN12" s="11"/>
+      <c r="XO12" s="11"/>
+      <c r="XP12" s="11"/>
+      <c r="XQ12" s="11"/>
+      <c r="XR12" s="11"/>
+      <c r="XS12" s="11"/>
+      <c r="XT12" s="11"/>
+      <c r="XU12" s="11"/>
+      <c r="XV12" s="11"/>
+      <c r="XW12" s="11"/>
+      <c r="XX12" s="11"/>
+      <c r="XY12" s="11"/>
+      <c r="XZ12" s="11"/>
+      <c r="YA12" s="11"/>
+      <c r="YB12" s="11"/>
+      <c r="YC12" s="11"/>
+      <c r="YD12" s="11"/>
+      <c r="YE12" s="11"/>
+      <c r="YF12" s="11"/>
+      <c r="YG12" s="11"/>
+      <c r="YH12" s="11"/>
+      <c r="YI12" s="11"/>
+      <c r="YJ12" s="11"/>
+      <c r="YK12" s="11"/>
+      <c r="YL12" s="11"/>
+      <c r="YM12" s="11"/>
+      <c r="YN12" s="11"/>
+      <c r="YO12" s="11"/>
+      <c r="YP12" s="11"/>
+      <c r="YQ12" s="11"/>
+      <c r="YR12" s="11"/>
+      <c r="YS12" s="11"/>
+      <c r="YT12" s="11"/>
+      <c r="YU12" s="11"/>
+      <c r="YV12" s="11"/>
+      <c r="YW12" s="11"/>
+      <c r="YX12" s="11"/>
+      <c r="YY12" s="11"/>
+      <c r="YZ12" s="11"/>
+      <c r="ZA12" s="11"/>
+      <c r="ZB12" s="11"/>
+      <c r="ZC12" s="11"/>
+      <c r="ZD12" s="11"/>
+      <c r="ZE12" s="11"/>
+      <c r="ZF12" s="11"/>
+      <c r="ZG12" s="11"/>
+      <c r="ZH12" s="11"/>
+      <c r="ZI12" s="11"/>
+      <c r="ZJ12" s="11"/>
+      <c r="ZK12" s="11"/>
+      <c r="ZL12" s="11"/>
+      <c r="ZM12" s="11"/>
+      <c r="ZN12" s="11"/>
+      <c r="ZO12" s="11"/>
+      <c r="ZP12" s="11"/>
+      <c r="ZQ12" s="11"/>
+      <c r="ZR12" s="11"/>
+      <c r="ZS12" s="11"/>
+      <c r="ZT12" s="11"/>
+      <c r="ZU12" s="11"/>
+      <c r="ZV12" s="11"/>
+      <c r="ZW12" s="11"/>
+      <c r="ZX12" s="11"/>
+      <c r="ZY12" s="11"/>
+      <c r="ZZ12" s="11"/>
+      <c r="AAA12" s="11"/>
+      <c r="AAB12" s="11"/>
+      <c r="AAC12" s="11"/>
+      <c r="AAD12" s="11"/>
+      <c r="AAE12" s="11"/>
+      <c r="AAF12" s="11"/>
+      <c r="AAG12" s="11"/>
+      <c r="AAH12" s="11"/>
+      <c r="AAI12" s="11"/>
+      <c r="AAJ12" s="11"/>
+      <c r="AAK12" s="11"/>
+      <c r="AAL12" s="11"/>
+      <c r="AAM12" s="11"/>
+      <c r="AAN12" s="11"/>
+      <c r="AAO12" s="11"/>
+      <c r="AAP12" s="11"/>
+      <c r="AAQ12" s="11"/>
+      <c r="AAR12" s="11"/>
+      <c r="AAS12" s="11"/>
+      <c r="AAT12" s="11"/>
+      <c r="AAU12" s="11"/>
+      <c r="AAV12" s="11"/>
+      <c r="AAW12" s="11"/>
+      <c r="AAX12" s="11"/>
+      <c r="AAY12" s="11"/>
+      <c r="AAZ12" s="11"/>
+      <c r="ABA12" s="11"/>
+      <c r="ABB12" s="11"/>
+      <c r="ABC12" s="11"/>
+      <c r="ABD12" s="11"/>
+      <c r="ABE12" s="11"/>
+      <c r="ABF12" s="11"/>
+      <c r="ABG12" s="11"/>
+      <c r="ABH12" s="11"/>
+      <c r="ABI12" s="11"/>
+      <c r="ABJ12" s="11"/>
+      <c r="ABK12" s="11"/>
+      <c r="ABL12" s="11"/>
+      <c r="ABM12" s="11"/>
+      <c r="ABN12" s="11"/>
+      <c r="ABO12" s="11"/>
+      <c r="ABP12" s="11"/>
+      <c r="ABQ12" s="11"/>
+      <c r="ABR12" s="11"/>
+      <c r="ABS12" s="11"/>
+      <c r="ABT12" s="11"/>
+      <c r="ABU12" s="11"/>
+      <c r="ABV12" s="11"/>
+      <c r="ABW12" s="11"/>
+      <c r="ABX12" s="11"/>
+      <c r="ABY12" s="11"/>
+      <c r="ABZ12" s="11"/>
+      <c r="ACA12" s="11"/>
+      <c r="ACB12" s="11"/>
+      <c r="ACC12" s="11"/>
+      <c r="ACD12" s="11"/>
+      <c r="ACE12" s="11"/>
+      <c r="ACF12" s="11"/>
+      <c r="ACG12" s="11"/>
+      <c r="ACH12" s="11"/>
+      <c r="ACI12" s="11"/>
+      <c r="ACJ12" s="11"/>
+      <c r="ACK12" s="11"/>
+      <c r="ACL12" s="11"/>
+      <c r="ACM12" s="11"/>
+      <c r="ACN12" s="11"/>
+      <c r="ACO12" s="11"/>
+      <c r="ACP12" s="11"/>
+      <c r="ACQ12" s="11"/>
+      <c r="ACR12" s="11"/>
+      <c r="ACS12" s="11"/>
+      <c r="ACT12" s="11"/>
+      <c r="ACU12" s="11"/>
+      <c r="ACV12" s="11"/>
+      <c r="ACW12" s="11"/>
+      <c r="ACX12" s="11"/>
+      <c r="ACY12" s="11"/>
+      <c r="ACZ12" s="11"/>
+      <c r="ADA12" s="11"/>
+      <c r="ADB12" s="11"/>
+      <c r="ADC12" s="11"/>
+      <c r="ADD12" s="11"/>
+      <c r="ADE12" s="11"/>
+      <c r="ADF12" s="11"/>
+      <c r="ADG12" s="11"/>
+      <c r="ADH12" s="11"/>
+      <c r="ADI12" s="11"/>
+      <c r="ADJ12" s="11"/>
+      <c r="ADK12" s="11"/>
+      <c r="ADL12" s="11"/>
+      <c r="ADM12" s="11"/>
+      <c r="ADN12" s="11"/>
+      <c r="ADO12" s="11"/>
+      <c r="ADP12" s="11"/>
+      <c r="ADQ12" s="11"/>
+      <c r="ADR12" s="11"/>
+      <c r="ADS12" s="11"/>
+      <c r="ADT12" s="11"/>
+      <c r="ADU12" s="11"/>
+      <c r="ADV12" s="11"/>
+      <c r="ADW12" s="11"/>
+      <c r="ADX12" s="11"/>
+      <c r="ADY12" s="11"/>
+      <c r="ADZ12" s="11"/>
+      <c r="AEA12" s="11"/>
+      <c r="AEB12" s="11"/>
+      <c r="AEC12" s="11"/>
+      <c r="AED12" s="11"/>
+      <c r="AEE12" s="11"/>
+      <c r="AEF12" s="11"/>
+      <c r="AEG12" s="11"/>
+      <c r="AEH12" s="11"/>
+      <c r="AEI12" s="11"/>
+      <c r="AEJ12" s="11"/>
+      <c r="AEK12" s="11"/>
+      <c r="AEL12" s="11"/>
+      <c r="AEM12" s="11"/>
+      <c r="AEN12" s="11"/>
+      <c r="AEO12" s="11"/>
+      <c r="AEP12" s="11"/>
+      <c r="AEQ12" s="11"/>
+      <c r="AER12" s="11"/>
+      <c r="AES12" s="11"/>
+      <c r="AET12" s="11"/>
+      <c r="AEU12" s="11"/>
+      <c r="AEV12" s="11"/>
+      <c r="AEW12" s="11"/>
+      <c r="AEX12" s="11"/>
+      <c r="AEY12" s="11"/>
+      <c r="AEZ12" s="11"/>
+      <c r="AFA12" s="11"/>
+      <c r="AFB12" s="11"/>
+      <c r="AFC12" s="11"/>
+      <c r="AFD12" s="11"/>
+      <c r="AFE12" s="11"/>
+      <c r="AFF12" s="11"/>
+      <c r="AFG12" s="11"/>
+      <c r="AFH12" s="11"/>
+      <c r="AFI12" s="11"/>
+      <c r="AFJ12" s="11"/>
+      <c r="AFK12" s="11"/>
+      <c r="AFL12" s="11"/>
+      <c r="AFM12" s="11"/>
+      <c r="AFN12" s="11"/>
+      <c r="AFO12" s="11"/>
+      <c r="AFP12" s="11"/>
+      <c r="AFQ12" s="11"/>
+      <c r="AFR12" s="11"/>
+      <c r="AFS12" s="11"/>
+      <c r="AFT12" s="11"/>
+      <c r="AFU12" s="11"/>
+      <c r="AFV12" s="11"/>
+      <c r="AFW12" s="11"/>
+      <c r="AFX12" s="11"/>
+      <c r="AFY12" s="11"/>
+      <c r="AFZ12" s="11"/>
+      <c r="AGA12" s="11"/>
+      <c r="AGB12" s="11"/>
+      <c r="AGC12" s="11"/>
+      <c r="AGD12" s="11"/>
+      <c r="AGE12" s="11"/>
+      <c r="AGF12" s="11"/>
+      <c r="AGG12" s="11"/>
+      <c r="AGH12" s="11"/>
+      <c r="AGI12" s="11"/>
+      <c r="AGJ12" s="11"/>
+      <c r="AGK12" s="11"/>
+      <c r="AGL12" s="11"/>
+      <c r="AGM12" s="11"/>
+      <c r="AGN12" s="11"/>
+      <c r="AGO12" s="11"/>
+      <c r="AGP12" s="11"/>
+      <c r="AGQ12" s="11"/>
+      <c r="AGR12" s="11"/>
+      <c r="AGS12" s="11"/>
+      <c r="AGT12" s="11"/>
+      <c r="AGU12" s="11"/>
+      <c r="AGV12" s="11"/>
+      <c r="AGW12" s="11"/>
+      <c r="AGX12" s="11"/>
+      <c r="AGY12" s="11"/>
+      <c r="AGZ12" s="11"/>
+      <c r="AHA12" s="11"/>
+      <c r="AHB12" s="11"/>
+      <c r="AHC12" s="11"/>
+      <c r="AHD12" s="11"/>
+      <c r="AHE12" s="11"/>
+      <c r="AHF12" s="11"/>
+      <c r="AHG12" s="11"/>
+      <c r="AHH12" s="11"/>
+      <c r="AHI12" s="11"/>
+      <c r="AHJ12" s="11"/>
+      <c r="AHK12" s="11"/>
+      <c r="AHL12" s="11"/>
+      <c r="AHM12" s="11"/>
+      <c r="AHN12" s="11"/>
+      <c r="AHO12" s="11"/>
+      <c r="AHP12" s="11"/>
+      <c r="AHQ12" s="11"/>
+      <c r="AHR12" s="11"/>
+      <c r="AHS12" s="11"/>
+      <c r="AHT12" s="11"/>
+      <c r="AHU12" s="11"/>
+      <c r="AHV12" s="11"/>
+      <c r="AHW12" s="11"/>
+      <c r="AHX12" s="11"/>
+      <c r="AHY12" s="11"/>
+      <c r="AHZ12" s="11"/>
+      <c r="AIA12" s="11"/>
+      <c r="AIB12" s="11"/>
+      <c r="AIC12" s="11"/>
+      <c r="AID12" s="11"/>
+      <c r="AIE12" s="11"/>
+      <c r="AIF12" s="11"/>
+      <c r="AIG12" s="11"/>
+      <c r="AIH12" s="11"/>
+      <c r="AII12" s="11"/>
+      <c r="AIJ12" s="11"/>
+      <c r="AIK12" s="11"/>
+      <c r="AIL12" s="11"/>
+      <c r="AIM12" s="11"/>
+      <c r="AIN12" s="11"/>
+      <c r="AIO12" s="11"/>
+      <c r="AIP12" s="11"/>
+      <c r="AIQ12" s="11"/>
+      <c r="AIR12" s="11"/>
+      <c r="AIS12" s="11"/>
+      <c r="AIT12" s="11"/>
+      <c r="AIU12" s="11"/>
+      <c r="AIV12" s="11"/>
+      <c r="AIW12" s="11"/>
+      <c r="AIX12" s="11"/>
+      <c r="AIY12" s="11"/>
+      <c r="AIZ12" s="11"/>
+      <c r="AJA12" s="11"/>
+      <c r="AJB12" s="11"/>
+      <c r="AJC12" s="11"/>
+      <c r="AJD12" s="11"/>
+      <c r="AJE12" s="11"/>
+      <c r="AJF12" s="11"/>
+      <c r="AJG12" s="11"/>
+      <c r="AJH12" s="11"/>
+      <c r="AJI12" s="11"/>
+      <c r="AJJ12" s="11"/>
+      <c r="AJK12" s="11"/>
+      <c r="AJL12" s="11"/>
+      <c r="AJM12" s="11"/>
+      <c r="AJN12" s="11"/>
+      <c r="AJO12" s="11"/>
+      <c r="AJP12" s="11"/>
+      <c r="AJQ12" s="11"/>
+      <c r="AJR12" s="11"/>
+      <c r="AJS12" s="11"/>
+      <c r="AJT12" s="11"/>
+      <c r="AJU12" s="11"/>
+      <c r="AJV12" s="11"/>
+      <c r="AJW12" s="11"/>
+      <c r="AJX12" s="11"/>
+      <c r="AJY12" s="11"/>
+      <c r="AJZ12" s="11"/>
+      <c r="AKA12" s="11"/>
+      <c r="AKB12" s="11"/>
+      <c r="AKC12" s="11"/>
+      <c r="AKD12" s="11"/>
+      <c r="AKE12" s="11"/>
+      <c r="AKF12" s="11"/>
+      <c r="AKG12" s="11"/>
+      <c r="AKH12" s="11"/>
+      <c r="AKI12" s="11"/>
+      <c r="AKJ12" s="11"/>
+      <c r="AKK12" s="11"/>
+      <c r="AKL12" s="11"/>
+      <c r="AKM12" s="11"/>
+      <c r="AKN12" s="11"/>
+      <c r="AKO12" s="11"/>
+      <c r="AKP12" s="11"/>
+      <c r="AKQ12" s="11"/>
+      <c r="AKR12" s="11"/>
+      <c r="AKS12" s="11"/>
+      <c r="AKT12" s="11"/>
+      <c r="AKU12" s="11"/>
+      <c r="AKV12" s="11"/>
+      <c r="AKW12" s="11"/>
+      <c r="AKX12" s="11"/>
+      <c r="AKY12" s="11"/>
+      <c r="AKZ12" s="11"/>
+      <c r="ALA12" s="11"/>
+      <c r="ALB12" s="11"/>
+      <c r="ALC12" s="11"/>
+      <c r="ALD12" s="11"/>
+      <c r="ALE12" s="11"/>
+      <c r="ALF12" s="11"/>
+      <c r="ALG12" s="11"/>
+      <c r="ALH12" s="11"/>
+      <c r="ALI12" s="11"/>
+      <c r="ALJ12" s="11"/>
+      <c r="ALK12" s="11"/>
+      <c r="ALL12" s="11"/>
+      <c r="ALM12" s="11"/>
+      <c r="ALN12" s="11"/>
+      <c r="ALO12" s="11"/>
+      <c r="ALP12" s="11"/>
+      <c r="ALQ12" s="11"/>
+      <c r="ALR12" s="11"/>
+      <c r="ALS12" s="11"/>
+      <c r="ALT12" s="11"/>
+      <c r="ALU12" s="11"/>
+      <c r="ALV12" s="11"/>
+      <c r="ALW12" s="11"/>
+      <c r="ALX12" s="11"/>
+      <c r="ALY12" s="11"/>
+      <c r="ALZ12" s="11"/>
+      <c r="AMA12" s="11"/>
+      <c r="AMB12" s="11"/>
+      <c r="AMC12" s="11"/>
+      <c r="AMD12" s="11"/>
+      <c r="AME12" s="11"/>
+      <c r="AMF12" s="11"/>
+      <c r="AMG12" s="11"/>
+      <c r="AMH12" s="11"/>
+      <c r="AMI12" s="11"/>
+      <c r="AMJ12" s="11"/>
+      <c r="AMK12" s="11"/>
+      <c r="AML12" s="11"/>
+    </row>
+    <row r="13" spans="1:1026" s="14" customFormat="1">
+      <c r="A13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="11"/>
+      <c r="CG13" s="11"/>
+      <c r="CH13" s="11"/>
+      <c r="CI13" s="11"/>
+      <c r="CJ13" s="11"/>
+      <c r="CK13" s="11"/>
+      <c r="CL13" s="11"/>
+      <c r="CM13" s="11"/>
+      <c r="CN13" s="11"/>
+      <c r="CO13" s="11"/>
+      <c r="CP13" s="11"/>
+      <c r="CQ13" s="11"/>
+      <c r="CR13" s="11"/>
+      <c r="CS13" s="11"/>
+      <c r="CT13" s="11"/>
+      <c r="CU13" s="11"/>
+      <c r="CV13" s="11"/>
+      <c r="CW13" s="11"/>
+      <c r="CX13" s="11"/>
+      <c r="CY13" s="11"/>
+      <c r="CZ13" s="11"/>
+      <c r="DA13" s="11"/>
+      <c r="DB13" s="11"/>
+      <c r="DC13" s="11"/>
+      <c r="DD13" s="11"/>
+      <c r="DE13" s="11"/>
+      <c r="DF13" s="11"/>
+      <c r="DG13" s="11"/>
+      <c r="DH13" s="11"/>
+      <c r="DI13" s="11"/>
+      <c r="DJ13" s="11"/>
+      <c r="DK13" s="11"/>
+      <c r="DL13" s="11"/>
+      <c r="DM13" s="11"/>
+      <c r="DN13" s="11"/>
+      <c r="DO13" s="11"/>
+      <c r="DP13" s="11"/>
+      <c r="DQ13" s="11"/>
+      <c r="DR13" s="11"/>
+      <c r="DS13" s="11"/>
+      <c r="DT13" s="11"/>
+      <c r="DU13" s="11"/>
+      <c r="DV13" s="11"/>
+      <c r="DW13" s="11"/>
+      <c r="DX13" s="11"/>
+      <c r="DY13" s="11"/>
+      <c r="DZ13" s="11"/>
+      <c r="EA13" s="11"/>
+      <c r="EB13" s="11"/>
+      <c r="EC13" s="11"/>
+      <c r="ED13" s="11"/>
+      <c r="EE13" s="11"/>
+      <c r="EF13" s="11"/>
+      <c r="EG13" s="11"/>
+      <c r="EH13" s="11"/>
+      <c r="EI13" s="11"/>
+      <c r="EJ13" s="11"/>
+      <c r="EK13" s="11"/>
+      <c r="EL13" s="11"/>
+      <c r="EM13" s="11"/>
+      <c r="EN13" s="11"/>
+      <c r="EO13" s="11"/>
+      <c r="EP13" s="11"/>
+      <c r="EQ13" s="11"/>
+      <c r="ER13" s="11"/>
+      <c r="ES13" s="11"/>
+      <c r="ET13" s="11"/>
+      <c r="EU13" s="11"/>
+      <c r="EV13" s="11"/>
+      <c r="EW13" s="11"/>
+      <c r="EX13" s="11"/>
+      <c r="EY13" s="11"/>
+      <c r="EZ13" s="11"/>
+      <c r="FA13" s="11"/>
+      <c r="FB13" s="11"/>
+      <c r="FC13" s="11"/>
+      <c r="FD13" s="11"/>
+      <c r="FE13" s="11"/>
+      <c r="FF13" s="11"/>
+      <c r="FG13" s="11"/>
+      <c r="FH13" s="11"/>
+      <c r="FI13" s="11"/>
+      <c r="FJ13" s="11"/>
+      <c r="FK13" s="11"/>
+      <c r="FL13" s="11"/>
+      <c r="FM13" s="11"/>
+      <c r="FN13" s="11"/>
+      <c r="FO13" s="11"/>
+      <c r="FP13" s="11"/>
+      <c r="FQ13" s="11"/>
+      <c r="FR13" s="11"/>
+      <c r="FS13" s="11"/>
+      <c r="FT13" s="11"/>
+      <c r="FU13" s="11"/>
+      <c r="FV13" s="11"/>
+      <c r="FW13" s="11"/>
+      <c r="FX13" s="11"/>
+      <c r="FY13" s="11"/>
+      <c r="FZ13" s="11"/>
+      <c r="GA13" s="11"/>
+      <c r="GB13" s="11"/>
+      <c r="GC13" s="11"/>
+      <c r="GD13" s="11"/>
+      <c r="GE13" s="11"/>
+      <c r="GF13" s="11"/>
+      <c r="GG13" s="11"/>
+      <c r="GH13" s="11"/>
+      <c r="GI13" s="11"/>
+      <c r="GJ13" s="11"/>
+      <c r="GK13" s="11"/>
+      <c r="GL13" s="11"/>
+      <c r="GM13" s="11"/>
+      <c r="GN13" s="11"/>
+      <c r="GO13" s="11"/>
+      <c r="GP13" s="11"/>
+      <c r="GQ13" s="11"/>
+      <c r="GR13" s="11"/>
+      <c r="GS13" s="11"/>
+      <c r="GT13" s="11"/>
+      <c r="GU13" s="11"/>
+      <c r="GV13" s="11"/>
+      <c r="GW13" s="11"/>
+      <c r="GX13" s="11"/>
+      <c r="GY13" s="11"/>
+      <c r="GZ13" s="11"/>
+      <c r="HA13" s="11"/>
+      <c r="HB13" s="11"/>
+      <c r="HC13" s="11"/>
+      <c r="HD13" s="11"/>
+      <c r="HE13" s="11"/>
+      <c r="HF13" s="11"/>
+      <c r="HG13" s="11"/>
+      <c r="HH13" s="11"/>
+      <c r="HI13" s="11"/>
+      <c r="HJ13" s="11"/>
+      <c r="HK13" s="11"/>
+      <c r="HL13" s="11"/>
+      <c r="HM13" s="11"/>
+      <c r="HN13" s="11"/>
+      <c r="HO13" s="11"/>
+      <c r="HP13" s="11"/>
+      <c r="HQ13" s="11"/>
+      <c r="HR13" s="11"/>
+      <c r="HS13" s="11"/>
+      <c r="HT13" s="11"/>
+      <c r="HU13" s="11"/>
+      <c r="HV13" s="11"/>
+      <c r="HW13" s="11"/>
+      <c r="HX13" s="11"/>
+      <c r="HY13" s="11"/>
+      <c r="HZ13" s="11"/>
+      <c r="IA13" s="11"/>
+      <c r="IB13" s="11"/>
+      <c r="IC13" s="11"/>
+      <c r="ID13" s="11"/>
+      <c r="IE13" s="11"/>
+      <c r="IF13" s="11"/>
+      <c r="IG13" s="11"/>
+      <c r="IH13" s="11"/>
+      <c r="II13" s="11"/>
+      <c r="IJ13" s="11"/>
+      <c r="IK13" s="11"/>
+      <c r="IL13" s="11"/>
+      <c r="IM13" s="11"/>
+      <c r="IN13" s="11"/>
+      <c r="IO13" s="11"/>
+      <c r="IP13" s="11"/>
+      <c r="IQ13" s="11"/>
+      <c r="IR13" s="11"/>
+      <c r="IS13" s="11"/>
+      <c r="IT13" s="11"/>
+      <c r="IU13" s="11"/>
+      <c r="IV13" s="11"/>
+      <c r="IW13" s="11"/>
+      <c r="IX13" s="11"/>
+      <c r="IY13" s="11"/>
+      <c r="IZ13" s="11"/>
+      <c r="JA13" s="11"/>
+      <c r="JB13" s="11"/>
+      <c r="JC13" s="11"/>
+      <c r="JD13" s="11"/>
+      <c r="JE13" s="11"/>
+      <c r="JF13" s="11"/>
+      <c r="JG13" s="11"/>
+      <c r="JH13" s="11"/>
+      <c r="JI13" s="11"/>
+      <c r="JJ13" s="11"/>
+      <c r="JK13" s="11"/>
+      <c r="JL13" s="11"/>
+      <c r="JM13" s="11"/>
+      <c r="JN13" s="11"/>
+      <c r="JO13" s="11"/>
+      <c r="JP13" s="11"/>
+      <c r="JQ13" s="11"/>
+      <c r="JR13" s="11"/>
+      <c r="JS13" s="11"/>
+      <c r="JT13" s="11"/>
+      <c r="JU13" s="11"/>
+      <c r="JV13" s="11"/>
+      <c r="JW13" s="11"/>
+      <c r="JX13" s="11"/>
+      <c r="JY13" s="11"/>
+      <c r="JZ13" s="11"/>
+      <c r="KA13" s="11"/>
+      <c r="KB13" s="11"/>
+      <c r="KC13" s="11"/>
+      <c r="KD13" s="11"/>
+      <c r="KE13" s="11"/>
+      <c r="KF13" s="11"/>
+      <c r="KG13" s="11"/>
+      <c r="KH13" s="11"/>
+      <c r="KI13" s="11"/>
+      <c r="KJ13" s="11"/>
+      <c r="KK13" s="11"/>
+      <c r="KL13" s="11"/>
+      <c r="KM13" s="11"/>
+      <c r="KN13" s="11"/>
+      <c r="KO13" s="11"/>
+      <c r="KP13" s="11"/>
+      <c r="KQ13" s="11"/>
+      <c r="KR13" s="11"/>
+      <c r="KS13" s="11"/>
+      <c r="KT13" s="11"/>
+      <c r="KU13" s="11"/>
+      <c r="KV13" s="11"/>
+      <c r="KW13" s="11"/>
+      <c r="KX13" s="11"/>
+      <c r="KY13" s="11"/>
+      <c r="KZ13" s="11"/>
+      <c r="LA13" s="11"/>
+      <c r="LB13" s="11"/>
+      <c r="LC13" s="11"/>
+      <c r="LD13" s="11"/>
+      <c r="LE13" s="11"/>
+      <c r="LF13" s="11"/>
+      <c r="LG13" s="11"/>
+      <c r="LH13" s="11"/>
+      <c r="LI13" s="11"/>
+      <c r="LJ13" s="11"/>
+      <c r="LK13" s="11"/>
+      <c r="LL13" s="11"/>
+      <c r="LM13" s="11"/>
+      <c r="LN13" s="11"/>
+      <c r="LO13" s="11"/>
+      <c r="LP13" s="11"/>
+      <c r="LQ13" s="11"/>
+      <c r="LR13" s="11"/>
+      <c r="LS13" s="11"/>
+      <c r="LT13" s="11"/>
+      <c r="LU13" s="11"/>
+      <c r="LV13" s="11"/>
+      <c r="LW13" s="11"/>
+      <c r="LX13" s="11"/>
+      <c r="LY13" s="11"/>
+      <c r="LZ13" s="11"/>
+      <c r="MA13" s="11"/>
+      <c r="MB13" s="11"/>
+      <c r="MC13" s="11"/>
+      <c r="MD13" s="11"/>
+      <c r="ME13" s="11"/>
+      <c r="MF13" s="11"/>
+      <c r="MG13" s="11"/>
+      <c r="MH13" s="11"/>
+      <c r="MI13" s="11"/>
+      <c r="MJ13" s="11"/>
+      <c r="MK13" s="11"/>
+      <c r="ML13" s="11"/>
+      <c r="MM13" s="11"/>
+      <c r="MN13" s="11"/>
+      <c r="MO13" s="11"/>
+      <c r="MP13" s="11"/>
+      <c r="MQ13" s="11"/>
+      <c r="MR13" s="11"/>
+      <c r="MS13" s="11"/>
+      <c r="MT13" s="11"/>
+      <c r="MU13" s="11"/>
+      <c r="MV13" s="11"/>
+      <c r="MW13" s="11"/>
+      <c r="MX13" s="11"/>
+      <c r="MY13" s="11"/>
+      <c r="MZ13" s="11"/>
+      <c r="NA13" s="11"/>
+      <c r="NB13" s="11"/>
+      <c r="NC13" s="11"/>
+      <c r="ND13" s="11"/>
+      <c r="NE13" s="11"/>
+      <c r="NF13" s="11"/>
+      <c r="NG13" s="11"/>
+      <c r="NH13" s="11"/>
+      <c r="NI13" s="11"/>
+      <c r="NJ13" s="11"/>
+      <c r="NK13" s="11"/>
+      <c r="NL13" s="11"/>
+      <c r="NM13" s="11"/>
+      <c r="NN13" s="11"/>
+      <c r="NO13" s="11"/>
+      <c r="NP13" s="11"/>
+      <c r="NQ13" s="11"/>
+      <c r="NR13" s="11"/>
+      <c r="NS13" s="11"/>
+      <c r="NT13" s="11"/>
+      <c r="NU13" s="11"/>
+      <c r="NV13" s="11"/>
+      <c r="NW13" s="11"/>
+      <c r="NX13" s="11"/>
+      <c r="NY13" s="11"/>
+      <c r="NZ13" s="11"/>
+      <c r="OA13" s="11"/>
+      <c r="OB13" s="11"/>
+      <c r="OC13" s="11"/>
+      <c r="OD13" s="11"/>
+      <c r="OE13" s="11"/>
+      <c r="OF13" s="11"/>
+      <c r="OG13" s="11"/>
+      <c r="OH13" s="11"/>
+      <c r="OI13" s="11"/>
+      <c r="OJ13" s="11"/>
+      <c r="OK13" s="11"/>
+      <c r="OL13" s="11"/>
+      <c r="OM13" s="11"/>
+      <c r="ON13" s="11"/>
+      <c r="OO13" s="11"/>
+      <c r="OP13" s="11"/>
+      <c r="OQ13" s="11"/>
+      <c r="OR13" s="11"/>
+      <c r="OS13" s="11"/>
+      <c r="OT13" s="11"/>
+      <c r="OU13" s="11"/>
+      <c r="OV13" s="11"/>
+      <c r="OW13" s="11"/>
+      <c r="OX13" s="11"/>
+      <c r="OY13" s="11"/>
+      <c r="OZ13" s="11"/>
+      <c r="PA13" s="11"/>
+      <c r="PB13" s="11"/>
+      <c r="PC13" s="11"/>
+      <c r="PD13" s="11"/>
+      <c r="PE13" s="11"/>
+      <c r="PF13" s="11"/>
+      <c r="PG13" s="11"/>
+      <c r="PH13" s="11"/>
+      <c r="PI13" s="11"/>
+      <c r="PJ13" s="11"/>
+      <c r="PK13" s="11"/>
+      <c r="PL13" s="11"/>
+      <c r="PM13" s="11"/>
+      <c r="PN13" s="11"/>
+      <c r="PO13" s="11"/>
+      <c r="PP13" s="11"/>
+      <c r="PQ13" s="11"/>
+      <c r="PR13" s="11"/>
+      <c r="PS13" s="11"/>
+      <c r="PT13" s="11"/>
+      <c r="PU13" s="11"/>
+      <c r="PV13" s="11"/>
+      <c r="PW13" s="11"/>
+      <c r="PX13" s="11"/>
+      <c r="PY13" s="11"/>
+      <c r="PZ13" s="11"/>
+      <c r="QA13" s="11"/>
+      <c r="QB13" s="11"/>
+      <c r="QC13" s="11"/>
+      <c r="QD13" s="11"/>
+      <c r="QE13" s="11"/>
+      <c r="QF13" s="11"/>
+      <c r="QG13" s="11"/>
+      <c r="QH13" s="11"/>
+      <c r="QI13" s="11"/>
+      <c r="QJ13" s="11"/>
+      <c r="QK13" s="11"/>
+      <c r="QL13" s="11"/>
+      <c r="QM13" s="11"/>
+      <c r="QN13" s="11"/>
+      <c r="QO13" s="11"/>
+      <c r="QP13" s="11"/>
+      <c r="QQ13" s="11"/>
+      <c r="QR13" s="11"/>
+      <c r="QS13" s="11"/>
+      <c r="QT13" s="11"/>
+      <c r="QU13" s="11"/>
+      <c r="QV13" s="11"/>
+      <c r="QW13" s="11"/>
+      <c r="QX13" s="11"/>
+      <c r="QY13" s="11"/>
+      <c r="QZ13" s="11"/>
+      <c r="RA13" s="11"/>
+      <c r="RB13" s="11"/>
+      <c r="RC13" s="11"/>
+      <c r="RD13" s="11"/>
+      <c r="RE13" s="11"/>
+      <c r="RF13" s="11"/>
+      <c r="RG13" s="11"/>
+      <c r="RH13" s="11"/>
+      <c r="RI13" s="11"/>
+      <c r="RJ13" s="11"/>
+      <c r="RK13" s="11"/>
+      <c r="RL13" s="11"/>
+      <c r="RM13" s="11"/>
+      <c r="RN13" s="11"/>
+      <c r="RO13" s="11"/>
+      <c r="RP13" s="11"/>
+      <c r="RQ13" s="11"/>
+      <c r="RR13" s="11"/>
+      <c r="RS13" s="11"/>
+      <c r="RT13" s="11"/>
+      <c r="RU13" s="11"/>
+      <c r="RV13" s="11"/>
+      <c r="RW13" s="11"/>
+      <c r="RX13" s="11"/>
+      <c r="RY13" s="11"/>
+      <c r="RZ13" s="11"/>
+      <c r="SA13" s="11"/>
+      <c r="SB13" s="11"/>
+      <c r="SC13" s="11"/>
+      <c r="SD13" s="11"/>
+      <c r="SE13" s="11"/>
+      <c r="SF13" s="11"/>
+      <c r="SG13" s="11"/>
+      <c r="SH13" s="11"/>
+      <c r="SI13" s="11"/>
+      <c r="SJ13" s="11"/>
+      <c r="SK13" s="11"/>
+      <c r="SL13" s="11"/>
+      <c r="SM13" s="11"/>
+      <c r="SN13" s="11"/>
+      <c r="SO13" s="11"/>
+      <c r="SP13" s="11"/>
+      <c r="SQ13" s="11"/>
+      <c r="SR13" s="11"/>
+      <c r="SS13" s="11"/>
+      <c r="ST13" s="11"/>
+      <c r="SU13" s="11"/>
+      <c r="SV13" s="11"/>
+      <c r="SW13" s="11"/>
+      <c r="SX13" s="11"/>
+      <c r="SY13" s="11"/>
+      <c r="SZ13" s="11"/>
+      <c r="TA13" s="11"/>
+      <c r="TB13" s="11"/>
+      <c r="TC13" s="11"/>
+      <c r="TD13" s="11"/>
+      <c r="TE13" s="11"/>
+      <c r="TF13" s="11"/>
+      <c r="TG13" s="11"/>
+      <c r="TH13" s="11"/>
+      <c r="TI13" s="11"/>
+      <c r="TJ13" s="11"/>
+      <c r="TK13" s="11"/>
+      <c r="TL13" s="11"/>
+      <c r="TM13" s="11"/>
+      <c r="TN13" s="11"/>
+      <c r="TO13" s="11"/>
+      <c r="TP13" s="11"/>
+      <c r="TQ13" s="11"/>
+      <c r="TR13" s="11"/>
+      <c r="TS13" s="11"/>
+      <c r="TT13" s="11"/>
+      <c r="TU13" s="11"/>
+      <c r="TV13" s="11"/>
+      <c r="TW13" s="11"/>
+      <c r="TX13" s="11"/>
+      <c r="TY13" s="11"/>
+      <c r="TZ13" s="11"/>
+      <c r="UA13" s="11"/>
+      <c r="UB13" s="11"/>
+      <c r="UC13" s="11"/>
+      <c r="UD13" s="11"/>
+      <c r="UE13" s="11"/>
+      <c r="UF13" s="11"/>
+      <c r="UG13" s="11"/>
+      <c r="UH13" s="11"/>
+      <c r="UI13" s="11"/>
+      <c r="UJ13" s="11"/>
+      <c r="UK13" s="11"/>
+      <c r="UL13" s="11"/>
+      <c r="UM13" s="11"/>
+      <c r="UN13" s="11"/>
+      <c r="UO13" s="11"/>
+      <c r="UP13" s="11"/>
+      <c r="UQ13" s="11"/>
+      <c r="UR13" s="11"/>
+      <c r="US13" s="11"/>
+      <c r="UT13" s="11"/>
+      <c r="UU13" s="11"/>
+      <c r="UV13" s="11"/>
+      <c r="UW13" s="11"/>
+      <c r="UX13" s="11"/>
+      <c r="UY13" s="11"/>
+      <c r="UZ13" s="11"/>
+      <c r="VA13" s="11"/>
+      <c r="VB13" s="11"/>
+      <c r="VC13" s="11"/>
+      <c r="VD13" s="11"/>
+      <c r="VE13" s="11"/>
+      <c r="VF13" s="11"/>
+      <c r="VG13" s="11"/>
+      <c r="VH13" s="11"/>
+      <c r="VI13" s="11"/>
+      <c r="VJ13" s="11"/>
+      <c r="VK13" s="11"/>
+      <c r="VL13" s="11"/>
+      <c r="VM13" s="11"/>
+      <c r="VN13" s="11"/>
+      <c r="VO13" s="11"/>
+      <c r="VP13" s="11"/>
+      <c r="VQ13" s="11"/>
+      <c r="VR13" s="11"/>
+      <c r="VS13" s="11"/>
+      <c r="VT13" s="11"/>
+      <c r="VU13" s="11"/>
+      <c r="VV13" s="11"/>
+      <c r="VW13" s="11"/>
+      <c r="VX13" s="11"/>
+      <c r="VY13" s="11"/>
+      <c r="VZ13" s="11"/>
+      <c r="WA13" s="11"/>
+      <c r="WB13" s="11"/>
+      <c r="WC13" s="11"/>
+      <c r="WD13" s="11"/>
+      <c r="WE13" s="11"/>
+      <c r="WF13" s="11"/>
+      <c r="WG13" s="11"/>
+      <c r="WH13" s="11"/>
+      <c r="WI13" s="11"/>
+      <c r="WJ13" s="11"/>
+      <c r="WK13" s="11"/>
+      <c r="WL13" s="11"/>
+      <c r="WM13" s="11"/>
+      <c r="WN13" s="11"/>
+      <c r="WO13" s="11"/>
+      <c r="WP13" s="11"/>
+      <c r="WQ13" s="11"/>
+      <c r="WR13" s="11"/>
+      <c r="WS13" s="11"/>
+      <c r="WT13" s="11"/>
+      <c r="WU13" s="11"/>
+      <c r="WV13" s="11"/>
+      <c r="WW13" s="11"/>
+      <c r="WX13" s="11"/>
+      <c r="WY13" s="11"/>
+      <c r="WZ13" s="11"/>
+      <c r="XA13" s="11"/>
+      <c r="XB13" s="11"/>
+      <c r="XC13" s="11"/>
+      <c r="XD13" s="11"/>
+      <c r="XE13" s="11"/>
+      <c r="XF13" s="11"/>
+      <c r="XG13" s="11"/>
+      <c r="XH13" s="11"/>
+      <c r="XI13" s="11"/>
+      <c r="XJ13" s="11"/>
+      <c r="XK13" s="11"/>
+      <c r="XL13" s="11"/>
+      <c r="XM13" s="11"/>
+      <c r="XN13" s="11"/>
+      <c r="XO13" s="11"/>
+      <c r="XP13" s="11"/>
+      <c r="XQ13" s="11"/>
+      <c r="XR13" s="11"/>
+      <c r="XS13" s="11"/>
+      <c r="XT13" s="11"/>
+      <c r="XU13" s="11"/>
+      <c r="XV13" s="11"/>
+      <c r="XW13" s="11"/>
+      <c r="XX13" s="11"/>
+      <c r="XY13" s="11"/>
+      <c r="XZ13" s="11"/>
+      <c r="YA13" s="11"/>
+      <c r="YB13" s="11"/>
+      <c r="YC13" s="11"/>
+      <c r="YD13" s="11"/>
+      <c r="YE13" s="11"/>
+      <c r="YF13" s="11"/>
+      <c r="YG13" s="11"/>
+      <c r="YH13" s="11"/>
+      <c r="YI13" s="11"/>
+      <c r="YJ13" s="11"/>
+      <c r="YK13" s="11"/>
+      <c r="YL13" s="11"/>
+      <c r="YM13" s="11"/>
+      <c r="YN13" s="11"/>
+      <c r="YO13" s="11"/>
+      <c r="YP13" s="11"/>
+      <c r="YQ13" s="11"/>
+      <c r="YR13" s="11"/>
+      <c r="YS13" s="11"/>
+      <c r="YT13" s="11"/>
+      <c r="YU13" s="11"/>
+      <c r="YV13" s="11"/>
+      <c r="YW13" s="11"/>
+      <c r="YX13" s="11"/>
+      <c r="YY13" s="11"/>
+      <c r="YZ13" s="11"/>
+      <c r="ZA13" s="11"/>
+      <c r="ZB13" s="11"/>
+      <c r="ZC13" s="11"/>
+      <c r="ZD13" s="11"/>
+      <c r="ZE13" s="11"/>
+      <c r="ZF13" s="11"/>
+      <c r="ZG13" s="11"/>
+      <c r="ZH13" s="11"/>
+      <c r="ZI13" s="11"/>
+      <c r="ZJ13" s="11"/>
+      <c r="ZK13" s="11"/>
+      <c r="ZL13" s="11"/>
+      <c r="ZM13" s="11"/>
+      <c r="ZN13" s="11"/>
+      <c r="ZO13" s="11"/>
+      <c r="ZP13" s="11"/>
+      <c r="ZQ13" s="11"/>
+      <c r="ZR13" s="11"/>
+      <c r="ZS13" s="11"/>
+      <c r="ZT13" s="11"/>
+      <c r="ZU13" s="11"/>
+      <c r="ZV13" s="11"/>
+      <c r="ZW13" s="11"/>
+      <c r="ZX13" s="11"/>
+      <c r="ZY13" s="11"/>
+      <c r="ZZ13" s="11"/>
+      <c r="AAA13" s="11"/>
+      <c r="AAB13" s="11"/>
+      <c r="AAC13" s="11"/>
+      <c r="AAD13" s="11"/>
+      <c r="AAE13" s="11"/>
+      <c r="AAF13" s="11"/>
+      <c r="AAG13" s="11"/>
+      <c r="AAH13" s="11"/>
+      <c r="AAI13" s="11"/>
+      <c r="AAJ13" s="11"/>
+      <c r="AAK13" s="11"/>
+      <c r="AAL13" s="11"/>
+      <c r="AAM13" s="11"/>
+      <c r="AAN13" s="11"/>
+      <c r="AAO13" s="11"/>
+      <c r="AAP13" s="11"/>
+      <c r="AAQ13" s="11"/>
+      <c r="AAR13" s="11"/>
+      <c r="AAS13" s="11"/>
+      <c r="AAT13" s="11"/>
+      <c r="AAU13" s="11"/>
+      <c r="AAV13" s="11"/>
+      <c r="AAW13" s="11"/>
+      <c r="AAX13" s="11"/>
+      <c r="AAY13" s="11"/>
+      <c r="AAZ13" s="11"/>
+      <c r="ABA13" s="11"/>
+      <c r="ABB13" s="11"/>
+      <c r="ABC13" s="11"/>
+      <c r="ABD13" s="11"/>
+      <c r="ABE13" s="11"/>
+      <c r="ABF13" s="11"/>
+      <c r="ABG13" s="11"/>
+      <c r="ABH13" s="11"/>
+      <c r="ABI13" s="11"/>
+      <c r="ABJ13" s="11"/>
+      <c r="ABK13" s="11"/>
+      <c r="ABL13" s="11"/>
+      <c r="ABM13" s="11"/>
+      <c r="ABN13" s="11"/>
+      <c r="ABO13" s="11"/>
+      <c r="ABP13" s="11"/>
+      <c r="ABQ13" s="11"/>
+      <c r="ABR13" s="11"/>
+      <c r="ABS13" s="11"/>
+      <c r="ABT13" s="11"/>
+      <c r="ABU13" s="11"/>
+      <c r="ABV13" s="11"/>
+      <c r="ABW13" s="11"/>
+      <c r="ABX13" s="11"/>
+      <c r="ABY13" s="11"/>
+      <c r="ABZ13" s="11"/>
+      <c r="ACA13" s="11"/>
+      <c r="ACB13" s="11"/>
+      <c r="ACC13" s="11"/>
+      <c r="ACD13" s="11"/>
+      <c r="ACE13" s="11"/>
+      <c r="ACF13" s="11"/>
+      <c r="ACG13" s="11"/>
+      <c r="ACH13" s="11"/>
+      <c r="ACI13" s="11"/>
+      <c r="ACJ13" s="11"/>
+      <c r="ACK13" s="11"/>
+      <c r="ACL13" s="11"/>
+      <c r="ACM13" s="11"/>
+      <c r="ACN13" s="11"/>
+      <c r="ACO13" s="11"/>
+      <c r="ACP13" s="11"/>
+      <c r="ACQ13" s="11"/>
+      <c r="ACR13" s="11"/>
+      <c r="ACS13" s="11"/>
+      <c r="ACT13" s="11"/>
+      <c r="ACU13" s="11"/>
+      <c r="ACV13" s="11"/>
+      <c r="ACW13" s="11"/>
+      <c r="ACX13" s="11"/>
+      <c r="ACY13" s="11"/>
+      <c r="ACZ13" s="11"/>
+      <c r="ADA13" s="11"/>
+      <c r="ADB13" s="11"/>
+      <c r="ADC13" s="11"/>
+      <c r="ADD13" s="11"/>
+      <c r="ADE13" s="11"/>
+      <c r="ADF13" s="11"/>
+      <c r="ADG13" s="11"/>
+      <c r="ADH13" s="11"/>
+      <c r="ADI13" s="11"/>
+      <c r="ADJ13" s="11"/>
+      <c r="ADK13" s="11"/>
+      <c r="ADL13" s="11"/>
+      <c r="ADM13" s="11"/>
+      <c r="ADN13" s="11"/>
+      <c r="ADO13" s="11"/>
+      <c r="ADP13" s="11"/>
+      <c r="ADQ13" s="11"/>
+      <c r="ADR13" s="11"/>
+      <c r="ADS13" s="11"/>
+      <c r="ADT13" s="11"/>
+      <c r="ADU13" s="11"/>
+      <c r="ADV13" s="11"/>
+      <c r="ADW13" s="11"/>
+      <c r="ADX13" s="11"/>
+      <c r="ADY13" s="11"/>
+      <c r="ADZ13" s="11"/>
+      <c r="AEA13" s="11"/>
+      <c r="AEB13" s="11"/>
+      <c r="AEC13" s="11"/>
+      <c r="AED13" s="11"/>
+      <c r="AEE13" s="11"/>
+      <c r="AEF13" s="11"/>
+      <c r="AEG13" s="11"/>
+      <c r="AEH13" s="11"/>
+      <c r="AEI13" s="11"/>
+      <c r="AEJ13" s="11"/>
+      <c r="AEK13" s="11"/>
+      <c r="AEL13" s="11"/>
+      <c r="AEM13" s="11"/>
+      <c r="AEN13" s="11"/>
+      <c r="AEO13" s="11"/>
+      <c r="AEP13" s="11"/>
+      <c r="AEQ13" s="11"/>
+      <c r="AER13" s="11"/>
+      <c r="AES13" s="11"/>
+      <c r="AET13" s="11"/>
+      <c r="AEU13" s="11"/>
+      <c r="AEV13" s="11"/>
+      <c r="AEW13" s="11"/>
+      <c r="AEX13" s="11"/>
+      <c r="AEY13" s="11"/>
+      <c r="AEZ13" s="11"/>
+      <c r="AFA13" s="11"/>
+      <c r="AFB13" s="11"/>
+      <c r="AFC13" s="11"/>
+      <c r="AFD13" s="11"/>
+      <c r="AFE13" s="11"/>
+      <c r="AFF13" s="11"/>
+      <c r="AFG13" s="11"/>
+      <c r="AFH13" s="11"/>
+      <c r="AFI13" s="11"/>
+      <c r="AFJ13" s="11"/>
+      <c r="AFK13" s="11"/>
+      <c r="AFL13" s="11"/>
+      <c r="AFM13" s="11"/>
+      <c r="AFN13" s="11"/>
+      <c r="AFO13" s="11"/>
+      <c r="AFP13" s="11"/>
+      <c r="AFQ13" s="11"/>
+      <c r="AFR13" s="11"/>
+      <c r="AFS13" s="11"/>
+      <c r="AFT13" s="11"/>
+      <c r="AFU13" s="11"/>
+      <c r="AFV13" s="11"/>
+      <c r="AFW13" s="11"/>
+      <c r="AFX13" s="11"/>
+      <c r="AFY13" s="11"/>
+      <c r="AFZ13" s="11"/>
+      <c r="AGA13" s="11"/>
+      <c r="AGB13" s="11"/>
+      <c r="AGC13" s="11"/>
+      <c r="AGD13" s="11"/>
+      <c r="AGE13" s="11"/>
+      <c r="AGF13" s="11"/>
+      <c r="AGG13" s="11"/>
+      <c r="AGH13" s="11"/>
+      <c r="AGI13" s="11"/>
+      <c r="AGJ13" s="11"/>
+      <c r="AGK13" s="11"/>
+      <c r="AGL13" s="11"/>
+      <c r="AGM13" s="11"/>
+      <c r="AGN13" s="11"/>
+      <c r="AGO13" s="11"/>
+      <c r="AGP13" s="11"/>
+      <c r="AGQ13" s="11"/>
+      <c r="AGR13" s="11"/>
+      <c r="AGS13" s="11"/>
+      <c r="AGT13" s="11"/>
+      <c r="AGU13" s="11"/>
+      <c r="AGV13" s="11"/>
+      <c r="AGW13" s="11"/>
+      <c r="AGX13" s="11"/>
+      <c r="AGY13" s="11"/>
+      <c r="AGZ13" s="11"/>
+      <c r="AHA13" s="11"/>
+      <c r="AHB13" s="11"/>
+      <c r="AHC13" s="11"/>
+      <c r="AHD13" s="11"/>
+      <c r="AHE13" s="11"/>
+      <c r="AHF13" s="11"/>
+      <c r="AHG13" s="11"/>
+      <c r="AHH13" s="11"/>
+      <c r="AHI13" s="11"/>
+      <c r="AHJ13" s="11"/>
+      <c r="AHK13" s="11"/>
+      <c r="AHL13" s="11"/>
+      <c r="AHM13" s="11"/>
+      <c r="AHN13" s="11"/>
+      <c r="AHO13" s="11"/>
+      <c r="AHP13" s="11"/>
+      <c r="AHQ13" s="11"/>
+      <c r="AHR13" s="11"/>
+      <c r="AHS13" s="11"/>
+      <c r="AHT13" s="11"/>
+      <c r="AHU13" s="11"/>
+      <c r="AHV13" s="11"/>
+      <c r="AHW13" s="11"/>
+      <c r="AHX13" s="11"/>
+      <c r="AHY13" s="11"/>
+      <c r="AHZ13" s="11"/>
+      <c r="AIA13" s="11"/>
+      <c r="AIB13" s="11"/>
+      <c r="AIC13" s="11"/>
+      <c r="AID13" s="11"/>
+      <c r="AIE13" s="11"/>
+      <c r="AIF13" s="11"/>
+      <c r="AIG13" s="11"/>
+      <c r="AIH13" s="11"/>
+      <c r="AII13" s="11"/>
+      <c r="AIJ13" s="11"/>
+      <c r="AIK13" s="11"/>
+      <c r="AIL13" s="11"/>
+      <c r="AIM13" s="11"/>
+      <c r="AIN13" s="11"/>
+      <c r="AIO13" s="11"/>
+      <c r="AIP13" s="11"/>
+      <c r="AIQ13" s="11"/>
+      <c r="AIR13" s="11"/>
+      <c r="AIS13" s="11"/>
+      <c r="AIT13" s="11"/>
+      <c r="AIU13" s="11"/>
+      <c r="AIV13" s="11"/>
+      <c r="AIW13" s="11"/>
+      <c r="AIX13" s="11"/>
+      <c r="AIY13" s="11"/>
+      <c r="AIZ13" s="11"/>
+      <c r="AJA13" s="11"/>
+      <c r="AJB13" s="11"/>
+      <c r="AJC13" s="11"/>
+      <c r="AJD13" s="11"/>
+      <c r="AJE13" s="11"/>
+      <c r="AJF13" s="11"/>
+      <c r="AJG13" s="11"/>
+      <c r="AJH13" s="11"/>
+      <c r="AJI13" s="11"/>
+      <c r="AJJ13" s="11"/>
+      <c r="AJK13" s="11"/>
+      <c r="AJL13" s="11"/>
+      <c r="AJM13" s="11"/>
+      <c r="AJN13" s="11"/>
+      <c r="AJO13" s="11"/>
+      <c r="AJP13" s="11"/>
+      <c r="AJQ13" s="11"/>
+      <c r="AJR13" s="11"/>
+      <c r="AJS13" s="11"/>
+      <c r="AJT13" s="11"/>
+      <c r="AJU13" s="11"/>
+      <c r="AJV13" s="11"/>
+      <c r="AJW13" s="11"/>
+      <c r="AJX13" s="11"/>
+      <c r="AJY13" s="11"/>
+      <c r="AJZ13" s="11"/>
+      <c r="AKA13" s="11"/>
+      <c r="AKB13" s="11"/>
+      <c r="AKC13" s="11"/>
+      <c r="AKD13" s="11"/>
+      <c r="AKE13" s="11"/>
+      <c r="AKF13" s="11"/>
+      <c r="AKG13" s="11"/>
+      <c r="AKH13" s="11"/>
+      <c r="AKI13" s="11"/>
+      <c r="AKJ13" s="11"/>
+      <c r="AKK13" s="11"/>
+      <c r="AKL13" s="11"/>
+      <c r="AKM13" s="11"/>
+      <c r="AKN13" s="11"/>
+      <c r="AKO13" s="11"/>
+      <c r="AKP13" s="11"/>
+      <c r="AKQ13" s="11"/>
+      <c r="AKR13" s="11"/>
+      <c r="AKS13" s="11"/>
+      <c r="AKT13" s="11"/>
+      <c r="AKU13" s="11"/>
+      <c r="AKV13" s="11"/>
+      <c r="AKW13" s="11"/>
+      <c r="AKX13" s="11"/>
+      <c r="AKY13" s="11"/>
+      <c r="AKZ13" s="11"/>
+      <c r="ALA13" s="11"/>
+      <c r="ALB13" s="11"/>
+      <c r="ALC13" s="11"/>
+      <c r="ALD13" s="11"/>
+      <c r="ALE13" s="11"/>
+      <c r="ALF13" s="11"/>
+      <c r="ALG13" s="11"/>
+      <c r="ALH13" s="11"/>
+      <c r="ALI13" s="11"/>
+      <c r="ALJ13" s="11"/>
+      <c r="ALK13" s="11"/>
+      <c r="ALL13" s="11"/>
+      <c r="ALM13" s="11"/>
+      <c r="ALN13" s="11"/>
+      <c r="ALO13" s="11"/>
+      <c r="ALP13" s="11"/>
+      <c r="ALQ13" s="11"/>
+      <c r="ALR13" s="11"/>
+      <c r="ALS13" s="11"/>
+      <c r="ALT13" s="11"/>
+      <c r="ALU13" s="11"/>
+      <c r="ALV13" s="11"/>
+      <c r="ALW13" s="11"/>
+      <c r="ALX13" s="11"/>
+      <c r="ALY13" s="11"/>
+      <c r="ALZ13" s="11"/>
+      <c r="AMA13" s="11"/>
+      <c r="AMB13" s="11"/>
+      <c r="AMC13" s="11"/>
+      <c r="AMD13" s="11"/>
+      <c r="AME13" s="11"/>
+      <c r="AMF13" s="11"/>
+      <c r="AMG13" s="11"/>
+      <c r="AMH13" s="11"/>
+      <c r="AMI13" s="11"/>
+      <c r="AMJ13" s="11"/>
+      <c r="AMK13" s="11"/>
+      <c r="AML13" s="11"/>
+    </row>
+    <row r="14" spans="1:1026" ht="232">
+      <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="130.5">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G14" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="145">
+    <row r="15" spans="1:1026" ht="145">
       <c r="A15" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1026" s="14" customFormat="1">
+      <c r="A16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="G16" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="11"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="11"/>
+      <c r="CF16" s="11"/>
+      <c r="CG16" s="11"/>
+      <c r="CH16" s="11"/>
+      <c r="CI16" s="11"/>
+      <c r="CJ16" s="11"/>
+      <c r="CK16" s="11"/>
+      <c r="CL16" s="11"/>
+      <c r="CM16" s="11"/>
+      <c r="CN16" s="11"/>
+      <c r="CO16" s="11"/>
+      <c r="CP16" s="11"/>
+      <c r="CQ16" s="11"/>
+      <c r="CR16" s="11"/>
+      <c r="CS16" s="11"/>
+      <c r="CT16" s="11"/>
+      <c r="CU16" s="11"/>
+      <c r="CV16" s="11"/>
+      <c r="CW16" s="11"/>
+      <c r="CX16" s="11"/>
+      <c r="CY16" s="11"/>
+      <c r="CZ16" s="11"/>
+      <c r="DA16" s="11"/>
+      <c r="DB16" s="11"/>
+      <c r="DC16" s="11"/>
+      <c r="DD16" s="11"/>
+      <c r="DE16" s="11"/>
+      <c r="DF16" s="11"/>
+      <c r="DG16" s="11"/>
+      <c r="DH16" s="11"/>
+      <c r="DI16" s="11"/>
+      <c r="DJ16" s="11"/>
+      <c r="DK16" s="11"/>
+      <c r="DL16" s="11"/>
+      <c r="DM16" s="11"/>
+      <c r="DN16" s="11"/>
+      <c r="DO16" s="11"/>
+      <c r="DP16" s="11"/>
+      <c r="DQ16" s="11"/>
+      <c r="DR16" s="11"/>
+      <c r="DS16" s="11"/>
+      <c r="DT16" s="11"/>
+      <c r="DU16" s="11"/>
+      <c r="DV16" s="11"/>
+      <c r="DW16" s="11"/>
+      <c r="DX16" s="11"/>
+      <c r="DY16" s="11"/>
+      <c r="DZ16" s="11"/>
+      <c r="EA16" s="11"/>
+      <c r="EB16" s="11"/>
+      <c r="EC16" s="11"/>
+      <c r="ED16" s="11"/>
+      <c r="EE16" s="11"/>
+      <c r="EF16" s="11"/>
+      <c r="EG16" s="11"/>
+      <c r="EH16" s="11"/>
+      <c r="EI16" s="11"/>
+      <c r="EJ16" s="11"/>
+      <c r="EK16" s="11"/>
+      <c r="EL16" s="11"/>
+      <c r="EM16" s="11"/>
+      <c r="EN16" s="11"/>
+      <c r="EO16" s="11"/>
+      <c r="EP16" s="11"/>
+      <c r="EQ16" s="11"/>
+      <c r="ER16" s="11"/>
+      <c r="ES16" s="11"/>
+      <c r="ET16" s="11"/>
+      <c r="EU16" s="11"/>
+      <c r="EV16" s="11"/>
+      <c r="EW16" s="11"/>
+      <c r="EX16" s="11"/>
+      <c r="EY16" s="11"/>
+      <c r="EZ16" s="11"/>
+      <c r="FA16" s="11"/>
+      <c r="FB16" s="11"/>
+      <c r="FC16" s="11"/>
+      <c r="FD16" s="11"/>
+      <c r="FE16" s="11"/>
+      <c r="FF16" s="11"/>
+      <c r="FG16" s="11"/>
+      <c r="FH16" s="11"/>
+      <c r="FI16" s="11"/>
+      <c r="FJ16" s="11"/>
+      <c r="FK16" s="11"/>
+      <c r="FL16" s="11"/>
+      <c r="FM16" s="11"/>
+      <c r="FN16" s="11"/>
+      <c r="FO16" s="11"/>
+      <c r="FP16" s="11"/>
+      <c r="FQ16" s="11"/>
+      <c r="FR16" s="11"/>
+      <c r="FS16" s="11"/>
+      <c r="FT16" s="11"/>
+      <c r="FU16" s="11"/>
+      <c r="FV16" s="11"/>
+      <c r="FW16" s="11"/>
+      <c r="FX16" s="11"/>
+      <c r="FY16" s="11"/>
+      <c r="FZ16" s="11"/>
+      <c r="GA16" s="11"/>
+      <c r="GB16" s="11"/>
+      <c r="GC16" s="11"/>
+      <c r="GD16" s="11"/>
+      <c r="GE16" s="11"/>
+      <c r="GF16" s="11"/>
+      <c r="GG16" s="11"/>
+      <c r="GH16" s="11"/>
+      <c r="GI16" s="11"/>
+      <c r="GJ16" s="11"/>
+      <c r="GK16" s="11"/>
+      <c r="GL16" s="11"/>
+      <c r="GM16" s="11"/>
+      <c r="GN16" s="11"/>
+      <c r="GO16" s="11"/>
+      <c r="GP16" s="11"/>
+      <c r="GQ16" s="11"/>
+      <c r="GR16" s="11"/>
+      <c r="GS16" s="11"/>
+      <c r="GT16" s="11"/>
+      <c r="GU16" s="11"/>
+      <c r="GV16" s="11"/>
+      <c r="GW16" s="11"/>
+      <c r="GX16" s="11"/>
+      <c r="GY16" s="11"/>
+      <c r="GZ16" s="11"/>
+      <c r="HA16" s="11"/>
+      <c r="HB16" s="11"/>
+      <c r="HC16" s="11"/>
+      <c r="HD16" s="11"/>
+      <c r="HE16" s="11"/>
+      <c r="HF16" s="11"/>
+      <c r="HG16" s="11"/>
+      <c r="HH16" s="11"/>
+      <c r="HI16" s="11"/>
+      <c r="HJ16" s="11"/>
+      <c r="HK16" s="11"/>
+      <c r="HL16" s="11"/>
+      <c r="HM16" s="11"/>
+      <c r="HN16" s="11"/>
+      <c r="HO16" s="11"/>
+      <c r="HP16" s="11"/>
+      <c r="HQ16" s="11"/>
+      <c r="HR16" s="11"/>
+      <c r="HS16" s="11"/>
+      <c r="HT16" s="11"/>
+      <c r="HU16" s="11"/>
+      <c r="HV16" s="11"/>
+      <c r="HW16" s="11"/>
+      <c r="HX16" s="11"/>
+      <c r="HY16" s="11"/>
+      <c r="HZ16" s="11"/>
+      <c r="IA16" s="11"/>
+      <c r="IB16" s="11"/>
+      <c r="IC16" s="11"/>
+      <c r="ID16" s="11"/>
+      <c r="IE16" s="11"/>
+      <c r="IF16" s="11"/>
+      <c r="IG16" s="11"/>
+      <c r="IH16" s="11"/>
+      <c r="II16" s="11"/>
+      <c r="IJ16" s="11"/>
+      <c r="IK16" s="11"/>
+      <c r="IL16" s="11"/>
+      <c r="IM16" s="11"/>
+      <c r="IN16" s="11"/>
+      <c r="IO16" s="11"/>
+      <c r="IP16" s="11"/>
+      <c r="IQ16" s="11"/>
+      <c r="IR16" s="11"/>
+      <c r="IS16" s="11"/>
+      <c r="IT16" s="11"/>
+      <c r="IU16" s="11"/>
+      <c r="IV16" s="11"/>
+      <c r="IW16" s="11"/>
+      <c r="IX16" s="11"/>
+      <c r="IY16" s="11"/>
+      <c r="IZ16" s="11"/>
+      <c r="JA16" s="11"/>
+      <c r="JB16" s="11"/>
+      <c r="JC16" s="11"/>
+      <c r="JD16" s="11"/>
+      <c r="JE16" s="11"/>
+      <c r="JF16" s="11"/>
+      <c r="JG16" s="11"/>
+      <c r="JH16" s="11"/>
+      <c r="JI16" s="11"/>
+      <c r="JJ16" s="11"/>
+      <c r="JK16" s="11"/>
+      <c r="JL16" s="11"/>
+      <c r="JM16" s="11"/>
+      <c r="JN16" s="11"/>
+      <c r="JO16" s="11"/>
+      <c r="JP16" s="11"/>
+      <c r="JQ16" s="11"/>
+      <c r="JR16" s="11"/>
+      <c r="JS16" s="11"/>
+      <c r="JT16" s="11"/>
+      <c r="JU16" s="11"/>
+      <c r="JV16" s="11"/>
+      <c r="JW16" s="11"/>
+      <c r="JX16" s="11"/>
+      <c r="JY16" s="11"/>
+      <c r="JZ16" s="11"/>
+      <c r="KA16" s="11"/>
+      <c r="KB16" s="11"/>
+      <c r="KC16" s="11"/>
+      <c r="KD16" s="11"/>
+      <c r="KE16" s="11"/>
+      <c r="KF16" s="11"/>
+      <c r="KG16" s="11"/>
+      <c r="KH16" s="11"/>
+      <c r="KI16" s="11"/>
+      <c r="KJ16" s="11"/>
+      <c r="KK16" s="11"/>
+      <c r="KL16" s="11"/>
+      <c r="KM16" s="11"/>
+      <c r="KN16" s="11"/>
+      <c r="KO16" s="11"/>
+      <c r="KP16" s="11"/>
+      <c r="KQ16" s="11"/>
+      <c r="KR16" s="11"/>
+      <c r="KS16" s="11"/>
+      <c r="KT16" s="11"/>
+      <c r="KU16" s="11"/>
+      <c r="KV16" s="11"/>
+      <c r="KW16" s="11"/>
+      <c r="KX16" s="11"/>
+      <c r="KY16" s="11"/>
+      <c r="KZ16" s="11"/>
+      <c r="LA16" s="11"/>
+      <c r="LB16" s="11"/>
+      <c r="LC16" s="11"/>
+      <c r="LD16" s="11"/>
+      <c r="LE16" s="11"/>
+      <c r="LF16" s="11"/>
+      <c r="LG16" s="11"/>
+      <c r="LH16" s="11"/>
+      <c r="LI16" s="11"/>
+      <c r="LJ16" s="11"/>
+      <c r="LK16" s="11"/>
+      <c r="LL16" s="11"/>
+      <c r="LM16" s="11"/>
+      <c r="LN16" s="11"/>
+      <c r="LO16" s="11"/>
+      <c r="LP16" s="11"/>
+      <c r="LQ16" s="11"/>
+      <c r="LR16" s="11"/>
+      <c r="LS16" s="11"/>
+      <c r="LT16" s="11"/>
+      <c r="LU16" s="11"/>
+      <c r="LV16" s="11"/>
+      <c r="LW16" s="11"/>
+      <c r="LX16" s="11"/>
+      <c r="LY16" s="11"/>
+      <c r="LZ16" s="11"/>
+      <c r="MA16" s="11"/>
+      <c r="MB16" s="11"/>
+      <c r="MC16" s="11"/>
+      <c r="MD16" s="11"/>
+      <c r="ME16" s="11"/>
+      <c r="MF16" s="11"/>
+      <c r="MG16" s="11"/>
+      <c r="MH16" s="11"/>
+      <c r="MI16" s="11"/>
+      <c r="MJ16" s="11"/>
+      <c r="MK16" s="11"/>
+      <c r="ML16" s="11"/>
+      <c r="MM16" s="11"/>
+      <c r="MN16" s="11"/>
+      <c r="MO16" s="11"/>
+      <c r="MP16" s="11"/>
+      <c r="MQ16" s="11"/>
+      <c r="MR16" s="11"/>
+      <c r="MS16" s="11"/>
+      <c r="MT16" s="11"/>
+      <c r="MU16" s="11"/>
+      <c r="MV16" s="11"/>
+      <c r="MW16" s="11"/>
+      <c r="MX16" s="11"/>
+      <c r="MY16" s="11"/>
+      <c r="MZ16" s="11"/>
+      <c r="NA16" s="11"/>
+      <c r="NB16" s="11"/>
+      <c r="NC16" s="11"/>
+      <c r="ND16" s="11"/>
+      <c r="NE16" s="11"/>
+      <c r="NF16" s="11"/>
+      <c r="NG16" s="11"/>
+      <c r="NH16" s="11"/>
+      <c r="NI16" s="11"/>
+      <c r="NJ16" s="11"/>
+      <c r="NK16" s="11"/>
+      <c r="NL16" s="11"/>
+      <c r="NM16" s="11"/>
+      <c r="NN16" s="11"/>
+      <c r="NO16" s="11"/>
+      <c r="NP16" s="11"/>
+      <c r="NQ16" s="11"/>
+      <c r="NR16" s="11"/>
+      <c r="NS16" s="11"/>
+      <c r="NT16" s="11"/>
+      <c r="NU16" s="11"/>
+      <c r="NV16" s="11"/>
+      <c r="NW16" s="11"/>
+      <c r="NX16" s="11"/>
+      <c r="NY16" s="11"/>
+      <c r="NZ16" s="11"/>
+      <c r="OA16" s="11"/>
+      <c r="OB16" s="11"/>
+      <c r="OC16" s="11"/>
+      <c r="OD16" s="11"/>
+      <c r="OE16" s="11"/>
+      <c r="OF16" s="11"/>
+      <c r="OG16" s="11"/>
+      <c r="OH16" s="11"/>
+      <c r="OI16" s="11"/>
+      <c r="OJ16" s="11"/>
+      <c r="OK16" s="11"/>
+      <c r="OL16" s="11"/>
+      <c r="OM16" s="11"/>
+      <c r="ON16" s="11"/>
+      <c r="OO16" s="11"/>
+      <c r="OP16" s="11"/>
+      <c r="OQ16" s="11"/>
+      <c r="OR16" s="11"/>
+      <c r="OS16" s="11"/>
+      <c r="OT16" s="11"/>
+      <c r="OU16" s="11"/>
+      <c r="OV16" s="11"/>
+      <c r="OW16" s="11"/>
+      <c r="OX16" s="11"/>
+      <c r="OY16" s="11"/>
+      <c r="OZ16" s="11"/>
+      <c r="PA16" s="11"/>
+      <c r="PB16" s="11"/>
+      <c r="PC16" s="11"/>
+      <c r="PD16" s="11"/>
+      <c r="PE16" s="11"/>
+      <c r="PF16" s="11"/>
+      <c r="PG16" s="11"/>
+      <c r="PH16" s="11"/>
+      <c r="PI16" s="11"/>
+      <c r="PJ16" s="11"/>
+      <c r="PK16" s="11"/>
+      <c r="PL16" s="11"/>
+      <c r="PM16" s="11"/>
+      <c r="PN16" s="11"/>
+      <c r="PO16" s="11"/>
+      <c r="PP16" s="11"/>
+      <c r="PQ16" s="11"/>
+      <c r="PR16" s="11"/>
+      <c r="PS16" s="11"/>
+      <c r="PT16" s="11"/>
+      <c r="PU16" s="11"/>
+      <c r="PV16" s="11"/>
+      <c r="PW16" s="11"/>
+      <c r="PX16" s="11"/>
+      <c r="PY16" s="11"/>
+      <c r="PZ16" s="11"/>
+      <c r="QA16" s="11"/>
+      <c r="QB16" s="11"/>
+      <c r="QC16" s="11"/>
+      <c r="QD16" s="11"/>
+      <c r="QE16" s="11"/>
+      <c r="QF16" s="11"/>
+      <c r="QG16" s="11"/>
+      <c r="QH16" s="11"/>
+      <c r="QI16" s="11"/>
+      <c r="QJ16" s="11"/>
+      <c r="QK16" s="11"/>
+      <c r="QL16" s="11"/>
+      <c r="QM16" s="11"/>
+      <c r="QN16" s="11"/>
+      <c r="QO16" s="11"/>
+      <c r="QP16" s="11"/>
+      <c r="QQ16" s="11"/>
+      <c r="QR16" s="11"/>
+      <c r="QS16" s="11"/>
+      <c r="QT16" s="11"/>
+      <c r="QU16" s="11"/>
+      <c r="QV16" s="11"/>
+      <c r="QW16" s="11"/>
+      <c r="QX16" s="11"/>
+      <c r="QY16" s="11"/>
+      <c r="QZ16" s="11"/>
+      <c r="RA16" s="11"/>
+      <c r="RB16" s="11"/>
+      <c r="RC16" s="11"/>
+      <c r="RD16" s="11"/>
+      <c r="RE16" s="11"/>
+      <c r="RF16" s="11"/>
+      <c r="RG16" s="11"/>
+      <c r="RH16" s="11"/>
+      <c r="RI16" s="11"/>
+      <c r="RJ16" s="11"/>
+      <c r="RK16" s="11"/>
+      <c r="RL16" s="11"/>
+      <c r="RM16" s="11"/>
+      <c r="RN16" s="11"/>
+      <c r="RO16" s="11"/>
+      <c r="RP16" s="11"/>
+      <c r="RQ16" s="11"/>
+      <c r="RR16" s="11"/>
+      <c r="RS16" s="11"/>
+      <c r="RT16" s="11"/>
+      <c r="RU16" s="11"/>
+      <c r="RV16" s="11"/>
+      <c r="RW16" s="11"/>
+      <c r="RX16" s="11"/>
+      <c r="RY16" s="11"/>
+      <c r="RZ16" s="11"/>
+      <c r="SA16" s="11"/>
+      <c r="SB16" s="11"/>
+      <c r="SC16" s="11"/>
+      <c r="SD16" s="11"/>
+      <c r="SE16" s="11"/>
+      <c r="SF16" s="11"/>
+      <c r="SG16" s="11"/>
+      <c r="SH16" s="11"/>
+      <c r="SI16" s="11"/>
+      <c r="SJ16" s="11"/>
+      <c r="SK16" s="11"/>
+      <c r="SL16" s="11"/>
+      <c r="SM16" s="11"/>
+      <c r="SN16" s="11"/>
+      <c r="SO16" s="11"/>
+      <c r="SP16" s="11"/>
+      <c r="SQ16" s="11"/>
+      <c r="SR16" s="11"/>
+      <c r="SS16" s="11"/>
+      <c r="ST16" s="11"/>
+      <c r="SU16" s="11"/>
+      <c r="SV16" s="11"/>
+      <c r="SW16" s="11"/>
+      <c r="SX16" s="11"/>
+      <c r="SY16" s="11"/>
+      <c r="SZ16" s="11"/>
+      <c r="TA16" s="11"/>
+      <c r="TB16" s="11"/>
+      <c r="TC16" s="11"/>
+      <c r="TD16" s="11"/>
+      <c r="TE16" s="11"/>
+      <c r="TF16" s="11"/>
+      <c r="TG16" s="11"/>
+      <c r="TH16" s="11"/>
+      <c r="TI16" s="11"/>
+      <c r="TJ16" s="11"/>
+      <c r="TK16" s="11"/>
+      <c r="TL16" s="11"/>
+      <c r="TM16" s="11"/>
+      <c r="TN16" s="11"/>
+      <c r="TO16" s="11"/>
+      <c r="TP16" s="11"/>
+      <c r="TQ16" s="11"/>
+      <c r="TR16" s="11"/>
+      <c r="TS16" s="11"/>
+      <c r="TT16" s="11"/>
+      <c r="TU16" s="11"/>
+      <c r="TV16" s="11"/>
+      <c r="TW16" s="11"/>
+      <c r="TX16" s="11"/>
+      <c r="TY16" s="11"/>
+      <c r="TZ16" s="11"/>
+      <c r="UA16" s="11"/>
+      <c r="UB16" s="11"/>
+      <c r="UC16" s="11"/>
+      <c r="UD16" s="11"/>
+      <c r="UE16" s="11"/>
+      <c r="UF16" s="11"/>
+      <c r="UG16" s="11"/>
+      <c r="UH16" s="11"/>
+      <c r="UI16" s="11"/>
+      <c r="UJ16" s="11"/>
+      <c r="UK16" s="11"/>
+      <c r="UL16" s="11"/>
+      <c r="UM16" s="11"/>
+      <c r="UN16" s="11"/>
+      <c r="UO16" s="11"/>
+      <c r="UP16" s="11"/>
+      <c r="UQ16" s="11"/>
+      <c r="UR16" s="11"/>
+      <c r="US16" s="11"/>
+      <c r="UT16" s="11"/>
+      <c r="UU16" s="11"/>
+      <c r="UV16" s="11"/>
+      <c r="UW16" s="11"/>
+      <c r="UX16" s="11"/>
+      <c r="UY16" s="11"/>
+      <c r="UZ16" s="11"/>
+      <c r="VA16" s="11"/>
+      <c r="VB16" s="11"/>
+      <c r="VC16" s="11"/>
+      <c r="VD16" s="11"/>
+      <c r="VE16" s="11"/>
+      <c r="VF16" s="11"/>
+      <c r="VG16" s="11"/>
+      <c r="VH16" s="11"/>
+      <c r="VI16" s="11"/>
+      <c r="VJ16" s="11"/>
+      <c r="VK16" s="11"/>
+      <c r="VL16" s="11"/>
+      <c r="VM16" s="11"/>
+      <c r="VN16" s="11"/>
+      <c r="VO16" s="11"/>
+      <c r="VP16" s="11"/>
+      <c r="VQ16" s="11"/>
+      <c r="VR16" s="11"/>
+      <c r="VS16" s="11"/>
+      <c r="VT16" s="11"/>
+      <c r="VU16" s="11"/>
+      <c r="VV16" s="11"/>
+      <c r="VW16" s="11"/>
+      <c r="VX16" s="11"/>
+      <c r="VY16" s="11"/>
+      <c r="VZ16" s="11"/>
+      <c r="WA16" s="11"/>
+      <c r="WB16" s="11"/>
+      <c r="WC16" s="11"/>
+      <c r="WD16" s="11"/>
+      <c r="WE16" s="11"/>
+      <c r="WF16" s="11"/>
+      <c r="WG16" s="11"/>
+      <c r="WH16" s="11"/>
+      <c r="WI16" s="11"/>
+      <c r="WJ16" s="11"/>
+      <c r="WK16" s="11"/>
+      <c r="WL16" s="11"/>
+      <c r="WM16" s="11"/>
+      <c r="WN16" s="11"/>
+      <c r="WO16" s="11"/>
+      <c r="WP16" s="11"/>
+      <c r="WQ16" s="11"/>
+      <c r="WR16" s="11"/>
+      <c r="WS16" s="11"/>
+      <c r="WT16" s="11"/>
+      <c r="WU16" s="11"/>
+      <c r="WV16" s="11"/>
+      <c r="WW16" s="11"/>
+      <c r="WX16" s="11"/>
+      <c r="WY16" s="11"/>
+      <c r="WZ16" s="11"/>
+      <c r="XA16" s="11"/>
+      <c r="XB16" s="11"/>
+      <c r="XC16" s="11"/>
+      <c r="XD16" s="11"/>
+      <c r="XE16" s="11"/>
+      <c r="XF16" s="11"/>
+      <c r="XG16" s="11"/>
+      <c r="XH16" s="11"/>
+      <c r="XI16" s="11"/>
+      <c r="XJ16" s="11"/>
+      <c r="XK16" s="11"/>
+      <c r="XL16" s="11"/>
+      <c r="XM16" s="11"/>
+      <c r="XN16" s="11"/>
+      <c r="XO16" s="11"/>
+      <c r="XP16" s="11"/>
+      <c r="XQ16" s="11"/>
+      <c r="XR16" s="11"/>
+      <c r="XS16" s="11"/>
+      <c r="XT16" s="11"/>
+      <c r="XU16" s="11"/>
+      <c r="XV16" s="11"/>
+      <c r="XW16" s="11"/>
+      <c r="XX16" s="11"/>
+      <c r="XY16" s="11"/>
+      <c r="XZ16" s="11"/>
+      <c r="YA16" s="11"/>
+      <c r="YB16" s="11"/>
+      <c r="YC16" s="11"/>
+      <c r="YD16" s="11"/>
+      <c r="YE16" s="11"/>
+      <c r="YF16" s="11"/>
+      <c r="YG16" s="11"/>
+      <c r="YH16" s="11"/>
+      <c r="YI16" s="11"/>
+      <c r="YJ16" s="11"/>
+      <c r="YK16" s="11"/>
+      <c r="YL16" s="11"/>
+      <c r="YM16" s="11"/>
+      <c r="YN16" s="11"/>
+      <c r="YO16" s="11"/>
+      <c r="YP16" s="11"/>
+      <c r="YQ16" s="11"/>
+      <c r="YR16" s="11"/>
+      <c r="YS16" s="11"/>
+      <c r="YT16" s="11"/>
+      <c r="YU16" s="11"/>
+      <c r="YV16" s="11"/>
+      <c r="YW16" s="11"/>
+      <c r="YX16" s="11"/>
+      <c r="YY16" s="11"/>
+      <c r="YZ16" s="11"/>
+      <c r="ZA16" s="11"/>
+      <c r="ZB16" s="11"/>
+      <c r="ZC16" s="11"/>
+      <c r="ZD16" s="11"/>
+      <c r="ZE16" s="11"/>
+      <c r="ZF16" s="11"/>
+      <c r="ZG16" s="11"/>
+      <c r="ZH16" s="11"/>
+      <c r="ZI16" s="11"/>
+      <c r="ZJ16" s="11"/>
+      <c r="ZK16" s="11"/>
+      <c r="ZL16" s="11"/>
+      <c r="ZM16" s="11"/>
+      <c r="ZN16" s="11"/>
+      <c r="ZO16" s="11"/>
+      <c r="ZP16" s="11"/>
+      <c r="ZQ16" s="11"/>
+      <c r="ZR16" s="11"/>
+      <c r="ZS16" s="11"/>
+      <c r="ZT16" s="11"/>
+      <c r="ZU16" s="11"/>
+      <c r="ZV16" s="11"/>
+      <c r="ZW16" s="11"/>
+      <c r="ZX16" s="11"/>
+      <c r="ZY16" s="11"/>
+      <c r="ZZ16" s="11"/>
+      <c r="AAA16" s="11"/>
+      <c r="AAB16" s="11"/>
+      <c r="AAC16" s="11"/>
+      <c r="AAD16" s="11"/>
+      <c r="AAE16" s="11"/>
+      <c r="AAF16" s="11"/>
+      <c r="AAG16" s="11"/>
+      <c r="AAH16" s="11"/>
+      <c r="AAI16" s="11"/>
+      <c r="AAJ16" s="11"/>
+      <c r="AAK16" s="11"/>
+      <c r="AAL16" s="11"/>
+      <c r="AAM16" s="11"/>
+      <c r="AAN16" s="11"/>
+      <c r="AAO16" s="11"/>
+      <c r="AAP16" s="11"/>
+      <c r="AAQ16" s="11"/>
+      <c r="AAR16" s="11"/>
+      <c r="AAS16" s="11"/>
+      <c r="AAT16" s="11"/>
+      <c r="AAU16" s="11"/>
+      <c r="AAV16" s="11"/>
+      <c r="AAW16" s="11"/>
+      <c r="AAX16" s="11"/>
+      <c r="AAY16" s="11"/>
+      <c r="AAZ16" s="11"/>
+      <c r="ABA16" s="11"/>
+      <c r="ABB16" s="11"/>
+      <c r="ABC16" s="11"/>
+      <c r="ABD16" s="11"/>
+      <c r="ABE16" s="11"/>
+      <c r="ABF16" s="11"/>
+      <c r="ABG16" s="11"/>
+      <c r="ABH16" s="11"/>
+      <c r="ABI16" s="11"/>
+      <c r="ABJ16" s="11"/>
+      <c r="ABK16" s="11"/>
+      <c r="ABL16" s="11"/>
+      <c r="ABM16" s="11"/>
+      <c r="ABN16" s="11"/>
+      <c r="ABO16" s="11"/>
+      <c r="ABP16" s="11"/>
+      <c r="ABQ16" s="11"/>
+      <c r="ABR16" s="11"/>
+      <c r="ABS16" s="11"/>
+      <c r="ABT16" s="11"/>
+      <c r="ABU16" s="11"/>
+      <c r="ABV16" s="11"/>
+      <c r="ABW16" s="11"/>
+      <c r="ABX16" s="11"/>
+      <c r="ABY16" s="11"/>
+      <c r="ABZ16" s="11"/>
+      <c r="ACA16" s="11"/>
+      <c r="ACB16" s="11"/>
+      <c r="ACC16" s="11"/>
+      <c r="ACD16" s="11"/>
+      <c r="ACE16" s="11"/>
+      <c r="ACF16" s="11"/>
+      <c r="ACG16" s="11"/>
+      <c r="ACH16" s="11"/>
+      <c r="ACI16" s="11"/>
+      <c r="ACJ16" s="11"/>
+      <c r="ACK16" s="11"/>
+      <c r="ACL16" s="11"/>
+      <c r="ACM16" s="11"/>
+      <c r="ACN16" s="11"/>
+      <c r="ACO16" s="11"/>
+      <c r="ACP16" s="11"/>
+      <c r="ACQ16" s="11"/>
+      <c r="ACR16" s="11"/>
+      <c r="ACS16" s="11"/>
+      <c r="ACT16" s="11"/>
+      <c r="ACU16" s="11"/>
+      <c r="ACV16" s="11"/>
+      <c r="ACW16" s="11"/>
+      <c r="ACX16" s="11"/>
+      <c r="ACY16" s="11"/>
+      <c r="ACZ16" s="11"/>
+      <c r="ADA16" s="11"/>
+      <c r="ADB16" s="11"/>
+      <c r="ADC16" s="11"/>
+      <c r="ADD16" s="11"/>
+      <c r="ADE16" s="11"/>
+      <c r="ADF16" s="11"/>
+      <c r="ADG16" s="11"/>
+      <c r="ADH16" s="11"/>
+      <c r="ADI16" s="11"/>
+      <c r="ADJ16" s="11"/>
+      <c r="ADK16" s="11"/>
+      <c r="ADL16" s="11"/>
+      <c r="ADM16" s="11"/>
+      <c r="ADN16" s="11"/>
+      <c r="ADO16" s="11"/>
+      <c r="ADP16" s="11"/>
+      <c r="ADQ16" s="11"/>
+      <c r="ADR16" s="11"/>
+      <c r="ADS16" s="11"/>
+      <c r="ADT16" s="11"/>
+      <c r="ADU16" s="11"/>
+      <c r="ADV16" s="11"/>
+      <c r="ADW16" s="11"/>
+      <c r="ADX16" s="11"/>
+      <c r="ADY16" s="11"/>
+      <c r="ADZ16" s="11"/>
+      <c r="AEA16" s="11"/>
+      <c r="AEB16" s="11"/>
+      <c r="AEC16" s="11"/>
+      <c r="AED16" s="11"/>
+      <c r="AEE16" s="11"/>
+      <c r="AEF16" s="11"/>
+      <c r="AEG16" s="11"/>
+      <c r="AEH16" s="11"/>
+      <c r="AEI16" s="11"/>
+      <c r="AEJ16" s="11"/>
+      <c r="AEK16" s="11"/>
+      <c r="AEL16" s="11"/>
+      <c r="AEM16" s="11"/>
+      <c r="AEN16" s="11"/>
+      <c r="AEO16" s="11"/>
+      <c r="AEP16" s="11"/>
+      <c r="AEQ16" s="11"/>
+      <c r="AER16" s="11"/>
+      <c r="AES16" s="11"/>
+      <c r="AET16" s="11"/>
+      <c r="AEU16" s="11"/>
+      <c r="AEV16" s="11"/>
+      <c r="AEW16" s="11"/>
+      <c r="AEX16" s="11"/>
+      <c r="AEY16" s="11"/>
+      <c r="AEZ16" s="11"/>
+      <c r="AFA16" s="11"/>
+      <c r="AFB16" s="11"/>
+      <c r="AFC16" s="11"/>
+      <c r="AFD16" s="11"/>
+      <c r="AFE16" s="11"/>
+      <c r="AFF16" s="11"/>
+      <c r="AFG16" s="11"/>
+      <c r="AFH16" s="11"/>
+      <c r="AFI16" s="11"/>
+      <c r="AFJ16" s="11"/>
+      <c r="AFK16" s="11"/>
+      <c r="AFL16" s="11"/>
+      <c r="AFM16" s="11"/>
+      <c r="AFN16" s="11"/>
+      <c r="AFO16" s="11"/>
+      <c r="AFP16" s="11"/>
+      <c r="AFQ16" s="11"/>
+      <c r="AFR16" s="11"/>
+      <c r="AFS16" s="11"/>
+      <c r="AFT16" s="11"/>
+      <c r="AFU16" s="11"/>
+      <c r="AFV16" s="11"/>
+      <c r="AFW16" s="11"/>
+      <c r="AFX16" s="11"/>
+      <c r="AFY16" s="11"/>
+      <c r="AFZ16" s="11"/>
+      <c r="AGA16" s="11"/>
+      <c r="AGB16" s="11"/>
+      <c r="AGC16" s="11"/>
+      <c r="AGD16" s="11"/>
+      <c r="AGE16" s="11"/>
+      <c r="AGF16" s="11"/>
+      <c r="AGG16" s="11"/>
+      <c r="AGH16" s="11"/>
+      <c r="AGI16" s="11"/>
+      <c r="AGJ16" s="11"/>
+      <c r="AGK16" s="11"/>
+      <c r="AGL16" s="11"/>
+      <c r="AGM16" s="11"/>
+      <c r="AGN16" s="11"/>
+      <c r="AGO16" s="11"/>
+      <c r="AGP16" s="11"/>
+      <c r="AGQ16" s="11"/>
+      <c r="AGR16" s="11"/>
+      <c r="AGS16" s="11"/>
+      <c r="AGT16" s="11"/>
+      <c r="AGU16" s="11"/>
+      <c r="AGV16" s="11"/>
+      <c r="AGW16" s="11"/>
+      <c r="AGX16" s="11"/>
+      <c r="AGY16" s="11"/>
+      <c r="AGZ16" s="11"/>
+      <c r="AHA16" s="11"/>
+      <c r="AHB16" s="11"/>
+      <c r="AHC16" s="11"/>
+      <c r="AHD16" s="11"/>
+      <c r="AHE16" s="11"/>
+      <c r="AHF16" s="11"/>
+      <c r="AHG16" s="11"/>
+      <c r="AHH16" s="11"/>
+      <c r="AHI16" s="11"/>
+      <c r="AHJ16" s="11"/>
+      <c r="AHK16" s="11"/>
+      <c r="AHL16" s="11"/>
+      <c r="AHM16" s="11"/>
+      <c r="AHN16" s="11"/>
+      <c r="AHO16" s="11"/>
+      <c r="AHP16" s="11"/>
+      <c r="AHQ16" s="11"/>
+      <c r="AHR16" s="11"/>
+      <c r="AHS16" s="11"/>
+      <c r="AHT16" s="11"/>
+      <c r="AHU16" s="11"/>
+      <c r="AHV16" s="11"/>
+      <c r="AHW16" s="11"/>
+      <c r="AHX16" s="11"/>
+      <c r="AHY16" s="11"/>
+      <c r="AHZ16" s="11"/>
+      <c r="AIA16" s="11"/>
+      <c r="AIB16" s="11"/>
+      <c r="AIC16" s="11"/>
+      <c r="AID16" s="11"/>
+      <c r="AIE16" s="11"/>
+      <c r="AIF16" s="11"/>
+      <c r="AIG16" s="11"/>
+      <c r="AIH16" s="11"/>
+      <c r="AII16" s="11"/>
+      <c r="AIJ16" s="11"/>
+      <c r="AIK16" s="11"/>
+      <c r="AIL16" s="11"/>
+      <c r="AIM16" s="11"/>
+      <c r="AIN16" s="11"/>
+      <c r="AIO16" s="11"/>
+      <c r="AIP16" s="11"/>
+      <c r="AIQ16" s="11"/>
+      <c r="AIR16" s="11"/>
+      <c r="AIS16" s="11"/>
+      <c r="AIT16" s="11"/>
+      <c r="AIU16" s="11"/>
+      <c r="AIV16" s="11"/>
+      <c r="AIW16" s="11"/>
+      <c r="AIX16" s="11"/>
+      <c r="AIY16" s="11"/>
+      <c r="AIZ16" s="11"/>
+      <c r="AJA16" s="11"/>
+      <c r="AJB16" s="11"/>
+      <c r="AJC16" s="11"/>
+      <c r="AJD16" s="11"/>
+      <c r="AJE16" s="11"/>
+      <c r="AJF16" s="11"/>
+      <c r="AJG16" s="11"/>
+      <c r="AJH16" s="11"/>
+      <c r="AJI16" s="11"/>
+      <c r="AJJ16" s="11"/>
+      <c r="AJK16" s="11"/>
+      <c r="AJL16" s="11"/>
+      <c r="AJM16" s="11"/>
+      <c r="AJN16" s="11"/>
+      <c r="AJO16" s="11"/>
+      <c r="AJP16" s="11"/>
+      <c r="AJQ16" s="11"/>
+      <c r="AJR16" s="11"/>
+      <c r="AJS16" s="11"/>
+      <c r="AJT16" s="11"/>
+      <c r="AJU16" s="11"/>
+      <c r="AJV16" s="11"/>
+      <c r="AJW16" s="11"/>
+      <c r="AJX16" s="11"/>
+      <c r="AJY16" s="11"/>
+      <c r="AJZ16" s="11"/>
+      <c r="AKA16" s="11"/>
+      <c r="AKB16" s="11"/>
+      <c r="AKC16" s="11"/>
+      <c r="AKD16" s="11"/>
+      <c r="AKE16" s="11"/>
+      <c r="AKF16" s="11"/>
+      <c r="AKG16" s="11"/>
+      <c r="AKH16" s="11"/>
+      <c r="AKI16" s="11"/>
+      <c r="AKJ16" s="11"/>
+      <c r="AKK16" s="11"/>
+      <c r="AKL16" s="11"/>
+      <c r="AKM16" s="11"/>
+      <c r="AKN16" s="11"/>
+      <c r="AKO16" s="11"/>
+      <c r="AKP16" s="11"/>
+      <c r="AKQ16" s="11"/>
+      <c r="AKR16" s="11"/>
+      <c r="AKS16" s="11"/>
+      <c r="AKT16" s="11"/>
+      <c r="AKU16" s="11"/>
+      <c r="AKV16" s="11"/>
+      <c r="AKW16" s="11"/>
+      <c r="AKX16" s="11"/>
+      <c r="AKY16" s="11"/>
+      <c r="AKZ16" s="11"/>
+      <c r="ALA16" s="11"/>
+      <c r="ALB16" s="11"/>
+      <c r="ALC16" s="11"/>
+      <c r="ALD16" s="11"/>
+      <c r="ALE16" s="11"/>
+      <c r="ALF16" s="11"/>
+      <c r="ALG16" s="11"/>
+      <c r="ALH16" s="11"/>
+      <c r="ALI16" s="11"/>
+      <c r="ALJ16" s="11"/>
+      <c r="ALK16" s="11"/>
+      <c r="ALL16" s="11"/>
+      <c r="ALM16" s="11"/>
+      <c r="ALN16" s="11"/>
+      <c r="ALO16" s="11"/>
+      <c r="ALP16" s="11"/>
+      <c r="ALQ16" s="11"/>
+      <c r="ALR16" s="11"/>
+      <c r="ALS16" s="11"/>
+      <c r="ALT16" s="11"/>
+      <c r="ALU16" s="11"/>
+      <c r="ALV16" s="11"/>
+      <c r="ALW16" s="11"/>
+      <c r="ALX16" s="11"/>
+      <c r="ALY16" s="11"/>
+      <c r="ALZ16" s="11"/>
+      <c r="AMA16" s="11"/>
+      <c r="AMB16" s="11"/>
+      <c r="AMC16" s="11"/>
+      <c r="AMD16" s="11"/>
+      <c r="AME16" s="11"/>
+      <c r="AMF16" s="11"/>
+      <c r="AMG16" s="11"/>
+      <c r="AMH16" s="11"/>
+      <c r="AMI16" s="11"/>
+      <c r="AMJ16" s="11"/>
+      <c r="AMK16" s="11"/>
+      <c r="AML16" s="11"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:1026" ht="116">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2">
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I17" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" ht="29">
+    <row r="18" spans="1:1026" ht="159.5">
       <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>101</v>
+        <v>407</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="K18" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" ht="58">
+    <row r="19" spans="1:1026" ht="58">
       <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="K19" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" ht="43.5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1026" s="14" customFormat="1" ht="43.5">
+      <c r="A20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="G20" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
+      <c r="CH20" s="11"/>
+      <c r="CI20" s="11"/>
+      <c r="CJ20" s="11"/>
+      <c r="CK20" s="11"/>
+      <c r="CL20" s="11"/>
+      <c r="CM20" s="11"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="11"/>
+      <c r="CP20" s="11"/>
+      <c r="CQ20" s="11"/>
+      <c r="CR20" s="11"/>
+      <c r="CS20" s="11"/>
+      <c r="CT20" s="11"/>
+      <c r="CU20" s="11"/>
+      <c r="CV20" s="11"/>
+      <c r="CW20" s="11"/>
+      <c r="CX20" s="11"/>
+      <c r="CY20" s="11"/>
+      <c r="CZ20" s="11"/>
+      <c r="DA20" s="11"/>
+      <c r="DB20" s="11"/>
+      <c r="DC20" s="11"/>
+      <c r="DD20" s="11"/>
+      <c r="DE20" s="11"/>
+      <c r="DF20" s="11"/>
+      <c r="DG20" s="11"/>
+      <c r="DH20" s="11"/>
+      <c r="DI20" s="11"/>
+      <c r="DJ20" s="11"/>
+      <c r="DK20" s="11"/>
+      <c r="DL20" s="11"/>
+      <c r="DM20" s="11"/>
+      <c r="DN20" s="11"/>
+      <c r="DO20" s="11"/>
+      <c r="DP20" s="11"/>
+      <c r="DQ20" s="11"/>
+      <c r="DR20" s="11"/>
+      <c r="DS20" s="11"/>
+      <c r="DT20" s="11"/>
+      <c r="DU20" s="11"/>
+      <c r="DV20" s="11"/>
+      <c r="DW20" s="11"/>
+      <c r="DX20" s="11"/>
+      <c r="DY20" s="11"/>
+      <c r="DZ20" s="11"/>
+      <c r="EA20" s="11"/>
+      <c r="EB20" s="11"/>
+      <c r="EC20" s="11"/>
+      <c r="ED20" s="11"/>
+      <c r="EE20" s="11"/>
+      <c r="EF20" s="11"/>
+      <c r="EG20" s="11"/>
+      <c r="EH20" s="11"/>
+      <c r="EI20" s="11"/>
+      <c r="EJ20" s="11"/>
+      <c r="EK20" s="11"/>
+      <c r="EL20" s="11"/>
+      <c r="EM20" s="11"/>
+      <c r="EN20" s="11"/>
+      <c r="EO20" s="11"/>
+      <c r="EP20" s="11"/>
+      <c r="EQ20" s="11"/>
+      <c r="ER20" s="11"/>
+      <c r="ES20" s="11"/>
+      <c r="ET20" s="11"/>
+      <c r="EU20" s="11"/>
+      <c r="EV20" s="11"/>
+      <c r="EW20" s="11"/>
+      <c r="EX20" s="11"/>
+      <c r="EY20" s="11"/>
+      <c r="EZ20" s="11"/>
+      <c r="FA20" s="11"/>
+      <c r="FB20" s="11"/>
+      <c r="FC20" s="11"/>
+      <c r="FD20" s="11"/>
+      <c r="FE20" s="11"/>
+      <c r="FF20" s="11"/>
+      <c r="FG20" s="11"/>
+      <c r="FH20" s="11"/>
+      <c r="FI20" s="11"/>
+      <c r="FJ20" s="11"/>
+      <c r="FK20" s="11"/>
+      <c r="FL20" s="11"/>
+      <c r="FM20" s="11"/>
+      <c r="FN20" s="11"/>
+      <c r="FO20" s="11"/>
+      <c r="FP20" s="11"/>
+      <c r="FQ20" s="11"/>
+      <c r="FR20" s="11"/>
+      <c r="FS20" s="11"/>
+      <c r="FT20" s="11"/>
+      <c r="FU20" s="11"/>
+      <c r="FV20" s="11"/>
+      <c r="FW20" s="11"/>
+      <c r="FX20" s="11"/>
+      <c r="FY20" s="11"/>
+      <c r="FZ20" s="11"/>
+      <c r="GA20" s="11"/>
+      <c r="GB20" s="11"/>
+      <c r="GC20" s="11"/>
+      <c r="GD20" s="11"/>
+      <c r="GE20" s="11"/>
+      <c r="GF20" s="11"/>
+      <c r="GG20" s="11"/>
+      <c r="GH20" s="11"/>
+      <c r="GI20" s="11"/>
+      <c r="GJ20" s="11"/>
+      <c r="GK20" s="11"/>
+      <c r="GL20" s="11"/>
+      <c r="GM20" s="11"/>
+      <c r="GN20" s="11"/>
+      <c r="GO20" s="11"/>
+      <c r="GP20" s="11"/>
+      <c r="GQ20" s="11"/>
+      <c r="GR20" s="11"/>
+      <c r="GS20" s="11"/>
+      <c r="GT20" s="11"/>
+      <c r="GU20" s="11"/>
+      <c r="GV20" s="11"/>
+      <c r="GW20" s="11"/>
+      <c r="GX20" s="11"/>
+      <c r="GY20" s="11"/>
+      <c r="GZ20" s="11"/>
+      <c r="HA20" s="11"/>
+      <c r="HB20" s="11"/>
+      <c r="HC20" s="11"/>
+      <c r="HD20" s="11"/>
+      <c r="HE20" s="11"/>
+      <c r="HF20" s="11"/>
+      <c r="HG20" s="11"/>
+      <c r="HH20" s="11"/>
+      <c r="HI20" s="11"/>
+      <c r="HJ20" s="11"/>
+      <c r="HK20" s="11"/>
+      <c r="HL20" s="11"/>
+      <c r="HM20" s="11"/>
+      <c r="HN20" s="11"/>
+      <c r="HO20" s="11"/>
+      <c r="HP20" s="11"/>
+      <c r="HQ20" s="11"/>
+      <c r="HR20" s="11"/>
+      <c r="HS20" s="11"/>
+      <c r="HT20" s="11"/>
+      <c r="HU20" s="11"/>
+      <c r="HV20" s="11"/>
+      <c r="HW20" s="11"/>
+      <c r="HX20" s="11"/>
+      <c r="HY20" s="11"/>
+      <c r="HZ20" s="11"/>
+      <c r="IA20" s="11"/>
+      <c r="IB20" s="11"/>
+      <c r="IC20" s="11"/>
+      <c r="ID20" s="11"/>
+      <c r="IE20" s="11"/>
+      <c r="IF20" s="11"/>
+      <c r="IG20" s="11"/>
+      <c r="IH20" s="11"/>
+      <c r="II20" s="11"/>
+      <c r="IJ20" s="11"/>
+      <c r="IK20" s="11"/>
+      <c r="IL20" s="11"/>
+      <c r="IM20" s="11"/>
+      <c r="IN20" s="11"/>
+      <c r="IO20" s="11"/>
+      <c r="IP20" s="11"/>
+      <c r="IQ20" s="11"/>
+      <c r="IR20" s="11"/>
+      <c r="IS20" s="11"/>
+      <c r="IT20" s="11"/>
+      <c r="IU20" s="11"/>
+      <c r="IV20" s="11"/>
+      <c r="IW20" s="11"/>
+      <c r="IX20" s="11"/>
+      <c r="IY20" s="11"/>
+      <c r="IZ20" s="11"/>
+      <c r="JA20" s="11"/>
+      <c r="JB20" s="11"/>
+      <c r="JC20" s="11"/>
+      <c r="JD20" s="11"/>
+      <c r="JE20" s="11"/>
+      <c r="JF20" s="11"/>
+      <c r="JG20" s="11"/>
+      <c r="JH20" s="11"/>
+      <c r="JI20" s="11"/>
+      <c r="JJ20" s="11"/>
+      <c r="JK20" s="11"/>
+      <c r="JL20" s="11"/>
+      <c r="JM20" s="11"/>
+      <c r="JN20" s="11"/>
+      <c r="JO20" s="11"/>
+      <c r="JP20" s="11"/>
+      <c r="JQ20" s="11"/>
+      <c r="JR20" s="11"/>
+      <c r="JS20" s="11"/>
+      <c r="JT20" s="11"/>
+      <c r="JU20" s="11"/>
+      <c r="JV20" s="11"/>
+      <c r="JW20" s="11"/>
+      <c r="JX20" s="11"/>
+      <c r="JY20" s="11"/>
+      <c r="JZ20" s="11"/>
+      <c r="KA20" s="11"/>
+      <c r="KB20" s="11"/>
+      <c r="KC20" s="11"/>
+      <c r="KD20" s="11"/>
+      <c r="KE20" s="11"/>
+      <c r="KF20" s="11"/>
+      <c r="KG20" s="11"/>
+      <c r="KH20" s="11"/>
+      <c r="KI20" s="11"/>
+      <c r="KJ20" s="11"/>
+      <c r="KK20" s="11"/>
+      <c r="KL20" s="11"/>
+      <c r="KM20" s="11"/>
+      <c r="KN20" s="11"/>
+      <c r="KO20" s="11"/>
+      <c r="KP20" s="11"/>
+      <c r="KQ20" s="11"/>
+      <c r="KR20" s="11"/>
+      <c r="KS20" s="11"/>
+      <c r="KT20" s="11"/>
+      <c r="KU20" s="11"/>
+      <c r="KV20" s="11"/>
+      <c r="KW20" s="11"/>
+      <c r="KX20" s="11"/>
+      <c r="KY20" s="11"/>
+      <c r="KZ20" s="11"/>
+      <c r="LA20" s="11"/>
+      <c r="LB20" s="11"/>
+      <c r="LC20" s="11"/>
+      <c r="LD20" s="11"/>
+      <c r="LE20" s="11"/>
+      <c r="LF20" s="11"/>
+      <c r="LG20" s="11"/>
+      <c r="LH20" s="11"/>
+      <c r="LI20" s="11"/>
+      <c r="LJ20" s="11"/>
+      <c r="LK20" s="11"/>
+      <c r="LL20" s="11"/>
+      <c r="LM20" s="11"/>
+      <c r="LN20" s="11"/>
+      <c r="LO20" s="11"/>
+      <c r="LP20" s="11"/>
+      <c r="LQ20" s="11"/>
+      <c r="LR20" s="11"/>
+      <c r="LS20" s="11"/>
+      <c r="LT20" s="11"/>
+      <c r="LU20" s="11"/>
+      <c r="LV20" s="11"/>
+      <c r="LW20" s="11"/>
+      <c r="LX20" s="11"/>
+      <c r="LY20" s="11"/>
+      <c r="LZ20" s="11"/>
+      <c r="MA20" s="11"/>
+      <c r="MB20" s="11"/>
+      <c r="MC20" s="11"/>
+      <c r="MD20" s="11"/>
+      <c r="ME20" s="11"/>
+      <c r="MF20" s="11"/>
+      <c r="MG20" s="11"/>
+      <c r="MH20" s="11"/>
+      <c r="MI20" s="11"/>
+      <c r="MJ20" s="11"/>
+      <c r="MK20" s="11"/>
+      <c r="ML20" s="11"/>
+      <c r="MM20" s="11"/>
+      <c r="MN20" s="11"/>
+      <c r="MO20" s="11"/>
+      <c r="MP20" s="11"/>
+      <c r="MQ20" s="11"/>
+      <c r="MR20" s="11"/>
+      <c r="MS20" s="11"/>
+      <c r="MT20" s="11"/>
+      <c r="MU20" s="11"/>
+      <c r="MV20" s="11"/>
+      <c r="MW20" s="11"/>
+      <c r="MX20" s="11"/>
+      <c r="MY20" s="11"/>
+      <c r="MZ20" s="11"/>
+      <c r="NA20" s="11"/>
+      <c r="NB20" s="11"/>
+      <c r="NC20" s="11"/>
+      <c r="ND20" s="11"/>
+      <c r="NE20" s="11"/>
+      <c r="NF20" s="11"/>
+      <c r="NG20" s="11"/>
+      <c r="NH20" s="11"/>
+      <c r="NI20" s="11"/>
+      <c r="NJ20" s="11"/>
+      <c r="NK20" s="11"/>
+      <c r="NL20" s="11"/>
+      <c r="NM20" s="11"/>
+      <c r="NN20" s="11"/>
+      <c r="NO20" s="11"/>
+      <c r="NP20" s="11"/>
+      <c r="NQ20" s="11"/>
+      <c r="NR20" s="11"/>
+      <c r="NS20" s="11"/>
+      <c r="NT20" s="11"/>
+      <c r="NU20" s="11"/>
+      <c r="NV20" s="11"/>
+      <c r="NW20" s="11"/>
+      <c r="NX20" s="11"/>
+      <c r="NY20" s="11"/>
+      <c r="NZ20" s="11"/>
+      <c r="OA20" s="11"/>
+      <c r="OB20" s="11"/>
+      <c r="OC20" s="11"/>
+      <c r="OD20" s="11"/>
+      <c r="OE20" s="11"/>
+      <c r="OF20" s="11"/>
+      <c r="OG20" s="11"/>
+      <c r="OH20" s="11"/>
+      <c r="OI20" s="11"/>
+      <c r="OJ20" s="11"/>
+      <c r="OK20" s="11"/>
+      <c r="OL20" s="11"/>
+      <c r="OM20" s="11"/>
+      <c r="ON20" s="11"/>
+      <c r="OO20" s="11"/>
+      <c r="OP20" s="11"/>
+      <c r="OQ20" s="11"/>
+      <c r="OR20" s="11"/>
+      <c r="OS20" s="11"/>
+      <c r="OT20" s="11"/>
+      <c r="OU20" s="11"/>
+      <c r="OV20" s="11"/>
+      <c r="OW20" s="11"/>
+      <c r="OX20" s="11"/>
+      <c r="OY20" s="11"/>
+      <c r="OZ20" s="11"/>
+      <c r="PA20" s="11"/>
+      <c r="PB20" s="11"/>
+      <c r="PC20" s="11"/>
+      <c r="PD20" s="11"/>
+      <c r="PE20" s="11"/>
+      <c r="PF20" s="11"/>
+      <c r="PG20" s="11"/>
+      <c r="PH20" s="11"/>
+      <c r="PI20" s="11"/>
+      <c r="PJ20" s="11"/>
+      <c r="PK20" s="11"/>
+      <c r="PL20" s="11"/>
+      <c r="PM20" s="11"/>
+      <c r="PN20" s="11"/>
+      <c r="PO20" s="11"/>
+      <c r="PP20" s="11"/>
+      <c r="PQ20" s="11"/>
+      <c r="PR20" s="11"/>
+      <c r="PS20" s="11"/>
+      <c r="PT20" s="11"/>
+      <c r="PU20" s="11"/>
+      <c r="PV20" s="11"/>
+      <c r="PW20" s="11"/>
+      <c r="PX20" s="11"/>
+      <c r="PY20" s="11"/>
+      <c r="PZ20" s="11"/>
+      <c r="QA20" s="11"/>
+      <c r="QB20" s="11"/>
+      <c r="QC20" s="11"/>
+      <c r="QD20" s="11"/>
+      <c r="QE20" s="11"/>
+      <c r="QF20" s="11"/>
+      <c r="QG20" s="11"/>
+      <c r="QH20" s="11"/>
+      <c r="QI20" s="11"/>
+      <c r="QJ20" s="11"/>
+      <c r="QK20" s="11"/>
+      <c r="QL20" s="11"/>
+      <c r="QM20" s="11"/>
+      <c r="QN20" s="11"/>
+      <c r="QO20" s="11"/>
+      <c r="QP20" s="11"/>
+      <c r="QQ20" s="11"/>
+      <c r="QR20" s="11"/>
+      <c r="QS20" s="11"/>
+      <c r="QT20" s="11"/>
+      <c r="QU20" s="11"/>
+      <c r="QV20" s="11"/>
+      <c r="QW20" s="11"/>
+      <c r="QX20" s="11"/>
+      <c r="QY20" s="11"/>
+      <c r="QZ20" s="11"/>
+      <c r="RA20" s="11"/>
+      <c r="RB20" s="11"/>
+      <c r="RC20" s="11"/>
+      <c r="RD20" s="11"/>
+      <c r="RE20" s="11"/>
+      <c r="RF20" s="11"/>
+      <c r="RG20" s="11"/>
+      <c r="RH20" s="11"/>
+      <c r="RI20" s="11"/>
+      <c r="RJ20" s="11"/>
+      <c r="RK20" s="11"/>
+      <c r="RL20" s="11"/>
+      <c r="RM20" s="11"/>
+      <c r="RN20" s="11"/>
+      <c r="RO20" s="11"/>
+      <c r="RP20" s="11"/>
+      <c r="RQ20" s="11"/>
+      <c r="RR20" s="11"/>
+      <c r="RS20" s="11"/>
+      <c r="RT20" s="11"/>
+      <c r="RU20" s="11"/>
+      <c r="RV20" s="11"/>
+      <c r="RW20" s="11"/>
+      <c r="RX20" s="11"/>
+      <c r="RY20" s="11"/>
+      <c r="RZ20" s="11"/>
+      <c r="SA20" s="11"/>
+      <c r="SB20" s="11"/>
+      <c r="SC20" s="11"/>
+      <c r="SD20" s="11"/>
+      <c r="SE20" s="11"/>
+      <c r="SF20" s="11"/>
+      <c r="SG20" s="11"/>
+      <c r="SH20" s="11"/>
+      <c r="SI20" s="11"/>
+      <c r="SJ20" s="11"/>
+      <c r="SK20" s="11"/>
+      <c r="SL20" s="11"/>
+      <c r="SM20" s="11"/>
+      <c r="SN20" s="11"/>
+      <c r="SO20" s="11"/>
+      <c r="SP20" s="11"/>
+      <c r="SQ20" s="11"/>
+      <c r="SR20" s="11"/>
+      <c r="SS20" s="11"/>
+      <c r="ST20" s="11"/>
+      <c r="SU20" s="11"/>
+      <c r="SV20" s="11"/>
+      <c r="SW20" s="11"/>
+      <c r="SX20" s="11"/>
+      <c r="SY20" s="11"/>
+      <c r="SZ20" s="11"/>
+      <c r="TA20" s="11"/>
+      <c r="TB20" s="11"/>
+      <c r="TC20" s="11"/>
+      <c r="TD20" s="11"/>
+      <c r="TE20" s="11"/>
+      <c r="TF20" s="11"/>
+      <c r="TG20" s="11"/>
+      <c r="TH20" s="11"/>
+      <c r="TI20" s="11"/>
+      <c r="TJ20" s="11"/>
+      <c r="TK20" s="11"/>
+      <c r="TL20" s="11"/>
+      <c r="TM20" s="11"/>
+      <c r="TN20" s="11"/>
+      <c r="TO20" s="11"/>
+      <c r="TP20" s="11"/>
+      <c r="TQ20" s="11"/>
+      <c r="TR20" s="11"/>
+      <c r="TS20" s="11"/>
+      <c r="TT20" s="11"/>
+      <c r="TU20" s="11"/>
+      <c r="TV20" s="11"/>
+      <c r="TW20" s="11"/>
+      <c r="TX20" s="11"/>
+      <c r="TY20" s="11"/>
+      <c r="TZ20" s="11"/>
+      <c r="UA20" s="11"/>
+      <c r="UB20" s="11"/>
+      <c r="UC20" s="11"/>
+      <c r="UD20" s="11"/>
+      <c r="UE20" s="11"/>
+      <c r="UF20" s="11"/>
+      <c r="UG20" s="11"/>
+      <c r="UH20" s="11"/>
+      <c r="UI20" s="11"/>
+      <c r="UJ20" s="11"/>
+      <c r="UK20" s="11"/>
+      <c r="UL20" s="11"/>
+      <c r="UM20" s="11"/>
+      <c r="UN20" s="11"/>
+      <c r="UO20" s="11"/>
+      <c r="UP20" s="11"/>
+      <c r="UQ20" s="11"/>
+      <c r="UR20" s="11"/>
+      <c r="US20" s="11"/>
+      <c r="UT20" s="11"/>
+      <c r="UU20" s="11"/>
+      <c r="UV20" s="11"/>
+      <c r="UW20" s="11"/>
+      <c r="UX20" s="11"/>
+      <c r="UY20" s="11"/>
+      <c r="UZ20" s="11"/>
+      <c r="VA20" s="11"/>
+      <c r="VB20" s="11"/>
+      <c r="VC20" s="11"/>
+      <c r="VD20" s="11"/>
+      <c r="VE20" s="11"/>
+      <c r="VF20" s="11"/>
+      <c r="VG20" s="11"/>
+      <c r="VH20" s="11"/>
+      <c r="VI20" s="11"/>
+      <c r="VJ20" s="11"/>
+      <c r="VK20" s="11"/>
+      <c r="VL20" s="11"/>
+      <c r="VM20" s="11"/>
+      <c r="VN20" s="11"/>
+      <c r="VO20" s="11"/>
+      <c r="VP20" s="11"/>
+      <c r="VQ20" s="11"/>
+      <c r="VR20" s="11"/>
+      <c r="VS20" s="11"/>
+      <c r="VT20" s="11"/>
+      <c r="VU20" s="11"/>
+      <c r="VV20" s="11"/>
+      <c r="VW20" s="11"/>
+      <c r="VX20" s="11"/>
+      <c r="VY20" s="11"/>
+      <c r="VZ20" s="11"/>
+      <c r="WA20" s="11"/>
+      <c r="WB20" s="11"/>
+      <c r="WC20" s="11"/>
+      <c r="WD20" s="11"/>
+      <c r="WE20" s="11"/>
+      <c r="WF20" s="11"/>
+      <c r="WG20" s="11"/>
+      <c r="WH20" s="11"/>
+      <c r="WI20" s="11"/>
+      <c r="WJ20" s="11"/>
+      <c r="WK20" s="11"/>
+      <c r="WL20" s="11"/>
+      <c r="WM20" s="11"/>
+      <c r="WN20" s="11"/>
+      <c r="WO20" s="11"/>
+      <c r="WP20" s="11"/>
+      <c r="WQ20" s="11"/>
+      <c r="WR20" s="11"/>
+      <c r="WS20" s="11"/>
+      <c r="WT20" s="11"/>
+      <c r="WU20" s="11"/>
+      <c r="WV20" s="11"/>
+      <c r="WW20" s="11"/>
+      <c r="WX20" s="11"/>
+      <c r="WY20" s="11"/>
+      <c r="WZ20" s="11"/>
+      <c r="XA20" s="11"/>
+      <c r="XB20" s="11"/>
+      <c r="XC20" s="11"/>
+      <c r="XD20" s="11"/>
+      <c r="XE20" s="11"/>
+      <c r="XF20" s="11"/>
+      <c r="XG20" s="11"/>
+      <c r="XH20" s="11"/>
+      <c r="XI20" s="11"/>
+      <c r="XJ20" s="11"/>
+      <c r="XK20" s="11"/>
+      <c r="XL20" s="11"/>
+      <c r="XM20" s="11"/>
+      <c r="XN20" s="11"/>
+      <c r="XO20" s="11"/>
+      <c r="XP20" s="11"/>
+      <c r="XQ20" s="11"/>
+      <c r="XR20" s="11"/>
+      <c r="XS20" s="11"/>
+      <c r="XT20" s="11"/>
+      <c r="XU20" s="11"/>
+      <c r="XV20" s="11"/>
+      <c r="XW20" s="11"/>
+      <c r="XX20" s="11"/>
+      <c r="XY20" s="11"/>
+      <c r="XZ20" s="11"/>
+      <c r="YA20" s="11"/>
+      <c r="YB20" s="11"/>
+      <c r="YC20" s="11"/>
+      <c r="YD20" s="11"/>
+      <c r="YE20" s="11"/>
+      <c r="YF20" s="11"/>
+      <c r="YG20" s="11"/>
+      <c r="YH20" s="11"/>
+      <c r="YI20" s="11"/>
+      <c r="YJ20" s="11"/>
+      <c r="YK20" s="11"/>
+      <c r="YL20" s="11"/>
+      <c r="YM20" s="11"/>
+      <c r="YN20" s="11"/>
+      <c r="YO20" s="11"/>
+      <c r="YP20" s="11"/>
+      <c r="YQ20" s="11"/>
+      <c r="YR20" s="11"/>
+      <c r="YS20" s="11"/>
+      <c r="YT20" s="11"/>
+      <c r="YU20" s="11"/>
+      <c r="YV20" s="11"/>
+      <c r="YW20" s="11"/>
+      <c r="YX20" s="11"/>
+      <c r="YY20" s="11"/>
+      <c r="YZ20" s="11"/>
+      <c r="ZA20" s="11"/>
+      <c r="ZB20" s="11"/>
+      <c r="ZC20" s="11"/>
+      <c r="ZD20" s="11"/>
+      <c r="ZE20" s="11"/>
+      <c r="ZF20" s="11"/>
+      <c r="ZG20" s="11"/>
+      <c r="ZH20" s="11"/>
+      <c r="ZI20" s="11"/>
+      <c r="ZJ20" s="11"/>
+      <c r="ZK20" s="11"/>
+      <c r="ZL20" s="11"/>
+      <c r="ZM20" s="11"/>
+      <c r="ZN20" s="11"/>
+      <c r="ZO20" s="11"/>
+      <c r="ZP20" s="11"/>
+      <c r="ZQ20" s="11"/>
+      <c r="ZR20" s="11"/>
+      <c r="ZS20" s="11"/>
+      <c r="ZT20" s="11"/>
+      <c r="ZU20" s="11"/>
+      <c r="ZV20" s="11"/>
+      <c r="ZW20" s="11"/>
+      <c r="ZX20" s="11"/>
+      <c r="ZY20" s="11"/>
+      <c r="ZZ20" s="11"/>
+      <c r="AAA20" s="11"/>
+      <c r="AAB20" s="11"/>
+      <c r="AAC20" s="11"/>
+      <c r="AAD20" s="11"/>
+      <c r="AAE20" s="11"/>
+      <c r="AAF20" s="11"/>
+      <c r="AAG20" s="11"/>
+      <c r="AAH20" s="11"/>
+      <c r="AAI20" s="11"/>
+      <c r="AAJ20" s="11"/>
+      <c r="AAK20" s="11"/>
+      <c r="AAL20" s="11"/>
+      <c r="AAM20" s="11"/>
+      <c r="AAN20" s="11"/>
+      <c r="AAO20" s="11"/>
+      <c r="AAP20" s="11"/>
+      <c r="AAQ20" s="11"/>
+      <c r="AAR20" s="11"/>
+      <c r="AAS20" s="11"/>
+      <c r="AAT20" s="11"/>
+      <c r="AAU20" s="11"/>
+      <c r="AAV20" s="11"/>
+      <c r="AAW20" s="11"/>
+      <c r="AAX20" s="11"/>
+      <c r="AAY20" s="11"/>
+      <c r="AAZ20" s="11"/>
+      <c r="ABA20" s="11"/>
+      <c r="ABB20" s="11"/>
+      <c r="ABC20" s="11"/>
+      <c r="ABD20" s="11"/>
+      <c r="ABE20" s="11"/>
+      <c r="ABF20" s="11"/>
+      <c r="ABG20" s="11"/>
+      <c r="ABH20" s="11"/>
+      <c r="ABI20" s="11"/>
+      <c r="ABJ20" s="11"/>
+      <c r="ABK20" s="11"/>
+      <c r="ABL20" s="11"/>
+      <c r="ABM20" s="11"/>
+      <c r="ABN20" s="11"/>
+      <c r="ABO20" s="11"/>
+      <c r="ABP20" s="11"/>
+      <c r="ABQ20" s="11"/>
+      <c r="ABR20" s="11"/>
+      <c r="ABS20" s="11"/>
+      <c r="ABT20" s="11"/>
+      <c r="ABU20" s="11"/>
+      <c r="ABV20" s="11"/>
+      <c r="ABW20" s="11"/>
+      <c r="ABX20" s="11"/>
+      <c r="ABY20" s="11"/>
+      <c r="ABZ20" s="11"/>
+      <c r="ACA20" s="11"/>
+      <c r="ACB20" s="11"/>
+      <c r="ACC20" s="11"/>
+      <c r="ACD20" s="11"/>
+      <c r="ACE20" s="11"/>
+      <c r="ACF20" s="11"/>
+      <c r="ACG20" s="11"/>
+      <c r="ACH20" s="11"/>
+      <c r="ACI20" s="11"/>
+      <c r="ACJ20" s="11"/>
+      <c r="ACK20" s="11"/>
+      <c r="ACL20" s="11"/>
+      <c r="ACM20" s="11"/>
+      <c r="ACN20" s="11"/>
+      <c r="ACO20" s="11"/>
+      <c r="ACP20" s="11"/>
+      <c r="ACQ20" s="11"/>
+      <c r="ACR20" s="11"/>
+      <c r="ACS20" s="11"/>
+      <c r="ACT20" s="11"/>
+      <c r="ACU20" s="11"/>
+      <c r="ACV20" s="11"/>
+      <c r="ACW20" s="11"/>
+      <c r="ACX20" s="11"/>
+      <c r="ACY20" s="11"/>
+      <c r="ACZ20" s="11"/>
+      <c r="ADA20" s="11"/>
+      <c r="ADB20" s="11"/>
+      <c r="ADC20" s="11"/>
+      <c r="ADD20" s="11"/>
+      <c r="ADE20" s="11"/>
+      <c r="ADF20" s="11"/>
+      <c r="ADG20" s="11"/>
+      <c r="ADH20" s="11"/>
+      <c r="ADI20" s="11"/>
+      <c r="ADJ20" s="11"/>
+      <c r="ADK20" s="11"/>
+      <c r="ADL20" s="11"/>
+      <c r="ADM20" s="11"/>
+      <c r="ADN20" s="11"/>
+      <c r="ADO20" s="11"/>
+      <c r="ADP20" s="11"/>
+      <c r="ADQ20" s="11"/>
+      <c r="ADR20" s="11"/>
+      <c r="ADS20" s="11"/>
+      <c r="ADT20" s="11"/>
+      <c r="ADU20" s="11"/>
+      <c r="ADV20" s="11"/>
+      <c r="ADW20" s="11"/>
+      <c r="ADX20" s="11"/>
+      <c r="ADY20" s="11"/>
+      <c r="ADZ20" s="11"/>
+      <c r="AEA20" s="11"/>
+      <c r="AEB20" s="11"/>
+      <c r="AEC20" s="11"/>
+      <c r="AED20" s="11"/>
+      <c r="AEE20" s="11"/>
+      <c r="AEF20" s="11"/>
+      <c r="AEG20" s="11"/>
+      <c r="AEH20" s="11"/>
+      <c r="AEI20" s="11"/>
+      <c r="AEJ20" s="11"/>
+      <c r="AEK20" s="11"/>
+      <c r="AEL20" s="11"/>
+      <c r="AEM20" s="11"/>
+      <c r="AEN20" s="11"/>
+      <c r="AEO20" s="11"/>
+      <c r="AEP20" s="11"/>
+      <c r="AEQ20" s="11"/>
+      <c r="AER20" s="11"/>
+      <c r="AES20" s="11"/>
+      <c r="AET20" s="11"/>
+      <c r="AEU20" s="11"/>
+      <c r="AEV20" s="11"/>
+      <c r="AEW20" s="11"/>
+      <c r="AEX20" s="11"/>
+      <c r="AEY20" s="11"/>
+      <c r="AEZ20" s="11"/>
+      <c r="AFA20" s="11"/>
+      <c r="AFB20" s="11"/>
+      <c r="AFC20" s="11"/>
+      <c r="AFD20" s="11"/>
+      <c r="AFE20" s="11"/>
+      <c r="AFF20" s="11"/>
+      <c r="AFG20" s="11"/>
+      <c r="AFH20" s="11"/>
+      <c r="AFI20" s="11"/>
+      <c r="AFJ20" s="11"/>
+      <c r="AFK20" s="11"/>
+      <c r="AFL20" s="11"/>
+      <c r="AFM20" s="11"/>
+      <c r="AFN20" s="11"/>
+      <c r="AFO20" s="11"/>
+      <c r="AFP20" s="11"/>
+      <c r="AFQ20" s="11"/>
+      <c r="AFR20" s="11"/>
+      <c r="AFS20" s="11"/>
+      <c r="AFT20" s="11"/>
+      <c r="AFU20" s="11"/>
+      <c r="AFV20" s="11"/>
+      <c r="AFW20" s="11"/>
+      <c r="AFX20" s="11"/>
+      <c r="AFY20" s="11"/>
+      <c r="AFZ20" s="11"/>
+      <c r="AGA20" s="11"/>
+      <c r="AGB20" s="11"/>
+      <c r="AGC20" s="11"/>
+      <c r="AGD20" s="11"/>
+      <c r="AGE20" s="11"/>
+      <c r="AGF20" s="11"/>
+      <c r="AGG20" s="11"/>
+      <c r="AGH20" s="11"/>
+      <c r="AGI20" s="11"/>
+      <c r="AGJ20" s="11"/>
+      <c r="AGK20" s="11"/>
+      <c r="AGL20" s="11"/>
+      <c r="AGM20" s="11"/>
+      <c r="AGN20" s="11"/>
+      <c r="AGO20" s="11"/>
+      <c r="AGP20" s="11"/>
+      <c r="AGQ20" s="11"/>
+      <c r="AGR20" s="11"/>
+      <c r="AGS20" s="11"/>
+      <c r="AGT20" s="11"/>
+      <c r="AGU20" s="11"/>
+      <c r="AGV20" s="11"/>
+      <c r="AGW20" s="11"/>
+      <c r="AGX20" s="11"/>
+      <c r="AGY20" s="11"/>
+      <c r="AGZ20" s="11"/>
+      <c r="AHA20" s="11"/>
+      <c r="AHB20" s="11"/>
+      <c r="AHC20" s="11"/>
+      <c r="AHD20" s="11"/>
+      <c r="AHE20" s="11"/>
+      <c r="AHF20" s="11"/>
+      <c r="AHG20" s="11"/>
+      <c r="AHH20" s="11"/>
+      <c r="AHI20" s="11"/>
+      <c r="AHJ20" s="11"/>
+      <c r="AHK20" s="11"/>
+      <c r="AHL20" s="11"/>
+      <c r="AHM20" s="11"/>
+      <c r="AHN20" s="11"/>
+      <c r="AHO20" s="11"/>
+      <c r="AHP20" s="11"/>
+      <c r="AHQ20" s="11"/>
+      <c r="AHR20" s="11"/>
+      <c r="AHS20" s="11"/>
+      <c r="AHT20" s="11"/>
+      <c r="AHU20" s="11"/>
+      <c r="AHV20" s="11"/>
+      <c r="AHW20" s="11"/>
+      <c r="AHX20" s="11"/>
+      <c r="AHY20" s="11"/>
+      <c r="AHZ20" s="11"/>
+      <c r="AIA20" s="11"/>
+      <c r="AIB20" s="11"/>
+      <c r="AIC20" s="11"/>
+      <c r="AID20" s="11"/>
+      <c r="AIE20" s="11"/>
+      <c r="AIF20" s="11"/>
+      <c r="AIG20" s="11"/>
+      <c r="AIH20" s="11"/>
+      <c r="AII20" s="11"/>
+      <c r="AIJ20" s="11"/>
+      <c r="AIK20" s="11"/>
+      <c r="AIL20" s="11"/>
+      <c r="AIM20" s="11"/>
+      <c r="AIN20" s="11"/>
+      <c r="AIO20" s="11"/>
+      <c r="AIP20" s="11"/>
+      <c r="AIQ20" s="11"/>
+      <c r="AIR20" s="11"/>
+      <c r="AIS20" s="11"/>
+      <c r="AIT20" s="11"/>
+      <c r="AIU20" s="11"/>
+      <c r="AIV20" s="11"/>
+      <c r="AIW20" s="11"/>
+      <c r="AIX20" s="11"/>
+      <c r="AIY20" s="11"/>
+      <c r="AIZ20" s="11"/>
+      <c r="AJA20" s="11"/>
+      <c r="AJB20" s="11"/>
+      <c r="AJC20" s="11"/>
+      <c r="AJD20" s="11"/>
+      <c r="AJE20" s="11"/>
+      <c r="AJF20" s="11"/>
+      <c r="AJG20" s="11"/>
+      <c r="AJH20" s="11"/>
+      <c r="AJI20" s="11"/>
+      <c r="AJJ20" s="11"/>
+      <c r="AJK20" s="11"/>
+      <c r="AJL20" s="11"/>
+      <c r="AJM20" s="11"/>
+      <c r="AJN20" s="11"/>
+      <c r="AJO20" s="11"/>
+      <c r="AJP20" s="11"/>
+      <c r="AJQ20" s="11"/>
+      <c r="AJR20" s="11"/>
+      <c r="AJS20" s="11"/>
+      <c r="AJT20" s="11"/>
+      <c r="AJU20" s="11"/>
+      <c r="AJV20" s="11"/>
+      <c r="AJW20" s="11"/>
+      <c r="AJX20" s="11"/>
+      <c r="AJY20" s="11"/>
+      <c r="AJZ20" s="11"/>
+      <c r="AKA20" s="11"/>
+      <c r="AKB20" s="11"/>
+      <c r="AKC20" s="11"/>
+      <c r="AKD20" s="11"/>
+      <c r="AKE20" s="11"/>
+      <c r="AKF20" s="11"/>
+      <c r="AKG20" s="11"/>
+      <c r="AKH20" s="11"/>
+      <c r="AKI20" s="11"/>
+      <c r="AKJ20" s="11"/>
+      <c r="AKK20" s="11"/>
+      <c r="AKL20" s="11"/>
+      <c r="AKM20" s="11"/>
+      <c r="AKN20" s="11"/>
+      <c r="AKO20" s="11"/>
+      <c r="AKP20" s="11"/>
+      <c r="AKQ20" s="11"/>
+      <c r="AKR20" s="11"/>
+      <c r="AKS20" s="11"/>
+      <c r="AKT20" s="11"/>
+      <c r="AKU20" s="11"/>
+      <c r="AKV20" s="11"/>
+      <c r="AKW20" s="11"/>
+      <c r="AKX20" s="11"/>
+      <c r="AKY20" s="11"/>
+      <c r="AKZ20" s="11"/>
+      <c r="ALA20" s="11"/>
+      <c r="ALB20" s="11"/>
+      <c r="ALC20" s="11"/>
+      <c r="ALD20" s="11"/>
+      <c r="ALE20" s="11"/>
+      <c r="ALF20" s="11"/>
+      <c r="ALG20" s="11"/>
+      <c r="ALH20" s="11"/>
+      <c r="ALI20" s="11"/>
+      <c r="ALJ20" s="11"/>
+      <c r="ALK20" s="11"/>
+      <c r="ALL20" s="11"/>
+      <c r="ALM20" s="11"/>
+      <c r="ALN20" s="11"/>
+      <c r="ALO20" s="11"/>
+      <c r="ALP20" s="11"/>
+      <c r="ALQ20" s="11"/>
+      <c r="ALR20" s="11"/>
+      <c r="ALS20" s="11"/>
+      <c r="ALT20" s="11"/>
+      <c r="ALU20" s="11"/>
+      <c r="ALV20" s="11"/>
+      <c r="ALW20" s="11"/>
+      <c r="ALX20" s="11"/>
+      <c r="ALY20" s="11"/>
+      <c r="ALZ20" s="11"/>
+      <c r="AMA20" s="11"/>
+      <c r="AMB20" s="11"/>
+      <c r="AMC20" s="11"/>
+      <c r="AMD20" s="11"/>
+      <c r="AME20" s="11"/>
+      <c r="AMF20" s="11"/>
+      <c r="AMG20" s="11"/>
+      <c r="AMH20" s="11"/>
+      <c r="AMI20" s="11"/>
+      <c r="AMJ20" s="11"/>
+      <c r="AMK20" s="11"/>
+      <c r="AML20" s="11"/>
+    </row>
+    <row r="21" spans="1:1026" ht="72.5">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="29">
-      <c r="A21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>66</v>
@@ -2452,22 +7781,34 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I21" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:1026" ht="87">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>66</v>
@@ -2476,139 +7817,1182 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I22" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" ht="29">
+    <row r="23" spans="1:1026" ht="29">
       <c r="A23" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1026" ht="409.5">
+      <c r="A24" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="174">
-      <c r="A24" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="B24" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="72.5">
+    <row r="25" spans="1:1026" ht="72.5">
       <c r="A25" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="29">
-      <c r="A26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="1:1026" s="14" customFormat="1" ht="29">
+      <c r="A26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="D26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="11"/>
+      <c r="BH26" s="11"/>
+      <c r="BI26" s="11"/>
+      <c r="BJ26" s="11"/>
+      <c r="BK26" s="11"/>
+      <c r="BL26" s="11"/>
+      <c r="BM26" s="11"/>
+      <c r="BN26" s="11"/>
+      <c r="BO26" s="11"/>
+      <c r="BP26" s="11"/>
+      <c r="BQ26" s="11"/>
+      <c r="BR26" s="11"/>
+      <c r="BS26" s="11"/>
+      <c r="BT26" s="11"/>
+      <c r="BU26" s="11"/>
+      <c r="BV26" s="11"/>
+      <c r="BW26" s="11"/>
+      <c r="BX26" s="11"/>
+      <c r="BY26" s="11"/>
+      <c r="BZ26" s="11"/>
+      <c r="CA26" s="11"/>
+      <c r="CB26" s="11"/>
+      <c r="CC26" s="11"/>
+      <c r="CD26" s="11"/>
+      <c r="CE26" s="11"/>
+      <c r="CF26" s="11"/>
+      <c r="CG26" s="11"/>
+      <c r="CH26" s="11"/>
+      <c r="CI26" s="11"/>
+      <c r="CJ26" s="11"/>
+      <c r="CK26" s="11"/>
+      <c r="CL26" s="11"/>
+      <c r="CM26" s="11"/>
+      <c r="CN26" s="11"/>
+      <c r="CO26" s="11"/>
+      <c r="CP26" s="11"/>
+      <c r="CQ26" s="11"/>
+      <c r="CR26" s="11"/>
+      <c r="CS26" s="11"/>
+      <c r="CT26" s="11"/>
+      <c r="CU26" s="11"/>
+      <c r="CV26" s="11"/>
+      <c r="CW26" s="11"/>
+      <c r="CX26" s="11"/>
+      <c r="CY26" s="11"/>
+      <c r="CZ26" s="11"/>
+      <c r="DA26" s="11"/>
+      <c r="DB26" s="11"/>
+      <c r="DC26" s="11"/>
+      <c r="DD26" s="11"/>
+      <c r="DE26" s="11"/>
+      <c r="DF26" s="11"/>
+      <c r="DG26" s="11"/>
+      <c r="DH26" s="11"/>
+      <c r="DI26" s="11"/>
+      <c r="DJ26" s="11"/>
+      <c r="DK26" s="11"/>
+      <c r="DL26" s="11"/>
+      <c r="DM26" s="11"/>
+      <c r="DN26" s="11"/>
+      <c r="DO26" s="11"/>
+      <c r="DP26" s="11"/>
+      <c r="DQ26" s="11"/>
+      <c r="DR26" s="11"/>
+      <c r="DS26" s="11"/>
+      <c r="DT26" s="11"/>
+      <c r="DU26" s="11"/>
+      <c r="DV26" s="11"/>
+      <c r="DW26" s="11"/>
+      <c r="DX26" s="11"/>
+      <c r="DY26" s="11"/>
+      <c r="DZ26" s="11"/>
+      <c r="EA26" s="11"/>
+      <c r="EB26" s="11"/>
+      <c r="EC26" s="11"/>
+      <c r="ED26" s="11"/>
+      <c r="EE26" s="11"/>
+      <c r="EF26" s="11"/>
+      <c r="EG26" s="11"/>
+      <c r="EH26" s="11"/>
+      <c r="EI26" s="11"/>
+      <c r="EJ26" s="11"/>
+      <c r="EK26" s="11"/>
+      <c r="EL26" s="11"/>
+      <c r="EM26" s="11"/>
+      <c r="EN26" s="11"/>
+      <c r="EO26" s="11"/>
+      <c r="EP26" s="11"/>
+      <c r="EQ26" s="11"/>
+      <c r="ER26" s="11"/>
+      <c r="ES26" s="11"/>
+      <c r="ET26" s="11"/>
+      <c r="EU26" s="11"/>
+      <c r="EV26" s="11"/>
+      <c r="EW26" s="11"/>
+      <c r="EX26" s="11"/>
+      <c r="EY26" s="11"/>
+      <c r="EZ26" s="11"/>
+      <c r="FA26" s="11"/>
+      <c r="FB26" s="11"/>
+      <c r="FC26" s="11"/>
+      <c r="FD26" s="11"/>
+      <c r="FE26" s="11"/>
+      <c r="FF26" s="11"/>
+      <c r="FG26" s="11"/>
+      <c r="FH26" s="11"/>
+      <c r="FI26" s="11"/>
+      <c r="FJ26" s="11"/>
+      <c r="FK26" s="11"/>
+      <c r="FL26" s="11"/>
+      <c r="FM26" s="11"/>
+      <c r="FN26" s="11"/>
+      <c r="FO26" s="11"/>
+      <c r="FP26" s="11"/>
+      <c r="FQ26" s="11"/>
+      <c r="FR26" s="11"/>
+      <c r="FS26" s="11"/>
+      <c r="FT26" s="11"/>
+      <c r="FU26" s="11"/>
+      <c r="FV26" s="11"/>
+      <c r="FW26" s="11"/>
+      <c r="FX26" s="11"/>
+      <c r="FY26" s="11"/>
+      <c r="FZ26" s="11"/>
+      <c r="GA26" s="11"/>
+      <c r="GB26" s="11"/>
+      <c r="GC26" s="11"/>
+      <c r="GD26" s="11"/>
+      <c r="GE26" s="11"/>
+      <c r="GF26" s="11"/>
+      <c r="GG26" s="11"/>
+      <c r="GH26" s="11"/>
+      <c r="GI26" s="11"/>
+      <c r="GJ26" s="11"/>
+      <c r="GK26" s="11"/>
+      <c r="GL26" s="11"/>
+      <c r="GM26" s="11"/>
+      <c r="GN26" s="11"/>
+      <c r="GO26" s="11"/>
+      <c r="GP26" s="11"/>
+      <c r="GQ26" s="11"/>
+      <c r="GR26" s="11"/>
+      <c r="GS26" s="11"/>
+      <c r="GT26" s="11"/>
+      <c r="GU26" s="11"/>
+      <c r="GV26" s="11"/>
+      <c r="GW26" s="11"/>
+      <c r="GX26" s="11"/>
+      <c r="GY26" s="11"/>
+      <c r="GZ26" s="11"/>
+      <c r="HA26" s="11"/>
+      <c r="HB26" s="11"/>
+      <c r="HC26" s="11"/>
+      <c r="HD26" s="11"/>
+      <c r="HE26" s="11"/>
+      <c r="HF26" s="11"/>
+      <c r="HG26" s="11"/>
+      <c r="HH26" s="11"/>
+      <c r="HI26" s="11"/>
+      <c r="HJ26" s="11"/>
+      <c r="HK26" s="11"/>
+      <c r="HL26" s="11"/>
+      <c r="HM26" s="11"/>
+      <c r="HN26" s="11"/>
+      <c r="HO26" s="11"/>
+      <c r="HP26" s="11"/>
+      <c r="HQ26" s="11"/>
+      <c r="HR26" s="11"/>
+      <c r="HS26" s="11"/>
+      <c r="HT26" s="11"/>
+      <c r="HU26" s="11"/>
+      <c r="HV26" s="11"/>
+      <c r="HW26" s="11"/>
+      <c r="HX26" s="11"/>
+      <c r="HY26" s="11"/>
+      <c r="HZ26" s="11"/>
+      <c r="IA26" s="11"/>
+      <c r="IB26" s="11"/>
+      <c r="IC26" s="11"/>
+      <c r="ID26" s="11"/>
+      <c r="IE26" s="11"/>
+      <c r="IF26" s="11"/>
+      <c r="IG26" s="11"/>
+      <c r="IH26" s="11"/>
+      <c r="II26" s="11"/>
+      <c r="IJ26" s="11"/>
+      <c r="IK26" s="11"/>
+      <c r="IL26" s="11"/>
+      <c r="IM26" s="11"/>
+      <c r="IN26" s="11"/>
+      <c r="IO26" s="11"/>
+      <c r="IP26" s="11"/>
+      <c r="IQ26" s="11"/>
+      <c r="IR26" s="11"/>
+      <c r="IS26" s="11"/>
+      <c r="IT26" s="11"/>
+      <c r="IU26" s="11"/>
+      <c r="IV26" s="11"/>
+      <c r="IW26" s="11"/>
+      <c r="IX26" s="11"/>
+      <c r="IY26" s="11"/>
+      <c r="IZ26" s="11"/>
+      <c r="JA26" s="11"/>
+      <c r="JB26" s="11"/>
+      <c r="JC26" s="11"/>
+      <c r="JD26" s="11"/>
+      <c r="JE26" s="11"/>
+      <c r="JF26" s="11"/>
+      <c r="JG26" s="11"/>
+      <c r="JH26" s="11"/>
+      <c r="JI26" s="11"/>
+      <c r="JJ26" s="11"/>
+      <c r="JK26" s="11"/>
+      <c r="JL26" s="11"/>
+      <c r="JM26" s="11"/>
+      <c r="JN26" s="11"/>
+      <c r="JO26" s="11"/>
+      <c r="JP26" s="11"/>
+      <c r="JQ26" s="11"/>
+      <c r="JR26" s="11"/>
+      <c r="JS26" s="11"/>
+      <c r="JT26" s="11"/>
+      <c r="JU26" s="11"/>
+      <c r="JV26" s="11"/>
+      <c r="JW26" s="11"/>
+      <c r="JX26" s="11"/>
+      <c r="JY26" s="11"/>
+      <c r="JZ26" s="11"/>
+      <c r="KA26" s="11"/>
+      <c r="KB26" s="11"/>
+      <c r="KC26" s="11"/>
+      <c r="KD26" s="11"/>
+      <c r="KE26" s="11"/>
+      <c r="KF26" s="11"/>
+      <c r="KG26" s="11"/>
+      <c r="KH26" s="11"/>
+      <c r="KI26" s="11"/>
+      <c r="KJ26" s="11"/>
+      <c r="KK26" s="11"/>
+      <c r="KL26" s="11"/>
+      <c r="KM26" s="11"/>
+      <c r="KN26" s="11"/>
+      <c r="KO26" s="11"/>
+      <c r="KP26" s="11"/>
+      <c r="KQ26" s="11"/>
+      <c r="KR26" s="11"/>
+      <c r="KS26" s="11"/>
+      <c r="KT26" s="11"/>
+      <c r="KU26" s="11"/>
+      <c r="KV26" s="11"/>
+      <c r="KW26" s="11"/>
+      <c r="KX26" s="11"/>
+      <c r="KY26" s="11"/>
+      <c r="KZ26" s="11"/>
+      <c r="LA26" s="11"/>
+      <c r="LB26" s="11"/>
+      <c r="LC26" s="11"/>
+      <c r="LD26" s="11"/>
+      <c r="LE26" s="11"/>
+      <c r="LF26" s="11"/>
+      <c r="LG26" s="11"/>
+      <c r="LH26" s="11"/>
+      <c r="LI26" s="11"/>
+      <c r="LJ26" s="11"/>
+      <c r="LK26" s="11"/>
+      <c r="LL26" s="11"/>
+      <c r="LM26" s="11"/>
+      <c r="LN26" s="11"/>
+      <c r="LO26" s="11"/>
+      <c r="LP26" s="11"/>
+      <c r="LQ26" s="11"/>
+      <c r="LR26" s="11"/>
+      <c r="LS26" s="11"/>
+      <c r="LT26" s="11"/>
+      <c r="LU26" s="11"/>
+      <c r="LV26" s="11"/>
+      <c r="LW26" s="11"/>
+      <c r="LX26" s="11"/>
+      <c r="LY26" s="11"/>
+      <c r="LZ26" s="11"/>
+      <c r="MA26" s="11"/>
+      <c r="MB26" s="11"/>
+      <c r="MC26" s="11"/>
+      <c r="MD26" s="11"/>
+      <c r="ME26" s="11"/>
+      <c r="MF26" s="11"/>
+      <c r="MG26" s="11"/>
+      <c r="MH26" s="11"/>
+      <c r="MI26" s="11"/>
+      <c r="MJ26" s="11"/>
+      <c r="MK26" s="11"/>
+      <c r="ML26" s="11"/>
+      <c r="MM26" s="11"/>
+      <c r="MN26" s="11"/>
+      <c r="MO26" s="11"/>
+      <c r="MP26" s="11"/>
+      <c r="MQ26" s="11"/>
+      <c r="MR26" s="11"/>
+      <c r="MS26" s="11"/>
+      <c r="MT26" s="11"/>
+      <c r="MU26" s="11"/>
+      <c r="MV26" s="11"/>
+      <c r="MW26" s="11"/>
+      <c r="MX26" s="11"/>
+      <c r="MY26" s="11"/>
+      <c r="MZ26" s="11"/>
+      <c r="NA26" s="11"/>
+      <c r="NB26" s="11"/>
+      <c r="NC26" s="11"/>
+      <c r="ND26" s="11"/>
+      <c r="NE26" s="11"/>
+      <c r="NF26" s="11"/>
+      <c r="NG26" s="11"/>
+      <c r="NH26" s="11"/>
+      <c r="NI26" s="11"/>
+      <c r="NJ26" s="11"/>
+      <c r="NK26" s="11"/>
+      <c r="NL26" s="11"/>
+      <c r="NM26" s="11"/>
+      <c r="NN26" s="11"/>
+      <c r="NO26" s="11"/>
+      <c r="NP26" s="11"/>
+      <c r="NQ26" s="11"/>
+      <c r="NR26" s="11"/>
+      <c r="NS26" s="11"/>
+      <c r="NT26" s="11"/>
+      <c r="NU26" s="11"/>
+      <c r="NV26" s="11"/>
+      <c r="NW26" s="11"/>
+      <c r="NX26" s="11"/>
+      <c r="NY26" s="11"/>
+      <c r="NZ26" s="11"/>
+      <c r="OA26" s="11"/>
+      <c r="OB26" s="11"/>
+      <c r="OC26" s="11"/>
+      <c r="OD26" s="11"/>
+      <c r="OE26" s="11"/>
+      <c r="OF26" s="11"/>
+      <c r="OG26" s="11"/>
+      <c r="OH26" s="11"/>
+      <c r="OI26" s="11"/>
+      <c r="OJ26" s="11"/>
+      <c r="OK26" s="11"/>
+      <c r="OL26" s="11"/>
+      <c r="OM26" s="11"/>
+      <c r="ON26" s="11"/>
+      <c r="OO26" s="11"/>
+      <c r="OP26" s="11"/>
+      <c r="OQ26" s="11"/>
+      <c r="OR26" s="11"/>
+      <c r="OS26" s="11"/>
+      <c r="OT26" s="11"/>
+      <c r="OU26" s="11"/>
+      <c r="OV26" s="11"/>
+      <c r="OW26" s="11"/>
+      <c r="OX26" s="11"/>
+      <c r="OY26" s="11"/>
+      <c r="OZ26" s="11"/>
+      <c r="PA26" s="11"/>
+      <c r="PB26" s="11"/>
+      <c r="PC26" s="11"/>
+      <c r="PD26" s="11"/>
+      <c r="PE26" s="11"/>
+      <c r="PF26" s="11"/>
+      <c r="PG26" s="11"/>
+      <c r="PH26" s="11"/>
+      <c r="PI26" s="11"/>
+      <c r="PJ26" s="11"/>
+      <c r="PK26" s="11"/>
+      <c r="PL26" s="11"/>
+      <c r="PM26" s="11"/>
+      <c r="PN26" s="11"/>
+      <c r="PO26" s="11"/>
+      <c r="PP26" s="11"/>
+      <c r="PQ26" s="11"/>
+      <c r="PR26" s="11"/>
+      <c r="PS26" s="11"/>
+      <c r="PT26" s="11"/>
+      <c r="PU26" s="11"/>
+      <c r="PV26" s="11"/>
+      <c r="PW26" s="11"/>
+      <c r="PX26" s="11"/>
+      <c r="PY26" s="11"/>
+      <c r="PZ26" s="11"/>
+      <c r="QA26" s="11"/>
+      <c r="QB26" s="11"/>
+      <c r="QC26" s="11"/>
+      <c r="QD26" s="11"/>
+      <c r="QE26" s="11"/>
+      <c r="QF26" s="11"/>
+      <c r="QG26" s="11"/>
+      <c r="QH26" s="11"/>
+      <c r="QI26" s="11"/>
+      <c r="QJ26" s="11"/>
+      <c r="QK26" s="11"/>
+      <c r="QL26" s="11"/>
+      <c r="QM26" s="11"/>
+      <c r="QN26" s="11"/>
+      <c r="QO26" s="11"/>
+      <c r="QP26" s="11"/>
+      <c r="QQ26" s="11"/>
+      <c r="QR26" s="11"/>
+      <c r="QS26" s="11"/>
+      <c r="QT26" s="11"/>
+      <c r="QU26" s="11"/>
+      <c r="QV26" s="11"/>
+      <c r="QW26" s="11"/>
+      <c r="QX26" s="11"/>
+      <c r="QY26" s="11"/>
+      <c r="QZ26" s="11"/>
+      <c r="RA26" s="11"/>
+      <c r="RB26" s="11"/>
+      <c r="RC26" s="11"/>
+      <c r="RD26" s="11"/>
+      <c r="RE26" s="11"/>
+      <c r="RF26" s="11"/>
+      <c r="RG26" s="11"/>
+      <c r="RH26" s="11"/>
+      <c r="RI26" s="11"/>
+      <c r="RJ26" s="11"/>
+      <c r="RK26" s="11"/>
+      <c r="RL26" s="11"/>
+      <c r="RM26" s="11"/>
+      <c r="RN26" s="11"/>
+      <c r="RO26" s="11"/>
+      <c r="RP26" s="11"/>
+      <c r="RQ26" s="11"/>
+      <c r="RR26" s="11"/>
+      <c r="RS26" s="11"/>
+      <c r="RT26" s="11"/>
+      <c r="RU26" s="11"/>
+      <c r="RV26" s="11"/>
+      <c r="RW26" s="11"/>
+      <c r="RX26" s="11"/>
+      <c r="RY26" s="11"/>
+      <c r="RZ26" s="11"/>
+      <c r="SA26" s="11"/>
+      <c r="SB26" s="11"/>
+      <c r="SC26" s="11"/>
+      <c r="SD26" s="11"/>
+      <c r="SE26" s="11"/>
+      <c r="SF26" s="11"/>
+      <c r="SG26" s="11"/>
+      <c r="SH26" s="11"/>
+      <c r="SI26" s="11"/>
+      <c r="SJ26" s="11"/>
+      <c r="SK26" s="11"/>
+      <c r="SL26" s="11"/>
+      <c r="SM26" s="11"/>
+      <c r="SN26" s="11"/>
+      <c r="SO26" s="11"/>
+      <c r="SP26" s="11"/>
+      <c r="SQ26" s="11"/>
+      <c r="SR26" s="11"/>
+      <c r="SS26" s="11"/>
+      <c r="ST26" s="11"/>
+      <c r="SU26" s="11"/>
+      <c r="SV26" s="11"/>
+      <c r="SW26" s="11"/>
+      <c r="SX26" s="11"/>
+      <c r="SY26" s="11"/>
+      <c r="SZ26" s="11"/>
+      <c r="TA26" s="11"/>
+      <c r="TB26" s="11"/>
+      <c r="TC26" s="11"/>
+      <c r="TD26" s="11"/>
+      <c r="TE26" s="11"/>
+      <c r="TF26" s="11"/>
+      <c r="TG26" s="11"/>
+      <c r="TH26" s="11"/>
+      <c r="TI26" s="11"/>
+      <c r="TJ26" s="11"/>
+      <c r="TK26" s="11"/>
+      <c r="TL26" s="11"/>
+      <c r="TM26" s="11"/>
+      <c r="TN26" s="11"/>
+      <c r="TO26" s="11"/>
+      <c r="TP26" s="11"/>
+      <c r="TQ26" s="11"/>
+      <c r="TR26" s="11"/>
+      <c r="TS26" s="11"/>
+      <c r="TT26" s="11"/>
+      <c r="TU26" s="11"/>
+      <c r="TV26" s="11"/>
+      <c r="TW26" s="11"/>
+      <c r="TX26" s="11"/>
+      <c r="TY26" s="11"/>
+      <c r="TZ26" s="11"/>
+      <c r="UA26" s="11"/>
+      <c r="UB26" s="11"/>
+      <c r="UC26" s="11"/>
+      <c r="UD26" s="11"/>
+      <c r="UE26" s="11"/>
+      <c r="UF26" s="11"/>
+      <c r="UG26" s="11"/>
+      <c r="UH26" s="11"/>
+      <c r="UI26" s="11"/>
+      <c r="UJ26" s="11"/>
+      <c r="UK26" s="11"/>
+      <c r="UL26" s="11"/>
+      <c r="UM26" s="11"/>
+      <c r="UN26" s="11"/>
+      <c r="UO26" s="11"/>
+      <c r="UP26" s="11"/>
+      <c r="UQ26" s="11"/>
+      <c r="UR26" s="11"/>
+      <c r="US26" s="11"/>
+      <c r="UT26" s="11"/>
+      <c r="UU26" s="11"/>
+      <c r="UV26" s="11"/>
+      <c r="UW26" s="11"/>
+      <c r="UX26" s="11"/>
+      <c r="UY26" s="11"/>
+      <c r="UZ26" s="11"/>
+      <c r="VA26" s="11"/>
+      <c r="VB26" s="11"/>
+      <c r="VC26" s="11"/>
+      <c r="VD26" s="11"/>
+      <c r="VE26" s="11"/>
+      <c r="VF26" s="11"/>
+      <c r="VG26" s="11"/>
+      <c r="VH26" s="11"/>
+      <c r="VI26" s="11"/>
+      <c r="VJ26" s="11"/>
+      <c r="VK26" s="11"/>
+      <c r="VL26" s="11"/>
+      <c r="VM26" s="11"/>
+      <c r="VN26" s="11"/>
+      <c r="VO26" s="11"/>
+      <c r="VP26" s="11"/>
+      <c r="VQ26" s="11"/>
+      <c r="VR26" s="11"/>
+      <c r="VS26" s="11"/>
+      <c r="VT26" s="11"/>
+      <c r="VU26" s="11"/>
+      <c r="VV26" s="11"/>
+      <c r="VW26" s="11"/>
+      <c r="VX26" s="11"/>
+      <c r="VY26" s="11"/>
+      <c r="VZ26" s="11"/>
+      <c r="WA26" s="11"/>
+      <c r="WB26" s="11"/>
+      <c r="WC26" s="11"/>
+      <c r="WD26" s="11"/>
+      <c r="WE26" s="11"/>
+      <c r="WF26" s="11"/>
+      <c r="WG26" s="11"/>
+      <c r="WH26" s="11"/>
+      <c r="WI26" s="11"/>
+      <c r="WJ26" s="11"/>
+      <c r="WK26" s="11"/>
+      <c r="WL26" s="11"/>
+      <c r="WM26" s="11"/>
+      <c r="WN26" s="11"/>
+      <c r="WO26" s="11"/>
+      <c r="WP26" s="11"/>
+      <c r="WQ26" s="11"/>
+      <c r="WR26" s="11"/>
+      <c r="WS26" s="11"/>
+      <c r="WT26" s="11"/>
+      <c r="WU26" s="11"/>
+      <c r="WV26" s="11"/>
+      <c r="WW26" s="11"/>
+      <c r="WX26" s="11"/>
+      <c r="WY26" s="11"/>
+      <c r="WZ26" s="11"/>
+      <c r="XA26" s="11"/>
+      <c r="XB26" s="11"/>
+      <c r="XC26" s="11"/>
+      <c r="XD26" s="11"/>
+      <c r="XE26" s="11"/>
+      <c r="XF26" s="11"/>
+      <c r="XG26" s="11"/>
+      <c r="XH26" s="11"/>
+      <c r="XI26" s="11"/>
+      <c r="XJ26" s="11"/>
+      <c r="XK26" s="11"/>
+      <c r="XL26" s="11"/>
+      <c r="XM26" s="11"/>
+      <c r="XN26" s="11"/>
+      <c r="XO26" s="11"/>
+      <c r="XP26" s="11"/>
+      <c r="XQ26" s="11"/>
+      <c r="XR26" s="11"/>
+      <c r="XS26" s="11"/>
+      <c r="XT26" s="11"/>
+      <c r="XU26" s="11"/>
+      <c r="XV26" s="11"/>
+      <c r="XW26" s="11"/>
+      <c r="XX26" s="11"/>
+      <c r="XY26" s="11"/>
+      <c r="XZ26" s="11"/>
+      <c r="YA26" s="11"/>
+      <c r="YB26" s="11"/>
+      <c r="YC26" s="11"/>
+      <c r="YD26" s="11"/>
+      <c r="YE26" s="11"/>
+      <c r="YF26" s="11"/>
+      <c r="YG26" s="11"/>
+      <c r="YH26" s="11"/>
+      <c r="YI26" s="11"/>
+      <c r="YJ26" s="11"/>
+      <c r="YK26" s="11"/>
+      <c r="YL26" s="11"/>
+      <c r="YM26" s="11"/>
+      <c r="YN26" s="11"/>
+      <c r="YO26" s="11"/>
+      <c r="YP26" s="11"/>
+      <c r="YQ26" s="11"/>
+      <c r="YR26" s="11"/>
+      <c r="YS26" s="11"/>
+      <c r="YT26" s="11"/>
+      <c r="YU26" s="11"/>
+      <c r="YV26" s="11"/>
+      <c r="YW26" s="11"/>
+      <c r="YX26" s="11"/>
+      <c r="YY26" s="11"/>
+      <c r="YZ26" s="11"/>
+      <c r="ZA26" s="11"/>
+      <c r="ZB26" s="11"/>
+      <c r="ZC26" s="11"/>
+      <c r="ZD26" s="11"/>
+      <c r="ZE26" s="11"/>
+      <c r="ZF26" s="11"/>
+      <c r="ZG26" s="11"/>
+      <c r="ZH26" s="11"/>
+      <c r="ZI26" s="11"/>
+      <c r="ZJ26" s="11"/>
+      <c r="ZK26" s="11"/>
+      <c r="ZL26" s="11"/>
+      <c r="ZM26" s="11"/>
+      <c r="ZN26" s="11"/>
+      <c r="ZO26" s="11"/>
+      <c r="ZP26" s="11"/>
+      <c r="ZQ26" s="11"/>
+      <c r="ZR26" s="11"/>
+      <c r="ZS26" s="11"/>
+      <c r="ZT26" s="11"/>
+      <c r="ZU26" s="11"/>
+      <c r="ZV26" s="11"/>
+      <c r="ZW26" s="11"/>
+      <c r="ZX26" s="11"/>
+      <c r="ZY26" s="11"/>
+      <c r="ZZ26" s="11"/>
+      <c r="AAA26" s="11"/>
+      <c r="AAB26" s="11"/>
+      <c r="AAC26" s="11"/>
+      <c r="AAD26" s="11"/>
+      <c r="AAE26" s="11"/>
+      <c r="AAF26" s="11"/>
+      <c r="AAG26" s="11"/>
+      <c r="AAH26" s="11"/>
+      <c r="AAI26" s="11"/>
+      <c r="AAJ26" s="11"/>
+      <c r="AAK26" s="11"/>
+      <c r="AAL26" s="11"/>
+      <c r="AAM26" s="11"/>
+      <c r="AAN26" s="11"/>
+      <c r="AAO26" s="11"/>
+      <c r="AAP26" s="11"/>
+      <c r="AAQ26" s="11"/>
+      <c r="AAR26" s="11"/>
+      <c r="AAS26" s="11"/>
+      <c r="AAT26" s="11"/>
+      <c r="AAU26" s="11"/>
+      <c r="AAV26" s="11"/>
+      <c r="AAW26" s="11"/>
+      <c r="AAX26" s="11"/>
+      <c r="AAY26" s="11"/>
+      <c r="AAZ26" s="11"/>
+      <c r="ABA26" s="11"/>
+      <c r="ABB26" s="11"/>
+      <c r="ABC26" s="11"/>
+      <c r="ABD26" s="11"/>
+      <c r="ABE26" s="11"/>
+      <c r="ABF26" s="11"/>
+      <c r="ABG26" s="11"/>
+      <c r="ABH26" s="11"/>
+      <c r="ABI26" s="11"/>
+      <c r="ABJ26" s="11"/>
+      <c r="ABK26" s="11"/>
+      <c r="ABL26" s="11"/>
+      <c r="ABM26" s="11"/>
+      <c r="ABN26" s="11"/>
+      <c r="ABO26" s="11"/>
+      <c r="ABP26" s="11"/>
+      <c r="ABQ26" s="11"/>
+      <c r="ABR26" s="11"/>
+      <c r="ABS26" s="11"/>
+      <c r="ABT26" s="11"/>
+      <c r="ABU26" s="11"/>
+      <c r="ABV26" s="11"/>
+      <c r="ABW26" s="11"/>
+      <c r="ABX26" s="11"/>
+      <c r="ABY26" s="11"/>
+      <c r="ABZ26" s="11"/>
+      <c r="ACA26" s="11"/>
+      <c r="ACB26" s="11"/>
+      <c r="ACC26" s="11"/>
+      <c r="ACD26" s="11"/>
+      <c r="ACE26" s="11"/>
+      <c r="ACF26" s="11"/>
+      <c r="ACG26" s="11"/>
+      <c r="ACH26" s="11"/>
+      <c r="ACI26" s="11"/>
+      <c r="ACJ26" s="11"/>
+      <c r="ACK26" s="11"/>
+      <c r="ACL26" s="11"/>
+      <c r="ACM26" s="11"/>
+      <c r="ACN26" s="11"/>
+      <c r="ACO26" s="11"/>
+      <c r="ACP26" s="11"/>
+      <c r="ACQ26" s="11"/>
+      <c r="ACR26" s="11"/>
+      <c r="ACS26" s="11"/>
+      <c r="ACT26" s="11"/>
+      <c r="ACU26" s="11"/>
+      <c r="ACV26" s="11"/>
+      <c r="ACW26" s="11"/>
+      <c r="ACX26" s="11"/>
+      <c r="ACY26" s="11"/>
+      <c r="ACZ26" s="11"/>
+      <c r="ADA26" s="11"/>
+      <c r="ADB26" s="11"/>
+      <c r="ADC26" s="11"/>
+      <c r="ADD26" s="11"/>
+      <c r="ADE26" s="11"/>
+      <c r="ADF26" s="11"/>
+      <c r="ADG26" s="11"/>
+      <c r="ADH26" s="11"/>
+      <c r="ADI26" s="11"/>
+      <c r="ADJ26" s="11"/>
+      <c r="ADK26" s="11"/>
+      <c r="ADL26" s="11"/>
+      <c r="ADM26" s="11"/>
+      <c r="ADN26" s="11"/>
+      <c r="ADO26" s="11"/>
+      <c r="ADP26" s="11"/>
+      <c r="ADQ26" s="11"/>
+      <c r="ADR26" s="11"/>
+      <c r="ADS26" s="11"/>
+      <c r="ADT26" s="11"/>
+      <c r="ADU26" s="11"/>
+      <c r="ADV26" s="11"/>
+      <c r="ADW26" s="11"/>
+      <c r="ADX26" s="11"/>
+      <c r="ADY26" s="11"/>
+      <c r="ADZ26" s="11"/>
+      <c r="AEA26" s="11"/>
+      <c r="AEB26" s="11"/>
+      <c r="AEC26" s="11"/>
+      <c r="AED26" s="11"/>
+      <c r="AEE26" s="11"/>
+      <c r="AEF26" s="11"/>
+      <c r="AEG26" s="11"/>
+      <c r="AEH26" s="11"/>
+      <c r="AEI26" s="11"/>
+      <c r="AEJ26" s="11"/>
+      <c r="AEK26" s="11"/>
+      <c r="AEL26" s="11"/>
+      <c r="AEM26" s="11"/>
+      <c r="AEN26" s="11"/>
+      <c r="AEO26" s="11"/>
+      <c r="AEP26" s="11"/>
+      <c r="AEQ26" s="11"/>
+      <c r="AER26" s="11"/>
+      <c r="AES26" s="11"/>
+      <c r="AET26" s="11"/>
+      <c r="AEU26" s="11"/>
+      <c r="AEV26" s="11"/>
+      <c r="AEW26" s="11"/>
+      <c r="AEX26" s="11"/>
+      <c r="AEY26" s="11"/>
+      <c r="AEZ26" s="11"/>
+      <c r="AFA26" s="11"/>
+      <c r="AFB26" s="11"/>
+      <c r="AFC26" s="11"/>
+      <c r="AFD26" s="11"/>
+      <c r="AFE26" s="11"/>
+      <c r="AFF26" s="11"/>
+      <c r="AFG26" s="11"/>
+      <c r="AFH26" s="11"/>
+      <c r="AFI26" s="11"/>
+      <c r="AFJ26" s="11"/>
+      <c r="AFK26" s="11"/>
+      <c r="AFL26" s="11"/>
+      <c r="AFM26" s="11"/>
+      <c r="AFN26" s="11"/>
+      <c r="AFO26" s="11"/>
+      <c r="AFP26" s="11"/>
+      <c r="AFQ26" s="11"/>
+      <c r="AFR26" s="11"/>
+      <c r="AFS26" s="11"/>
+      <c r="AFT26" s="11"/>
+      <c r="AFU26" s="11"/>
+      <c r="AFV26" s="11"/>
+      <c r="AFW26" s="11"/>
+      <c r="AFX26" s="11"/>
+      <c r="AFY26" s="11"/>
+      <c r="AFZ26" s="11"/>
+      <c r="AGA26" s="11"/>
+      <c r="AGB26" s="11"/>
+      <c r="AGC26" s="11"/>
+      <c r="AGD26" s="11"/>
+      <c r="AGE26" s="11"/>
+      <c r="AGF26" s="11"/>
+      <c r="AGG26" s="11"/>
+      <c r="AGH26" s="11"/>
+      <c r="AGI26" s="11"/>
+      <c r="AGJ26" s="11"/>
+      <c r="AGK26" s="11"/>
+      <c r="AGL26" s="11"/>
+      <c r="AGM26" s="11"/>
+      <c r="AGN26" s="11"/>
+      <c r="AGO26" s="11"/>
+      <c r="AGP26" s="11"/>
+      <c r="AGQ26" s="11"/>
+      <c r="AGR26" s="11"/>
+      <c r="AGS26" s="11"/>
+      <c r="AGT26" s="11"/>
+      <c r="AGU26" s="11"/>
+      <c r="AGV26" s="11"/>
+      <c r="AGW26" s="11"/>
+      <c r="AGX26" s="11"/>
+      <c r="AGY26" s="11"/>
+      <c r="AGZ26" s="11"/>
+      <c r="AHA26" s="11"/>
+      <c r="AHB26" s="11"/>
+      <c r="AHC26" s="11"/>
+      <c r="AHD26" s="11"/>
+      <c r="AHE26" s="11"/>
+      <c r="AHF26" s="11"/>
+      <c r="AHG26" s="11"/>
+      <c r="AHH26" s="11"/>
+      <c r="AHI26" s="11"/>
+      <c r="AHJ26" s="11"/>
+      <c r="AHK26" s="11"/>
+      <c r="AHL26" s="11"/>
+      <c r="AHM26" s="11"/>
+      <c r="AHN26" s="11"/>
+      <c r="AHO26" s="11"/>
+      <c r="AHP26" s="11"/>
+      <c r="AHQ26" s="11"/>
+      <c r="AHR26" s="11"/>
+      <c r="AHS26" s="11"/>
+      <c r="AHT26" s="11"/>
+      <c r="AHU26" s="11"/>
+      <c r="AHV26" s="11"/>
+      <c r="AHW26" s="11"/>
+      <c r="AHX26" s="11"/>
+      <c r="AHY26" s="11"/>
+      <c r="AHZ26" s="11"/>
+      <c r="AIA26" s="11"/>
+      <c r="AIB26" s="11"/>
+      <c r="AIC26" s="11"/>
+      <c r="AID26" s="11"/>
+      <c r="AIE26" s="11"/>
+      <c r="AIF26" s="11"/>
+      <c r="AIG26" s="11"/>
+      <c r="AIH26" s="11"/>
+      <c r="AII26" s="11"/>
+      <c r="AIJ26" s="11"/>
+      <c r="AIK26" s="11"/>
+      <c r="AIL26" s="11"/>
+      <c r="AIM26" s="11"/>
+      <c r="AIN26" s="11"/>
+      <c r="AIO26" s="11"/>
+      <c r="AIP26" s="11"/>
+      <c r="AIQ26" s="11"/>
+      <c r="AIR26" s="11"/>
+      <c r="AIS26" s="11"/>
+      <c r="AIT26" s="11"/>
+      <c r="AIU26" s="11"/>
+      <c r="AIV26" s="11"/>
+      <c r="AIW26" s="11"/>
+      <c r="AIX26" s="11"/>
+      <c r="AIY26" s="11"/>
+      <c r="AIZ26" s="11"/>
+      <c r="AJA26" s="11"/>
+      <c r="AJB26" s="11"/>
+      <c r="AJC26" s="11"/>
+      <c r="AJD26" s="11"/>
+      <c r="AJE26" s="11"/>
+      <c r="AJF26" s="11"/>
+      <c r="AJG26" s="11"/>
+      <c r="AJH26" s="11"/>
+      <c r="AJI26" s="11"/>
+      <c r="AJJ26" s="11"/>
+      <c r="AJK26" s="11"/>
+      <c r="AJL26" s="11"/>
+      <c r="AJM26" s="11"/>
+      <c r="AJN26" s="11"/>
+      <c r="AJO26" s="11"/>
+      <c r="AJP26" s="11"/>
+      <c r="AJQ26" s="11"/>
+      <c r="AJR26" s="11"/>
+      <c r="AJS26" s="11"/>
+      <c r="AJT26" s="11"/>
+      <c r="AJU26" s="11"/>
+      <c r="AJV26" s="11"/>
+      <c r="AJW26" s="11"/>
+      <c r="AJX26" s="11"/>
+      <c r="AJY26" s="11"/>
+      <c r="AJZ26" s="11"/>
+      <c r="AKA26" s="11"/>
+      <c r="AKB26" s="11"/>
+      <c r="AKC26" s="11"/>
+      <c r="AKD26" s="11"/>
+      <c r="AKE26" s="11"/>
+      <c r="AKF26" s="11"/>
+      <c r="AKG26" s="11"/>
+      <c r="AKH26" s="11"/>
+      <c r="AKI26" s="11"/>
+      <c r="AKJ26" s="11"/>
+      <c r="AKK26" s="11"/>
+      <c r="AKL26" s="11"/>
+      <c r="AKM26" s="11"/>
+      <c r="AKN26" s="11"/>
+      <c r="AKO26" s="11"/>
+      <c r="AKP26" s="11"/>
+      <c r="AKQ26" s="11"/>
+      <c r="AKR26" s="11"/>
+      <c r="AKS26" s="11"/>
+      <c r="AKT26" s="11"/>
+      <c r="AKU26" s="11"/>
+      <c r="AKV26" s="11"/>
+      <c r="AKW26" s="11"/>
+      <c r="AKX26" s="11"/>
+      <c r="AKY26" s="11"/>
+      <c r="AKZ26" s="11"/>
+      <c r="ALA26" s="11"/>
+      <c r="ALB26" s="11"/>
+      <c r="ALC26" s="11"/>
+      <c r="ALD26" s="11"/>
+      <c r="ALE26" s="11"/>
+      <c r="ALF26" s="11"/>
+      <c r="ALG26" s="11"/>
+      <c r="ALH26" s="11"/>
+      <c r="ALI26" s="11"/>
+      <c r="ALJ26" s="11"/>
+      <c r="ALK26" s="11"/>
+      <c r="ALL26" s="11"/>
+      <c r="ALM26" s="11"/>
+      <c r="ALN26" s="11"/>
+      <c r="ALO26" s="11"/>
+      <c r="ALP26" s="11"/>
+      <c r="ALQ26" s="11"/>
+      <c r="ALR26" s="11"/>
+      <c r="ALS26" s="11"/>
+      <c r="ALT26" s="11"/>
+      <c r="ALU26" s="11"/>
+      <c r="ALV26" s="11"/>
+      <c r="ALW26" s="11"/>
+      <c r="ALX26" s="11"/>
+      <c r="ALY26" s="11"/>
+      <c r="ALZ26" s="11"/>
+      <c r="AMA26" s="11"/>
+      <c r="AMB26" s="11"/>
+      <c r="AMC26" s="11"/>
+      <c r="AMD26" s="11"/>
+      <c r="AME26" s="11"/>
+      <c r="AMF26" s="11"/>
+      <c r="AMG26" s="11"/>
+      <c r="AMH26" s="11"/>
+      <c r="AMI26" s="11"/>
+      <c r="AMJ26" s="11"/>
+      <c r="AMK26" s="11"/>
+      <c r="AML26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="29">
+    <row r="27" spans="1:1026" ht="29">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>16</v>
@@ -2618,24 +9002,24 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="29">
+    <row r="28" spans="1:1026" ht="29">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
@@ -2645,24 +9029,24 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:1026">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
@@ -2672,21 +9056,21 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1026">
+      <c r="A30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
@@ -2696,24 +9080,24 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="116">
+    <row r="31" spans="1:1026" ht="72.5">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
@@ -2723,27 +9107,27 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29">
+    <row r="32" spans="1:1026" ht="29">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
@@ -2755,19 +9139,19 @@
     </row>
     <row r="33" spans="1:13" ht="29">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>16</v>
@@ -2777,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K33" s="1">
         <v>990399123</v>
@@ -2785,16 +9169,16 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>16</v>
@@ -2804,21 +9188,21 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="1" t="s">
@@ -2829,27 +9213,27 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>16</v>
@@ -2861,16 +9245,16 @@
     </row>
     <row r="37" spans="1:13" ht="29">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
@@ -2880,21 +9264,21 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="29">
       <c r="A38" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="1" t="s">
@@ -2907,16 +9291,16 @@
     </row>
     <row r="39" spans="1:13" ht="29">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
@@ -2926,21 +9310,21 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2953,27 +9337,27 @@
         <v>66</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="43.5">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G41" s="2">
         <f>0</f>
@@ -2982,47 +9366,47 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G42" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="29">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G43" s="2">
         <f>0</f>
@@ -3031,22 +9415,22 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G44" s="2">
         <f>0</f>
@@ -3055,20 +9439,20 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2">
         <f>0</f>
@@ -3077,20 +9461,20 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G46" s="2">
         <f>0</f>
@@ -3099,20 +9483,20 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2">
         <f>0</f>
@@ -3121,20 +9505,20 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G48" s="2">
         <f>0</f>
@@ -3143,20 +9527,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G49" s="2">
         <f>0</f>
@@ -3165,20 +9549,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G50" s="2">
         <f>0</f>
@@ -3187,19 +9571,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G51" s="2">
         <f>0</f>
@@ -3208,20 +9592,20 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E52"/>
       <c r="F52" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G52" s="2">
         <f>0</f>
@@ -3230,20 +9614,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G53" s="2">
         <f>0</f>
@@ -3252,20 +9636,20 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G54" s="2">
         <f>0</f>
@@ -3274,20 +9658,20 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G55" s="2">
         <f>0</f>
@@ -3296,20 +9680,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G56" s="2">
         <f>0</f>
@@ -3318,20 +9702,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G57" s="2">
         <f>0</f>
@@ -3340,20 +9724,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G58" s="2">
         <f>0</f>
@@ -3362,20 +9746,20 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G59" s="2">
         <f>0</f>
@@ -3384,20 +9768,20 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G60" s="2">
         <f>0</f>
@@ -3406,20 +9790,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G61" s="2">
         <f>0</f>
@@ -3428,20 +9812,20 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G62" s="2">
         <f>0</f>
@@ -3450,20 +9834,20 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G63" s="2">
         <f>0</f>
@@ -3472,20 +9856,20 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G64" s="2">
         <f>0</f>
@@ -3494,20 +9878,20 @@
     </row>
     <row r="65" spans="1:13" ht="29">
       <c r="A65" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G65" s="2">
         <f>0</f>
@@ -3516,20 +9900,20 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2">
         <f>0</f>
@@ -3538,20 +9922,20 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G67" s="2">
         <f>0</f>
@@ -3560,20 +9944,20 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G68" s="2">
         <f>0</f>
@@ -3582,20 +9966,20 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G69" s="2">
         <f>0</f>
@@ -3604,20 +9988,20 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G70" s="2">
         <f>0</f>
@@ -3626,20 +10010,20 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G71" s="2">
         <f>0</f>
@@ -3648,20 +10032,20 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G72" s="2">
         <f>0</f>
@@ -3670,20 +10054,20 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G73" s="2">
         <f>0</f>
@@ -3692,19 +10076,19 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G74" s="2">
         <f>0</f>
@@ -3713,20 +10097,20 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G75" s="2">
         <f>0</f>
@@ -3735,20 +10119,20 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G76" s="2">
         <f>0</f>
@@ -3757,46 +10141,46 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G77" s="2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G78" s="2">
         <f>0</f>
@@ -3805,74 +10189,74 @@
     </row>
     <row r="79" spans="1:13" ht="29">
       <c r="A79" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G79" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G80" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="43.5">
+    <row r="81" spans="1:13" ht="29">
       <c r="A81" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G81" s="2">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$82</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="435">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1502,6 +1502,31 @@
   </si>
   <si>
     <t>Personal identifier</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>Codice Univoco Unità Organizzativa iPA</t>
+  </si>
+  <si>
+    <t>Agenzia per l’Italia digitale</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>String of 6 alphanumeric characters</t>
+  </si>
+  <si>
+    <t>"Alphanumeric characters"</t>
+  </si>
+  <si>
+    <t>IT:CUUO</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9a-zA-Z]{6}
+No checkdigit</t>
   </si>
 </sst>
 </file>
@@ -1923,31 +1948,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AML81"/>
+  <dimension ref="A1:AML82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="67.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.26953125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.08984375" style="1" customWidth="1"/>
-    <col min="14" max="1026" width="14.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="67.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" style="1" customWidth="1"/>
+    <col min="14" max="1026" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" s="4" customFormat="1">
@@ -1991,7 +2016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" ht="87">
+    <row r="2" spans="1:1026" ht="105">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1026" ht="43.5">
+    <row r="3" spans="1:1026" ht="45">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2066,7 +2091,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:1026" ht="29">
+    <row r="4" spans="1:1026" ht="30">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2102,7 +2127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:1026" ht="116">
+    <row r="5" spans="1:1026" ht="135">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2141,7 +2166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:1026" ht="72.5">
+    <row r="6" spans="1:1026" ht="90">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2205,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:1026" ht="29">
+    <row r="7" spans="1:1026" ht="30">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2219,7 +2244,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:1026" ht="145">
+    <row r="8" spans="1:1026" ht="180">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2252,7 +2277,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:1026" ht="174">
+    <row r="9" spans="1:1026" ht="180">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2288,7 +2313,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:1026" ht="159.5">
+    <row r="10" spans="1:1026" ht="195">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2324,7 +2349,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:1026" s="14" customFormat="1" ht="43.5">
+    <row r="11" spans="1:1026" s="14" customFormat="1" ht="45">
       <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
@@ -3373,7 +3398,7 @@
       <c r="AMK11" s="11"/>
       <c r="AML11" s="11"/>
     </row>
-    <row r="12" spans="1:1026" s="14" customFormat="1" ht="29">
+    <row r="12" spans="1:1026" s="14" customFormat="1" ht="30">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
@@ -5471,7 +5496,7 @@
       <c r="AMK13" s="11"/>
       <c r="AML13" s="11"/>
     </row>
-    <row r="14" spans="1:1026" ht="232">
+    <row r="14" spans="1:1026" ht="165">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -5510,7 +5535,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:1026" ht="145">
+    <row r="15" spans="1:1026" ht="150">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -6595,7 +6620,7 @@
       <c r="AMK16" s="11"/>
       <c r="AML16" s="11"/>
     </row>
-    <row r="17" spans="1:1026" ht="116">
+    <row r="17" spans="1:1026" ht="135">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -6634,7 +6659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:1026" ht="159.5">
+    <row r="18" spans="1:1026" ht="165">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -6673,7 +6698,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:1026" ht="58">
+    <row r="19" spans="1:1026" ht="60">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -6709,7 +6734,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:1026" s="14" customFormat="1" ht="43.5">
+    <row r="20" spans="1:1026" s="14" customFormat="1" ht="45">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -7758,7 +7783,7 @@
       <c r="AMK20" s="11"/>
       <c r="AML20" s="11"/>
     </row>
-    <row r="21" spans="1:1026" ht="72.5">
+    <row r="21" spans="1:1026" ht="75">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -7794,7 +7819,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:1026" ht="87">
+    <row r="22" spans="1:1026" ht="90">
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
@@ -7827,7 +7852,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:1026" ht="29">
+    <row r="23" spans="1:1026" ht="30">
       <c r="A23" s="1" t="s">
         <v>351</v>
       </c>
@@ -7893,7 +7918,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:1026" ht="72.5">
+    <row r="25" spans="1:1026" ht="75">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -7912,1114 +7937,1124 @@
       <c r="F25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1026" ht="30">
+      <c r="A26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1026" s="14" customFormat="1" ht="30">
+      <c r="A27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>425</v>
-      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="11"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="11"/>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="11"/>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="11"/>
+      <c r="BR27" s="11"/>
+      <c r="BS27" s="11"/>
+      <c r="BT27" s="11"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+      <c r="BX27" s="11"/>
+      <c r="BY27" s="11"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="11"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="11"/>
+      <c r="CG27" s="11"/>
+      <c r="CH27" s="11"/>
+      <c r="CI27" s="11"/>
+      <c r="CJ27" s="11"/>
+      <c r="CK27" s="11"/>
+      <c r="CL27" s="11"/>
+      <c r="CM27" s="11"/>
+      <c r="CN27" s="11"/>
+      <c r="CO27" s="11"/>
+      <c r="CP27" s="11"/>
+      <c r="CQ27" s="11"/>
+      <c r="CR27" s="11"/>
+      <c r="CS27" s="11"/>
+      <c r="CT27" s="11"/>
+      <c r="CU27" s="11"/>
+      <c r="CV27" s="11"/>
+      <c r="CW27" s="11"/>
+      <c r="CX27" s="11"/>
+      <c r="CY27" s="11"/>
+      <c r="CZ27" s="11"/>
+      <c r="DA27" s="11"/>
+      <c r="DB27" s="11"/>
+      <c r="DC27" s="11"/>
+      <c r="DD27" s="11"/>
+      <c r="DE27" s="11"/>
+      <c r="DF27" s="11"/>
+      <c r="DG27" s="11"/>
+      <c r="DH27" s="11"/>
+      <c r="DI27" s="11"/>
+      <c r="DJ27" s="11"/>
+      <c r="DK27" s="11"/>
+      <c r="DL27" s="11"/>
+      <c r="DM27" s="11"/>
+      <c r="DN27" s="11"/>
+      <c r="DO27" s="11"/>
+      <c r="DP27" s="11"/>
+      <c r="DQ27" s="11"/>
+      <c r="DR27" s="11"/>
+      <c r="DS27" s="11"/>
+      <c r="DT27" s="11"/>
+      <c r="DU27" s="11"/>
+      <c r="DV27" s="11"/>
+      <c r="DW27" s="11"/>
+      <c r="DX27" s="11"/>
+      <c r="DY27" s="11"/>
+      <c r="DZ27" s="11"/>
+      <c r="EA27" s="11"/>
+      <c r="EB27" s="11"/>
+      <c r="EC27" s="11"/>
+      <c r="ED27" s="11"/>
+      <c r="EE27" s="11"/>
+      <c r="EF27" s="11"/>
+      <c r="EG27" s="11"/>
+      <c r="EH27" s="11"/>
+      <c r="EI27" s="11"/>
+      <c r="EJ27" s="11"/>
+      <c r="EK27" s="11"/>
+      <c r="EL27" s="11"/>
+      <c r="EM27" s="11"/>
+      <c r="EN27" s="11"/>
+      <c r="EO27" s="11"/>
+      <c r="EP27" s="11"/>
+      <c r="EQ27" s="11"/>
+      <c r="ER27" s="11"/>
+      <c r="ES27" s="11"/>
+      <c r="ET27" s="11"/>
+      <c r="EU27" s="11"/>
+      <c r="EV27" s="11"/>
+      <c r="EW27" s="11"/>
+      <c r="EX27" s="11"/>
+      <c r="EY27" s="11"/>
+      <c r="EZ27" s="11"/>
+      <c r="FA27" s="11"/>
+      <c r="FB27" s="11"/>
+      <c r="FC27" s="11"/>
+      <c r="FD27" s="11"/>
+      <c r="FE27" s="11"/>
+      <c r="FF27" s="11"/>
+      <c r="FG27" s="11"/>
+      <c r="FH27" s="11"/>
+      <c r="FI27" s="11"/>
+      <c r="FJ27" s="11"/>
+      <c r="FK27" s="11"/>
+      <c r="FL27" s="11"/>
+      <c r="FM27" s="11"/>
+      <c r="FN27" s="11"/>
+      <c r="FO27" s="11"/>
+      <c r="FP27" s="11"/>
+      <c r="FQ27" s="11"/>
+      <c r="FR27" s="11"/>
+      <c r="FS27" s="11"/>
+      <c r="FT27" s="11"/>
+      <c r="FU27" s="11"/>
+      <c r="FV27" s="11"/>
+      <c r="FW27" s="11"/>
+      <c r="FX27" s="11"/>
+      <c r="FY27" s="11"/>
+      <c r="FZ27" s="11"/>
+      <c r="GA27" s="11"/>
+      <c r="GB27" s="11"/>
+      <c r="GC27" s="11"/>
+      <c r="GD27" s="11"/>
+      <c r="GE27" s="11"/>
+      <c r="GF27" s="11"/>
+      <c r="GG27" s="11"/>
+      <c r="GH27" s="11"/>
+      <c r="GI27" s="11"/>
+      <c r="GJ27" s="11"/>
+      <c r="GK27" s="11"/>
+      <c r="GL27" s="11"/>
+      <c r="GM27" s="11"/>
+      <c r="GN27" s="11"/>
+      <c r="GO27" s="11"/>
+      <c r="GP27" s="11"/>
+      <c r="GQ27" s="11"/>
+      <c r="GR27" s="11"/>
+      <c r="GS27" s="11"/>
+      <c r="GT27" s="11"/>
+      <c r="GU27" s="11"/>
+      <c r="GV27" s="11"/>
+      <c r="GW27" s="11"/>
+      <c r="GX27" s="11"/>
+      <c r="GY27" s="11"/>
+      <c r="GZ27" s="11"/>
+      <c r="HA27" s="11"/>
+      <c r="HB27" s="11"/>
+      <c r="HC27" s="11"/>
+      <c r="HD27" s="11"/>
+      <c r="HE27" s="11"/>
+      <c r="HF27" s="11"/>
+      <c r="HG27" s="11"/>
+      <c r="HH27" s="11"/>
+      <c r="HI27" s="11"/>
+      <c r="HJ27" s="11"/>
+      <c r="HK27" s="11"/>
+      <c r="HL27" s="11"/>
+      <c r="HM27" s="11"/>
+      <c r="HN27" s="11"/>
+      <c r="HO27" s="11"/>
+      <c r="HP27" s="11"/>
+      <c r="HQ27" s="11"/>
+      <c r="HR27" s="11"/>
+      <c r="HS27" s="11"/>
+      <c r="HT27" s="11"/>
+      <c r="HU27" s="11"/>
+      <c r="HV27" s="11"/>
+      <c r="HW27" s="11"/>
+      <c r="HX27" s="11"/>
+      <c r="HY27" s="11"/>
+      <c r="HZ27" s="11"/>
+      <c r="IA27" s="11"/>
+      <c r="IB27" s="11"/>
+      <c r="IC27" s="11"/>
+      <c r="ID27" s="11"/>
+      <c r="IE27" s="11"/>
+      <c r="IF27" s="11"/>
+      <c r="IG27" s="11"/>
+      <c r="IH27" s="11"/>
+      <c r="II27" s="11"/>
+      <c r="IJ27" s="11"/>
+      <c r="IK27" s="11"/>
+      <c r="IL27" s="11"/>
+      <c r="IM27" s="11"/>
+      <c r="IN27" s="11"/>
+      <c r="IO27" s="11"/>
+      <c r="IP27" s="11"/>
+      <c r="IQ27" s="11"/>
+      <c r="IR27" s="11"/>
+      <c r="IS27" s="11"/>
+      <c r="IT27" s="11"/>
+      <c r="IU27" s="11"/>
+      <c r="IV27" s="11"/>
+      <c r="IW27" s="11"/>
+      <c r="IX27" s="11"/>
+      <c r="IY27" s="11"/>
+      <c r="IZ27" s="11"/>
+      <c r="JA27" s="11"/>
+      <c r="JB27" s="11"/>
+      <c r="JC27" s="11"/>
+      <c r="JD27" s="11"/>
+      <c r="JE27" s="11"/>
+      <c r="JF27" s="11"/>
+      <c r="JG27" s="11"/>
+      <c r="JH27" s="11"/>
+      <c r="JI27" s="11"/>
+      <c r="JJ27" s="11"/>
+      <c r="JK27" s="11"/>
+      <c r="JL27" s="11"/>
+      <c r="JM27" s="11"/>
+      <c r="JN27" s="11"/>
+      <c r="JO27" s="11"/>
+      <c r="JP27" s="11"/>
+      <c r="JQ27" s="11"/>
+      <c r="JR27" s="11"/>
+      <c r="JS27" s="11"/>
+      <c r="JT27" s="11"/>
+      <c r="JU27" s="11"/>
+      <c r="JV27" s="11"/>
+      <c r="JW27" s="11"/>
+      <c r="JX27" s="11"/>
+      <c r="JY27" s="11"/>
+      <c r="JZ27" s="11"/>
+      <c r="KA27" s="11"/>
+      <c r="KB27" s="11"/>
+      <c r="KC27" s="11"/>
+      <c r="KD27" s="11"/>
+      <c r="KE27" s="11"/>
+      <c r="KF27" s="11"/>
+      <c r="KG27" s="11"/>
+      <c r="KH27" s="11"/>
+      <c r="KI27" s="11"/>
+      <c r="KJ27" s="11"/>
+      <c r="KK27" s="11"/>
+      <c r="KL27" s="11"/>
+      <c r="KM27" s="11"/>
+      <c r="KN27" s="11"/>
+      <c r="KO27" s="11"/>
+      <c r="KP27" s="11"/>
+      <c r="KQ27" s="11"/>
+      <c r="KR27" s="11"/>
+      <c r="KS27" s="11"/>
+      <c r="KT27" s="11"/>
+      <c r="KU27" s="11"/>
+      <c r="KV27" s="11"/>
+      <c r="KW27" s="11"/>
+      <c r="KX27" s="11"/>
+      <c r="KY27" s="11"/>
+      <c r="KZ27" s="11"/>
+      <c r="LA27" s="11"/>
+      <c r="LB27" s="11"/>
+      <c r="LC27" s="11"/>
+      <c r="LD27" s="11"/>
+      <c r="LE27" s="11"/>
+      <c r="LF27" s="11"/>
+      <c r="LG27" s="11"/>
+      <c r="LH27" s="11"/>
+      <c r="LI27" s="11"/>
+      <c r="LJ27" s="11"/>
+      <c r="LK27" s="11"/>
+      <c r="LL27" s="11"/>
+      <c r="LM27" s="11"/>
+      <c r="LN27" s="11"/>
+      <c r="LO27" s="11"/>
+      <c r="LP27" s="11"/>
+      <c r="LQ27" s="11"/>
+      <c r="LR27" s="11"/>
+      <c r="LS27" s="11"/>
+      <c r="LT27" s="11"/>
+      <c r="LU27" s="11"/>
+      <c r="LV27" s="11"/>
+      <c r="LW27" s="11"/>
+      <c r="LX27" s="11"/>
+      <c r="LY27" s="11"/>
+      <c r="LZ27" s="11"/>
+      <c r="MA27" s="11"/>
+      <c r="MB27" s="11"/>
+      <c r="MC27" s="11"/>
+      <c r="MD27" s="11"/>
+      <c r="ME27" s="11"/>
+      <c r="MF27" s="11"/>
+      <c r="MG27" s="11"/>
+      <c r="MH27" s="11"/>
+      <c r="MI27" s="11"/>
+      <c r="MJ27" s="11"/>
+      <c r="MK27" s="11"/>
+      <c r="ML27" s="11"/>
+      <c r="MM27" s="11"/>
+      <c r="MN27" s="11"/>
+      <c r="MO27" s="11"/>
+      <c r="MP27" s="11"/>
+      <c r="MQ27" s="11"/>
+      <c r="MR27" s="11"/>
+      <c r="MS27" s="11"/>
+      <c r="MT27" s="11"/>
+      <c r="MU27" s="11"/>
+      <c r="MV27" s="11"/>
+      <c r="MW27" s="11"/>
+      <c r="MX27" s="11"/>
+      <c r="MY27" s="11"/>
+      <c r="MZ27" s="11"/>
+      <c r="NA27" s="11"/>
+      <c r="NB27" s="11"/>
+      <c r="NC27" s="11"/>
+      <c r="ND27" s="11"/>
+      <c r="NE27" s="11"/>
+      <c r="NF27" s="11"/>
+      <c r="NG27" s="11"/>
+      <c r="NH27" s="11"/>
+      <c r="NI27" s="11"/>
+      <c r="NJ27" s="11"/>
+      <c r="NK27" s="11"/>
+      <c r="NL27" s="11"/>
+      <c r="NM27" s="11"/>
+      <c r="NN27" s="11"/>
+      <c r="NO27" s="11"/>
+      <c r="NP27" s="11"/>
+      <c r="NQ27" s="11"/>
+      <c r="NR27" s="11"/>
+      <c r="NS27" s="11"/>
+      <c r="NT27" s="11"/>
+      <c r="NU27" s="11"/>
+      <c r="NV27" s="11"/>
+      <c r="NW27" s="11"/>
+      <c r="NX27" s="11"/>
+      <c r="NY27" s="11"/>
+      <c r="NZ27" s="11"/>
+      <c r="OA27" s="11"/>
+      <c r="OB27" s="11"/>
+      <c r="OC27" s="11"/>
+      <c r="OD27" s="11"/>
+      <c r="OE27" s="11"/>
+      <c r="OF27" s="11"/>
+      <c r="OG27" s="11"/>
+      <c r="OH27" s="11"/>
+      <c r="OI27" s="11"/>
+      <c r="OJ27" s="11"/>
+      <c r="OK27" s="11"/>
+      <c r="OL27" s="11"/>
+      <c r="OM27" s="11"/>
+      <c r="ON27" s="11"/>
+      <c r="OO27" s="11"/>
+      <c r="OP27" s="11"/>
+      <c r="OQ27" s="11"/>
+      <c r="OR27" s="11"/>
+      <c r="OS27" s="11"/>
+      <c r="OT27" s="11"/>
+      <c r="OU27" s="11"/>
+      <c r="OV27" s="11"/>
+      <c r="OW27" s="11"/>
+      <c r="OX27" s="11"/>
+      <c r="OY27" s="11"/>
+      <c r="OZ27" s="11"/>
+      <c r="PA27" s="11"/>
+      <c r="PB27" s="11"/>
+      <c r="PC27" s="11"/>
+      <c r="PD27" s="11"/>
+      <c r="PE27" s="11"/>
+      <c r="PF27" s="11"/>
+      <c r="PG27" s="11"/>
+      <c r="PH27" s="11"/>
+      <c r="PI27" s="11"/>
+      <c r="PJ27" s="11"/>
+      <c r="PK27" s="11"/>
+      <c r="PL27" s="11"/>
+      <c r="PM27" s="11"/>
+      <c r="PN27" s="11"/>
+      <c r="PO27" s="11"/>
+      <c r="PP27" s="11"/>
+      <c r="PQ27" s="11"/>
+      <c r="PR27" s="11"/>
+      <c r="PS27" s="11"/>
+      <c r="PT27" s="11"/>
+      <c r="PU27" s="11"/>
+      <c r="PV27" s="11"/>
+      <c r="PW27" s="11"/>
+      <c r="PX27" s="11"/>
+      <c r="PY27" s="11"/>
+      <c r="PZ27" s="11"/>
+      <c r="QA27" s="11"/>
+      <c r="QB27" s="11"/>
+      <c r="QC27" s="11"/>
+      <c r="QD27" s="11"/>
+      <c r="QE27" s="11"/>
+      <c r="QF27" s="11"/>
+      <c r="QG27" s="11"/>
+      <c r="QH27" s="11"/>
+      <c r="QI27" s="11"/>
+      <c r="QJ27" s="11"/>
+      <c r="QK27" s="11"/>
+      <c r="QL27" s="11"/>
+      <c r="QM27" s="11"/>
+      <c r="QN27" s="11"/>
+      <c r="QO27" s="11"/>
+      <c r="QP27" s="11"/>
+      <c r="QQ27" s="11"/>
+      <c r="QR27" s="11"/>
+      <c r="QS27" s="11"/>
+      <c r="QT27" s="11"/>
+      <c r="QU27" s="11"/>
+      <c r="QV27" s="11"/>
+      <c r="QW27" s="11"/>
+      <c r="QX27" s="11"/>
+      <c r="QY27" s="11"/>
+      <c r="QZ27" s="11"/>
+      <c r="RA27" s="11"/>
+      <c r="RB27" s="11"/>
+      <c r="RC27" s="11"/>
+      <c r="RD27" s="11"/>
+      <c r="RE27" s="11"/>
+      <c r="RF27" s="11"/>
+      <c r="RG27" s="11"/>
+      <c r="RH27" s="11"/>
+      <c r="RI27" s="11"/>
+      <c r="RJ27" s="11"/>
+      <c r="RK27" s="11"/>
+      <c r="RL27" s="11"/>
+      <c r="RM27" s="11"/>
+      <c r="RN27" s="11"/>
+      <c r="RO27" s="11"/>
+      <c r="RP27" s="11"/>
+      <c r="RQ27" s="11"/>
+      <c r="RR27" s="11"/>
+      <c r="RS27" s="11"/>
+      <c r="RT27" s="11"/>
+      <c r="RU27" s="11"/>
+      <c r="RV27" s="11"/>
+      <c r="RW27" s="11"/>
+      <c r="RX27" s="11"/>
+      <c r="RY27" s="11"/>
+      <c r="RZ27" s="11"/>
+      <c r="SA27" s="11"/>
+      <c r="SB27" s="11"/>
+      <c r="SC27" s="11"/>
+      <c r="SD27" s="11"/>
+      <c r="SE27" s="11"/>
+      <c r="SF27" s="11"/>
+      <c r="SG27" s="11"/>
+      <c r="SH27" s="11"/>
+      <c r="SI27" s="11"/>
+      <c r="SJ27" s="11"/>
+      <c r="SK27" s="11"/>
+      <c r="SL27" s="11"/>
+      <c r="SM27" s="11"/>
+      <c r="SN27" s="11"/>
+      <c r="SO27" s="11"/>
+      <c r="SP27" s="11"/>
+      <c r="SQ27" s="11"/>
+      <c r="SR27" s="11"/>
+      <c r="SS27" s="11"/>
+      <c r="ST27" s="11"/>
+      <c r="SU27" s="11"/>
+      <c r="SV27" s="11"/>
+      <c r="SW27" s="11"/>
+      <c r="SX27" s="11"/>
+      <c r="SY27" s="11"/>
+      <c r="SZ27" s="11"/>
+      <c r="TA27" s="11"/>
+      <c r="TB27" s="11"/>
+      <c r="TC27" s="11"/>
+      <c r="TD27" s="11"/>
+      <c r="TE27" s="11"/>
+      <c r="TF27" s="11"/>
+      <c r="TG27" s="11"/>
+      <c r="TH27" s="11"/>
+      <c r="TI27" s="11"/>
+      <c r="TJ27" s="11"/>
+      <c r="TK27" s="11"/>
+      <c r="TL27" s="11"/>
+      <c r="TM27" s="11"/>
+      <c r="TN27" s="11"/>
+      <c r="TO27" s="11"/>
+      <c r="TP27" s="11"/>
+      <c r="TQ27" s="11"/>
+      <c r="TR27" s="11"/>
+      <c r="TS27" s="11"/>
+      <c r="TT27" s="11"/>
+      <c r="TU27" s="11"/>
+      <c r="TV27" s="11"/>
+      <c r="TW27" s="11"/>
+      <c r="TX27" s="11"/>
+      <c r="TY27" s="11"/>
+      <c r="TZ27" s="11"/>
+      <c r="UA27" s="11"/>
+      <c r="UB27" s="11"/>
+      <c r="UC27" s="11"/>
+      <c r="UD27" s="11"/>
+      <c r="UE27" s="11"/>
+      <c r="UF27" s="11"/>
+      <c r="UG27" s="11"/>
+      <c r="UH27" s="11"/>
+      <c r="UI27" s="11"/>
+      <c r="UJ27" s="11"/>
+      <c r="UK27" s="11"/>
+      <c r="UL27" s="11"/>
+      <c r="UM27" s="11"/>
+      <c r="UN27" s="11"/>
+      <c r="UO27" s="11"/>
+      <c r="UP27" s="11"/>
+      <c r="UQ27" s="11"/>
+      <c r="UR27" s="11"/>
+      <c r="US27" s="11"/>
+      <c r="UT27" s="11"/>
+      <c r="UU27" s="11"/>
+      <c r="UV27" s="11"/>
+      <c r="UW27" s="11"/>
+      <c r="UX27" s="11"/>
+      <c r="UY27" s="11"/>
+      <c r="UZ27" s="11"/>
+      <c r="VA27" s="11"/>
+      <c r="VB27" s="11"/>
+      <c r="VC27" s="11"/>
+      <c r="VD27" s="11"/>
+      <c r="VE27" s="11"/>
+      <c r="VF27" s="11"/>
+      <c r="VG27" s="11"/>
+      <c r="VH27" s="11"/>
+      <c r="VI27" s="11"/>
+      <c r="VJ27" s="11"/>
+      <c r="VK27" s="11"/>
+      <c r="VL27" s="11"/>
+      <c r="VM27" s="11"/>
+      <c r="VN27" s="11"/>
+      <c r="VO27" s="11"/>
+      <c r="VP27" s="11"/>
+      <c r="VQ27" s="11"/>
+      <c r="VR27" s="11"/>
+      <c r="VS27" s="11"/>
+      <c r="VT27" s="11"/>
+      <c r="VU27" s="11"/>
+      <c r="VV27" s="11"/>
+      <c r="VW27" s="11"/>
+      <c r="VX27" s="11"/>
+      <c r="VY27" s="11"/>
+      <c r="VZ27" s="11"/>
+      <c r="WA27" s="11"/>
+      <c r="WB27" s="11"/>
+      <c r="WC27" s="11"/>
+      <c r="WD27" s="11"/>
+      <c r="WE27" s="11"/>
+      <c r="WF27" s="11"/>
+      <c r="WG27" s="11"/>
+      <c r="WH27" s="11"/>
+      <c r="WI27" s="11"/>
+      <c r="WJ27" s="11"/>
+      <c r="WK27" s="11"/>
+      <c r="WL27" s="11"/>
+      <c r="WM27" s="11"/>
+      <c r="WN27" s="11"/>
+      <c r="WO27" s="11"/>
+      <c r="WP27" s="11"/>
+      <c r="WQ27" s="11"/>
+      <c r="WR27" s="11"/>
+      <c r="WS27" s="11"/>
+      <c r="WT27" s="11"/>
+      <c r="WU27" s="11"/>
+      <c r="WV27" s="11"/>
+      <c r="WW27" s="11"/>
+      <c r="WX27" s="11"/>
+      <c r="WY27" s="11"/>
+      <c r="WZ27" s="11"/>
+      <c r="XA27" s="11"/>
+      <c r="XB27" s="11"/>
+      <c r="XC27" s="11"/>
+      <c r="XD27" s="11"/>
+      <c r="XE27" s="11"/>
+      <c r="XF27" s="11"/>
+      <c r="XG27" s="11"/>
+      <c r="XH27" s="11"/>
+      <c r="XI27" s="11"/>
+      <c r="XJ27" s="11"/>
+      <c r="XK27" s="11"/>
+      <c r="XL27" s="11"/>
+      <c r="XM27" s="11"/>
+      <c r="XN27" s="11"/>
+      <c r="XO27" s="11"/>
+      <c r="XP27" s="11"/>
+      <c r="XQ27" s="11"/>
+      <c r="XR27" s="11"/>
+      <c r="XS27" s="11"/>
+      <c r="XT27" s="11"/>
+      <c r="XU27" s="11"/>
+      <c r="XV27" s="11"/>
+      <c r="XW27" s="11"/>
+      <c r="XX27" s="11"/>
+      <c r="XY27" s="11"/>
+      <c r="XZ27" s="11"/>
+      <c r="YA27" s="11"/>
+      <c r="YB27" s="11"/>
+      <c r="YC27" s="11"/>
+      <c r="YD27" s="11"/>
+      <c r="YE27" s="11"/>
+      <c r="YF27" s="11"/>
+      <c r="YG27" s="11"/>
+      <c r="YH27" s="11"/>
+      <c r="YI27" s="11"/>
+      <c r="YJ27" s="11"/>
+      <c r="YK27" s="11"/>
+      <c r="YL27" s="11"/>
+      <c r="YM27" s="11"/>
+      <c r="YN27" s="11"/>
+      <c r="YO27" s="11"/>
+      <c r="YP27" s="11"/>
+      <c r="YQ27" s="11"/>
+      <c r="YR27" s="11"/>
+      <c r="YS27" s="11"/>
+      <c r="YT27" s="11"/>
+      <c r="YU27" s="11"/>
+      <c r="YV27" s="11"/>
+      <c r="YW27" s="11"/>
+      <c r="YX27" s="11"/>
+      <c r="YY27" s="11"/>
+      <c r="YZ27" s="11"/>
+      <c r="ZA27" s="11"/>
+      <c r="ZB27" s="11"/>
+      <c r="ZC27" s="11"/>
+      <c r="ZD27" s="11"/>
+      <c r="ZE27" s="11"/>
+      <c r="ZF27" s="11"/>
+      <c r="ZG27" s="11"/>
+      <c r="ZH27" s="11"/>
+      <c r="ZI27" s="11"/>
+      <c r="ZJ27" s="11"/>
+      <c r="ZK27" s="11"/>
+      <c r="ZL27" s="11"/>
+      <c r="ZM27" s="11"/>
+      <c r="ZN27" s="11"/>
+      <c r="ZO27" s="11"/>
+      <c r="ZP27" s="11"/>
+      <c r="ZQ27" s="11"/>
+      <c r="ZR27" s="11"/>
+      <c r="ZS27" s="11"/>
+      <c r="ZT27" s="11"/>
+      <c r="ZU27" s="11"/>
+      <c r="ZV27" s="11"/>
+      <c r="ZW27" s="11"/>
+      <c r="ZX27" s="11"/>
+      <c r="ZY27" s="11"/>
+      <c r="ZZ27" s="11"/>
+      <c r="AAA27" s="11"/>
+      <c r="AAB27" s="11"/>
+      <c r="AAC27" s="11"/>
+      <c r="AAD27" s="11"/>
+      <c r="AAE27" s="11"/>
+      <c r="AAF27" s="11"/>
+      <c r="AAG27" s="11"/>
+      <c r="AAH27" s="11"/>
+      <c r="AAI27" s="11"/>
+      <c r="AAJ27" s="11"/>
+      <c r="AAK27" s="11"/>
+      <c r="AAL27" s="11"/>
+      <c r="AAM27" s="11"/>
+      <c r="AAN27" s="11"/>
+      <c r="AAO27" s="11"/>
+      <c r="AAP27" s="11"/>
+      <c r="AAQ27" s="11"/>
+      <c r="AAR27" s="11"/>
+      <c r="AAS27" s="11"/>
+      <c r="AAT27" s="11"/>
+      <c r="AAU27" s="11"/>
+      <c r="AAV27" s="11"/>
+      <c r="AAW27" s="11"/>
+      <c r="AAX27" s="11"/>
+      <c r="AAY27" s="11"/>
+      <c r="AAZ27" s="11"/>
+      <c r="ABA27" s="11"/>
+      <c r="ABB27" s="11"/>
+      <c r="ABC27" s="11"/>
+      <c r="ABD27" s="11"/>
+      <c r="ABE27" s="11"/>
+      <c r="ABF27" s="11"/>
+      <c r="ABG27" s="11"/>
+      <c r="ABH27" s="11"/>
+      <c r="ABI27" s="11"/>
+      <c r="ABJ27" s="11"/>
+      <c r="ABK27" s="11"/>
+      <c r="ABL27" s="11"/>
+      <c r="ABM27" s="11"/>
+      <c r="ABN27" s="11"/>
+      <c r="ABO27" s="11"/>
+      <c r="ABP27" s="11"/>
+      <c r="ABQ27" s="11"/>
+      <c r="ABR27" s="11"/>
+      <c r="ABS27" s="11"/>
+      <c r="ABT27" s="11"/>
+      <c r="ABU27" s="11"/>
+      <c r="ABV27" s="11"/>
+      <c r="ABW27" s="11"/>
+      <c r="ABX27" s="11"/>
+      <c r="ABY27" s="11"/>
+      <c r="ABZ27" s="11"/>
+      <c r="ACA27" s="11"/>
+      <c r="ACB27" s="11"/>
+      <c r="ACC27" s="11"/>
+      <c r="ACD27" s="11"/>
+      <c r="ACE27" s="11"/>
+      <c r="ACF27" s="11"/>
+      <c r="ACG27" s="11"/>
+      <c r="ACH27" s="11"/>
+      <c r="ACI27" s="11"/>
+      <c r="ACJ27" s="11"/>
+      <c r="ACK27" s="11"/>
+      <c r="ACL27" s="11"/>
+      <c r="ACM27" s="11"/>
+      <c r="ACN27" s="11"/>
+      <c r="ACO27" s="11"/>
+      <c r="ACP27" s="11"/>
+      <c r="ACQ27" s="11"/>
+      <c r="ACR27" s="11"/>
+      <c r="ACS27" s="11"/>
+      <c r="ACT27" s="11"/>
+      <c r="ACU27" s="11"/>
+      <c r="ACV27" s="11"/>
+      <c r="ACW27" s="11"/>
+      <c r="ACX27" s="11"/>
+      <c r="ACY27" s="11"/>
+      <c r="ACZ27" s="11"/>
+      <c r="ADA27" s="11"/>
+      <c r="ADB27" s="11"/>
+      <c r="ADC27" s="11"/>
+      <c r="ADD27" s="11"/>
+      <c r="ADE27" s="11"/>
+      <c r="ADF27" s="11"/>
+      <c r="ADG27" s="11"/>
+      <c r="ADH27" s="11"/>
+      <c r="ADI27" s="11"/>
+      <c r="ADJ27" s="11"/>
+      <c r="ADK27" s="11"/>
+      <c r="ADL27" s="11"/>
+      <c r="ADM27" s="11"/>
+      <c r="ADN27" s="11"/>
+      <c r="ADO27" s="11"/>
+      <c r="ADP27" s="11"/>
+      <c r="ADQ27" s="11"/>
+      <c r="ADR27" s="11"/>
+      <c r="ADS27" s="11"/>
+      <c r="ADT27" s="11"/>
+      <c r="ADU27" s="11"/>
+      <c r="ADV27" s="11"/>
+      <c r="ADW27" s="11"/>
+      <c r="ADX27" s="11"/>
+      <c r="ADY27" s="11"/>
+      <c r="ADZ27" s="11"/>
+      <c r="AEA27" s="11"/>
+      <c r="AEB27" s="11"/>
+      <c r="AEC27" s="11"/>
+      <c r="AED27" s="11"/>
+      <c r="AEE27" s="11"/>
+      <c r="AEF27" s="11"/>
+      <c r="AEG27" s="11"/>
+      <c r="AEH27" s="11"/>
+      <c r="AEI27" s="11"/>
+      <c r="AEJ27" s="11"/>
+      <c r="AEK27" s="11"/>
+      <c r="AEL27" s="11"/>
+      <c r="AEM27" s="11"/>
+      <c r="AEN27" s="11"/>
+      <c r="AEO27" s="11"/>
+      <c r="AEP27" s="11"/>
+      <c r="AEQ27" s="11"/>
+      <c r="AER27" s="11"/>
+      <c r="AES27" s="11"/>
+      <c r="AET27" s="11"/>
+      <c r="AEU27" s="11"/>
+      <c r="AEV27" s="11"/>
+      <c r="AEW27" s="11"/>
+      <c r="AEX27" s="11"/>
+      <c r="AEY27" s="11"/>
+      <c r="AEZ27" s="11"/>
+      <c r="AFA27" s="11"/>
+      <c r="AFB27" s="11"/>
+      <c r="AFC27" s="11"/>
+      <c r="AFD27" s="11"/>
+      <c r="AFE27" s="11"/>
+      <c r="AFF27" s="11"/>
+      <c r="AFG27" s="11"/>
+      <c r="AFH27" s="11"/>
+      <c r="AFI27" s="11"/>
+      <c r="AFJ27" s="11"/>
+      <c r="AFK27" s="11"/>
+      <c r="AFL27" s="11"/>
+      <c r="AFM27" s="11"/>
+      <c r="AFN27" s="11"/>
+      <c r="AFO27" s="11"/>
+      <c r="AFP27" s="11"/>
+      <c r="AFQ27" s="11"/>
+      <c r="AFR27" s="11"/>
+      <c r="AFS27" s="11"/>
+      <c r="AFT27" s="11"/>
+      <c r="AFU27" s="11"/>
+      <c r="AFV27" s="11"/>
+      <c r="AFW27" s="11"/>
+      <c r="AFX27" s="11"/>
+      <c r="AFY27" s="11"/>
+      <c r="AFZ27" s="11"/>
+      <c r="AGA27" s="11"/>
+      <c r="AGB27" s="11"/>
+      <c r="AGC27" s="11"/>
+      <c r="AGD27" s="11"/>
+      <c r="AGE27" s="11"/>
+      <c r="AGF27" s="11"/>
+      <c r="AGG27" s="11"/>
+      <c r="AGH27" s="11"/>
+      <c r="AGI27" s="11"/>
+      <c r="AGJ27" s="11"/>
+      <c r="AGK27" s="11"/>
+      <c r="AGL27" s="11"/>
+      <c r="AGM27" s="11"/>
+      <c r="AGN27" s="11"/>
+      <c r="AGO27" s="11"/>
+      <c r="AGP27" s="11"/>
+      <c r="AGQ27" s="11"/>
+      <c r="AGR27" s="11"/>
+      <c r="AGS27" s="11"/>
+      <c r="AGT27" s="11"/>
+      <c r="AGU27" s="11"/>
+      <c r="AGV27" s="11"/>
+      <c r="AGW27" s="11"/>
+      <c r="AGX27" s="11"/>
+      <c r="AGY27" s="11"/>
+      <c r="AGZ27" s="11"/>
+      <c r="AHA27" s="11"/>
+      <c r="AHB27" s="11"/>
+      <c r="AHC27" s="11"/>
+      <c r="AHD27" s="11"/>
+      <c r="AHE27" s="11"/>
+      <c r="AHF27" s="11"/>
+      <c r="AHG27" s="11"/>
+      <c r="AHH27" s="11"/>
+      <c r="AHI27" s="11"/>
+      <c r="AHJ27" s="11"/>
+      <c r="AHK27" s="11"/>
+      <c r="AHL27" s="11"/>
+      <c r="AHM27" s="11"/>
+      <c r="AHN27" s="11"/>
+      <c r="AHO27" s="11"/>
+      <c r="AHP27" s="11"/>
+      <c r="AHQ27" s="11"/>
+      <c r="AHR27" s="11"/>
+      <c r="AHS27" s="11"/>
+      <c r="AHT27" s="11"/>
+      <c r="AHU27" s="11"/>
+      <c r="AHV27" s="11"/>
+      <c r="AHW27" s="11"/>
+      <c r="AHX27" s="11"/>
+      <c r="AHY27" s="11"/>
+      <c r="AHZ27" s="11"/>
+      <c r="AIA27" s="11"/>
+      <c r="AIB27" s="11"/>
+      <c r="AIC27" s="11"/>
+      <c r="AID27" s="11"/>
+      <c r="AIE27" s="11"/>
+      <c r="AIF27" s="11"/>
+      <c r="AIG27" s="11"/>
+      <c r="AIH27" s="11"/>
+      <c r="AII27" s="11"/>
+      <c r="AIJ27" s="11"/>
+      <c r="AIK27" s="11"/>
+      <c r="AIL27" s="11"/>
+      <c r="AIM27" s="11"/>
+      <c r="AIN27" s="11"/>
+      <c r="AIO27" s="11"/>
+      <c r="AIP27" s="11"/>
+      <c r="AIQ27" s="11"/>
+      <c r="AIR27" s="11"/>
+      <c r="AIS27" s="11"/>
+      <c r="AIT27" s="11"/>
+      <c r="AIU27" s="11"/>
+      <c r="AIV27" s="11"/>
+      <c r="AIW27" s="11"/>
+      <c r="AIX27" s="11"/>
+      <c r="AIY27" s="11"/>
+      <c r="AIZ27" s="11"/>
+      <c r="AJA27" s="11"/>
+      <c r="AJB27" s="11"/>
+      <c r="AJC27" s="11"/>
+      <c r="AJD27" s="11"/>
+      <c r="AJE27" s="11"/>
+      <c r="AJF27" s="11"/>
+      <c r="AJG27" s="11"/>
+      <c r="AJH27" s="11"/>
+      <c r="AJI27" s="11"/>
+      <c r="AJJ27" s="11"/>
+      <c r="AJK27" s="11"/>
+      <c r="AJL27" s="11"/>
+      <c r="AJM27" s="11"/>
+      <c r="AJN27" s="11"/>
+      <c r="AJO27" s="11"/>
+      <c r="AJP27" s="11"/>
+      <c r="AJQ27" s="11"/>
+      <c r="AJR27" s="11"/>
+      <c r="AJS27" s="11"/>
+      <c r="AJT27" s="11"/>
+      <c r="AJU27" s="11"/>
+      <c r="AJV27" s="11"/>
+      <c r="AJW27" s="11"/>
+      <c r="AJX27" s="11"/>
+      <c r="AJY27" s="11"/>
+      <c r="AJZ27" s="11"/>
+      <c r="AKA27" s="11"/>
+      <c r="AKB27" s="11"/>
+      <c r="AKC27" s="11"/>
+      <c r="AKD27" s="11"/>
+      <c r="AKE27" s="11"/>
+      <c r="AKF27" s="11"/>
+      <c r="AKG27" s="11"/>
+      <c r="AKH27" s="11"/>
+      <c r="AKI27" s="11"/>
+      <c r="AKJ27" s="11"/>
+      <c r="AKK27" s="11"/>
+      <c r="AKL27" s="11"/>
+      <c r="AKM27" s="11"/>
+      <c r="AKN27" s="11"/>
+      <c r="AKO27" s="11"/>
+      <c r="AKP27" s="11"/>
+      <c r="AKQ27" s="11"/>
+      <c r="AKR27" s="11"/>
+      <c r="AKS27" s="11"/>
+      <c r="AKT27" s="11"/>
+      <c r="AKU27" s="11"/>
+      <c r="AKV27" s="11"/>
+      <c r="AKW27" s="11"/>
+      <c r="AKX27" s="11"/>
+      <c r="AKY27" s="11"/>
+      <c r="AKZ27" s="11"/>
+      <c r="ALA27" s="11"/>
+      <c r="ALB27" s="11"/>
+      <c r="ALC27" s="11"/>
+      <c r="ALD27" s="11"/>
+      <c r="ALE27" s="11"/>
+      <c r="ALF27" s="11"/>
+      <c r="ALG27" s="11"/>
+      <c r="ALH27" s="11"/>
+      <c r="ALI27" s="11"/>
+      <c r="ALJ27" s="11"/>
+      <c r="ALK27" s="11"/>
+      <c r="ALL27" s="11"/>
+      <c r="ALM27" s="11"/>
+      <c r="ALN27" s="11"/>
+      <c r="ALO27" s="11"/>
+      <c r="ALP27" s="11"/>
+      <c r="ALQ27" s="11"/>
+      <c r="ALR27" s="11"/>
+      <c r="ALS27" s="11"/>
+      <c r="ALT27" s="11"/>
+      <c r="ALU27" s="11"/>
+      <c r="ALV27" s="11"/>
+      <c r="ALW27" s="11"/>
+      <c r="ALX27" s="11"/>
+      <c r="ALY27" s="11"/>
+      <c r="ALZ27" s="11"/>
+      <c r="AMA27" s="11"/>
+      <c r="AMB27" s="11"/>
+      <c r="AMC27" s="11"/>
+      <c r="AMD27" s="11"/>
+      <c r="AME27" s="11"/>
+      <c r="AMF27" s="11"/>
+      <c r="AMG27" s="11"/>
+      <c r="AMH27" s="11"/>
+      <c r="AMI27" s="11"/>
+      <c r="AMJ27" s="11"/>
+      <c r="AMK27" s="11"/>
+      <c r="AML27" s="11"/>
     </row>
-    <row r="26" spans="1:1026" s="14" customFormat="1" ht="29">
-      <c r="A26" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="12">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="11"/>
-      <c r="BE26" s="11"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="11"/>
-      <c r="BO26" s="11"/>
-      <c r="BP26" s="11"/>
-      <c r="BQ26" s="11"/>
-      <c r="BR26" s="11"/>
-      <c r="BS26" s="11"/>
-      <c r="BT26" s="11"/>
-      <c r="BU26" s="11"/>
-      <c r="BV26" s="11"/>
-      <c r="BW26" s="11"/>
-      <c r="BX26" s="11"/>
-      <c r="BY26" s="11"/>
-      <c r="BZ26" s="11"/>
-      <c r="CA26" s="11"/>
-      <c r="CB26" s="11"/>
-      <c r="CC26" s="11"/>
-      <c r="CD26" s="11"/>
-      <c r="CE26" s="11"/>
-      <c r="CF26" s="11"/>
-      <c r="CG26" s="11"/>
-      <c r="CH26" s="11"/>
-      <c r="CI26" s="11"/>
-      <c r="CJ26" s="11"/>
-      <c r="CK26" s="11"/>
-      <c r="CL26" s="11"/>
-      <c r="CM26" s="11"/>
-      <c r="CN26" s="11"/>
-      <c r="CO26" s="11"/>
-      <c r="CP26" s="11"/>
-      <c r="CQ26" s="11"/>
-      <c r="CR26" s="11"/>
-      <c r="CS26" s="11"/>
-      <c r="CT26" s="11"/>
-      <c r="CU26" s="11"/>
-      <c r="CV26" s="11"/>
-      <c r="CW26" s="11"/>
-      <c r="CX26" s="11"/>
-      <c r="CY26" s="11"/>
-      <c r="CZ26" s="11"/>
-      <c r="DA26" s="11"/>
-      <c r="DB26" s="11"/>
-      <c r="DC26" s="11"/>
-      <c r="DD26" s="11"/>
-      <c r="DE26" s="11"/>
-      <c r="DF26" s="11"/>
-      <c r="DG26" s="11"/>
-      <c r="DH26" s="11"/>
-      <c r="DI26" s="11"/>
-      <c r="DJ26" s="11"/>
-      <c r="DK26" s="11"/>
-      <c r="DL26" s="11"/>
-      <c r="DM26" s="11"/>
-      <c r="DN26" s="11"/>
-      <c r="DO26" s="11"/>
-      <c r="DP26" s="11"/>
-      <c r="DQ26" s="11"/>
-      <c r="DR26" s="11"/>
-      <c r="DS26" s="11"/>
-      <c r="DT26" s="11"/>
-      <c r="DU26" s="11"/>
-      <c r="DV26" s="11"/>
-      <c r="DW26" s="11"/>
-      <c r="DX26" s="11"/>
-      <c r="DY26" s="11"/>
-      <c r="DZ26" s="11"/>
-      <c r="EA26" s="11"/>
-      <c r="EB26" s="11"/>
-      <c r="EC26" s="11"/>
-      <c r="ED26" s="11"/>
-      <c r="EE26" s="11"/>
-      <c r="EF26" s="11"/>
-      <c r="EG26" s="11"/>
-      <c r="EH26" s="11"/>
-      <c r="EI26" s="11"/>
-      <c r="EJ26" s="11"/>
-      <c r="EK26" s="11"/>
-      <c r="EL26" s="11"/>
-      <c r="EM26" s="11"/>
-      <c r="EN26" s="11"/>
-      <c r="EO26" s="11"/>
-      <c r="EP26" s="11"/>
-      <c r="EQ26" s="11"/>
-      <c r="ER26" s="11"/>
-      <c r="ES26" s="11"/>
-      <c r="ET26" s="11"/>
-      <c r="EU26" s="11"/>
-      <c r="EV26" s="11"/>
-      <c r="EW26" s="11"/>
-      <c r="EX26" s="11"/>
-      <c r="EY26" s="11"/>
-      <c r="EZ26" s="11"/>
-      <c r="FA26" s="11"/>
-      <c r="FB26" s="11"/>
-      <c r="FC26" s="11"/>
-      <c r="FD26" s="11"/>
-      <c r="FE26" s="11"/>
-      <c r="FF26" s="11"/>
-      <c r="FG26" s="11"/>
-      <c r="FH26" s="11"/>
-      <c r="FI26" s="11"/>
-      <c r="FJ26" s="11"/>
-      <c r="FK26" s="11"/>
-      <c r="FL26" s="11"/>
-      <c r="FM26" s="11"/>
-      <c r="FN26" s="11"/>
-      <c r="FO26" s="11"/>
-      <c r="FP26" s="11"/>
-      <c r="FQ26" s="11"/>
-      <c r="FR26" s="11"/>
-      <c r="FS26" s="11"/>
-      <c r="FT26" s="11"/>
-      <c r="FU26" s="11"/>
-      <c r="FV26" s="11"/>
-      <c r="FW26" s="11"/>
-      <c r="FX26" s="11"/>
-      <c r="FY26" s="11"/>
-      <c r="FZ26" s="11"/>
-      <c r="GA26" s="11"/>
-      <c r="GB26" s="11"/>
-      <c r="GC26" s="11"/>
-      <c r="GD26" s="11"/>
-      <c r="GE26" s="11"/>
-      <c r="GF26" s="11"/>
-      <c r="GG26" s="11"/>
-      <c r="GH26" s="11"/>
-      <c r="GI26" s="11"/>
-      <c r="GJ26" s="11"/>
-      <c r="GK26" s="11"/>
-      <c r="GL26" s="11"/>
-      <c r="GM26" s="11"/>
-      <c r="GN26" s="11"/>
-      <c r="GO26" s="11"/>
-      <c r="GP26" s="11"/>
-      <c r="GQ26" s="11"/>
-      <c r="GR26" s="11"/>
-      <c r="GS26" s="11"/>
-      <c r="GT26" s="11"/>
-      <c r="GU26" s="11"/>
-      <c r="GV26" s="11"/>
-      <c r="GW26" s="11"/>
-      <c r="GX26" s="11"/>
-      <c r="GY26" s="11"/>
-      <c r="GZ26" s="11"/>
-      <c r="HA26" s="11"/>
-      <c r="HB26" s="11"/>
-      <c r="HC26" s="11"/>
-      <c r="HD26" s="11"/>
-      <c r="HE26" s="11"/>
-      <c r="HF26" s="11"/>
-      <c r="HG26" s="11"/>
-      <c r="HH26" s="11"/>
-      <c r="HI26" s="11"/>
-      <c r="HJ26" s="11"/>
-      <c r="HK26" s="11"/>
-      <c r="HL26" s="11"/>
-      <c r="HM26" s="11"/>
-      <c r="HN26" s="11"/>
-      <c r="HO26" s="11"/>
-      <c r="HP26" s="11"/>
-      <c r="HQ26" s="11"/>
-      <c r="HR26" s="11"/>
-      <c r="HS26" s="11"/>
-      <c r="HT26" s="11"/>
-      <c r="HU26" s="11"/>
-      <c r="HV26" s="11"/>
-      <c r="HW26" s="11"/>
-      <c r="HX26" s="11"/>
-      <c r="HY26" s="11"/>
-      <c r="HZ26" s="11"/>
-      <c r="IA26" s="11"/>
-      <c r="IB26" s="11"/>
-      <c r="IC26" s="11"/>
-      <c r="ID26" s="11"/>
-      <c r="IE26" s="11"/>
-      <c r="IF26" s="11"/>
-      <c r="IG26" s="11"/>
-      <c r="IH26" s="11"/>
-      <c r="II26" s="11"/>
-      <c r="IJ26" s="11"/>
-      <c r="IK26" s="11"/>
-      <c r="IL26" s="11"/>
-      <c r="IM26" s="11"/>
-      <c r="IN26" s="11"/>
-      <c r="IO26" s="11"/>
-      <c r="IP26" s="11"/>
-      <c r="IQ26" s="11"/>
-      <c r="IR26" s="11"/>
-      <c r="IS26" s="11"/>
-      <c r="IT26" s="11"/>
-      <c r="IU26" s="11"/>
-      <c r="IV26" s="11"/>
-      <c r="IW26" s="11"/>
-      <c r="IX26" s="11"/>
-      <c r="IY26" s="11"/>
-      <c r="IZ26" s="11"/>
-      <c r="JA26" s="11"/>
-      <c r="JB26" s="11"/>
-      <c r="JC26" s="11"/>
-      <c r="JD26" s="11"/>
-      <c r="JE26" s="11"/>
-      <c r="JF26" s="11"/>
-      <c r="JG26" s="11"/>
-      <c r="JH26" s="11"/>
-      <c r="JI26" s="11"/>
-      <c r="JJ26" s="11"/>
-      <c r="JK26" s="11"/>
-      <c r="JL26" s="11"/>
-      <c r="JM26" s="11"/>
-      <c r="JN26" s="11"/>
-      <c r="JO26" s="11"/>
-      <c r="JP26" s="11"/>
-      <c r="JQ26" s="11"/>
-      <c r="JR26" s="11"/>
-      <c r="JS26" s="11"/>
-      <c r="JT26" s="11"/>
-      <c r="JU26" s="11"/>
-      <c r="JV26" s="11"/>
-      <c r="JW26" s="11"/>
-      <c r="JX26" s="11"/>
-      <c r="JY26" s="11"/>
-      <c r="JZ26" s="11"/>
-      <c r="KA26" s="11"/>
-      <c r="KB26" s="11"/>
-      <c r="KC26" s="11"/>
-      <c r="KD26" s="11"/>
-      <c r="KE26" s="11"/>
-      <c r="KF26" s="11"/>
-      <c r="KG26" s="11"/>
-      <c r="KH26" s="11"/>
-      <c r="KI26" s="11"/>
-      <c r="KJ26" s="11"/>
-      <c r="KK26" s="11"/>
-      <c r="KL26" s="11"/>
-      <c r="KM26" s="11"/>
-      <c r="KN26" s="11"/>
-      <c r="KO26" s="11"/>
-      <c r="KP26" s="11"/>
-      <c r="KQ26" s="11"/>
-      <c r="KR26" s="11"/>
-      <c r="KS26" s="11"/>
-      <c r="KT26" s="11"/>
-      <c r="KU26" s="11"/>
-      <c r="KV26" s="11"/>
-      <c r="KW26" s="11"/>
-      <c r="KX26" s="11"/>
-      <c r="KY26" s="11"/>
-      <c r="KZ26" s="11"/>
-      <c r="LA26" s="11"/>
-      <c r="LB26" s="11"/>
-      <c r="LC26" s="11"/>
-      <c r="LD26" s="11"/>
-      <c r="LE26" s="11"/>
-      <c r="LF26" s="11"/>
-      <c r="LG26" s="11"/>
-      <c r="LH26" s="11"/>
-      <c r="LI26" s="11"/>
-      <c r="LJ26" s="11"/>
-      <c r="LK26" s="11"/>
-      <c r="LL26" s="11"/>
-      <c r="LM26" s="11"/>
-      <c r="LN26" s="11"/>
-      <c r="LO26" s="11"/>
-      <c r="LP26" s="11"/>
-      <c r="LQ26" s="11"/>
-      <c r="LR26" s="11"/>
-      <c r="LS26" s="11"/>
-      <c r="LT26" s="11"/>
-      <c r="LU26" s="11"/>
-      <c r="LV26" s="11"/>
-      <c r="LW26" s="11"/>
-      <c r="LX26" s="11"/>
-      <c r="LY26" s="11"/>
-      <c r="LZ26" s="11"/>
-      <c r="MA26" s="11"/>
-      <c r="MB26" s="11"/>
-      <c r="MC26" s="11"/>
-      <c r="MD26" s="11"/>
-      <c r="ME26" s="11"/>
-      <c r="MF26" s="11"/>
-      <c r="MG26" s="11"/>
-      <c r="MH26" s="11"/>
-      <c r="MI26" s="11"/>
-      <c r="MJ26" s="11"/>
-      <c r="MK26" s="11"/>
-      <c r="ML26" s="11"/>
-      <c r="MM26" s="11"/>
-      <c r="MN26" s="11"/>
-      <c r="MO26" s="11"/>
-      <c r="MP26" s="11"/>
-      <c r="MQ26" s="11"/>
-      <c r="MR26" s="11"/>
-      <c r="MS26" s="11"/>
-      <c r="MT26" s="11"/>
-      <c r="MU26" s="11"/>
-      <c r="MV26" s="11"/>
-      <c r="MW26" s="11"/>
-      <c r="MX26" s="11"/>
-      <c r="MY26" s="11"/>
-      <c r="MZ26" s="11"/>
-      <c r="NA26" s="11"/>
-      <c r="NB26" s="11"/>
-      <c r="NC26" s="11"/>
-      <c r="ND26" s="11"/>
-      <c r="NE26" s="11"/>
-      <c r="NF26" s="11"/>
-      <c r="NG26" s="11"/>
-      <c r="NH26" s="11"/>
-      <c r="NI26" s="11"/>
-      <c r="NJ26" s="11"/>
-      <c r="NK26" s="11"/>
-      <c r="NL26" s="11"/>
-      <c r="NM26" s="11"/>
-      <c r="NN26" s="11"/>
-      <c r="NO26" s="11"/>
-      <c r="NP26" s="11"/>
-      <c r="NQ26" s="11"/>
-      <c r="NR26" s="11"/>
-      <c r="NS26" s="11"/>
-      <c r="NT26" s="11"/>
-      <c r="NU26" s="11"/>
-      <c r="NV26" s="11"/>
-      <c r="NW26" s="11"/>
-      <c r="NX26" s="11"/>
-      <c r="NY26" s="11"/>
-      <c r="NZ26" s="11"/>
-      <c r="OA26" s="11"/>
-      <c r="OB26" s="11"/>
-      <c r="OC26" s="11"/>
-      <c r="OD26" s="11"/>
-      <c r="OE26" s="11"/>
-      <c r="OF26" s="11"/>
-      <c r="OG26" s="11"/>
-      <c r="OH26" s="11"/>
-      <c r="OI26" s="11"/>
-      <c r="OJ26" s="11"/>
-      <c r="OK26" s="11"/>
-      <c r="OL26" s="11"/>
-      <c r="OM26" s="11"/>
-      <c r="ON26" s="11"/>
-      <c r="OO26" s="11"/>
-      <c r="OP26" s="11"/>
-      <c r="OQ26" s="11"/>
-      <c r="OR26" s="11"/>
-      <c r="OS26" s="11"/>
-      <c r="OT26" s="11"/>
-      <c r="OU26" s="11"/>
-      <c r="OV26" s="11"/>
-      <c r="OW26" s="11"/>
-      <c r="OX26" s="11"/>
-      <c r="OY26" s="11"/>
-      <c r="OZ26" s="11"/>
-      <c r="PA26" s="11"/>
-      <c r="PB26" s="11"/>
-      <c r="PC26" s="11"/>
-      <c r="PD26" s="11"/>
-      <c r="PE26" s="11"/>
-      <c r="PF26" s="11"/>
-      <c r="PG26" s="11"/>
-      <c r="PH26" s="11"/>
-      <c r="PI26" s="11"/>
-      <c r="PJ26" s="11"/>
-      <c r="PK26" s="11"/>
-      <c r="PL26" s="11"/>
-      <c r="PM26" s="11"/>
-      <c r="PN26" s="11"/>
-      <c r="PO26" s="11"/>
-      <c r="PP26" s="11"/>
-      <c r="PQ26" s="11"/>
-      <c r="PR26" s="11"/>
-      <c r="PS26" s="11"/>
-      <c r="PT26" s="11"/>
-      <c r="PU26" s="11"/>
-      <c r="PV26" s="11"/>
-      <c r="PW26" s="11"/>
-      <c r="PX26" s="11"/>
-      <c r="PY26" s="11"/>
-      <c r="PZ26" s="11"/>
-      <c r="QA26" s="11"/>
-      <c r="QB26" s="11"/>
-      <c r="QC26" s="11"/>
-      <c r="QD26" s="11"/>
-      <c r="QE26" s="11"/>
-      <c r="QF26" s="11"/>
-      <c r="QG26" s="11"/>
-      <c r="QH26" s="11"/>
-      <c r="QI26" s="11"/>
-      <c r="QJ26" s="11"/>
-      <c r="QK26" s="11"/>
-      <c r="QL26" s="11"/>
-      <c r="QM26" s="11"/>
-      <c r="QN26" s="11"/>
-      <c r="QO26" s="11"/>
-      <c r="QP26" s="11"/>
-      <c r="QQ26" s="11"/>
-      <c r="QR26" s="11"/>
-      <c r="QS26" s="11"/>
-      <c r="QT26" s="11"/>
-      <c r="QU26" s="11"/>
-      <c r="QV26" s="11"/>
-      <c r="QW26" s="11"/>
-      <c r="QX26" s="11"/>
-      <c r="QY26" s="11"/>
-      <c r="QZ26" s="11"/>
-      <c r="RA26" s="11"/>
-      <c r="RB26" s="11"/>
-      <c r="RC26" s="11"/>
-      <c r="RD26" s="11"/>
-      <c r="RE26" s="11"/>
-      <c r="RF26" s="11"/>
-      <c r="RG26" s="11"/>
-      <c r="RH26" s="11"/>
-      <c r="RI26" s="11"/>
-      <c r="RJ26" s="11"/>
-      <c r="RK26" s="11"/>
-      <c r="RL26" s="11"/>
-      <c r="RM26" s="11"/>
-      <c r="RN26" s="11"/>
-      <c r="RO26" s="11"/>
-      <c r="RP26" s="11"/>
-      <c r="RQ26" s="11"/>
-      <c r="RR26" s="11"/>
-      <c r="RS26" s="11"/>
-      <c r="RT26" s="11"/>
-      <c r="RU26" s="11"/>
-      <c r="RV26" s="11"/>
-      <c r="RW26" s="11"/>
-      <c r="RX26" s="11"/>
-      <c r="RY26" s="11"/>
-      <c r="RZ26" s="11"/>
-      <c r="SA26" s="11"/>
-      <c r="SB26" s="11"/>
-      <c r="SC26" s="11"/>
-      <c r="SD26" s="11"/>
-      <c r="SE26" s="11"/>
-      <c r="SF26" s="11"/>
-      <c r="SG26" s="11"/>
-      <c r="SH26" s="11"/>
-      <c r="SI26" s="11"/>
-      <c r="SJ26" s="11"/>
-      <c r="SK26" s="11"/>
-      <c r="SL26" s="11"/>
-      <c r="SM26" s="11"/>
-      <c r="SN26" s="11"/>
-      <c r="SO26" s="11"/>
-      <c r="SP26" s="11"/>
-      <c r="SQ26" s="11"/>
-      <c r="SR26" s="11"/>
-      <c r="SS26" s="11"/>
-      <c r="ST26" s="11"/>
-      <c r="SU26" s="11"/>
-      <c r="SV26" s="11"/>
-      <c r="SW26" s="11"/>
-      <c r="SX26" s="11"/>
-      <c r="SY26" s="11"/>
-      <c r="SZ26" s="11"/>
-      <c r="TA26" s="11"/>
-      <c r="TB26" s="11"/>
-      <c r="TC26" s="11"/>
-      <c r="TD26" s="11"/>
-      <c r="TE26" s="11"/>
-      <c r="TF26" s="11"/>
-      <c r="TG26" s="11"/>
-      <c r="TH26" s="11"/>
-      <c r="TI26" s="11"/>
-      <c r="TJ26" s="11"/>
-      <c r="TK26" s="11"/>
-      <c r="TL26" s="11"/>
-      <c r="TM26" s="11"/>
-      <c r="TN26" s="11"/>
-      <c r="TO26" s="11"/>
-      <c r="TP26" s="11"/>
-      <c r="TQ26" s="11"/>
-      <c r="TR26" s="11"/>
-      <c r="TS26" s="11"/>
-      <c r="TT26" s="11"/>
-      <c r="TU26" s="11"/>
-      <c r="TV26" s="11"/>
-      <c r="TW26" s="11"/>
-      <c r="TX26" s="11"/>
-      <c r="TY26" s="11"/>
-      <c r="TZ26" s="11"/>
-      <c r="UA26" s="11"/>
-      <c r="UB26" s="11"/>
-      <c r="UC26" s="11"/>
-      <c r="UD26" s="11"/>
-      <c r="UE26" s="11"/>
-      <c r="UF26" s="11"/>
-      <c r="UG26" s="11"/>
-      <c r="UH26" s="11"/>
-      <c r="UI26" s="11"/>
-      <c r="UJ26" s="11"/>
-      <c r="UK26" s="11"/>
-      <c r="UL26" s="11"/>
-      <c r="UM26" s="11"/>
-      <c r="UN26" s="11"/>
-      <c r="UO26" s="11"/>
-      <c r="UP26" s="11"/>
-      <c r="UQ26" s="11"/>
-      <c r="UR26" s="11"/>
-      <c r="US26" s="11"/>
-      <c r="UT26" s="11"/>
-      <c r="UU26" s="11"/>
-      <c r="UV26" s="11"/>
-      <c r="UW26" s="11"/>
-      <c r="UX26" s="11"/>
-      <c r="UY26" s="11"/>
-      <c r="UZ26" s="11"/>
-      <c r="VA26" s="11"/>
-      <c r="VB26" s="11"/>
-      <c r="VC26" s="11"/>
-      <c r="VD26" s="11"/>
-      <c r="VE26" s="11"/>
-      <c r="VF26" s="11"/>
-      <c r="VG26" s="11"/>
-      <c r="VH26" s="11"/>
-      <c r="VI26" s="11"/>
-      <c r="VJ26" s="11"/>
-      <c r="VK26" s="11"/>
-      <c r="VL26" s="11"/>
-      <c r="VM26" s="11"/>
-      <c r="VN26" s="11"/>
-      <c r="VO26" s="11"/>
-      <c r="VP26" s="11"/>
-      <c r="VQ26" s="11"/>
-      <c r="VR26" s="11"/>
-      <c r="VS26" s="11"/>
-      <c r="VT26" s="11"/>
-      <c r="VU26" s="11"/>
-      <c r="VV26" s="11"/>
-      <c r="VW26" s="11"/>
-      <c r="VX26" s="11"/>
-      <c r="VY26" s="11"/>
-      <c r="VZ26" s="11"/>
-      <c r="WA26" s="11"/>
-      <c r="WB26" s="11"/>
-      <c r="WC26" s="11"/>
-      <c r="WD26" s="11"/>
-      <c r="WE26" s="11"/>
-      <c r="WF26" s="11"/>
-      <c r="WG26" s="11"/>
-      <c r="WH26" s="11"/>
-      <c r="WI26" s="11"/>
-      <c r="WJ26" s="11"/>
-      <c r="WK26" s="11"/>
-      <c r="WL26" s="11"/>
-      <c r="WM26" s="11"/>
-      <c r="WN26" s="11"/>
-      <c r="WO26" s="11"/>
-      <c r="WP26" s="11"/>
-      <c r="WQ26" s="11"/>
-      <c r="WR26" s="11"/>
-      <c r="WS26" s="11"/>
-      <c r="WT26" s="11"/>
-      <c r="WU26" s="11"/>
-      <c r="WV26" s="11"/>
-      <c r="WW26" s="11"/>
-      <c r="WX26" s="11"/>
-      <c r="WY26" s="11"/>
-      <c r="WZ26" s="11"/>
-      <c r="XA26" s="11"/>
-      <c r="XB26" s="11"/>
-      <c r="XC26" s="11"/>
-      <c r="XD26" s="11"/>
-      <c r="XE26" s="11"/>
-      <c r="XF26" s="11"/>
-      <c r="XG26" s="11"/>
-      <c r="XH26" s="11"/>
-      <c r="XI26" s="11"/>
-      <c r="XJ26" s="11"/>
-      <c r="XK26" s="11"/>
-      <c r="XL26" s="11"/>
-      <c r="XM26" s="11"/>
-      <c r="XN26" s="11"/>
-      <c r="XO26" s="11"/>
-      <c r="XP26" s="11"/>
-      <c r="XQ26" s="11"/>
-      <c r="XR26" s="11"/>
-      <c r="XS26" s="11"/>
-      <c r="XT26" s="11"/>
-      <c r="XU26" s="11"/>
-      <c r="XV26" s="11"/>
-      <c r="XW26" s="11"/>
-      <c r="XX26" s="11"/>
-      <c r="XY26" s="11"/>
-      <c r="XZ26" s="11"/>
-      <c r="YA26" s="11"/>
-      <c r="YB26" s="11"/>
-      <c r="YC26" s="11"/>
-      <c r="YD26" s="11"/>
-      <c r="YE26" s="11"/>
-      <c r="YF26" s="11"/>
-      <c r="YG26" s="11"/>
-      <c r="YH26" s="11"/>
-      <c r="YI26" s="11"/>
-      <c r="YJ26" s="11"/>
-      <c r="YK26" s="11"/>
-      <c r="YL26" s="11"/>
-      <c r="YM26" s="11"/>
-      <c r="YN26" s="11"/>
-      <c r="YO26" s="11"/>
-      <c r="YP26" s="11"/>
-      <c r="YQ26" s="11"/>
-      <c r="YR26" s="11"/>
-      <c r="YS26" s="11"/>
-      <c r="YT26" s="11"/>
-      <c r="YU26" s="11"/>
-      <c r="YV26" s="11"/>
-      <c r="YW26" s="11"/>
-      <c r="YX26" s="11"/>
-      <c r="YY26" s="11"/>
-      <c r="YZ26" s="11"/>
-      <c r="ZA26" s="11"/>
-      <c r="ZB26" s="11"/>
-      <c r="ZC26" s="11"/>
-      <c r="ZD26" s="11"/>
-      <c r="ZE26" s="11"/>
-      <c r="ZF26" s="11"/>
-      <c r="ZG26" s="11"/>
-      <c r="ZH26" s="11"/>
-      <c r="ZI26" s="11"/>
-      <c r="ZJ26" s="11"/>
-      <c r="ZK26" s="11"/>
-      <c r="ZL26" s="11"/>
-      <c r="ZM26" s="11"/>
-      <c r="ZN26" s="11"/>
-      <c r="ZO26" s="11"/>
-      <c r="ZP26" s="11"/>
-      <c r="ZQ26" s="11"/>
-      <c r="ZR26" s="11"/>
-      <c r="ZS26" s="11"/>
-      <c r="ZT26" s="11"/>
-      <c r="ZU26" s="11"/>
-      <c r="ZV26" s="11"/>
-      <c r="ZW26" s="11"/>
-      <c r="ZX26" s="11"/>
-      <c r="ZY26" s="11"/>
-      <c r="ZZ26" s="11"/>
-      <c r="AAA26" s="11"/>
-      <c r="AAB26" s="11"/>
-      <c r="AAC26" s="11"/>
-      <c r="AAD26" s="11"/>
-      <c r="AAE26" s="11"/>
-      <c r="AAF26" s="11"/>
-      <c r="AAG26" s="11"/>
-      <c r="AAH26" s="11"/>
-      <c r="AAI26" s="11"/>
-      <c r="AAJ26" s="11"/>
-      <c r="AAK26" s="11"/>
-      <c r="AAL26" s="11"/>
-      <c r="AAM26" s="11"/>
-      <c r="AAN26" s="11"/>
-      <c r="AAO26" s="11"/>
-      <c r="AAP26" s="11"/>
-      <c r="AAQ26" s="11"/>
-      <c r="AAR26" s="11"/>
-      <c r="AAS26" s="11"/>
-      <c r="AAT26" s="11"/>
-      <c r="AAU26" s="11"/>
-      <c r="AAV26" s="11"/>
-      <c r="AAW26" s="11"/>
-      <c r="AAX26" s="11"/>
-      <c r="AAY26" s="11"/>
-      <c r="AAZ26" s="11"/>
-      <c r="ABA26" s="11"/>
-      <c r="ABB26" s="11"/>
-      <c r="ABC26" s="11"/>
-      <c r="ABD26" s="11"/>
-      <c r="ABE26" s="11"/>
-      <c r="ABF26" s="11"/>
-      <c r="ABG26" s="11"/>
-      <c r="ABH26" s="11"/>
-      <c r="ABI26" s="11"/>
-      <c r="ABJ26" s="11"/>
-      <c r="ABK26" s="11"/>
-      <c r="ABL26" s="11"/>
-      <c r="ABM26" s="11"/>
-      <c r="ABN26" s="11"/>
-      <c r="ABO26" s="11"/>
-      <c r="ABP26" s="11"/>
-      <c r="ABQ26" s="11"/>
-      <c r="ABR26" s="11"/>
-      <c r="ABS26" s="11"/>
-      <c r="ABT26" s="11"/>
-      <c r="ABU26" s="11"/>
-      <c r="ABV26" s="11"/>
-      <c r="ABW26" s="11"/>
-      <c r="ABX26" s="11"/>
-      <c r="ABY26" s="11"/>
-      <c r="ABZ26" s="11"/>
-      <c r="ACA26" s="11"/>
-      <c r="ACB26" s="11"/>
-      <c r="ACC26" s="11"/>
-      <c r="ACD26" s="11"/>
-      <c r="ACE26" s="11"/>
-      <c r="ACF26" s="11"/>
-      <c r="ACG26" s="11"/>
-      <c r="ACH26" s="11"/>
-      <c r="ACI26" s="11"/>
-      <c r="ACJ26" s="11"/>
-      <c r="ACK26" s="11"/>
-      <c r="ACL26" s="11"/>
-      <c r="ACM26" s="11"/>
-      <c r="ACN26" s="11"/>
-      <c r="ACO26" s="11"/>
-      <c r="ACP26" s="11"/>
-      <c r="ACQ26" s="11"/>
-      <c r="ACR26" s="11"/>
-      <c r="ACS26" s="11"/>
-      <c r="ACT26" s="11"/>
-      <c r="ACU26" s="11"/>
-      <c r="ACV26" s="11"/>
-      <c r="ACW26" s="11"/>
-      <c r="ACX26" s="11"/>
-      <c r="ACY26" s="11"/>
-      <c r="ACZ26" s="11"/>
-      <c r="ADA26" s="11"/>
-      <c r="ADB26" s="11"/>
-      <c r="ADC26" s="11"/>
-      <c r="ADD26" s="11"/>
-      <c r="ADE26" s="11"/>
-      <c r="ADF26" s="11"/>
-      <c r="ADG26" s="11"/>
-      <c r="ADH26" s="11"/>
-      <c r="ADI26" s="11"/>
-      <c r="ADJ26" s="11"/>
-      <c r="ADK26" s="11"/>
-      <c r="ADL26" s="11"/>
-      <c r="ADM26" s="11"/>
-      <c r="ADN26" s="11"/>
-      <c r="ADO26" s="11"/>
-      <c r="ADP26" s="11"/>
-      <c r="ADQ26" s="11"/>
-      <c r="ADR26" s="11"/>
-      <c r="ADS26" s="11"/>
-      <c r="ADT26" s="11"/>
-      <c r="ADU26" s="11"/>
-      <c r="ADV26" s="11"/>
-      <c r="ADW26" s="11"/>
-      <c r="ADX26" s="11"/>
-      <c r="ADY26" s="11"/>
-      <c r="ADZ26" s="11"/>
-      <c r="AEA26" s="11"/>
-      <c r="AEB26" s="11"/>
-      <c r="AEC26" s="11"/>
-      <c r="AED26" s="11"/>
-      <c r="AEE26" s="11"/>
-      <c r="AEF26" s="11"/>
-      <c r="AEG26" s="11"/>
-      <c r="AEH26" s="11"/>
-      <c r="AEI26" s="11"/>
-      <c r="AEJ26" s="11"/>
-      <c r="AEK26" s="11"/>
-      <c r="AEL26" s="11"/>
-      <c r="AEM26" s="11"/>
-      <c r="AEN26" s="11"/>
-      <c r="AEO26" s="11"/>
-      <c r="AEP26" s="11"/>
-      <c r="AEQ26" s="11"/>
-      <c r="AER26" s="11"/>
-      <c r="AES26" s="11"/>
-      <c r="AET26" s="11"/>
-      <c r="AEU26" s="11"/>
-      <c r="AEV26" s="11"/>
-      <c r="AEW26" s="11"/>
-      <c r="AEX26" s="11"/>
-      <c r="AEY26" s="11"/>
-      <c r="AEZ26" s="11"/>
-      <c r="AFA26" s="11"/>
-      <c r="AFB26" s="11"/>
-      <c r="AFC26" s="11"/>
-      <c r="AFD26" s="11"/>
-      <c r="AFE26" s="11"/>
-      <c r="AFF26" s="11"/>
-      <c r="AFG26" s="11"/>
-      <c r="AFH26" s="11"/>
-      <c r="AFI26" s="11"/>
-      <c r="AFJ26" s="11"/>
-      <c r="AFK26" s="11"/>
-      <c r="AFL26" s="11"/>
-      <c r="AFM26" s="11"/>
-      <c r="AFN26" s="11"/>
-      <c r="AFO26" s="11"/>
-      <c r="AFP26" s="11"/>
-      <c r="AFQ26" s="11"/>
-      <c r="AFR26" s="11"/>
-      <c r="AFS26" s="11"/>
-      <c r="AFT26" s="11"/>
-      <c r="AFU26" s="11"/>
-      <c r="AFV26" s="11"/>
-      <c r="AFW26" s="11"/>
-      <c r="AFX26" s="11"/>
-      <c r="AFY26" s="11"/>
-      <c r="AFZ26" s="11"/>
-      <c r="AGA26" s="11"/>
-      <c r="AGB26" s="11"/>
-      <c r="AGC26" s="11"/>
-      <c r="AGD26" s="11"/>
-      <c r="AGE26" s="11"/>
-      <c r="AGF26" s="11"/>
-      <c r="AGG26" s="11"/>
-      <c r="AGH26" s="11"/>
-      <c r="AGI26" s="11"/>
-      <c r="AGJ26" s="11"/>
-      <c r="AGK26" s="11"/>
-      <c r="AGL26" s="11"/>
-      <c r="AGM26" s="11"/>
-      <c r="AGN26" s="11"/>
-      <c r="AGO26" s="11"/>
-      <c r="AGP26" s="11"/>
-      <c r="AGQ26" s="11"/>
-      <c r="AGR26" s="11"/>
-      <c r="AGS26" s="11"/>
-      <c r="AGT26" s="11"/>
-      <c r="AGU26" s="11"/>
-      <c r="AGV26" s="11"/>
-      <c r="AGW26" s="11"/>
-      <c r="AGX26" s="11"/>
-      <c r="AGY26" s="11"/>
-      <c r="AGZ26" s="11"/>
-      <c r="AHA26" s="11"/>
-      <c r="AHB26" s="11"/>
-      <c r="AHC26" s="11"/>
-      <c r="AHD26" s="11"/>
-      <c r="AHE26" s="11"/>
-      <c r="AHF26" s="11"/>
-      <c r="AHG26" s="11"/>
-      <c r="AHH26" s="11"/>
-      <c r="AHI26" s="11"/>
-      <c r="AHJ26" s="11"/>
-      <c r="AHK26" s="11"/>
-      <c r="AHL26" s="11"/>
-      <c r="AHM26" s="11"/>
-      <c r="AHN26" s="11"/>
-      <c r="AHO26" s="11"/>
-      <c r="AHP26" s="11"/>
-      <c r="AHQ26" s="11"/>
-      <c r="AHR26" s="11"/>
-      <c r="AHS26" s="11"/>
-      <c r="AHT26" s="11"/>
-      <c r="AHU26" s="11"/>
-      <c r="AHV26" s="11"/>
-      <c r="AHW26" s="11"/>
-      <c r="AHX26" s="11"/>
-      <c r="AHY26" s="11"/>
-      <c r="AHZ26" s="11"/>
-      <c r="AIA26" s="11"/>
-      <c r="AIB26" s="11"/>
-      <c r="AIC26" s="11"/>
-      <c r="AID26" s="11"/>
-      <c r="AIE26" s="11"/>
-      <c r="AIF26" s="11"/>
-      <c r="AIG26" s="11"/>
-      <c r="AIH26" s="11"/>
-      <c r="AII26" s="11"/>
-      <c r="AIJ26" s="11"/>
-      <c r="AIK26" s="11"/>
-      <c r="AIL26" s="11"/>
-      <c r="AIM26" s="11"/>
-      <c r="AIN26" s="11"/>
-      <c r="AIO26" s="11"/>
-      <c r="AIP26" s="11"/>
-      <c r="AIQ26" s="11"/>
-      <c r="AIR26" s="11"/>
-      <c r="AIS26" s="11"/>
-      <c r="AIT26" s="11"/>
-      <c r="AIU26" s="11"/>
-      <c r="AIV26" s="11"/>
-      <c r="AIW26" s="11"/>
-      <c r="AIX26" s="11"/>
-      <c r="AIY26" s="11"/>
-      <c r="AIZ26" s="11"/>
-      <c r="AJA26" s="11"/>
-      <c r="AJB26" s="11"/>
-      <c r="AJC26" s="11"/>
-      <c r="AJD26" s="11"/>
-      <c r="AJE26" s="11"/>
-      <c r="AJF26" s="11"/>
-      <c r="AJG26" s="11"/>
-      <c r="AJH26" s="11"/>
-      <c r="AJI26" s="11"/>
-      <c r="AJJ26" s="11"/>
-      <c r="AJK26" s="11"/>
-      <c r="AJL26" s="11"/>
-      <c r="AJM26" s="11"/>
-      <c r="AJN26" s="11"/>
-      <c r="AJO26" s="11"/>
-      <c r="AJP26" s="11"/>
-      <c r="AJQ26" s="11"/>
-      <c r="AJR26" s="11"/>
-      <c r="AJS26" s="11"/>
-      <c r="AJT26" s="11"/>
-      <c r="AJU26" s="11"/>
-      <c r="AJV26" s="11"/>
-      <c r="AJW26" s="11"/>
-      <c r="AJX26" s="11"/>
-      <c r="AJY26" s="11"/>
-      <c r="AJZ26" s="11"/>
-      <c r="AKA26" s="11"/>
-      <c r="AKB26" s="11"/>
-      <c r="AKC26" s="11"/>
-      <c r="AKD26" s="11"/>
-      <c r="AKE26" s="11"/>
-      <c r="AKF26" s="11"/>
-      <c r="AKG26" s="11"/>
-      <c r="AKH26" s="11"/>
-      <c r="AKI26" s="11"/>
-      <c r="AKJ26" s="11"/>
-      <c r="AKK26" s="11"/>
-      <c r="AKL26" s="11"/>
-      <c r="AKM26" s="11"/>
-      <c r="AKN26" s="11"/>
-      <c r="AKO26" s="11"/>
-      <c r="AKP26" s="11"/>
-      <c r="AKQ26" s="11"/>
-      <c r="AKR26" s="11"/>
-      <c r="AKS26" s="11"/>
-      <c r="AKT26" s="11"/>
-      <c r="AKU26" s="11"/>
-      <c r="AKV26" s="11"/>
-      <c r="AKW26" s="11"/>
-      <c r="AKX26" s="11"/>
-      <c r="AKY26" s="11"/>
-      <c r="AKZ26" s="11"/>
-      <c r="ALA26" s="11"/>
-      <c r="ALB26" s="11"/>
-      <c r="ALC26" s="11"/>
-      <c r="ALD26" s="11"/>
-      <c r="ALE26" s="11"/>
-      <c r="ALF26" s="11"/>
-      <c r="ALG26" s="11"/>
-      <c r="ALH26" s="11"/>
-      <c r="ALI26" s="11"/>
-      <c r="ALJ26" s="11"/>
-      <c r="ALK26" s="11"/>
-      <c r="ALL26" s="11"/>
-      <c r="ALM26" s="11"/>
-      <c r="ALN26" s="11"/>
-      <c r="ALO26" s="11"/>
-      <c r="ALP26" s="11"/>
-      <c r="ALQ26" s="11"/>
-      <c r="ALR26" s="11"/>
-      <c r="ALS26" s="11"/>
-      <c r="ALT26" s="11"/>
-      <c r="ALU26" s="11"/>
-      <c r="ALV26" s="11"/>
-      <c r="ALW26" s="11"/>
-      <c r="ALX26" s="11"/>
-      <c r="ALY26" s="11"/>
-      <c r="ALZ26" s="11"/>
-      <c r="AMA26" s="11"/>
-      <c r="AMB26" s="11"/>
-      <c r="AMC26" s="11"/>
-      <c r="AMD26" s="11"/>
-      <c r="AME26" s="11"/>
-      <c r="AMF26" s="11"/>
-      <c r="AMG26" s="11"/>
-      <c r="AMH26" s="11"/>
-      <c r="AMI26" s="11"/>
-      <c r="AMJ26" s="11"/>
-      <c r="AMK26" s="11"/>
-      <c r="AML26" s="11"/>
-    </row>
-    <row r="27" spans="1:1026" ht="29">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1026" ht="30">
+      <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1026" ht="29">
-      <c r="A28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
@@ -9029,24 +9064,24 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:1026">
+    <row r="29" spans="1:1026" ht="30">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
@@ -9061,16 +9096,19 @@
     </row>
     <row r="30" spans="1:1026">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
@@ -9080,24 +9118,21 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:1026" ht="72.5">
+    <row r="31" spans="1:1026">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
@@ -9107,27 +9142,24 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>361</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:1026" ht="29">
+    <row r="32" spans="1:1026" ht="75">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
@@ -9136,125 +9168,134 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" ht="29">
+    <row r="33" spans="1:13" ht="30">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <v>990399123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35"/>
+        <v>157</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30">
+      <c r="A36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:13" ht="30">
+      <c r="A37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="29">
-      <c r="A37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
@@ -9263,24 +9304,20 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="38" spans="1:13" ht="29">
+    <row r="38" spans="1:13" ht="30">
       <c r="A38" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38"/>
+        <v>169</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
@@ -9288,43 +9325,44 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="K38" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" ht="29">
+    <row r="39" spans="1:13" ht="30">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>179</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="30">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -9334,77 +9372,74 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="43.5">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:13" ht="45">
+      <c r="A42" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G41" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="G42" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>190</v>
-      </c>
     </row>
-    <row r="43" spans="1:13" ht="29">
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E43"/>
       <c r="F43" s="1" t="s">
         <v>179</v>
       </c>
@@ -9412,65 +9447,73 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I43" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="30">
       <c r="A44" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="G44" s="2">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="8" t="s">
-        <v>196</v>
+    <row r="45" spans="1:13" ht="30">
+      <c r="A45" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45"/>
+        <v>182</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="2">
-        <f>0</f>
-        <v>0</v>
+      <c r="G45" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="1" t="s">
@@ -9483,16 +9526,16 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
@@ -9505,16 +9548,16 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="1" t="s">
@@ -9527,16 +9570,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
@@ -9549,16 +9592,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="1" t="s">
@@ -9571,17 +9614,18 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E51"/>
       <c r="F51" s="1" t="s">
         <v>153</v>
       </c>
@@ -9592,18 +9636,17 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52"/>
+        <v>222</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>153</v>
       </c>
@@ -9614,16 +9657,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="1" t="s">
@@ -9636,16 +9679,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="1" t="s">
@@ -9657,17 +9700,17 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="9" t="s">
-        <v>234</v>
+      <c r="A55" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="1" t="s">
@@ -9680,16 +9723,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="1" t="s">
@@ -9702,16 +9745,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="1" t="s">
@@ -9724,16 +9767,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="1" t="s">
@@ -9746,16 +9789,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="1" t="s">
@@ -9768,16 +9811,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="1" t="s">
@@ -9790,16 +9833,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="1" t="s">
@@ -9812,16 +9855,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="1" t="s">
@@ -9834,16 +9877,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="1" t="s">
@@ -9856,16 +9899,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="1" t="s">
@@ -9876,18 +9919,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="29">
+    <row r="65" spans="1:13">
       <c r="A65" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="1" t="s">
@@ -9898,18 +9941,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="30">
       <c r="A66" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="1" t="s">
@@ -9922,16 +9965,16 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="1" t="s">
@@ -9944,16 +9987,16 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="1" t="s">
@@ -9966,16 +10009,16 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="1" t="s">
@@ -9988,16 +10031,16 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="1" t="s">
@@ -10010,16 +10053,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="1" t="s">
@@ -10032,16 +10075,16 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="1" t="s">
@@ -10054,16 +10097,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="1" t="s">
@@ -10076,17 +10119,18 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>311</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E74"/>
       <c r="F74" s="1" t="s">
         <v>153</v>
       </c>
@@ -10097,18 +10141,17 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E75"/>
+        <v>311</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>153</v>
       </c>
@@ -10119,16 +10162,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="1" t="s">
@@ -10139,93 +10182,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
-        <v>320</v>
+    <row r="77" spans="1:13" ht="30">
+      <c r="A77" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E77"/>
       <c r="F77" s="1" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="G77" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>324</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G78" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G78" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="29">
-      <c r="A79" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G79" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>333</v>
-      </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="30">
       <c r="A80" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>87</v>
@@ -10234,33 +10275,57 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I80" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="81" spans="1:13" ht="29">
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G81" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:13" ht="30">
+      <c r="A82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>340</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M81">
+  <autoFilter ref="A1:M82">
     <filterColumn colId="11"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$83</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="443">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1527,6 +1527,31 @@
   <si>
     <t>RegEx: [0-9a-zA-Z]{6}
 No checkdigit</t>
+  </si>
+  <si>
+    <t>DE:LWID</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>Leitweg-ID</t>
+  </si>
+  <si>
+    <t>Koordinierungsstelle für IT-Standards (KoSIT)</t>
+  </si>
+  <si>
+    <t>Up to 44 alphanumeric characters
+Format: “Up to 12 numeric characters – up to 30 alphanumeric characters – 2 numeric characters”</t>
+  </si>
+  <si>
+    <t>Whole string</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{0,12}(\-[0-9a-zA-Z]{0,30}(\-[0-9]{2}))</t>
+  </si>
+  <si>
+    <t>Each part is somehow optional</t>
   </si>
 </sst>
 </file>
@@ -1948,13 +1973,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AML82"/>
+  <dimension ref="A1:AML83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7991,1097 +8016,1107 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:1026" s="14" customFormat="1" ht="30">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:1026" ht="45">
+      <c r="A27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G27" s="2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1026" s="14" customFormat="1" ht="30">
+      <c r="A28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="11" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="11"/>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="11"/>
-      <c r="BD27" s="11"/>
-      <c r="BE27" s="11"/>
-      <c r="BF27" s="11"/>
-      <c r="BG27" s="11"/>
-      <c r="BH27" s="11"/>
-      <c r="BI27" s="11"/>
-      <c r="BJ27" s="11"/>
-      <c r="BK27" s="11"/>
-      <c r="BL27" s="11"/>
-      <c r="BM27" s="11"/>
-      <c r="BN27" s="11"/>
-      <c r="BO27" s="11"/>
-      <c r="BP27" s="11"/>
-      <c r="BQ27" s="11"/>
-      <c r="BR27" s="11"/>
-      <c r="BS27" s="11"/>
-      <c r="BT27" s="11"/>
-      <c r="BU27" s="11"/>
-      <c r="BV27" s="11"/>
-      <c r="BW27" s="11"/>
-      <c r="BX27" s="11"/>
-      <c r="BY27" s="11"/>
-      <c r="BZ27" s="11"/>
-      <c r="CA27" s="11"/>
-      <c r="CB27" s="11"/>
-      <c r="CC27" s="11"/>
-      <c r="CD27" s="11"/>
-      <c r="CE27" s="11"/>
-      <c r="CF27" s="11"/>
-      <c r="CG27" s="11"/>
-      <c r="CH27" s="11"/>
-      <c r="CI27" s="11"/>
-      <c r="CJ27" s="11"/>
-      <c r="CK27" s="11"/>
-      <c r="CL27" s="11"/>
-      <c r="CM27" s="11"/>
-      <c r="CN27" s="11"/>
-      <c r="CO27" s="11"/>
-      <c r="CP27" s="11"/>
-      <c r="CQ27" s="11"/>
-      <c r="CR27" s="11"/>
-      <c r="CS27" s="11"/>
-      <c r="CT27" s="11"/>
-      <c r="CU27" s="11"/>
-      <c r="CV27" s="11"/>
-      <c r="CW27" s="11"/>
-      <c r="CX27" s="11"/>
-      <c r="CY27" s="11"/>
-      <c r="CZ27" s="11"/>
-      <c r="DA27" s="11"/>
-      <c r="DB27" s="11"/>
-      <c r="DC27" s="11"/>
-      <c r="DD27" s="11"/>
-      <c r="DE27" s="11"/>
-      <c r="DF27" s="11"/>
-      <c r="DG27" s="11"/>
-      <c r="DH27" s="11"/>
-      <c r="DI27" s="11"/>
-      <c r="DJ27" s="11"/>
-      <c r="DK27" s="11"/>
-      <c r="DL27" s="11"/>
-      <c r="DM27" s="11"/>
-      <c r="DN27" s="11"/>
-      <c r="DO27" s="11"/>
-      <c r="DP27" s="11"/>
-      <c r="DQ27" s="11"/>
-      <c r="DR27" s="11"/>
-      <c r="DS27" s="11"/>
-      <c r="DT27" s="11"/>
-      <c r="DU27" s="11"/>
-      <c r="DV27" s="11"/>
-      <c r="DW27" s="11"/>
-      <c r="DX27" s="11"/>
-      <c r="DY27" s="11"/>
-      <c r="DZ27" s="11"/>
-      <c r="EA27" s="11"/>
-      <c r="EB27" s="11"/>
-      <c r="EC27" s="11"/>
-      <c r="ED27" s="11"/>
-      <c r="EE27" s="11"/>
-      <c r="EF27" s="11"/>
-      <c r="EG27" s="11"/>
-      <c r="EH27" s="11"/>
-      <c r="EI27" s="11"/>
-      <c r="EJ27" s="11"/>
-      <c r="EK27" s="11"/>
-      <c r="EL27" s="11"/>
-      <c r="EM27" s="11"/>
-      <c r="EN27" s="11"/>
-      <c r="EO27" s="11"/>
-      <c r="EP27" s="11"/>
-      <c r="EQ27" s="11"/>
-      <c r="ER27" s="11"/>
-      <c r="ES27" s="11"/>
-      <c r="ET27" s="11"/>
-      <c r="EU27" s="11"/>
-      <c r="EV27" s="11"/>
-      <c r="EW27" s="11"/>
-      <c r="EX27" s="11"/>
-      <c r="EY27" s="11"/>
-      <c r="EZ27" s="11"/>
-      <c r="FA27" s="11"/>
-      <c r="FB27" s="11"/>
-      <c r="FC27" s="11"/>
-      <c r="FD27" s="11"/>
-      <c r="FE27" s="11"/>
-      <c r="FF27" s="11"/>
-      <c r="FG27" s="11"/>
-      <c r="FH27" s="11"/>
-      <c r="FI27" s="11"/>
-      <c r="FJ27" s="11"/>
-      <c r="FK27" s="11"/>
-      <c r="FL27" s="11"/>
-      <c r="FM27" s="11"/>
-      <c r="FN27" s="11"/>
-      <c r="FO27" s="11"/>
-      <c r="FP27" s="11"/>
-      <c r="FQ27" s="11"/>
-      <c r="FR27" s="11"/>
-      <c r="FS27" s="11"/>
-      <c r="FT27" s="11"/>
-      <c r="FU27" s="11"/>
-      <c r="FV27" s="11"/>
-      <c r="FW27" s="11"/>
-      <c r="FX27" s="11"/>
-      <c r="FY27" s="11"/>
-      <c r="FZ27" s="11"/>
-      <c r="GA27" s="11"/>
-      <c r="GB27" s="11"/>
-      <c r="GC27" s="11"/>
-      <c r="GD27" s="11"/>
-      <c r="GE27" s="11"/>
-      <c r="GF27" s="11"/>
-      <c r="GG27" s="11"/>
-      <c r="GH27" s="11"/>
-      <c r="GI27" s="11"/>
-      <c r="GJ27" s="11"/>
-      <c r="GK27" s="11"/>
-      <c r="GL27" s="11"/>
-      <c r="GM27" s="11"/>
-      <c r="GN27" s="11"/>
-      <c r="GO27" s="11"/>
-      <c r="GP27" s="11"/>
-      <c r="GQ27" s="11"/>
-      <c r="GR27" s="11"/>
-      <c r="GS27" s="11"/>
-      <c r="GT27" s="11"/>
-      <c r="GU27" s="11"/>
-      <c r="GV27" s="11"/>
-      <c r="GW27" s="11"/>
-      <c r="GX27" s="11"/>
-      <c r="GY27" s="11"/>
-      <c r="GZ27" s="11"/>
-      <c r="HA27" s="11"/>
-      <c r="HB27" s="11"/>
-      <c r="HC27" s="11"/>
-      <c r="HD27" s="11"/>
-      <c r="HE27" s="11"/>
-      <c r="HF27" s="11"/>
-      <c r="HG27" s="11"/>
-      <c r="HH27" s="11"/>
-      <c r="HI27" s="11"/>
-      <c r="HJ27" s="11"/>
-      <c r="HK27" s="11"/>
-      <c r="HL27" s="11"/>
-      <c r="HM27" s="11"/>
-      <c r="HN27" s="11"/>
-      <c r="HO27" s="11"/>
-      <c r="HP27" s="11"/>
-      <c r="HQ27" s="11"/>
-      <c r="HR27" s="11"/>
-      <c r="HS27" s="11"/>
-      <c r="HT27" s="11"/>
-      <c r="HU27" s="11"/>
-      <c r="HV27" s="11"/>
-      <c r="HW27" s="11"/>
-      <c r="HX27" s="11"/>
-      <c r="HY27" s="11"/>
-      <c r="HZ27" s="11"/>
-      <c r="IA27" s="11"/>
-      <c r="IB27" s="11"/>
-      <c r="IC27" s="11"/>
-      <c r="ID27" s="11"/>
-      <c r="IE27" s="11"/>
-      <c r="IF27" s="11"/>
-      <c r="IG27" s="11"/>
-      <c r="IH27" s="11"/>
-      <c r="II27" s="11"/>
-      <c r="IJ27" s="11"/>
-      <c r="IK27" s="11"/>
-      <c r="IL27" s="11"/>
-      <c r="IM27" s="11"/>
-      <c r="IN27" s="11"/>
-      <c r="IO27" s="11"/>
-      <c r="IP27" s="11"/>
-      <c r="IQ27" s="11"/>
-      <c r="IR27" s="11"/>
-      <c r="IS27" s="11"/>
-      <c r="IT27" s="11"/>
-      <c r="IU27" s="11"/>
-      <c r="IV27" s="11"/>
-      <c r="IW27" s="11"/>
-      <c r="IX27" s="11"/>
-      <c r="IY27" s="11"/>
-      <c r="IZ27" s="11"/>
-      <c r="JA27" s="11"/>
-      <c r="JB27" s="11"/>
-      <c r="JC27" s="11"/>
-      <c r="JD27" s="11"/>
-      <c r="JE27" s="11"/>
-      <c r="JF27" s="11"/>
-      <c r="JG27" s="11"/>
-      <c r="JH27" s="11"/>
-      <c r="JI27" s="11"/>
-      <c r="JJ27" s="11"/>
-      <c r="JK27" s="11"/>
-      <c r="JL27" s="11"/>
-      <c r="JM27" s="11"/>
-      <c r="JN27" s="11"/>
-      <c r="JO27" s="11"/>
-      <c r="JP27" s="11"/>
-      <c r="JQ27" s="11"/>
-      <c r="JR27" s="11"/>
-      <c r="JS27" s="11"/>
-      <c r="JT27" s="11"/>
-      <c r="JU27" s="11"/>
-      <c r="JV27" s="11"/>
-      <c r="JW27" s="11"/>
-      <c r="JX27" s="11"/>
-      <c r="JY27" s="11"/>
-      <c r="JZ27" s="11"/>
-      <c r="KA27" s="11"/>
-      <c r="KB27" s="11"/>
-      <c r="KC27" s="11"/>
-      <c r="KD27" s="11"/>
-      <c r="KE27" s="11"/>
-      <c r="KF27" s="11"/>
-      <c r="KG27" s="11"/>
-      <c r="KH27" s="11"/>
-      <c r="KI27" s="11"/>
-      <c r="KJ27" s="11"/>
-      <c r="KK27" s="11"/>
-      <c r="KL27" s="11"/>
-      <c r="KM27" s="11"/>
-      <c r="KN27" s="11"/>
-      <c r="KO27" s="11"/>
-      <c r="KP27" s="11"/>
-      <c r="KQ27" s="11"/>
-      <c r="KR27" s="11"/>
-      <c r="KS27" s="11"/>
-      <c r="KT27" s="11"/>
-      <c r="KU27" s="11"/>
-      <c r="KV27" s="11"/>
-      <c r="KW27" s="11"/>
-      <c r="KX27" s="11"/>
-      <c r="KY27" s="11"/>
-      <c r="KZ27" s="11"/>
-      <c r="LA27" s="11"/>
-      <c r="LB27" s="11"/>
-      <c r="LC27" s="11"/>
-      <c r="LD27" s="11"/>
-      <c r="LE27" s="11"/>
-      <c r="LF27" s="11"/>
-      <c r="LG27" s="11"/>
-      <c r="LH27" s="11"/>
-      <c r="LI27" s="11"/>
-      <c r="LJ27" s="11"/>
-      <c r="LK27" s="11"/>
-      <c r="LL27" s="11"/>
-      <c r="LM27" s="11"/>
-      <c r="LN27" s="11"/>
-      <c r="LO27" s="11"/>
-      <c r="LP27" s="11"/>
-      <c r="LQ27" s="11"/>
-      <c r="LR27" s="11"/>
-      <c r="LS27" s="11"/>
-      <c r="LT27" s="11"/>
-      <c r="LU27" s="11"/>
-      <c r="LV27" s="11"/>
-      <c r="LW27" s="11"/>
-      <c r="LX27" s="11"/>
-      <c r="LY27" s="11"/>
-      <c r="LZ27" s="11"/>
-      <c r="MA27" s="11"/>
-      <c r="MB27" s="11"/>
-      <c r="MC27" s="11"/>
-      <c r="MD27" s="11"/>
-      <c r="ME27" s="11"/>
-      <c r="MF27" s="11"/>
-      <c r="MG27" s="11"/>
-      <c r="MH27" s="11"/>
-      <c r="MI27" s="11"/>
-      <c r="MJ27" s="11"/>
-      <c r="MK27" s="11"/>
-      <c r="ML27" s="11"/>
-      <c r="MM27" s="11"/>
-      <c r="MN27" s="11"/>
-      <c r="MO27" s="11"/>
-      <c r="MP27" s="11"/>
-      <c r="MQ27" s="11"/>
-      <c r="MR27" s="11"/>
-      <c r="MS27" s="11"/>
-      <c r="MT27" s="11"/>
-      <c r="MU27" s="11"/>
-      <c r="MV27" s="11"/>
-      <c r="MW27" s="11"/>
-      <c r="MX27" s="11"/>
-      <c r="MY27" s="11"/>
-      <c r="MZ27" s="11"/>
-      <c r="NA27" s="11"/>
-      <c r="NB27" s="11"/>
-      <c r="NC27" s="11"/>
-      <c r="ND27" s="11"/>
-      <c r="NE27" s="11"/>
-      <c r="NF27" s="11"/>
-      <c r="NG27" s="11"/>
-      <c r="NH27" s="11"/>
-      <c r="NI27" s="11"/>
-      <c r="NJ27" s="11"/>
-      <c r="NK27" s="11"/>
-      <c r="NL27" s="11"/>
-      <c r="NM27" s="11"/>
-      <c r="NN27" s="11"/>
-      <c r="NO27" s="11"/>
-      <c r="NP27" s="11"/>
-      <c r="NQ27" s="11"/>
-      <c r="NR27" s="11"/>
-      <c r="NS27" s="11"/>
-      <c r="NT27" s="11"/>
-      <c r="NU27" s="11"/>
-      <c r="NV27" s="11"/>
-      <c r="NW27" s="11"/>
-      <c r="NX27" s="11"/>
-      <c r="NY27" s="11"/>
-      <c r="NZ27" s="11"/>
-      <c r="OA27" s="11"/>
-      <c r="OB27" s="11"/>
-      <c r="OC27" s="11"/>
-      <c r="OD27" s="11"/>
-      <c r="OE27" s="11"/>
-      <c r="OF27" s="11"/>
-      <c r="OG27" s="11"/>
-      <c r="OH27" s="11"/>
-      <c r="OI27" s="11"/>
-      <c r="OJ27" s="11"/>
-      <c r="OK27" s="11"/>
-      <c r="OL27" s="11"/>
-      <c r="OM27" s="11"/>
-      <c r="ON27" s="11"/>
-      <c r="OO27" s="11"/>
-      <c r="OP27" s="11"/>
-      <c r="OQ27" s="11"/>
-      <c r="OR27" s="11"/>
-      <c r="OS27" s="11"/>
-      <c r="OT27" s="11"/>
-      <c r="OU27" s="11"/>
-      <c r="OV27" s="11"/>
-      <c r="OW27" s="11"/>
-      <c r="OX27" s="11"/>
-      <c r="OY27" s="11"/>
-      <c r="OZ27" s="11"/>
-      <c r="PA27" s="11"/>
-      <c r="PB27" s="11"/>
-      <c r="PC27" s="11"/>
-      <c r="PD27" s="11"/>
-      <c r="PE27" s="11"/>
-      <c r="PF27" s="11"/>
-      <c r="PG27" s="11"/>
-      <c r="PH27" s="11"/>
-      <c r="PI27" s="11"/>
-      <c r="PJ27" s="11"/>
-      <c r="PK27" s="11"/>
-      <c r="PL27" s="11"/>
-      <c r="PM27" s="11"/>
-      <c r="PN27" s="11"/>
-      <c r="PO27" s="11"/>
-      <c r="PP27" s="11"/>
-      <c r="PQ27" s="11"/>
-      <c r="PR27" s="11"/>
-      <c r="PS27" s="11"/>
-      <c r="PT27" s="11"/>
-      <c r="PU27" s="11"/>
-      <c r="PV27" s="11"/>
-      <c r="PW27" s="11"/>
-      <c r="PX27" s="11"/>
-      <c r="PY27" s="11"/>
-      <c r="PZ27" s="11"/>
-      <c r="QA27" s="11"/>
-      <c r="QB27" s="11"/>
-      <c r="QC27" s="11"/>
-      <c r="QD27" s="11"/>
-      <c r="QE27" s="11"/>
-      <c r="QF27" s="11"/>
-      <c r="QG27" s="11"/>
-      <c r="QH27" s="11"/>
-      <c r="QI27" s="11"/>
-      <c r="QJ27" s="11"/>
-      <c r="QK27" s="11"/>
-      <c r="QL27" s="11"/>
-      <c r="QM27" s="11"/>
-      <c r="QN27" s="11"/>
-      <c r="QO27" s="11"/>
-      <c r="QP27" s="11"/>
-      <c r="QQ27" s="11"/>
-      <c r="QR27" s="11"/>
-      <c r="QS27" s="11"/>
-      <c r="QT27" s="11"/>
-      <c r="QU27" s="11"/>
-      <c r="QV27" s="11"/>
-      <c r="QW27" s="11"/>
-      <c r="QX27" s="11"/>
-      <c r="QY27" s="11"/>
-      <c r="QZ27" s="11"/>
-      <c r="RA27" s="11"/>
-      <c r="RB27" s="11"/>
-      <c r="RC27" s="11"/>
-      <c r="RD27" s="11"/>
-      <c r="RE27" s="11"/>
-      <c r="RF27" s="11"/>
-      <c r="RG27" s="11"/>
-      <c r="RH27" s="11"/>
-      <c r="RI27" s="11"/>
-      <c r="RJ27" s="11"/>
-      <c r="RK27" s="11"/>
-      <c r="RL27" s="11"/>
-      <c r="RM27" s="11"/>
-      <c r="RN27" s="11"/>
-      <c r="RO27" s="11"/>
-      <c r="RP27" s="11"/>
-      <c r="RQ27" s="11"/>
-      <c r="RR27" s="11"/>
-      <c r="RS27" s="11"/>
-      <c r="RT27" s="11"/>
-      <c r="RU27" s="11"/>
-      <c r="RV27" s="11"/>
-      <c r="RW27" s="11"/>
-      <c r="RX27" s="11"/>
-      <c r="RY27" s="11"/>
-      <c r="RZ27" s="11"/>
-      <c r="SA27" s="11"/>
-      <c r="SB27" s="11"/>
-      <c r="SC27" s="11"/>
-      <c r="SD27" s="11"/>
-      <c r="SE27" s="11"/>
-      <c r="SF27" s="11"/>
-      <c r="SG27" s="11"/>
-      <c r="SH27" s="11"/>
-      <c r="SI27" s="11"/>
-      <c r="SJ27" s="11"/>
-      <c r="SK27" s="11"/>
-      <c r="SL27" s="11"/>
-      <c r="SM27" s="11"/>
-      <c r="SN27" s="11"/>
-      <c r="SO27" s="11"/>
-      <c r="SP27" s="11"/>
-      <c r="SQ27" s="11"/>
-      <c r="SR27" s="11"/>
-      <c r="SS27" s="11"/>
-      <c r="ST27" s="11"/>
-      <c r="SU27" s="11"/>
-      <c r="SV27" s="11"/>
-      <c r="SW27" s="11"/>
-      <c r="SX27" s="11"/>
-      <c r="SY27" s="11"/>
-      <c r="SZ27" s="11"/>
-      <c r="TA27" s="11"/>
-      <c r="TB27" s="11"/>
-      <c r="TC27" s="11"/>
-      <c r="TD27" s="11"/>
-      <c r="TE27" s="11"/>
-      <c r="TF27" s="11"/>
-      <c r="TG27" s="11"/>
-      <c r="TH27" s="11"/>
-      <c r="TI27" s="11"/>
-      <c r="TJ27" s="11"/>
-      <c r="TK27" s="11"/>
-      <c r="TL27" s="11"/>
-      <c r="TM27" s="11"/>
-      <c r="TN27" s="11"/>
-      <c r="TO27" s="11"/>
-      <c r="TP27" s="11"/>
-      <c r="TQ27" s="11"/>
-      <c r="TR27" s="11"/>
-      <c r="TS27" s="11"/>
-      <c r="TT27" s="11"/>
-      <c r="TU27" s="11"/>
-      <c r="TV27" s="11"/>
-      <c r="TW27" s="11"/>
-      <c r="TX27" s="11"/>
-      <c r="TY27" s="11"/>
-      <c r="TZ27" s="11"/>
-      <c r="UA27" s="11"/>
-      <c r="UB27" s="11"/>
-      <c r="UC27" s="11"/>
-      <c r="UD27" s="11"/>
-      <c r="UE27" s="11"/>
-      <c r="UF27" s="11"/>
-      <c r="UG27" s="11"/>
-      <c r="UH27" s="11"/>
-      <c r="UI27" s="11"/>
-      <c r="UJ27" s="11"/>
-      <c r="UK27" s="11"/>
-      <c r="UL27" s="11"/>
-      <c r="UM27" s="11"/>
-      <c r="UN27" s="11"/>
-      <c r="UO27" s="11"/>
-      <c r="UP27" s="11"/>
-      <c r="UQ27" s="11"/>
-      <c r="UR27" s="11"/>
-      <c r="US27" s="11"/>
-      <c r="UT27" s="11"/>
-      <c r="UU27" s="11"/>
-      <c r="UV27" s="11"/>
-      <c r="UW27" s="11"/>
-      <c r="UX27" s="11"/>
-      <c r="UY27" s="11"/>
-      <c r="UZ27" s="11"/>
-      <c r="VA27" s="11"/>
-      <c r="VB27" s="11"/>
-      <c r="VC27" s="11"/>
-      <c r="VD27" s="11"/>
-      <c r="VE27" s="11"/>
-      <c r="VF27" s="11"/>
-      <c r="VG27" s="11"/>
-      <c r="VH27" s="11"/>
-      <c r="VI27" s="11"/>
-      <c r="VJ27" s="11"/>
-      <c r="VK27" s="11"/>
-      <c r="VL27" s="11"/>
-      <c r="VM27" s="11"/>
-      <c r="VN27" s="11"/>
-      <c r="VO27" s="11"/>
-      <c r="VP27" s="11"/>
-      <c r="VQ27" s="11"/>
-      <c r="VR27" s="11"/>
-      <c r="VS27" s="11"/>
-      <c r="VT27" s="11"/>
-      <c r="VU27" s="11"/>
-      <c r="VV27" s="11"/>
-      <c r="VW27" s="11"/>
-      <c r="VX27" s="11"/>
-      <c r="VY27" s="11"/>
-      <c r="VZ27" s="11"/>
-      <c r="WA27" s="11"/>
-      <c r="WB27" s="11"/>
-      <c r="WC27" s="11"/>
-      <c r="WD27" s="11"/>
-      <c r="WE27" s="11"/>
-      <c r="WF27" s="11"/>
-      <c r="WG27" s="11"/>
-      <c r="WH27" s="11"/>
-      <c r="WI27" s="11"/>
-      <c r="WJ27" s="11"/>
-      <c r="WK27" s="11"/>
-      <c r="WL27" s="11"/>
-      <c r="WM27" s="11"/>
-      <c r="WN27" s="11"/>
-      <c r="WO27" s="11"/>
-      <c r="WP27" s="11"/>
-      <c r="WQ27" s="11"/>
-      <c r="WR27" s="11"/>
-      <c r="WS27" s="11"/>
-      <c r="WT27" s="11"/>
-      <c r="WU27" s="11"/>
-      <c r="WV27" s="11"/>
-      <c r="WW27" s="11"/>
-      <c r="WX27" s="11"/>
-      <c r="WY27" s="11"/>
-      <c r="WZ27" s="11"/>
-      <c r="XA27" s="11"/>
-      <c r="XB27" s="11"/>
-      <c r="XC27" s="11"/>
-      <c r="XD27" s="11"/>
-      <c r="XE27" s="11"/>
-      <c r="XF27" s="11"/>
-      <c r="XG27" s="11"/>
-      <c r="XH27" s="11"/>
-      <c r="XI27" s="11"/>
-      <c r="XJ27" s="11"/>
-      <c r="XK27" s="11"/>
-      <c r="XL27" s="11"/>
-      <c r="XM27" s="11"/>
-      <c r="XN27" s="11"/>
-      <c r="XO27" s="11"/>
-      <c r="XP27" s="11"/>
-      <c r="XQ27" s="11"/>
-      <c r="XR27" s="11"/>
-      <c r="XS27" s="11"/>
-      <c r="XT27" s="11"/>
-      <c r="XU27" s="11"/>
-      <c r="XV27" s="11"/>
-      <c r="XW27" s="11"/>
-      <c r="XX27" s="11"/>
-      <c r="XY27" s="11"/>
-      <c r="XZ27" s="11"/>
-      <c r="YA27" s="11"/>
-      <c r="YB27" s="11"/>
-      <c r="YC27" s="11"/>
-      <c r="YD27" s="11"/>
-      <c r="YE27" s="11"/>
-      <c r="YF27" s="11"/>
-      <c r="YG27" s="11"/>
-      <c r="YH27" s="11"/>
-      <c r="YI27" s="11"/>
-      <c r="YJ27" s="11"/>
-      <c r="YK27" s="11"/>
-      <c r="YL27" s="11"/>
-      <c r="YM27" s="11"/>
-      <c r="YN27" s="11"/>
-      <c r="YO27" s="11"/>
-      <c r="YP27" s="11"/>
-      <c r="YQ27" s="11"/>
-      <c r="YR27" s="11"/>
-      <c r="YS27" s="11"/>
-      <c r="YT27" s="11"/>
-      <c r="YU27" s="11"/>
-      <c r="YV27" s="11"/>
-      <c r="YW27" s="11"/>
-      <c r="YX27" s="11"/>
-      <c r="YY27" s="11"/>
-      <c r="YZ27" s="11"/>
-      <c r="ZA27" s="11"/>
-      <c r="ZB27" s="11"/>
-      <c r="ZC27" s="11"/>
-      <c r="ZD27" s="11"/>
-      <c r="ZE27" s="11"/>
-      <c r="ZF27" s="11"/>
-      <c r="ZG27" s="11"/>
-      <c r="ZH27" s="11"/>
-      <c r="ZI27" s="11"/>
-      <c r="ZJ27" s="11"/>
-      <c r="ZK27" s="11"/>
-      <c r="ZL27" s="11"/>
-      <c r="ZM27" s="11"/>
-      <c r="ZN27" s="11"/>
-      <c r="ZO27" s="11"/>
-      <c r="ZP27" s="11"/>
-      <c r="ZQ27" s="11"/>
-      <c r="ZR27" s="11"/>
-      <c r="ZS27" s="11"/>
-      <c r="ZT27" s="11"/>
-      <c r="ZU27" s="11"/>
-      <c r="ZV27" s="11"/>
-      <c r="ZW27" s="11"/>
-      <c r="ZX27" s="11"/>
-      <c r="ZY27" s="11"/>
-      <c r="ZZ27" s="11"/>
-      <c r="AAA27" s="11"/>
-      <c r="AAB27" s="11"/>
-      <c r="AAC27" s="11"/>
-      <c r="AAD27" s="11"/>
-      <c r="AAE27" s="11"/>
-      <c r="AAF27" s="11"/>
-      <c r="AAG27" s="11"/>
-      <c r="AAH27" s="11"/>
-      <c r="AAI27" s="11"/>
-      <c r="AAJ27" s="11"/>
-      <c r="AAK27" s="11"/>
-      <c r="AAL27" s="11"/>
-      <c r="AAM27" s="11"/>
-      <c r="AAN27" s="11"/>
-      <c r="AAO27" s="11"/>
-      <c r="AAP27" s="11"/>
-      <c r="AAQ27" s="11"/>
-      <c r="AAR27" s="11"/>
-      <c r="AAS27" s="11"/>
-      <c r="AAT27" s="11"/>
-      <c r="AAU27" s="11"/>
-      <c r="AAV27" s="11"/>
-      <c r="AAW27" s="11"/>
-      <c r="AAX27" s="11"/>
-      <c r="AAY27" s="11"/>
-      <c r="AAZ27" s="11"/>
-      <c r="ABA27" s="11"/>
-      <c r="ABB27" s="11"/>
-      <c r="ABC27" s="11"/>
-      <c r="ABD27" s="11"/>
-      <c r="ABE27" s="11"/>
-      <c r="ABF27" s="11"/>
-      <c r="ABG27" s="11"/>
-      <c r="ABH27" s="11"/>
-      <c r="ABI27" s="11"/>
-      <c r="ABJ27" s="11"/>
-      <c r="ABK27" s="11"/>
-      <c r="ABL27" s="11"/>
-      <c r="ABM27" s="11"/>
-      <c r="ABN27" s="11"/>
-      <c r="ABO27" s="11"/>
-      <c r="ABP27" s="11"/>
-      <c r="ABQ27" s="11"/>
-      <c r="ABR27" s="11"/>
-      <c r="ABS27" s="11"/>
-      <c r="ABT27" s="11"/>
-      <c r="ABU27" s="11"/>
-      <c r="ABV27" s="11"/>
-      <c r="ABW27" s="11"/>
-      <c r="ABX27" s="11"/>
-      <c r="ABY27" s="11"/>
-      <c r="ABZ27" s="11"/>
-      <c r="ACA27" s="11"/>
-      <c r="ACB27" s="11"/>
-      <c r="ACC27" s="11"/>
-      <c r="ACD27" s="11"/>
-      <c r="ACE27" s="11"/>
-      <c r="ACF27" s="11"/>
-      <c r="ACG27" s="11"/>
-      <c r="ACH27" s="11"/>
-      <c r="ACI27" s="11"/>
-      <c r="ACJ27" s="11"/>
-      <c r="ACK27" s="11"/>
-      <c r="ACL27" s="11"/>
-      <c r="ACM27" s="11"/>
-      <c r="ACN27" s="11"/>
-      <c r="ACO27" s="11"/>
-      <c r="ACP27" s="11"/>
-      <c r="ACQ27" s="11"/>
-      <c r="ACR27" s="11"/>
-      <c r="ACS27" s="11"/>
-      <c r="ACT27" s="11"/>
-      <c r="ACU27" s="11"/>
-      <c r="ACV27" s="11"/>
-      <c r="ACW27" s="11"/>
-      <c r="ACX27" s="11"/>
-      <c r="ACY27" s="11"/>
-      <c r="ACZ27" s="11"/>
-      <c r="ADA27" s="11"/>
-      <c r="ADB27" s="11"/>
-      <c r="ADC27" s="11"/>
-      <c r="ADD27" s="11"/>
-      <c r="ADE27" s="11"/>
-      <c r="ADF27" s="11"/>
-      <c r="ADG27" s="11"/>
-      <c r="ADH27" s="11"/>
-      <c r="ADI27" s="11"/>
-      <c r="ADJ27" s="11"/>
-      <c r="ADK27" s="11"/>
-      <c r="ADL27" s="11"/>
-      <c r="ADM27" s="11"/>
-      <c r="ADN27" s="11"/>
-      <c r="ADO27" s="11"/>
-      <c r="ADP27" s="11"/>
-      <c r="ADQ27" s="11"/>
-      <c r="ADR27" s="11"/>
-      <c r="ADS27" s="11"/>
-      <c r="ADT27" s="11"/>
-      <c r="ADU27" s="11"/>
-      <c r="ADV27" s="11"/>
-      <c r="ADW27" s="11"/>
-      <c r="ADX27" s="11"/>
-      <c r="ADY27" s="11"/>
-      <c r="ADZ27" s="11"/>
-      <c r="AEA27" s="11"/>
-      <c r="AEB27" s="11"/>
-      <c r="AEC27" s="11"/>
-      <c r="AED27" s="11"/>
-      <c r="AEE27" s="11"/>
-      <c r="AEF27" s="11"/>
-      <c r="AEG27" s="11"/>
-      <c r="AEH27" s="11"/>
-      <c r="AEI27" s="11"/>
-      <c r="AEJ27" s="11"/>
-      <c r="AEK27" s="11"/>
-      <c r="AEL27" s="11"/>
-      <c r="AEM27" s="11"/>
-      <c r="AEN27" s="11"/>
-      <c r="AEO27" s="11"/>
-      <c r="AEP27" s="11"/>
-      <c r="AEQ27" s="11"/>
-      <c r="AER27" s="11"/>
-      <c r="AES27" s="11"/>
-      <c r="AET27" s="11"/>
-      <c r="AEU27" s="11"/>
-      <c r="AEV27" s="11"/>
-      <c r="AEW27" s="11"/>
-      <c r="AEX27" s="11"/>
-      <c r="AEY27" s="11"/>
-      <c r="AEZ27" s="11"/>
-      <c r="AFA27" s="11"/>
-      <c r="AFB27" s="11"/>
-      <c r="AFC27" s="11"/>
-      <c r="AFD27" s="11"/>
-      <c r="AFE27" s="11"/>
-      <c r="AFF27" s="11"/>
-      <c r="AFG27" s="11"/>
-      <c r="AFH27" s="11"/>
-      <c r="AFI27" s="11"/>
-      <c r="AFJ27" s="11"/>
-      <c r="AFK27" s="11"/>
-      <c r="AFL27" s="11"/>
-      <c r="AFM27" s="11"/>
-      <c r="AFN27" s="11"/>
-      <c r="AFO27" s="11"/>
-      <c r="AFP27" s="11"/>
-      <c r="AFQ27" s="11"/>
-      <c r="AFR27" s="11"/>
-      <c r="AFS27" s="11"/>
-      <c r="AFT27" s="11"/>
-      <c r="AFU27" s="11"/>
-      <c r="AFV27" s="11"/>
-      <c r="AFW27" s="11"/>
-      <c r="AFX27" s="11"/>
-      <c r="AFY27" s="11"/>
-      <c r="AFZ27" s="11"/>
-      <c r="AGA27" s="11"/>
-      <c r="AGB27" s="11"/>
-      <c r="AGC27" s="11"/>
-      <c r="AGD27" s="11"/>
-      <c r="AGE27" s="11"/>
-      <c r="AGF27" s="11"/>
-      <c r="AGG27" s="11"/>
-      <c r="AGH27" s="11"/>
-      <c r="AGI27" s="11"/>
-      <c r="AGJ27" s="11"/>
-      <c r="AGK27" s="11"/>
-      <c r="AGL27" s="11"/>
-      <c r="AGM27" s="11"/>
-      <c r="AGN27" s="11"/>
-      <c r="AGO27" s="11"/>
-      <c r="AGP27" s="11"/>
-      <c r="AGQ27" s="11"/>
-      <c r="AGR27" s="11"/>
-      <c r="AGS27" s="11"/>
-      <c r="AGT27" s="11"/>
-      <c r="AGU27" s="11"/>
-      <c r="AGV27" s="11"/>
-      <c r="AGW27" s="11"/>
-      <c r="AGX27" s="11"/>
-      <c r="AGY27" s="11"/>
-      <c r="AGZ27" s="11"/>
-      <c r="AHA27" s="11"/>
-      <c r="AHB27" s="11"/>
-      <c r="AHC27" s="11"/>
-      <c r="AHD27" s="11"/>
-      <c r="AHE27" s="11"/>
-      <c r="AHF27" s="11"/>
-      <c r="AHG27" s="11"/>
-      <c r="AHH27" s="11"/>
-      <c r="AHI27" s="11"/>
-      <c r="AHJ27" s="11"/>
-      <c r="AHK27" s="11"/>
-      <c r="AHL27" s="11"/>
-      <c r="AHM27" s="11"/>
-      <c r="AHN27" s="11"/>
-      <c r="AHO27" s="11"/>
-      <c r="AHP27" s="11"/>
-      <c r="AHQ27" s="11"/>
-      <c r="AHR27" s="11"/>
-      <c r="AHS27" s="11"/>
-      <c r="AHT27" s="11"/>
-      <c r="AHU27" s="11"/>
-      <c r="AHV27" s="11"/>
-      <c r="AHW27" s="11"/>
-      <c r="AHX27" s="11"/>
-      <c r="AHY27" s="11"/>
-      <c r="AHZ27" s="11"/>
-      <c r="AIA27" s="11"/>
-      <c r="AIB27" s="11"/>
-      <c r="AIC27" s="11"/>
-      <c r="AID27" s="11"/>
-      <c r="AIE27" s="11"/>
-      <c r="AIF27" s="11"/>
-      <c r="AIG27" s="11"/>
-      <c r="AIH27" s="11"/>
-      <c r="AII27" s="11"/>
-      <c r="AIJ27" s="11"/>
-      <c r="AIK27" s="11"/>
-      <c r="AIL27" s="11"/>
-      <c r="AIM27" s="11"/>
-      <c r="AIN27" s="11"/>
-      <c r="AIO27" s="11"/>
-      <c r="AIP27" s="11"/>
-      <c r="AIQ27" s="11"/>
-      <c r="AIR27" s="11"/>
-      <c r="AIS27" s="11"/>
-      <c r="AIT27" s="11"/>
-      <c r="AIU27" s="11"/>
-      <c r="AIV27" s="11"/>
-      <c r="AIW27" s="11"/>
-      <c r="AIX27" s="11"/>
-      <c r="AIY27" s="11"/>
-      <c r="AIZ27" s="11"/>
-      <c r="AJA27" s="11"/>
-      <c r="AJB27" s="11"/>
-      <c r="AJC27" s="11"/>
-      <c r="AJD27" s="11"/>
-      <c r="AJE27" s="11"/>
-      <c r="AJF27" s="11"/>
-      <c r="AJG27" s="11"/>
-      <c r="AJH27" s="11"/>
-      <c r="AJI27" s="11"/>
-      <c r="AJJ27" s="11"/>
-      <c r="AJK27" s="11"/>
-      <c r="AJL27" s="11"/>
-      <c r="AJM27" s="11"/>
-      <c r="AJN27" s="11"/>
-      <c r="AJO27" s="11"/>
-      <c r="AJP27" s="11"/>
-      <c r="AJQ27" s="11"/>
-      <c r="AJR27" s="11"/>
-      <c r="AJS27" s="11"/>
-      <c r="AJT27" s="11"/>
-      <c r="AJU27" s="11"/>
-      <c r="AJV27" s="11"/>
-      <c r="AJW27" s="11"/>
-      <c r="AJX27" s="11"/>
-      <c r="AJY27" s="11"/>
-      <c r="AJZ27" s="11"/>
-      <c r="AKA27" s="11"/>
-      <c r="AKB27" s="11"/>
-      <c r="AKC27" s="11"/>
-      <c r="AKD27" s="11"/>
-      <c r="AKE27" s="11"/>
-      <c r="AKF27" s="11"/>
-      <c r="AKG27" s="11"/>
-      <c r="AKH27" s="11"/>
-      <c r="AKI27" s="11"/>
-      <c r="AKJ27" s="11"/>
-      <c r="AKK27" s="11"/>
-      <c r="AKL27" s="11"/>
-      <c r="AKM27" s="11"/>
-      <c r="AKN27" s="11"/>
-      <c r="AKO27" s="11"/>
-      <c r="AKP27" s="11"/>
-      <c r="AKQ27" s="11"/>
-      <c r="AKR27" s="11"/>
-      <c r="AKS27" s="11"/>
-      <c r="AKT27" s="11"/>
-      <c r="AKU27" s="11"/>
-      <c r="AKV27" s="11"/>
-      <c r="AKW27" s="11"/>
-      <c r="AKX27" s="11"/>
-      <c r="AKY27" s="11"/>
-      <c r="AKZ27" s="11"/>
-      <c r="ALA27" s="11"/>
-      <c r="ALB27" s="11"/>
-      <c r="ALC27" s="11"/>
-      <c r="ALD27" s="11"/>
-      <c r="ALE27" s="11"/>
-      <c r="ALF27" s="11"/>
-      <c r="ALG27" s="11"/>
-      <c r="ALH27" s="11"/>
-      <c r="ALI27" s="11"/>
-      <c r="ALJ27" s="11"/>
-      <c r="ALK27" s="11"/>
-      <c r="ALL27" s="11"/>
-      <c r="ALM27" s="11"/>
-      <c r="ALN27" s="11"/>
-      <c r="ALO27" s="11"/>
-      <c r="ALP27" s="11"/>
-      <c r="ALQ27" s="11"/>
-      <c r="ALR27" s="11"/>
-      <c r="ALS27" s="11"/>
-      <c r="ALT27" s="11"/>
-      <c r="ALU27" s="11"/>
-      <c r="ALV27" s="11"/>
-      <c r="ALW27" s="11"/>
-      <c r="ALX27" s="11"/>
-      <c r="ALY27" s="11"/>
-      <c r="ALZ27" s="11"/>
-      <c r="AMA27" s="11"/>
-      <c r="AMB27" s="11"/>
-      <c r="AMC27" s="11"/>
-      <c r="AMD27" s="11"/>
-      <c r="AME27" s="11"/>
-      <c r="AMF27" s="11"/>
-      <c r="AMG27" s="11"/>
-      <c r="AMH27" s="11"/>
-      <c r="AMI27" s="11"/>
-      <c r="AMJ27" s="11"/>
-      <c r="AMK27" s="11"/>
-      <c r="AML27" s="11"/>
-    </row>
-    <row r="28" spans="1:1026" ht="30">
-      <c r="A28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="11"/>
+      <c r="BH28" s="11"/>
+      <c r="BI28" s="11"/>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="11"/>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="11"/>
+      <c r="BN28" s="11"/>
+      <c r="BO28" s="11"/>
+      <c r="BP28" s="11"/>
+      <c r="BQ28" s="11"/>
+      <c r="BR28" s="11"/>
+      <c r="BS28" s="11"/>
+      <c r="BT28" s="11"/>
+      <c r="BU28" s="11"/>
+      <c r="BV28" s="11"/>
+      <c r="BW28" s="11"/>
+      <c r="BX28" s="11"/>
+      <c r="BY28" s="11"/>
+      <c r="BZ28" s="11"/>
+      <c r="CA28" s="11"/>
+      <c r="CB28" s="11"/>
+      <c r="CC28" s="11"/>
+      <c r="CD28" s="11"/>
+      <c r="CE28" s="11"/>
+      <c r="CF28" s="11"/>
+      <c r="CG28" s="11"/>
+      <c r="CH28" s="11"/>
+      <c r="CI28" s="11"/>
+      <c r="CJ28" s="11"/>
+      <c r="CK28" s="11"/>
+      <c r="CL28" s="11"/>
+      <c r="CM28" s="11"/>
+      <c r="CN28" s="11"/>
+      <c r="CO28" s="11"/>
+      <c r="CP28" s="11"/>
+      <c r="CQ28" s="11"/>
+      <c r="CR28" s="11"/>
+      <c r="CS28" s="11"/>
+      <c r="CT28" s="11"/>
+      <c r="CU28" s="11"/>
+      <c r="CV28" s="11"/>
+      <c r="CW28" s="11"/>
+      <c r="CX28" s="11"/>
+      <c r="CY28" s="11"/>
+      <c r="CZ28" s="11"/>
+      <c r="DA28" s="11"/>
+      <c r="DB28" s="11"/>
+      <c r="DC28" s="11"/>
+      <c r="DD28" s="11"/>
+      <c r="DE28" s="11"/>
+      <c r="DF28" s="11"/>
+      <c r="DG28" s="11"/>
+      <c r="DH28" s="11"/>
+      <c r="DI28" s="11"/>
+      <c r="DJ28" s="11"/>
+      <c r="DK28" s="11"/>
+      <c r="DL28" s="11"/>
+      <c r="DM28" s="11"/>
+      <c r="DN28" s="11"/>
+      <c r="DO28" s="11"/>
+      <c r="DP28" s="11"/>
+      <c r="DQ28" s="11"/>
+      <c r="DR28" s="11"/>
+      <c r="DS28" s="11"/>
+      <c r="DT28" s="11"/>
+      <c r="DU28" s="11"/>
+      <c r="DV28" s="11"/>
+      <c r="DW28" s="11"/>
+      <c r="DX28" s="11"/>
+      <c r="DY28" s="11"/>
+      <c r="DZ28" s="11"/>
+      <c r="EA28" s="11"/>
+      <c r="EB28" s="11"/>
+      <c r="EC28" s="11"/>
+      <c r="ED28" s="11"/>
+      <c r="EE28" s="11"/>
+      <c r="EF28" s="11"/>
+      <c r="EG28" s="11"/>
+      <c r="EH28" s="11"/>
+      <c r="EI28" s="11"/>
+      <c r="EJ28" s="11"/>
+      <c r="EK28" s="11"/>
+      <c r="EL28" s="11"/>
+      <c r="EM28" s="11"/>
+      <c r="EN28" s="11"/>
+      <c r="EO28" s="11"/>
+      <c r="EP28" s="11"/>
+      <c r="EQ28" s="11"/>
+      <c r="ER28" s="11"/>
+      <c r="ES28" s="11"/>
+      <c r="ET28" s="11"/>
+      <c r="EU28" s="11"/>
+      <c r="EV28" s="11"/>
+      <c r="EW28" s="11"/>
+      <c r="EX28" s="11"/>
+      <c r="EY28" s="11"/>
+      <c r="EZ28" s="11"/>
+      <c r="FA28" s="11"/>
+      <c r="FB28" s="11"/>
+      <c r="FC28" s="11"/>
+      <c r="FD28" s="11"/>
+      <c r="FE28" s="11"/>
+      <c r="FF28" s="11"/>
+      <c r="FG28" s="11"/>
+      <c r="FH28" s="11"/>
+      <c r="FI28" s="11"/>
+      <c r="FJ28" s="11"/>
+      <c r="FK28" s="11"/>
+      <c r="FL28" s="11"/>
+      <c r="FM28" s="11"/>
+      <c r="FN28" s="11"/>
+      <c r="FO28" s="11"/>
+      <c r="FP28" s="11"/>
+      <c r="FQ28" s="11"/>
+      <c r="FR28" s="11"/>
+      <c r="FS28" s="11"/>
+      <c r="FT28" s="11"/>
+      <c r="FU28" s="11"/>
+      <c r="FV28" s="11"/>
+      <c r="FW28" s="11"/>
+      <c r="FX28" s="11"/>
+      <c r="FY28" s="11"/>
+      <c r="FZ28" s="11"/>
+      <c r="GA28" s="11"/>
+      <c r="GB28" s="11"/>
+      <c r="GC28" s="11"/>
+      <c r="GD28" s="11"/>
+      <c r="GE28" s="11"/>
+      <c r="GF28" s="11"/>
+      <c r="GG28" s="11"/>
+      <c r="GH28" s="11"/>
+      <c r="GI28" s="11"/>
+      <c r="GJ28" s="11"/>
+      <c r="GK28" s="11"/>
+      <c r="GL28" s="11"/>
+      <c r="GM28" s="11"/>
+      <c r="GN28" s="11"/>
+      <c r="GO28" s="11"/>
+      <c r="GP28" s="11"/>
+      <c r="GQ28" s="11"/>
+      <c r="GR28" s="11"/>
+      <c r="GS28" s="11"/>
+      <c r="GT28" s="11"/>
+      <c r="GU28" s="11"/>
+      <c r="GV28" s="11"/>
+      <c r="GW28" s="11"/>
+      <c r="GX28" s="11"/>
+      <c r="GY28" s="11"/>
+      <c r="GZ28" s="11"/>
+      <c r="HA28" s="11"/>
+      <c r="HB28" s="11"/>
+      <c r="HC28" s="11"/>
+      <c r="HD28" s="11"/>
+      <c r="HE28" s="11"/>
+      <c r="HF28" s="11"/>
+      <c r="HG28" s="11"/>
+      <c r="HH28" s="11"/>
+      <c r="HI28" s="11"/>
+      <c r="HJ28" s="11"/>
+      <c r="HK28" s="11"/>
+      <c r="HL28" s="11"/>
+      <c r="HM28" s="11"/>
+      <c r="HN28" s="11"/>
+      <c r="HO28" s="11"/>
+      <c r="HP28" s="11"/>
+      <c r="HQ28" s="11"/>
+      <c r="HR28" s="11"/>
+      <c r="HS28" s="11"/>
+      <c r="HT28" s="11"/>
+      <c r="HU28" s="11"/>
+      <c r="HV28" s="11"/>
+      <c r="HW28" s="11"/>
+      <c r="HX28" s="11"/>
+      <c r="HY28" s="11"/>
+      <c r="HZ28" s="11"/>
+      <c r="IA28" s="11"/>
+      <c r="IB28" s="11"/>
+      <c r="IC28" s="11"/>
+      <c r="ID28" s="11"/>
+      <c r="IE28" s="11"/>
+      <c r="IF28" s="11"/>
+      <c r="IG28" s="11"/>
+      <c r="IH28" s="11"/>
+      <c r="II28" s="11"/>
+      <c r="IJ28" s="11"/>
+      <c r="IK28" s="11"/>
+      <c r="IL28" s="11"/>
+      <c r="IM28" s="11"/>
+      <c r="IN28" s="11"/>
+      <c r="IO28" s="11"/>
+      <c r="IP28" s="11"/>
+      <c r="IQ28" s="11"/>
+      <c r="IR28" s="11"/>
+      <c r="IS28" s="11"/>
+      <c r="IT28" s="11"/>
+      <c r="IU28" s="11"/>
+      <c r="IV28" s="11"/>
+      <c r="IW28" s="11"/>
+      <c r="IX28" s="11"/>
+      <c r="IY28" s="11"/>
+      <c r="IZ28" s="11"/>
+      <c r="JA28" s="11"/>
+      <c r="JB28" s="11"/>
+      <c r="JC28" s="11"/>
+      <c r="JD28" s="11"/>
+      <c r="JE28" s="11"/>
+      <c r="JF28" s="11"/>
+      <c r="JG28" s="11"/>
+      <c r="JH28" s="11"/>
+      <c r="JI28" s="11"/>
+      <c r="JJ28" s="11"/>
+      <c r="JK28" s="11"/>
+      <c r="JL28" s="11"/>
+      <c r="JM28" s="11"/>
+      <c r="JN28" s="11"/>
+      <c r="JO28" s="11"/>
+      <c r="JP28" s="11"/>
+      <c r="JQ28" s="11"/>
+      <c r="JR28" s="11"/>
+      <c r="JS28" s="11"/>
+      <c r="JT28" s="11"/>
+      <c r="JU28" s="11"/>
+      <c r="JV28" s="11"/>
+      <c r="JW28" s="11"/>
+      <c r="JX28" s="11"/>
+      <c r="JY28" s="11"/>
+      <c r="JZ28" s="11"/>
+      <c r="KA28" s="11"/>
+      <c r="KB28" s="11"/>
+      <c r="KC28" s="11"/>
+      <c r="KD28" s="11"/>
+      <c r="KE28" s="11"/>
+      <c r="KF28" s="11"/>
+      <c r="KG28" s="11"/>
+      <c r="KH28" s="11"/>
+      <c r="KI28" s="11"/>
+      <c r="KJ28" s="11"/>
+      <c r="KK28" s="11"/>
+      <c r="KL28" s="11"/>
+      <c r="KM28" s="11"/>
+      <c r="KN28" s="11"/>
+      <c r="KO28" s="11"/>
+      <c r="KP28" s="11"/>
+      <c r="KQ28" s="11"/>
+      <c r="KR28" s="11"/>
+      <c r="KS28" s="11"/>
+      <c r="KT28" s="11"/>
+      <c r="KU28" s="11"/>
+      <c r="KV28" s="11"/>
+      <c r="KW28" s="11"/>
+      <c r="KX28" s="11"/>
+      <c r="KY28" s="11"/>
+      <c r="KZ28" s="11"/>
+      <c r="LA28" s="11"/>
+      <c r="LB28" s="11"/>
+      <c r="LC28" s="11"/>
+      <c r="LD28" s="11"/>
+      <c r="LE28" s="11"/>
+      <c r="LF28" s="11"/>
+      <c r="LG28" s="11"/>
+      <c r="LH28" s="11"/>
+      <c r="LI28" s="11"/>
+      <c r="LJ28" s="11"/>
+      <c r="LK28" s="11"/>
+      <c r="LL28" s="11"/>
+      <c r="LM28" s="11"/>
+      <c r="LN28" s="11"/>
+      <c r="LO28" s="11"/>
+      <c r="LP28" s="11"/>
+      <c r="LQ28" s="11"/>
+      <c r="LR28" s="11"/>
+      <c r="LS28" s="11"/>
+      <c r="LT28" s="11"/>
+      <c r="LU28" s="11"/>
+      <c r="LV28" s="11"/>
+      <c r="LW28" s="11"/>
+      <c r="LX28" s="11"/>
+      <c r="LY28" s="11"/>
+      <c r="LZ28" s="11"/>
+      <c r="MA28" s="11"/>
+      <c r="MB28" s="11"/>
+      <c r="MC28" s="11"/>
+      <c r="MD28" s="11"/>
+      <c r="ME28" s="11"/>
+      <c r="MF28" s="11"/>
+      <c r="MG28" s="11"/>
+      <c r="MH28" s="11"/>
+      <c r="MI28" s="11"/>
+      <c r="MJ28" s="11"/>
+      <c r="MK28" s="11"/>
+      <c r="ML28" s="11"/>
+      <c r="MM28" s="11"/>
+      <c r="MN28" s="11"/>
+      <c r="MO28" s="11"/>
+      <c r="MP28" s="11"/>
+      <c r="MQ28" s="11"/>
+      <c r="MR28" s="11"/>
+      <c r="MS28" s="11"/>
+      <c r="MT28" s="11"/>
+      <c r="MU28" s="11"/>
+      <c r="MV28" s="11"/>
+      <c r="MW28" s="11"/>
+      <c r="MX28" s="11"/>
+      <c r="MY28" s="11"/>
+      <c r="MZ28" s="11"/>
+      <c r="NA28" s="11"/>
+      <c r="NB28" s="11"/>
+      <c r="NC28" s="11"/>
+      <c r="ND28" s="11"/>
+      <c r="NE28" s="11"/>
+      <c r="NF28" s="11"/>
+      <c r="NG28" s="11"/>
+      <c r="NH28" s="11"/>
+      <c r="NI28" s="11"/>
+      <c r="NJ28" s="11"/>
+      <c r="NK28" s="11"/>
+      <c r="NL28" s="11"/>
+      <c r="NM28" s="11"/>
+      <c r="NN28" s="11"/>
+      <c r="NO28" s="11"/>
+      <c r="NP28" s="11"/>
+      <c r="NQ28" s="11"/>
+      <c r="NR28" s="11"/>
+      <c r="NS28" s="11"/>
+      <c r="NT28" s="11"/>
+      <c r="NU28" s="11"/>
+      <c r="NV28" s="11"/>
+      <c r="NW28" s="11"/>
+      <c r="NX28" s="11"/>
+      <c r="NY28" s="11"/>
+      <c r="NZ28" s="11"/>
+      <c r="OA28" s="11"/>
+      <c r="OB28" s="11"/>
+      <c r="OC28" s="11"/>
+      <c r="OD28" s="11"/>
+      <c r="OE28" s="11"/>
+      <c r="OF28" s="11"/>
+      <c r="OG28" s="11"/>
+      <c r="OH28" s="11"/>
+      <c r="OI28" s="11"/>
+      <c r="OJ28" s="11"/>
+      <c r="OK28" s="11"/>
+      <c r="OL28" s="11"/>
+      <c r="OM28" s="11"/>
+      <c r="ON28" s="11"/>
+      <c r="OO28" s="11"/>
+      <c r="OP28" s="11"/>
+      <c r="OQ28" s="11"/>
+      <c r="OR28" s="11"/>
+      <c r="OS28" s="11"/>
+      <c r="OT28" s="11"/>
+      <c r="OU28" s="11"/>
+      <c r="OV28" s="11"/>
+      <c r="OW28" s="11"/>
+      <c r="OX28" s="11"/>
+      <c r="OY28" s="11"/>
+      <c r="OZ28" s="11"/>
+      <c r="PA28" s="11"/>
+      <c r="PB28" s="11"/>
+      <c r="PC28" s="11"/>
+      <c r="PD28" s="11"/>
+      <c r="PE28" s="11"/>
+      <c r="PF28" s="11"/>
+      <c r="PG28" s="11"/>
+      <c r="PH28" s="11"/>
+      <c r="PI28" s="11"/>
+      <c r="PJ28" s="11"/>
+      <c r="PK28" s="11"/>
+      <c r="PL28" s="11"/>
+      <c r="PM28" s="11"/>
+      <c r="PN28" s="11"/>
+      <c r="PO28" s="11"/>
+      <c r="PP28" s="11"/>
+      <c r="PQ28" s="11"/>
+      <c r="PR28" s="11"/>
+      <c r="PS28" s="11"/>
+      <c r="PT28" s="11"/>
+      <c r="PU28" s="11"/>
+      <c r="PV28" s="11"/>
+      <c r="PW28" s="11"/>
+      <c r="PX28" s="11"/>
+      <c r="PY28" s="11"/>
+      <c r="PZ28" s="11"/>
+      <c r="QA28" s="11"/>
+      <c r="QB28" s="11"/>
+      <c r="QC28" s="11"/>
+      <c r="QD28" s="11"/>
+      <c r="QE28" s="11"/>
+      <c r="QF28" s="11"/>
+      <c r="QG28" s="11"/>
+      <c r="QH28" s="11"/>
+      <c r="QI28" s="11"/>
+      <c r="QJ28" s="11"/>
+      <c r="QK28" s="11"/>
+      <c r="QL28" s="11"/>
+      <c r="QM28" s="11"/>
+      <c r="QN28" s="11"/>
+      <c r="QO28" s="11"/>
+      <c r="QP28" s="11"/>
+      <c r="QQ28" s="11"/>
+      <c r="QR28" s="11"/>
+      <c r="QS28" s="11"/>
+      <c r="QT28" s="11"/>
+      <c r="QU28" s="11"/>
+      <c r="QV28" s="11"/>
+      <c r="QW28" s="11"/>
+      <c r="QX28" s="11"/>
+      <c r="QY28" s="11"/>
+      <c r="QZ28" s="11"/>
+      <c r="RA28" s="11"/>
+      <c r="RB28" s="11"/>
+      <c r="RC28" s="11"/>
+      <c r="RD28" s="11"/>
+      <c r="RE28" s="11"/>
+      <c r="RF28" s="11"/>
+      <c r="RG28" s="11"/>
+      <c r="RH28" s="11"/>
+      <c r="RI28" s="11"/>
+      <c r="RJ28" s="11"/>
+      <c r="RK28" s="11"/>
+      <c r="RL28" s="11"/>
+      <c r="RM28" s="11"/>
+      <c r="RN28" s="11"/>
+      <c r="RO28" s="11"/>
+      <c r="RP28" s="11"/>
+      <c r="RQ28" s="11"/>
+      <c r="RR28" s="11"/>
+      <c r="RS28" s="11"/>
+      <c r="RT28" s="11"/>
+      <c r="RU28" s="11"/>
+      <c r="RV28" s="11"/>
+      <c r="RW28" s="11"/>
+      <c r="RX28" s="11"/>
+      <c r="RY28" s="11"/>
+      <c r="RZ28" s="11"/>
+      <c r="SA28" s="11"/>
+      <c r="SB28" s="11"/>
+      <c r="SC28" s="11"/>
+      <c r="SD28" s="11"/>
+      <c r="SE28" s="11"/>
+      <c r="SF28" s="11"/>
+      <c r="SG28" s="11"/>
+      <c r="SH28" s="11"/>
+      <c r="SI28" s="11"/>
+      <c r="SJ28" s="11"/>
+      <c r="SK28" s="11"/>
+      <c r="SL28" s="11"/>
+      <c r="SM28" s="11"/>
+      <c r="SN28" s="11"/>
+      <c r="SO28" s="11"/>
+      <c r="SP28" s="11"/>
+      <c r="SQ28" s="11"/>
+      <c r="SR28" s="11"/>
+      <c r="SS28" s="11"/>
+      <c r="ST28" s="11"/>
+      <c r="SU28" s="11"/>
+      <c r="SV28" s="11"/>
+      <c r="SW28" s="11"/>
+      <c r="SX28" s="11"/>
+      <c r="SY28" s="11"/>
+      <c r="SZ28" s="11"/>
+      <c r="TA28" s="11"/>
+      <c r="TB28" s="11"/>
+      <c r="TC28" s="11"/>
+      <c r="TD28" s="11"/>
+      <c r="TE28" s="11"/>
+      <c r="TF28" s="11"/>
+      <c r="TG28" s="11"/>
+      <c r="TH28" s="11"/>
+      <c r="TI28" s="11"/>
+      <c r="TJ28" s="11"/>
+      <c r="TK28" s="11"/>
+      <c r="TL28" s="11"/>
+      <c r="TM28" s="11"/>
+      <c r="TN28" s="11"/>
+      <c r="TO28" s="11"/>
+      <c r="TP28" s="11"/>
+      <c r="TQ28" s="11"/>
+      <c r="TR28" s="11"/>
+      <c r="TS28" s="11"/>
+      <c r="TT28" s="11"/>
+      <c r="TU28" s="11"/>
+      <c r="TV28" s="11"/>
+      <c r="TW28" s="11"/>
+      <c r="TX28" s="11"/>
+      <c r="TY28" s="11"/>
+      <c r="TZ28" s="11"/>
+      <c r="UA28" s="11"/>
+      <c r="UB28" s="11"/>
+      <c r="UC28" s="11"/>
+      <c r="UD28" s="11"/>
+      <c r="UE28" s="11"/>
+      <c r="UF28" s="11"/>
+      <c r="UG28" s="11"/>
+      <c r="UH28" s="11"/>
+      <c r="UI28" s="11"/>
+      <c r="UJ28" s="11"/>
+      <c r="UK28" s="11"/>
+      <c r="UL28" s="11"/>
+      <c r="UM28" s="11"/>
+      <c r="UN28" s="11"/>
+      <c r="UO28" s="11"/>
+      <c r="UP28" s="11"/>
+      <c r="UQ28" s="11"/>
+      <c r="UR28" s="11"/>
+      <c r="US28" s="11"/>
+      <c r="UT28" s="11"/>
+      <c r="UU28" s="11"/>
+      <c r="UV28" s="11"/>
+      <c r="UW28" s="11"/>
+      <c r="UX28" s="11"/>
+      <c r="UY28" s="11"/>
+      <c r="UZ28" s="11"/>
+      <c r="VA28" s="11"/>
+      <c r="VB28" s="11"/>
+      <c r="VC28" s="11"/>
+      <c r="VD28" s="11"/>
+      <c r="VE28" s="11"/>
+      <c r="VF28" s="11"/>
+      <c r="VG28" s="11"/>
+      <c r="VH28" s="11"/>
+      <c r="VI28" s="11"/>
+      <c r="VJ28" s="11"/>
+      <c r="VK28" s="11"/>
+      <c r="VL28" s="11"/>
+      <c r="VM28" s="11"/>
+      <c r="VN28" s="11"/>
+      <c r="VO28" s="11"/>
+      <c r="VP28" s="11"/>
+      <c r="VQ28" s="11"/>
+      <c r="VR28" s="11"/>
+      <c r="VS28" s="11"/>
+      <c r="VT28" s="11"/>
+      <c r="VU28" s="11"/>
+      <c r="VV28" s="11"/>
+      <c r="VW28" s="11"/>
+      <c r="VX28" s="11"/>
+      <c r="VY28" s="11"/>
+      <c r="VZ28" s="11"/>
+      <c r="WA28" s="11"/>
+      <c r="WB28" s="11"/>
+      <c r="WC28" s="11"/>
+      <c r="WD28" s="11"/>
+      <c r="WE28" s="11"/>
+      <c r="WF28" s="11"/>
+      <c r="WG28" s="11"/>
+      <c r="WH28" s="11"/>
+      <c r="WI28" s="11"/>
+      <c r="WJ28" s="11"/>
+      <c r="WK28" s="11"/>
+      <c r="WL28" s="11"/>
+      <c r="WM28" s="11"/>
+      <c r="WN28" s="11"/>
+      <c r="WO28" s="11"/>
+      <c r="WP28" s="11"/>
+      <c r="WQ28" s="11"/>
+      <c r="WR28" s="11"/>
+      <c r="WS28" s="11"/>
+      <c r="WT28" s="11"/>
+      <c r="WU28" s="11"/>
+      <c r="WV28" s="11"/>
+      <c r="WW28" s="11"/>
+      <c r="WX28" s="11"/>
+      <c r="WY28" s="11"/>
+      <c r="WZ28" s="11"/>
+      <c r="XA28" s="11"/>
+      <c r="XB28" s="11"/>
+      <c r="XC28" s="11"/>
+      <c r="XD28" s="11"/>
+      <c r="XE28" s="11"/>
+      <c r="XF28" s="11"/>
+      <c r="XG28" s="11"/>
+      <c r="XH28" s="11"/>
+      <c r="XI28" s="11"/>
+      <c r="XJ28" s="11"/>
+      <c r="XK28" s="11"/>
+      <c r="XL28" s="11"/>
+      <c r="XM28" s="11"/>
+      <c r="XN28" s="11"/>
+      <c r="XO28" s="11"/>
+      <c r="XP28" s="11"/>
+      <c r="XQ28" s="11"/>
+      <c r="XR28" s="11"/>
+      <c r="XS28" s="11"/>
+      <c r="XT28" s="11"/>
+      <c r="XU28" s="11"/>
+      <c r="XV28" s="11"/>
+      <c r="XW28" s="11"/>
+      <c r="XX28" s="11"/>
+      <c r="XY28" s="11"/>
+      <c r="XZ28" s="11"/>
+      <c r="YA28" s="11"/>
+      <c r="YB28" s="11"/>
+      <c r="YC28" s="11"/>
+      <c r="YD28" s="11"/>
+      <c r="YE28" s="11"/>
+      <c r="YF28" s="11"/>
+      <c r="YG28" s="11"/>
+      <c r="YH28" s="11"/>
+      <c r="YI28" s="11"/>
+      <c r="YJ28" s="11"/>
+      <c r="YK28" s="11"/>
+      <c r="YL28" s="11"/>
+      <c r="YM28" s="11"/>
+      <c r="YN28" s="11"/>
+      <c r="YO28" s="11"/>
+      <c r="YP28" s="11"/>
+      <c r="YQ28" s="11"/>
+      <c r="YR28" s="11"/>
+      <c r="YS28" s="11"/>
+      <c r="YT28" s="11"/>
+      <c r="YU28" s="11"/>
+      <c r="YV28" s="11"/>
+      <c r="YW28" s="11"/>
+      <c r="YX28" s="11"/>
+      <c r="YY28" s="11"/>
+      <c r="YZ28" s="11"/>
+      <c r="ZA28" s="11"/>
+      <c r="ZB28" s="11"/>
+      <c r="ZC28" s="11"/>
+      <c r="ZD28" s="11"/>
+      <c r="ZE28" s="11"/>
+      <c r="ZF28" s="11"/>
+      <c r="ZG28" s="11"/>
+      <c r="ZH28" s="11"/>
+      <c r="ZI28" s="11"/>
+      <c r="ZJ28" s="11"/>
+      <c r="ZK28" s="11"/>
+      <c r="ZL28" s="11"/>
+      <c r="ZM28" s="11"/>
+      <c r="ZN28" s="11"/>
+      <c r="ZO28" s="11"/>
+      <c r="ZP28" s="11"/>
+      <c r="ZQ28" s="11"/>
+      <c r="ZR28" s="11"/>
+      <c r="ZS28" s="11"/>
+      <c r="ZT28" s="11"/>
+      <c r="ZU28" s="11"/>
+      <c r="ZV28" s="11"/>
+      <c r="ZW28" s="11"/>
+      <c r="ZX28" s="11"/>
+      <c r="ZY28" s="11"/>
+      <c r="ZZ28" s="11"/>
+      <c r="AAA28" s="11"/>
+      <c r="AAB28" s="11"/>
+      <c r="AAC28" s="11"/>
+      <c r="AAD28" s="11"/>
+      <c r="AAE28" s="11"/>
+      <c r="AAF28" s="11"/>
+      <c r="AAG28" s="11"/>
+      <c r="AAH28" s="11"/>
+      <c r="AAI28" s="11"/>
+      <c r="AAJ28" s="11"/>
+      <c r="AAK28" s="11"/>
+      <c r="AAL28" s="11"/>
+      <c r="AAM28" s="11"/>
+      <c r="AAN28" s="11"/>
+      <c r="AAO28" s="11"/>
+      <c r="AAP28" s="11"/>
+      <c r="AAQ28" s="11"/>
+      <c r="AAR28" s="11"/>
+      <c r="AAS28" s="11"/>
+      <c r="AAT28" s="11"/>
+      <c r="AAU28" s="11"/>
+      <c r="AAV28" s="11"/>
+      <c r="AAW28" s="11"/>
+      <c r="AAX28" s="11"/>
+      <c r="AAY28" s="11"/>
+      <c r="AAZ28" s="11"/>
+      <c r="ABA28" s="11"/>
+      <c r="ABB28" s="11"/>
+      <c r="ABC28" s="11"/>
+      <c r="ABD28" s="11"/>
+      <c r="ABE28" s="11"/>
+      <c r="ABF28" s="11"/>
+      <c r="ABG28" s="11"/>
+      <c r="ABH28" s="11"/>
+      <c r="ABI28" s="11"/>
+      <c r="ABJ28" s="11"/>
+      <c r="ABK28" s="11"/>
+      <c r="ABL28" s="11"/>
+      <c r="ABM28" s="11"/>
+      <c r="ABN28" s="11"/>
+      <c r="ABO28" s="11"/>
+      <c r="ABP28" s="11"/>
+      <c r="ABQ28" s="11"/>
+      <c r="ABR28" s="11"/>
+      <c r="ABS28" s="11"/>
+      <c r="ABT28" s="11"/>
+      <c r="ABU28" s="11"/>
+      <c r="ABV28" s="11"/>
+      <c r="ABW28" s="11"/>
+      <c r="ABX28" s="11"/>
+      <c r="ABY28" s="11"/>
+      <c r="ABZ28" s="11"/>
+      <c r="ACA28" s="11"/>
+      <c r="ACB28" s="11"/>
+      <c r="ACC28" s="11"/>
+      <c r="ACD28" s="11"/>
+      <c r="ACE28" s="11"/>
+      <c r="ACF28" s="11"/>
+      <c r="ACG28" s="11"/>
+      <c r="ACH28" s="11"/>
+      <c r="ACI28" s="11"/>
+      <c r="ACJ28" s="11"/>
+      <c r="ACK28" s="11"/>
+      <c r="ACL28" s="11"/>
+      <c r="ACM28" s="11"/>
+      <c r="ACN28" s="11"/>
+      <c r="ACO28" s="11"/>
+      <c r="ACP28" s="11"/>
+      <c r="ACQ28" s="11"/>
+      <c r="ACR28" s="11"/>
+      <c r="ACS28" s="11"/>
+      <c r="ACT28" s="11"/>
+      <c r="ACU28" s="11"/>
+      <c r="ACV28" s="11"/>
+      <c r="ACW28" s="11"/>
+      <c r="ACX28" s="11"/>
+      <c r="ACY28" s="11"/>
+      <c r="ACZ28" s="11"/>
+      <c r="ADA28" s="11"/>
+      <c r="ADB28" s="11"/>
+      <c r="ADC28" s="11"/>
+      <c r="ADD28" s="11"/>
+      <c r="ADE28" s="11"/>
+      <c r="ADF28" s="11"/>
+      <c r="ADG28" s="11"/>
+      <c r="ADH28" s="11"/>
+      <c r="ADI28" s="11"/>
+      <c r="ADJ28" s="11"/>
+      <c r="ADK28" s="11"/>
+      <c r="ADL28" s="11"/>
+      <c r="ADM28" s="11"/>
+      <c r="ADN28" s="11"/>
+      <c r="ADO28" s="11"/>
+      <c r="ADP28" s="11"/>
+      <c r="ADQ28" s="11"/>
+      <c r="ADR28" s="11"/>
+      <c r="ADS28" s="11"/>
+      <c r="ADT28" s="11"/>
+      <c r="ADU28" s="11"/>
+      <c r="ADV28" s="11"/>
+      <c r="ADW28" s="11"/>
+      <c r="ADX28" s="11"/>
+      <c r="ADY28" s="11"/>
+      <c r="ADZ28" s="11"/>
+      <c r="AEA28" s="11"/>
+      <c r="AEB28" s="11"/>
+      <c r="AEC28" s="11"/>
+      <c r="AED28" s="11"/>
+      <c r="AEE28" s="11"/>
+      <c r="AEF28" s="11"/>
+      <c r="AEG28" s="11"/>
+      <c r="AEH28" s="11"/>
+      <c r="AEI28" s="11"/>
+      <c r="AEJ28" s="11"/>
+      <c r="AEK28" s="11"/>
+      <c r="AEL28" s="11"/>
+      <c r="AEM28" s="11"/>
+      <c r="AEN28" s="11"/>
+      <c r="AEO28" s="11"/>
+      <c r="AEP28" s="11"/>
+      <c r="AEQ28" s="11"/>
+      <c r="AER28" s="11"/>
+      <c r="AES28" s="11"/>
+      <c r="AET28" s="11"/>
+      <c r="AEU28" s="11"/>
+      <c r="AEV28" s="11"/>
+      <c r="AEW28" s="11"/>
+      <c r="AEX28" s="11"/>
+      <c r="AEY28" s="11"/>
+      <c r="AEZ28" s="11"/>
+      <c r="AFA28" s="11"/>
+      <c r="AFB28" s="11"/>
+      <c r="AFC28" s="11"/>
+      <c r="AFD28" s="11"/>
+      <c r="AFE28" s="11"/>
+      <c r="AFF28" s="11"/>
+      <c r="AFG28" s="11"/>
+      <c r="AFH28" s="11"/>
+      <c r="AFI28" s="11"/>
+      <c r="AFJ28" s="11"/>
+      <c r="AFK28" s="11"/>
+      <c r="AFL28" s="11"/>
+      <c r="AFM28" s="11"/>
+      <c r="AFN28" s="11"/>
+      <c r="AFO28" s="11"/>
+      <c r="AFP28" s="11"/>
+      <c r="AFQ28" s="11"/>
+      <c r="AFR28" s="11"/>
+      <c r="AFS28" s="11"/>
+      <c r="AFT28" s="11"/>
+      <c r="AFU28" s="11"/>
+      <c r="AFV28" s="11"/>
+      <c r="AFW28" s="11"/>
+      <c r="AFX28" s="11"/>
+      <c r="AFY28" s="11"/>
+      <c r="AFZ28" s="11"/>
+      <c r="AGA28" s="11"/>
+      <c r="AGB28" s="11"/>
+      <c r="AGC28" s="11"/>
+      <c r="AGD28" s="11"/>
+      <c r="AGE28" s="11"/>
+      <c r="AGF28" s="11"/>
+      <c r="AGG28" s="11"/>
+      <c r="AGH28" s="11"/>
+      <c r="AGI28" s="11"/>
+      <c r="AGJ28" s="11"/>
+      <c r="AGK28" s="11"/>
+      <c r="AGL28" s="11"/>
+      <c r="AGM28" s="11"/>
+      <c r="AGN28" s="11"/>
+      <c r="AGO28" s="11"/>
+      <c r="AGP28" s="11"/>
+      <c r="AGQ28" s="11"/>
+      <c r="AGR28" s="11"/>
+      <c r="AGS28" s="11"/>
+      <c r="AGT28" s="11"/>
+      <c r="AGU28" s="11"/>
+      <c r="AGV28" s="11"/>
+      <c r="AGW28" s="11"/>
+      <c r="AGX28" s="11"/>
+      <c r="AGY28" s="11"/>
+      <c r="AGZ28" s="11"/>
+      <c r="AHA28" s="11"/>
+      <c r="AHB28" s="11"/>
+      <c r="AHC28" s="11"/>
+      <c r="AHD28" s="11"/>
+      <c r="AHE28" s="11"/>
+      <c r="AHF28" s="11"/>
+      <c r="AHG28" s="11"/>
+      <c r="AHH28" s="11"/>
+      <c r="AHI28" s="11"/>
+      <c r="AHJ28" s="11"/>
+      <c r="AHK28" s="11"/>
+      <c r="AHL28" s="11"/>
+      <c r="AHM28" s="11"/>
+      <c r="AHN28" s="11"/>
+      <c r="AHO28" s="11"/>
+      <c r="AHP28" s="11"/>
+      <c r="AHQ28" s="11"/>
+      <c r="AHR28" s="11"/>
+      <c r="AHS28" s="11"/>
+      <c r="AHT28" s="11"/>
+      <c r="AHU28" s="11"/>
+      <c r="AHV28" s="11"/>
+      <c r="AHW28" s="11"/>
+      <c r="AHX28" s="11"/>
+      <c r="AHY28" s="11"/>
+      <c r="AHZ28" s="11"/>
+      <c r="AIA28" s="11"/>
+      <c r="AIB28" s="11"/>
+      <c r="AIC28" s="11"/>
+      <c r="AID28" s="11"/>
+      <c r="AIE28" s="11"/>
+      <c r="AIF28" s="11"/>
+      <c r="AIG28" s="11"/>
+      <c r="AIH28" s="11"/>
+      <c r="AII28" s="11"/>
+      <c r="AIJ28" s="11"/>
+      <c r="AIK28" s="11"/>
+      <c r="AIL28" s="11"/>
+      <c r="AIM28" s="11"/>
+      <c r="AIN28" s="11"/>
+      <c r="AIO28" s="11"/>
+      <c r="AIP28" s="11"/>
+      <c r="AIQ28" s="11"/>
+      <c r="AIR28" s="11"/>
+      <c r="AIS28" s="11"/>
+      <c r="AIT28" s="11"/>
+      <c r="AIU28" s="11"/>
+      <c r="AIV28" s="11"/>
+      <c r="AIW28" s="11"/>
+      <c r="AIX28" s="11"/>
+      <c r="AIY28" s="11"/>
+      <c r="AIZ28" s="11"/>
+      <c r="AJA28" s="11"/>
+      <c r="AJB28" s="11"/>
+      <c r="AJC28" s="11"/>
+      <c r="AJD28" s="11"/>
+      <c r="AJE28" s="11"/>
+      <c r="AJF28" s="11"/>
+      <c r="AJG28" s="11"/>
+      <c r="AJH28" s="11"/>
+      <c r="AJI28" s="11"/>
+      <c r="AJJ28" s="11"/>
+      <c r="AJK28" s="11"/>
+      <c r="AJL28" s="11"/>
+      <c r="AJM28" s="11"/>
+      <c r="AJN28" s="11"/>
+      <c r="AJO28" s="11"/>
+      <c r="AJP28" s="11"/>
+      <c r="AJQ28" s="11"/>
+      <c r="AJR28" s="11"/>
+      <c r="AJS28" s="11"/>
+      <c r="AJT28" s="11"/>
+      <c r="AJU28" s="11"/>
+      <c r="AJV28" s="11"/>
+      <c r="AJW28" s="11"/>
+      <c r="AJX28" s="11"/>
+      <c r="AJY28" s="11"/>
+      <c r="AJZ28" s="11"/>
+      <c r="AKA28" s="11"/>
+      <c r="AKB28" s="11"/>
+      <c r="AKC28" s="11"/>
+      <c r="AKD28" s="11"/>
+      <c r="AKE28" s="11"/>
+      <c r="AKF28" s="11"/>
+      <c r="AKG28" s="11"/>
+      <c r="AKH28" s="11"/>
+      <c r="AKI28" s="11"/>
+      <c r="AKJ28" s="11"/>
+      <c r="AKK28" s="11"/>
+      <c r="AKL28" s="11"/>
+      <c r="AKM28" s="11"/>
+      <c r="AKN28" s="11"/>
+      <c r="AKO28" s="11"/>
+      <c r="AKP28" s="11"/>
+      <c r="AKQ28" s="11"/>
+      <c r="AKR28" s="11"/>
+      <c r="AKS28" s="11"/>
+      <c r="AKT28" s="11"/>
+      <c r="AKU28" s="11"/>
+      <c r="AKV28" s="11"/>
+      <c r="AKW28" s="11"/>
+      <c r="AKX28" s="11"/>
+      <c r="AKY28" s="11"/>
+      <c r="AKZ28" s="11"/>
+      <c r="ALA28" s="11"/>
+      <c r="ALB28" s="11"/>
+      <c r="ALC28" s="11"/>
+      <c r="ALD28" s="11"/>
+      <c r="ALE28" s="11"/>
+      <c r="ALF28" s="11"/>
+      <c r="ALG28" s="11"/>
+      <c r="ALH28" s="11"/>
+      <c r="ALI28" s="11"/>
+      <c r="ALJ28" s="11"/>
+      <c r="ALK28" s="11"/>
+      <c r="ALL28" s="11"/>
+      <c r="ALM28" s="11"/>
+      <c r="ALN28" s="11"/>
+      <c r="ALO28" s="11"/>
+      <c r="ALP28" s="11"/>
+      <c r="ALQ28" s="11"/>
+      <c r="ALR28" s="11"/>
+      <c r="ALS28" s="11"/>
+      <c r="ALT28" s="11"/>
+      <c r="ALU28" s="11"/>
+      <c r="ALV28" s="11"/>
+      <c r="ALW28" s="11"/>
+      <c r="ALX28" s="11"/>
+      <c r="ALY28" s="11"/>
+      <c r="ALZ28" s="11"/>
+      <c r="AMA28" s="11"/>
+      <c r="AMB28" s="11"/>
+      <c r="AMC28" s="11"/>
+      <c r="AMD28" s="11"/>
+      <c r="AME28" s="11"/>
+      <c r="AMF28" s="11"/>
+      <c r="AMG28" s="11"/>
+      <c r="AMH28" s="11"/>
+      <c r="AMI28" s="11"/>
+      <c r="AMJ28" s="11"/>
+      <c r="AMK28" s="11"/>
+      <c r="AML28" s="11"/>
     </row>
     <row r="29" spans="1:1026" ht="30">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
@@ -9091,24 +9126,24 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:1026">
+    <row r="30" spans="1:1026" ht="30">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
@@ -9123,16 +9158,19 @@
     </row>
     <row r="31" spans="1:1026">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
@@ -9142,24 +9180,21 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:1026" ht="75">
+    <row r="32" spans="1:1026">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
@@ -9169,27 +9204,24 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>361</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30">
+    <row r="33" spans="1:13" ht="75">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>16</v>
@@ -9198,125 +9230,134 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="30">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K35" s="1">
         <v>990399123</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30">
-      <c r="A36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E37"/>
       <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="2">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
@@ -9325,24 +9366,20 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="39" spans="1:13" ht="30">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39"/>
+        <v>169</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
@@ -9350,43 +9387,44 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="30">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>179</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="30">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>16</v>
@@ -9396,77 +9434,74 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="45">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:13" ht="45">
+      <c r="A43" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G42" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="G43" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>190</v>
-      </c>
     </row>
-    <row r="44" spans="1:13" ht="30">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E44"/>
       <c r="F44" s="1" t="s">
         <v>179</v>
       </c>
@@ -9474,68 +9509,73 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I44" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="30">
       <c r="A45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30">
+      <c r="A46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="2" t="b">
+      <c r="G46" s="2" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="2">
-        <f>0</f>
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
@@ -9548,16 +9588,16 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="1" t="s">
@@ -9570,16 +9610,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
@@ -9592,16 +9632,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="1" t="s">
@@ -9614,16 +9654,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E51"/>
       <c r="F51" s="1" t="s">
@@ -9636,17 +9676,18 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E52"/>
       <c r="F52" s="1" t="s">
         <v>153</v>
       </c>
@@ -9657,18 +9698,17 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53"/>
+        <v>222</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>153</v>
       </c>
@@ -9679,16 +9719,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="1" t="s">
@@ -9701,16 +9741,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="1" t="s">
@@ -9722,17 +9762,17 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="9" t="s">
-        <v>234</v>
+      <c r="A56" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="1" t="s">
@@ -9745,16 +9785,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="1" t="s">
@@ -9767,16 +9807,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="1" t="s">
@@ -9789,16 +9829,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="1" t="s">
@@ -9811,16 +9851,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="1" t="s">
@@ -9833,16 +9873,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="1" t="s">
@@ -9855,16 +9895,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="1" t="s">
@@ -9877,16 +9917,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="1" t="s">
@@ -9899,16 +9939,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="1" t="s">
@@ -9921,16 +9961,16 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="1" t="s">
@@ -9941,18 +9981,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30">
+    <row r="66" spans="1:13">
       <c r="A66" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="1" t="s">
@@ -9963,18 +10003,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="30">
       <c r="A67" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="1" t="s">
@@ -9987,16 +10027,16 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="1" t="s">
@@ -10009,16 +10049,16 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="1" t="s">
@@ -10031,16 +10071,16 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="1" t="s">
@@ -10053,16 +10093,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="1" t="s">
@@ -10075,16 +10115,16 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="1" t="s">
@@ -10097,16 +10137,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="1" t="s">
@@ -10119,16 +10159,16 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="1" t="s">
@@ -10141,17 +10181,18 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>311</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E75"/>
       <c r="F75" s="1" t="s">
         <v>153</v>
       </c>
@@ -10162,18 +10203,17 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E76"/>
+        <v>311</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>153</v>
       </c>
@@ -10182,18 +10222,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30">
+    <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E77"/>
       <c r="F77" s="1" t="s">
@@ -10204,93 +10244,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1" t="s">
-        <v>320</v>
+    <row r="78" spans="1:13" ht="30">
+      <c r="A78" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E78"/>
       <c r="F78" s="1" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="G78" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>324</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G79" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G79" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="30">
-      <c r="A80" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G80" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>333</v>
-      </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" ht="30">
       <c r="A81" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>87</v>
@@ -10299,33 +10337,60 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="I81" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" ht="30">
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G82" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:13" ht="30">
+      <c r="A83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>340</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M82">
+  <autoFilter ref="A1:M83">
     <filterColumn colId="11"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
@@ -1637,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1668,9 +1668,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1976,28 +1973,28 @@
   <dimension ref="A1:AML83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="67.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" style="1" customWidth="1"/>
-    <col min="14" max="1026" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="67.86328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.1328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.73046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.1328125" style="1" customWidth="1"/>
+    <col min="14" max="1026" width="14.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" s="4" customFormat="1">
@@ -2041,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" ht="105">
+    <row r="2" spans="1:1026" ht="85.5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2060,8 +2057,8 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
-        <f>0</f>
+      <c r="G2" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2080,7 +2077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1026" ht="45">
+    <row r="3" spans="1:1026" ht="42.75">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2099,8 +2096,8 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2">
-        <f>0</f>
+      <c r="G3" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2116,7 +2113,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:1026" ht="30">
+    <row r="4" spans="1:1026" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2135,8 +2132,8 @@
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2">
-        <f>0</f>
+      <c r="G4" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2152,7 +2149,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:1026" ht="135">
+    <row r="5" spans="1:1026" ht="99.75">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2171,8 +2168,8 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
-        <f>0</f>
+      <c r="G5" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -2191,7 +2188,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:1026" ht="90">
+    <row r="6" spans="1:1026" ht="71.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2210,8 +2207,8 @@
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2">
-        <f>0</f>
+      <c r="G6" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2230,7 +2227,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:1026" ht="30">
+    <row r="7" spans="1:1026" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2249,8 +2246,8 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2">
-        <f>0</f>
+      <c r="G7" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2269,7 +2266,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:1026" ht="180">
+    <row r="8" spans="1:1026" ht="142.5">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2285,8 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2">
-        <f>0</f>
+      <c r="G8" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2302,7 +2299,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:1026" ht="180">
+    <row r="9" spans="1:1026" ht="171">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2321,8 +2318,8 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2">
-        <f>0</f>
+      <c r="G9" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2338,7 +2335,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:1026" ht="195">
+    <row r="10" spans="1:1026" ht="156.75">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2354,8 @@
       <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="2">
-        <f>0</f>
+      <c r="G10" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2374,7 +2371,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:1026" s="14" customFormat="1" ht="45">
+    <row r="11" spans="1:1026" s="13" customFormat="1" ht="28.5">
       <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
@@ -2393,19 +2390,19 @@
       <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="12">
-        <f>0</f>
+      <c r="G11" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="11" t="s">
         <v>391</v>
       </c>
@@ -3423,7 +3420,7 @@
       <c r="AMK11" s="11"/>
       <c r="AML11" s="11"/>
     </row>
-    <row r="12" spans="1:1026" s="14" customFormat="1" ht="30">
+    <row r="12" spans="1:1026" s="13" customFormat="1" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
@@ -3442,19 +3439,19 @@
       <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12">
-        <f>0</f>
+      <c r="G12" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="11" t="s">
         <v>393</v>
       </c>
@@ -4472,7 +4469,7 @@
       <c r="AMK12" s="11"/>
       <c r="AML12" s="11"/>
     </row>
-    <row r="13" spans="1:1026" s="14" customFormat="1">
+    <row r="13" spans="1:1026" s="13" customFormat="1">
       <c r="A13" s="11" t="s">
         <v>72</v>
       </c>
@@ -4491,19 +4488,19 @@
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="12">
-        <f>0</f>
+      <c r="G13" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="11" t="s">
         <v>393</v>
       </c>
@@ -5521,7 +5518,7 @@
       <c r="AMK13" s="11"/>
       <c r="AML13" s="11"/>
     </row>
-    <row r="14" spans="1:1026" ht="165">
+    <row r="14" spans="1:1026" ht="156.75">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -5540,8 +5537,8 @@
       <c r="F14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="2">
-        <f>0</f>
+      <c r="G14" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -5560,7 +5557,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:1026" ht="150">
+    <row r="15" spans="1:1026" ht="142.5">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:1026" s="14" customFormat="1">
+    <row r="16" spans="1:1026" s="13" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>84</v>
       </c>
@@ -5615,19 +5612,19 @@
       <c r="F16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="12">
-        <f>0</f>
+      <c r="G16" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>400</v>
       </c>
       <c r="K16" s="11"/>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>404</v>
       </c>
       <c r="M16" s="11"/>
@@ -6645,7 +6642,7 @@
       <c r="AMK16" s="11"/>
       <c r="AML16" s="11"/>
     </row>
-    <row r="17" spans="1:1026" ht="135">
+    <row r="17" spans="1:1026" ht="114">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -6664,8 +6661,8 @@
       <c r="F17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="2">
-        <f>0</f>
+      <c r="G17" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -6684,7 +6681,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:1026" ht="165">
+    <row r="18" spans="1:1026" ht="156.75">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -6703,8 +6700,8 @@
       <c r="F18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="2">
-        <f>0</f>
+      <c r="G18" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -6716,14 +6713,14 @@
       <c r="K18" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="14" t="s">
         <v>410</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:1026" ht="60">
+    <row r="19" spans="1:1026" ht="57">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -6742,8 +6739,8 @@
       <c r="F19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="2">
-        <f>0</f>
+      <c r="G19" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -6759,7 +6756,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:1026" s="14" customFormat="1" ht="45">
+    <row r="20" spans="1:1026" s="13" customFormat="1" ht="42.75">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -6778,19 +6775,19 @@
       <c r="F20" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="12">
-        <f>0</f>
+      <c r="G20" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K20" s="11"/>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="12" t="s">
         <v>413</v>
       </c>
       <c r="M20" s="11"/>
@@ -7808,7 +7805,7 @@
       <c r="AMK20" s="11"/>
       <c r="AML20" s="11"/>
     </row>
-    <row r="21" spans="1:1026" ht="75">
+    <row r="21" spans="1:1026" ht="71.25">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -7827,8 +7824,8 @@
       <c r="F21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="2">
-        <f>0</f>
+      <c r="G21" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -7844,7 +7841,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:1026" ht="90">
+    <row r="22" spans="1:1026" ht="85.5">
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
@@ -7863,8 +7860,8 @@
       <c r="F22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="2">
-        <f>0</f>
+      <c r="G22" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -7877,7 +7874,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:1026" ht="30">
+    <row r="23" spans="1:1026" ht="28.5">
       <c r="A23" s="1" t="s">
         <v>351</v>
       </c>
@@ -7943,7 +7940,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:1026" ht="75">
+    <row r="25" spans="1:1026" ht="71.25">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -7979,7 +7976,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:1026" ht="30">
+    <row r="26" spans="1:1026" ht="28.5">
       <c r="A26" s="1" t="s">
         <v>433</v>
       </c>
@@ -8016,7 +8013,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:1026" ht="45">
+    <row r="27" spans="1:1026" ht="42.75">
       <c r="A27" s="1" t="s">
         <v>435</v>
       </c>
@@ -8053,7 +8050,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:1026" s="14" customFormat="1" ht="30">
+    <row r="28" spans="1:1026" s="13" customFormat="1">
       <c r="A28" s="11" t="s">
         <v>126</v>
       </c>
@@ -8072,19 +8069,19 @@
       <c r="F28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="12">
-        <f>0</f>
+      <c r="G28" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K28" s="11"/>
-      <c r="L28" s="13"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="11" t="s">
         <v>426</v>
       </c>
@@ -9102,7 +9099,7 @@
       <c r="AMK28" s="11"/>
       <c r="AML28" s="11"/>
     </row>
-    <row r="29" spans="1:1026" ht="30">
+    <row r="29" spans="1:1026" ht="28.5">
       <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
@@ -9121,15 +9118,15 @@
       <c r="F29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="2">
-        <f>0</f>
+      <c r="G29" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:1026" ht="30">
+    <row r="30" spans="1:1026" ht="28.5">
       <c r="A30" s="1" t="s">
         <v>134</v>
       </c>
@@ -9148,8 +9145,8 @@
       <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="2">
-        <f>0</f>
+      <c r="G30" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -9175,8 +9172,8 @@
       <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="2">
-        <f>0</f>
+      <c r="G31" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -9199,15 +9196,15 @@
       <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="2">
-        <f>0</f>
+      <c r="G32" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="75">
+    <row r="33" spans="1:13" ht="71.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -9226,8 +9223,8 @@
       <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="2">
-        <f>0</f>
+      <c r="G33" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -9237,7 +9234,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
@@ -9256,12 +9253,12 @@
       <c r="F34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="2">
-        <f>0</f>
+      <c r="G34" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30">
+    <row r="35" spans="1:13" ht="28.5">
       <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
@@ -9280,8 +9277,8 @@
       <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="2">
-        <f>1</f>
+      <c r="G35" s="2" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -9307,15 +9304,15 @@
       <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="2">
-        <f>0</f>
+      <c r="G36" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -9332,8 +9329,8 @@
       <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="2">
-        <f>1</f>
+      <c r="G37" s="2" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -9343,7 +9340,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
@@ -9362,12 +9359,12 @@
       <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="2">
-        <f>0</f>
+      <c r="G38" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30">
+    <row r="39" spans="1:13" ht="28.5">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -9383,15 +9380,15 @@
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="2">
-        <f>0</f>
+      <c r="G39" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30">
+    <row r="40" spans="1:13" ht="28.5">
       <c r="A40" s="1" t="s">
         <v>172</v>
       </c>
@@ -9408,12 +9405,12 @@
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="2">
-        <f>0</f>
+      <c r="G40" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30">
+    <row r="41" spans="1:13" ht="28.5">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -9429,8 +9426,8 @@
       <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="2">
-        <f>1</f>
+      <c r="G41" s="2" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -9453,8 +9450,8 @@
       <c r="F42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="2">
-        <f>1</f>
+      <c r="G42" s="2" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -9464,7 +9461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45">
+    <row r="43" spans="1:13" ht="42.75">
       <c r="A43" s="1" t="s">
         <v>184</v>
       </c>
@@ -9483,8 +9480,8 @@
       <c r="F43" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="2">
-        <f>0</f>
+      <c r="G43" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9505,15 +9502,15 @@
       <c r="F44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="2">
-        <f>0</f>
+      <c r="G44" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30">
+    <row r="45" spans="1:13" ht="28.5">
       <c r="A45" s="1" t="s">
         <v>191</v>
       </c>
@@ -9532,12 +9529,12 @@
       <c r="F45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="2">
-        <f>0</f>
+      <c r="G45" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>194</v>
       </c>
@@ -9581,8 +9578,8 @@
       <c r="F47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="2">
-        <f>0</f>
+      <c r="G47" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9603,8 +9600,8 @@
       <c r="F48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="2">
-        <f>0</f>
+      <c r="G48" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9625,8 +9622,8 @@
       <c r="F49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="2">
-        <f>0</f>
+      <c r="G49" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9647,8 +9644,8 @@
       <c r="F50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G50" s="2">
-        <f>0</f>
+      <c r="G50" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9669,8 +9666,8 @@
       <c r="F51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="2">
-        <f>0</f>
+      <c r="G51" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9691,8 +9688,8 @@
       <c r="F52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="2">
-        <f>0</f>
+      <c r="G52" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9712,8 +9709,8 @@
       <c r="F53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G53" s="2">
-        <f>0</f>
+      <c r="G53" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9734,8 +9731,8 @@
       <c r="F54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="2">
-        <f>0</f>
+      <c r="G54" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9756,8 +9753,8 @@
       <c r="F55" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G55" s="2">
-        <f>0</f>
+      <c r="G55" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9778,8 +9775,8 @@
       <c r="F56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="2">
-        <f>0</f>
+      <c r="G56" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9800,8 +9797,8 @@
       <c r="F57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G57" s="2">
-        <f>0</f>
+      <c r="G57" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9822,8 +9819,8 @@
       <c r="F58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G58" s="2">
-        <f>0</f>
+      <c r="G58" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9844,8 +9841,8 @@
       <c r="F59" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G59" s="2">
-        <f>0</f>
+      <c r="G59" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9866,8 +9863,8 @@
       <c r="F60" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="2">
-        <f>0</f>
+      <c r="G60" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9888,8 +9885,8 @@
       <c r="F61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="2">
-        <f>0</f>
+      <c r="G61" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9910,8 +9907,8 @@
       <c r="F62" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G62" s="2">
-        <f>0</f>
+      <c r="G62" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9932,8 +9929,8 @@
       <c r="F63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="2">
-        <f>0</f>
+      <c r="G63" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9954,8 +9951,8 @@
       <c r="F64" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G64" s="2">
-        <f>0</f>
+      <c r="G64" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9976,8 +9973,8 @@
       <c r="F65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G65" s="2">
-        <f>0</f>
+      <c r="G65" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -9998,12 +9995,12 @@
       <c r="F66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G66" s="2">
-        <f>0</f>
+      <c r="G66" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="28.5">
       <c r="A67" s="9" t="s">
         <v>273</v>
       </c>
@@ -10020,8 +10017,8 @@
       <c r="F67" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G67" s="2">
-        <f>0</f>
+      <c r="G67" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10042,8 +10039,8 @@
       <c r="F68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="2">
-        <f>0</f>
+      <c r="G68" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10064,8 +10061,8 @@
       <c r="F69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G69" s="2">
-        <f>0</f>
+      <c r="G69" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10086,8 +10083,8 @@
       <c r="F70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G70" s="2">
-        <f>0</f>
+      <c r="G70" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10108,8 +10105,8 @@
       <c r="F71" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G71" s="2">
-        <f>0</f>
+      <c r="G71" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10130,8 +10127,8 @@
       <c r="F72" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G72" s="2">
-        <f>0</f>
+      <c r="G72" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10152,8 +10149,8 @@
       <c r="F73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G73" s="2">
-        <f>0</f>
+      <c r="G73" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10174,8 +10171,8 @@
       <c r="F74" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G74" s="2">
-        <f>0</f>
+      <c r="G74" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10196,8 +10193,8 @@
       <c r="F75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G75" s="2">
-        <f>0</f>
+      <c r="G75" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10217,8 +10214,8 @@
       <c r="F76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G76" s="2">
-        <f>0</f>
+      <c r="G76" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10239,12 +10236,12 @@
       <c r="F77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G77" s="2">
-        <f>0</f>
+      <c r="G77" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13">
       <c r="A78" s="9" t="s">
         <v>316</v>
       </c>
@@ -10261,8 +10258,8 @@
       <c r="F78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G78" s="2">
-        <f>0</f>
+      <c r="G78" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -10282,8 +10279,8 @@
       <c r="F79" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G79" s="2">
-        <f>1</f>
+      <c r="G79" s="2" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -10309,12 +10306,12 @@
       <c r="F80" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G80" s="2">
-        <f>0</f>
+      <c r="G80" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30">
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>329</v>
       </c>
@@ -10333,8 +10330,8 @@
       <c r="F81" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G81" s="2">
-        <f>0</f>
+      <c r="G81" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
@@ -10357,12 +10354,12 @@
       <c r="F82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G82" s="2">
-        <f>0</f>
+      <c r="G82" s="2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30">
+    <row r="83" spans="1:13" ht="28.5">
       <c r="A83" s="1" t="s">
         <v>337</v>
       </c>
@@ -10395,6 +10392,10 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <ignoredErrors>
+    <ignoredError sqref="G79" formula="1"/>
+    <ignoredError sqref="F79" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v6 draft.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="465">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1601,9 +1601,6 @@
     <t>RegEx: [A-Z]{2}[A-Z0-9]{,20}</t>
   </si>
   <si>
-    <t>Proposed to undeprecate; longest known is 18 chars (incl. country code)</t>
-  </si>
-  <si>
     <t>Proposed to deprecate</t>
   </si>
   <si>
@@ -1637,6 +1634,10 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Proposed to undeprecate; longest known is 18 chars (incl. country code)
+Deprecated in 1.1.0; undeprecated in v6</t>
   </si>
 </sst>
 </file>
@@ -2070,10 +2071,10 @@
   <dimension ref="A1:AML83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -2431,7 +2432,7 @@
         <v>384</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -11335,8 +11336,11 @@
         <v>16</v>
       </c>
       <c r="G32" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>143</v>
@@ -12479,36 +12483,37 @@
         <v>16</v>
       </c>
       <c r="G36" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1026" s="13" customFormat="1" ht="72.5">
+      <c r="A37" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1026" s="13" customFormat="1" ht="43.5">
-      <c r="A37" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="16" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="H37" s="11"/>
       <c r="I37" s="12" t="s">
         <v>161</v>
       </c>
@@ -12518,7 +12523,7 @@
         <v>453</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -13563,7 +13568,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="12"/>
       <c r="M38" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -14596,8 +14601,11 @@
         <v>16</v>
       </c>
       <c r="G39" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>170</v>
@@ -14625,13 +14633,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:1026" s="13" customFormat="1" ht="29">
@@ -16752,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:1026" s="13" customFormat="1">
@@ -16783,7 +16791,7 @@
       <c r="K44" s="11"/>
       <c r="L44" s="12"/>
       <c r="M44" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
@@ -17819,8 +17827,11 @@
         <v>178</v>
       </c>
       <c r="G45" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:1026" s="13" customFormat="1" ht="29">
@@ -18888,8 +18899,11 @@
         <v>152</v>
       </c>
       <c r="G47" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:1026">
@@ -18910,11 +18924,14 @@
         <v>152</v>
       </c>
       <c r="G48" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
         <v>203</v>
       </c>
@@ -18932,11 +18949,14 @@
         <v>152</v>
       </c>
       <c r="G49" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
         <v>207</v>
       </c>
@@ -18954,11 +18974,14 @@
         <v>152</v>
       </c>
       <c r="G50" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
         <v>210</v>
       </c>
@@ -18976,11 +18999,14 @@
         <v>152</v>
       </c>
       <c r="G51" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
         <v>214</v>
       </c>
@@ -18998,11 +19024,14 @@
         <v>152</v>
       </c>
       <c r="G52" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
         <v>218</v>
       </c>
@@ -19019,11 +19048,14 @@
         <v>152</v>
       </c>
       <c r="G53" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
         <v>222</v>
       </c>
@@ -19041,11 +19073,14 @@
         <v>152</v>
       </c>
       <c r="G54" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
         <v>226</v>
       </c>
@@ -19063,11 +19098,14 @@
         <v>152</v>
       </c>
       <c r="G55" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
         <v>230</v>
       </c>
@@ -19085,11 +19123,14 @@
         <v>152</v>
       </c>
       <c r="G56" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="9" t="s">
         <v>233</v>
       </c>
@@ -19107,11 +19148,14 @@
         <v>152</v>
       </c>
       <c r="G57" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>237</v>
       </c>
@@ -19129,11 +19173,14 @@
         <v>152</v>
       </c>
       <c r="G58" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>241</v>
       </c>
@@ -19151,11 +19198,14 @@
         <v>152</v>
       </c>
       <c r="G59" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
         <v>245</v>
       </c>
@@ -19173,11 +19223,14 @@
         <v>152</v>
       </c>
       <c r="G60" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
         <v>249</v>
       </c>
@@ -19195,11 +19248,14 @@
         <v>152</v>
       </c>
       <c r="G61" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
         <v>253</v>
       </c>
@@ -19217,11 +19273,14 @@
         <v>152</v>
       </c>
       <c r="G62" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
         <v>256</v>
       </c>
@@ -19239,11 +19298,14 @@
         <v>152</v>
       </c>
       <c r="G63" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
         <v>260</v>
       </c>
@@ -19261,8 +19323,11 @@
         <v>152</v>
       </c>
       <c r="G64" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:1026">
@@ -19283,8 +19348,11 @@
         <v>152</v>
       </c>
       <c r="G65" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:1026">
@@ -19305,8 +19373,11 @@
         <v>152</v>
       </c>
       <c r="G66" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:1026" ht="29">
@@ -19327,8 +19398,11 @@
         <v>152</v>
       </c>
       <c r="G67" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:1026">
@@ -19349,8 +19423,11 @@
         <v>152</v>
       </c>
       <c r="G68" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:1026">
@@ -19371,8 +19448,11 @@
         <v>152</v>
       </c>
       <c r="G69" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:1026">
@@ -19393,8 +19473,11 @@
         <v>152</v>
       </c>
       <c r="G70" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:1026">
@@ -19415,8 +19498,11 @@
         <v>152</v>
       </c>
       <c r="G71" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:1026">
@@ -19437,8 +19523,11 @@
         <v>152</v>
       </c>
       <c r="G72" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:1026">
@@ -19459,8 +19548,11 @@
         <v>152</v>
       </c>
       <c r="G73" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:1026">
@@ -19481,8 +19573,11 @@
         <v>152</v>
       </c>
       <c r="G74" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:1026">
@@ -19503,8 +19598,11 @@
         <v>152</v>
       </c>
       <c r="G75" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:1026">
@@ -19524,8 +19622,11 @@
         <v>152</v>
       </c>
       <c r="G76" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:1026">
@@ -19546,8 +19647,11 @@
         <v>152</v>
       </c>
       <c r="G77" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:1026">
@@ -19568,8 +19672,11 @@
         <v>152</v>
       </c>
       <c r="G78" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:1026" s="13" customFormat="1">
@@ -20634,8 +20741,11 @@
         <v>327</v>
       </c>
       <c r="G80" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:1026" ht="58">
@@ -20665,10 +20775,10 @@
         <v>332</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:1026">
@@ -20688,8 +20798,11 @@
         <v>87</v>
       </c>
       <c r="G82" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:1026" s="13" customFormat="1">
@@ -20721,7 +20834,7 @@
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
       <c r="M83" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
